--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cryst\OneDrive\デスクトップ\システム開発演習\000-要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFCD888-ECBD-4644-9AF5-1CDA5C94F596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B088FDAC-4019-40E8-BF56-AF778D745796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="2820" windowWidth="17304" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール (テンプレート)" sheetId="13" r:id="rId1"/>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="50">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -456,6 +454,30 @@
     <rPh sb="4" eb="5">
       <t>ロク</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>検索画面</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>検索結果画面</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>詳細画面</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カート画面</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>購入画面</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>会員画面</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -563,7 +585,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="81">
+  <borders count="82">
     <border>
       <left/>
       <right/>
@@ -1569,11 +1591,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1749,6 +1786,108 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1758,6 +1897,258 @@
     <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1767,359 +2158,83 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2823,117 +2938,117 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN32"/>
+  <dimension ref="A1:BN44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AF45" sqref="AF45"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="3" customWidth="1"/>
-    <col min="7" max="30" width="3.125" style="3" customWidth="1"/>
-    <col min="31" max="66" width="3.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="3" customWidth="1"/>
+    <col min="7" max="30" width="3.109375" style="3" customWidth="1"/>
+    <col min="31" max="66" width="3.109375" style="1" customWidth="1"/>
     <col min="67" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="82" t="s">
+      <c r="D1" s="105"/>
+      <c r="E1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="61">
+      <c r="G1" s="95">
         <v>45536</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="61">
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="97"/>
+      <c r="AK1" s="95">
         <v>45566</v>
       </c>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="62"/>
-      <c r="BA1" s="62"/>
-      <c r="BB1" s="62"/>
-      <c r="BC1" s="62"/>
-      <c r="BD1" s="62"/>
-      <c r="BE1" s="62"/>
-      <c r="BF1" s="62"/>
-      <c r="BG1" s="62"/>
-      <c r="BH1" s="62"/>
-      <c r="BI1" s="62"/>
-      <c r="BJ1" s="62"/>
-      <c r="BK1" s="62"/>
-      <c r="BL1" s="62"/>
-      <c r="BM1" s="62"/>
-      <c r="BN1" s="63"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="96"/>
+      <c r="AO1" s="96"/>
+      <c r="AP1" s="96"/>
+      <c r="AQ1" s="96"/>
+      <c r="AR1" s="96"/>
+      <c r="AS1" s="96"/>
+      <c r="AT1" s="96"/>
+      <c r="AU1" s="96"/>
+      <c r="AV1" s="96"/>
+      <c r="AW1" s="96"/>
+      <c r="AX1" s="96"/>
+      <c r="AY1" s="96"/>
+      <c r="AZ1" s="96"/>
+      <c r="BA1" s="96"/>
+      <c r="BB1" s="96"/>
+      <c r="BC1" s="96"/>
+      <c r="BD1" s="96"/>
+      <c r="BE1" s="96"/>
+      <c r="BF1" s="96"/>
+      <c r="BG1" s="96"/>
+      <c r="BH1" s="96"/>
+      <c r="BI1" s="96"/>
+      <c r="BJ1" s="96"/>
+      <c r="BK1" s="96"/>
+      <c r="BL1" s="96"/>
+      <c r="BM1" s="96"/>
+      <c r="BN1" s="97"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="86"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="114"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3175,12 +3290,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="87"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="115"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3268,10 +3383,10 @@
       <c r="AI3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AJ3" s="160" t="s">
+      <c r="AJ3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="AK3" s="183" t="s">
+      <c r="AK3" s="93" t="s">
         <v>20</v>
       </c>
       <c r="AL3" s="57" t="s">
@@ -3280,19 +3395,19 @@
       <c r="AM3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="184" t="s">
+      <c r="AN3" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AO3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AP3" s="184" t="s">
+      <c r="AP3" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AQ3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AR3" s="184" t="s">
+      <c r="AR3" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AS3" s="57" t="s">
@@ -3301,19 +3416,19 @@
       <c r="AT3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AU3" s="184" t="s">
+      <c r="AU3" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AV3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AW3" s="184" t="s">
+      <c r="AW3" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AX3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AY3" s="184" t="s">
+      <c r="AY3" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AZ3" s="57" t="s">
@@ -3322,19 +3437,19 @@
       <c r="BA3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BB3" s="184" t="s">
+      <c r="BB3" s="94" t="s">
         <v>16</v>
       </c>
       <c r="BC3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="BD3" s="184" t="s">
+      <c r="BD3" s="94" t="s">
         <v>18</v>
       </c>
       <c r="BE3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="BF3" s="184" t="s">
+      <c r="BF3" s="94" t="s">
         <v>20</v>
       </c>
       <c r="BG3" s="57" t="s">
@@ -3343,43 +3458,43 @@
       <c r="BH3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BI3" s="184" t="s">
+      <c r="BI3" s="94" t="s">
         <v>16</v>
       </c>
       <c r="BJ3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="BK3" s="184" t="s">
+      <c r="BK3" s="94" t="s">
         <v>18</v>
       </c>
       <c r="BL3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="BM3" s="184" t="s">
+      <c r="BM3" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="BN3" s="160" t="s">
+      <c r="BN3" s="70" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="90">
+      <c r="A4" s="126">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="98"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="49"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
       <c r="L4" s="12"/>
       <c r="M4" s="18"/>
       <c r="N4" s="10"/>
@@ -3404,8 +3519,8 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="18"/>
       <c r="AI4" s="10"/>
-      <c r="AJ4" s="161"/>
-      <c r="AK4" s="172"/>
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="82"/>
       <c r="AL4" s="10"/>
       <c r="AM4" s="10"/>
       <c r="AN4" s="12"/>
@@ -3434,20 +3549,20 @@
       <c r="BK4" s="10"/>
       <c r="BL4" s="10"/>
       <c r="BM4" s="10"/>
-      <c r="BN4" s="161"/>
+      <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="91"/>
+      <c r="A5" s="117"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="99"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="134"/>
       <c r="G5" s="50"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="152"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
       <c r="L5" s="16"/>
       <c r="M5" s="22"/>
       <c r="N5" s="9"/>
@@ -3472,8 +3587,8 @@
       <c r="AG5" s="16"/>
       <c r="AH5" s="22"/>
       <c r="AI5" s="9"/>
-      <c r="AJ5" s="162"/>
-      <c r="AK5" s="173"/>
+      <c r="AJ5" s="72"/>
+      <c r="AK5" s="83"/>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
       <c r="AN5" s="16"/>
@@ -3502,31 +3617,31 @@
       <c r="BK5" s="9"/>
       <c r="BL5" s="9"/>
       <c r="BM5" s="9"/>
-      <c r="BN5" s="162"/>
+      <c r="BN5" s="72"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="108">
+      <c r="A6" s="116">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="115"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="124"/>
       <c r="G6" s="51"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="153"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="13"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="153"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="153"/>
-      <c r="Q6" s="153"/>
-      <c r="R6" s="153"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
       <c r="S6" s="13"/>
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
@@ -3544,8 +3659,8 @@
       <c r="AG6" s="13"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="7"/>
-      <c r="AJ6" s="163"/>
-      <c r="AK6" s="174"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="84"/>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="13"/>
@@ -3574,27 +3689,27 @@
       <c r="BK6" s="7"/>
       <c r="BL6" s="7"/>
       <c r="BM6" s="7"/>
-      <c r="BN6" s="163"/>
+      <c r="BN6" s="73"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="91"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="116"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="125"/>
       <c r="G7" s="52"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="154"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
       <c r="L7" s="25"/>
       <c r="M7" s="26"/>
-      <c r="N7" s="154"/>
-      <c r="O7" s="154"/>
-      <c r="P7" s="154"/>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="154"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
       <c r="S7" s="25"/>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
@@ -3612,8 +3727,8 @@
       <c r="AG7" s="25"/>
       <c r="AH7" s="26"/>
       <c r="AI7" s="24"/>
-      <c r="AJ7" s="164"/>
-      <c r="AK7" s="175"/>
+      <c r="AJ7" s="74"/>
+      <c r="AK7" s="85"/>
       <c r="AL7" s="24"/>
       <c r="AM7" s="24"/>
       <c r="AN7" s="25"/>
@@ -3642,33 +3757,33 @@
       <c r="BK7" s="24"/>
       <c r="BL7" s="24"/>
       <c r="BM7" s="24"/>
-      <c r="BN7" s="164"/>
+      <c r="BN7" s="74"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="117">
+      <c r="A8" s="185">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="124"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="208"/>
       <c r="G8" s="38"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
       <c r="L8" s="15"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="153"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155"/>
-      <c r="Q8" s="155"/>
-      <c r="R8" s="155"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
       <c r="S8" s="15"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
@@ -3686,8 +3801,8 @@
       <c r="AG8" s="15"/>
       <c r="AH8" s="21"/>
       <c r="AI8" s="6"/>
-      <c r="AJ8" s="165"/>
-      <c r="AK8" s="176"/>
+      <c r="AJ8" s="75"/>
+      <c r="AK8" s="86"/>
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
       <c r="AN8" s="15"/>
@@ -3716,241 +3831,231 @@
       <c r="BK8" s="6"/>
       <c r="BL8" s="6"/>
       <c r="BM8" s="6"/>
-      <c r="BN8" s="165"/>
+      <c r="BN8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="89"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="154"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="156"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="43"/>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="44"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="166"/>
-      <c r="AK9" s="177"/>
-      <c r="AL9" s="43"/>
-      <c r="AM9" s="43"/>
-      <c r="AN9" s="44"/>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="43"/>
-      <c r="AQ9" s="43"/>
-      <c r="AR9" s="43"/>
-      <c r="AS9" s="43"/>
-      <c r="AT9" s="43"/>
-      <c r="AU9" s="44"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="45"/>
-      <c r="AX9" s="43"/>
-      <c r="AY9" s="43"/>
-      <c r="AZ9" s="43"/>
-      <c r="BA9" s="43"/>
-      <c r="BB9" s="44"/>
-      <c r="BC9" s="45"/>
-      <c r="BD9" s="43"/>
-      <c r="BE9" s="43"/>
-      <c r="BF9" s="43"/>
-      <c r="BG9" s="43"/>
-      <c r="BH9" s="43"/>
-      <c r="BI9" s="44"/>
-      <c r="BJ9" s="45"/>
-      <c r="BK9" s="43"/>
-      <c r="BL9" s="43"/>
-      <c r="BM9" s="43"/>
-      <c r="BN9" s="166"/>
+      <c r="A9" s="186"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="209"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="73"/>
+      <c r="AK9" s="84"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="13"/>
+      <c r="BC9" s="19"/>
+      <c r="BD9" s="7"/>
+      <c r="BE9" s="7"/>
+      <c r="BF9" s="7"/>
+      <c r="BG9" s="7"/>
+      <c r="BH9" s="7"/>
+      <c r="BI9" s="13"/>
+      <c r="BJ9" s="19"/>
+      <c r="BK9" s="7"/>
+      <c r="BL9" s="7"/>
+      <c r="BM9" s="7"/>
+      <c r="BN9" s="73"/>
     </row>
-    <row r="10" spans="1:66" ht="12" customHeight="1">
-      <c r="A10" s="88">
-        <v>4</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="157"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="152"/>
-      <c r="R10" s="152"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="162"/>
-      <c r="AK10" s="173"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="22"/>
-      <c r="AP10" s="9"/>
-      <c r="AQ10" s="9"/>
-      <c r="AR10" s="9"/>
-      <c r="AS10" s="9"/>
-      <c r="AT10" s="9"/>
-      <c r="AU10" s="16"/>
-      <c r="AV10" s="22"/>
-      <c r="AW10" s="22"/>
-      <c r="AX10" s="9"/>
-      <c r="AY10" s="9"/>
-      <c r="AZ10" s="9"/>
-      <c r="BA10" s="9"/>
-      <c r="BB10" s="16"/>
-      <c r="BC10" s="22"/>
-      <c r="BD10" s="9"/>
-      <c r="BE10" s="9"/>
-      <c r="BF10" s="9"/>
-      <c r="BG10" s="9"/>
-      <c r="BH10" s="9"/>
-      <c r="BI10" s="16"/>
-      <c r="BJ10" s="22"/>
-      <c r="BK10" s="9"/>
-      <c r="BL10" s="9"/>
-      <c r="BM10" s="9"/>
-      <c r="BN10" s="162"/>
+    <row r="10" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A10" s="186"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="210"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="73"/>
+      <c r="AK10" s="84"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="13"/>
+      <c r="BC10" s="19"/>
+      <c r="BD10" s="7"/>
+      <c r="BE10" s="7"/>
+      <c r="BF10" s="7"/>
+      <c r="BG10" s="7"/>
+      <c r="BH10" s="7"/>
+      <c r="BI10" s="13"/>
+      <c r="BJ10" s="19"/>
+      <c r="BK10" s="7"/>
+      <c r="BL10" s="7"/>
+      <c r="BM10" s="7"/>
+      <c r="BN10" s="73"/>
     </row>
-    <row r="11" spans="1:66" ht="12" customHeight="1">
-      <c r="A11" s="89"/>
+    <row r="11" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A11" s="186"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="152"/>
-      <c r="O11" s="152"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="152"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="162"/>
-      <c r="AK11" s="173"/>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="16"/>
-      <c r="AO11" s="22"/>
-      <c r="AP11" s="9"/>
-      <c r="AQ11" s="9"/>
-      <c r="AR11" s="9"/>
-      <c r="AS11" s="9"/>
-      <c r="AT11" s="9"/>
-      <c r="AU11" s="16"/>
-      <c r="AV11" s="22"/>
-      <c r="AW11" s="22"/>
-      <c r="AX11" s="9"/>
-      <c r="AY11" s="9"/>
-      <c r="AZ11" s="9"/>
-      <c r="BA11" s="9"/>
-      <c r="BB11" s="16"/>
-      <c r="BC11" s="22"/>
-      <c r="BD11" s="9"/>
-      <c r="BE11" s="9"/>
-      <c r="BF11" s="9"/>
-      <c r="BG11" s="9"/>
-      <c r="BH11" s="9"/>
-      <c r="BI11" s="16"/>
-      <c r="BJ11" s="22"/>
-      <c r="BK11" s="9"/>
-      <c r="BL11" s="9"/>
-      <c r="BM11" s="9"/>
-      <c r="BN11" s="162"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="209"/>
+      <c r="F11" s="202"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="73"/>
+      <c r="AK11" s="84"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="19"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="19"/>
+      <c r="AW11" s="19"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="13"/>
+      <c r="BC11" s="19"/>
+      <c r="BD11" s="7"/>
+      <c r="BE11" s="7"/>
+      <c r="BF11" s="7"/>
+      <c r="BG11" s="7"/>
+      <c r="BH11" s="7"/>
+      <c r="BI11" s="13"/>
+      <c r="BJ11" s="19"/>
+      <c r="BK11" s="7"/>
+      <c r="BL11" s="7"/>
+      <c r="BM11" s="7"/>
+      <c r="BN11" s="73"/>
     </row>
-    <row r="12" spans="1:66" ht="12" customHeight="1">
-      <c r="A12" s="117">
-        <v>5</v>
-      </c>
+    <row r="12" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A12" s="186"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="109" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="110"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="129"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="192"/>
+      <c r="F12" s="201"/>
       <c r="G12" s="51"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="153"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="13"/>
       <c r="M12" s="19"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="153"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
       <c r="S12" s="13"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
@@ -3968,8 +4073,8 @@
       <c r="AG12" s="13"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="7"/>
-      <c r="AJ12" s="163"/>
-      <c r="AK12" s="174"/>
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="84"/>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="13"/>
@@ -3998,241 +4103,241 @@
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
       <c r="BM12" s="7"/>
-      <c r="BN12" s="163"/>
+      <c r="BN12" s="73"/>
     </row>
-    <row r="13" spans="1:66" ht="12" customHeight="1">
-      <c r="A13" s="88"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="154"/>
-      <c r="O13" s="154"/>
-      <c r="P13" s="154"/>
-      <c r="Q13" s="154"/>
-      <c r="R13" s="154"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="164"/>
-      <c r="AK13" s="175"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="25"/>
-      <c r="AO13" s="26"/>
-      <c r="AP13" s="24"/>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="24"/>
-      <c r="AS13" s="24"/>
-      <c r="AT13" s="24"/>
-      <c r="AU13" s="25"/>
-      <c r="AV13" s="26"/>
-      <c r="AW13" s="26"/>
-      <c r="AX13" s="24"/>
-      <c r="AY13" s="24"/>
-      <c r="AZ13" s="24"/>
-      <c r="BA13" s="24"/>
-      <c r="BB13" s="25"/>
-      <c r="BC13" s="26"/>
-      <c r="BD13" s="24"/>
-      <c r="BE13" s="24"/>
-      <c r="BF13" s="24"/>
-      <c r="BG13" s="24"/>
-      <c r="BH13" s="24"/>
-      <c r="BI13" s="25"/>
-      <c r="BJ13" s="26"/>
-      <c r="BK13" s="24"/>
-      <c r="BL13" s="24"/>
-      <c r="BM13" s="24"/>
-      <c r="BN13" s="164"/>
+    <row r="13" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A13" s="187"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="191"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="203"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="43"/>
+      <c r="AJ13" s="76"/>
+      <c r="AK13" s="87"/>
+      <c r="AL13" s="43"/>
+      <c r="AM13" s="43"/>
+      <c r="AN13" s="44"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="43"/>
+      <c r="AQ13" s="43"/>
+      <c r="AR13" s="43"/>
+      <c r="AS13" s="43"/>
+      <c r="AT13" s="43"/>
+      <c r="AU13" s="44"/>
+      <c r="AV13" s="45"/>
+      <c r="AW13" s="45"/>
+      <c r="AX13" s="43"/>
+      <c r="AY13" s="43"/>
+      <c r="AZ13" s="43"/>
+      <c r="BA13" s="43"/>
+      <c r="BB13" s="44"/>
+      <c r="BC13" s="45"/>
+      <c r="BD13" s="43"/>
+      <c r="BE13" s="43"/>
+      <c r="BF13" s="43"/>
+      <c r="BG13" s="43"/>
+      <c r="BH13" s="43"/>
+      <c r="BI13" s="44"/>
+      <c r="BJ13" s="45"/>
+      <c r="BK13" s="43"/>
+      <c r="BL13" s="43"/>
+      <c r="BM13" s="43"/>
+      <c r="BN13" s="204"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="130">
+      <c r="A14" s="145">
+        <v>4</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="155"/>
-      <c r="O14" s="155"/>
-      <c r="P14" s="155"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="155"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="165"/>
-      <c r="AK14" s="176"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="15"/>
-      <c r="AO14" s="21"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="6"/>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="6"/>
-      <c r="AT14" s="6"/>
-      <c r="AU14" s="15"/>
-      <c r="AV14" s="21"/>
-      <c r="AW14" s="21"/>
-      <c r="AX14" s="6"/>
-      <c r="AY14" s="6"/>
-      <c r="AZ14" s="6"/>
-      <c r="BA14" s="6"/>
-      <c r="BB14" s="15"/>
-      <c r="BC14" s="21"/>
-      <c r="BD14" s="6"/>
-      <c r="BE14" s="6"/>
-      <c r="BF14" s="6"/>
-      <c r="BG14" s="6"/>
-      <c r="BH14" s="6"/>
-      <c r="BI14" s="15"/>
-      <c r="BJ14" s="21"/>
-      <c r="BK14" s="6"/>
-      <c r="BL14" s="6"/>
-      <c r="BM14" s="6"/>
-      <c r="BN14" s="165"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="83"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="22"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="22"/>
+      <c r="AW14" s="22"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="16"/>
+      <c r="BC14" s="22"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
+      <c r="BG14" s="9"/>
+      <c r="BH14" s="9"/>
+      <c r="BI14" s="16"/>
+      <c r="BJ14" s="22"/>
+      <c r="BK14" s="9"/>
+      <c r="BL14" s="9"/>
+      <c r="BM14" s="9"/>
+      <c r="BN14" s="72"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="130"/>
+      <c r="A15" s="136"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="154"/>
-      <c r="O15" s="154"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="154"/>
-      <c r="R15" s="154"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="24"/>
-      <c r="AJ15" s="164"/>
-      <c r="AK15" s="175"/>
-      <c r="AL15" s="24"/>
-      <c r="AM15" s="24"/>
-      <c r="AN15" s="25"/>
-      <c r="AO15" s="26"/>
-      <c r="AP15" s="24"/>
-      <c r="AQ15" s="24"/>
-      <c r="AR15" s="24"/>
-      <c r="AS15" s="24"/>
-      <c r="AT15" s="24"/>
-      <c r="AU15" s="25"/>
-      <c r="AV15" s="26"/>
-      <c r="AW15" s="26"/>
-      <c r="AX15" s="24"/>
-      <c r="AY15" s="24"/>
-      <c r="AZ15" s="24"/>
-      <c r="BA15" s="24"/>
-      <c r="BB15" s="25"/>
-      <c r="BC15" s="26"/>
-      <c r="BD15" s="24"/>
-      <c r="BE15" s="24"/>
-      <c r="BF15" s="24"/>
-      <c r="BG15" s="24"/>
-      <c r="BH15" s="24"/>
-      <c r="BI15" s="25"/>
-      <c r="BJ15" s="26"/>
-      <c r="BK15" s="24"/>
-      <c r="BL15" s="24"/>
-      <c r="BM15" s="24"/>
-      <c r="BN15" s="164"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="72"/>
+      <c r="AK15" s="83"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="16"/>
+      <c r="AO15" s="22"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="16"/>
+      <c r="AV15" s="22"/>
+      <c r="AW15" s="22"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="16"/>
+      <c r="BC15" s="22"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
+      <c r="BF15" s="9"/>
+      <c r="BG15" s="9"/>
+      <c r="BH15" s="9"/>
+      <c r="BI15" s="16"/>
+      <c r="BJ15" s="22"/>
+      <c r="BK15" s="9"/>
+      <c r="BL15" s="9"/>
+      <c r="BM15" s="9"/>
+      <c r="BN15" s="72"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="130">
-        <v>7</v>
+      <c r="A16" s="135">
+        <v>5</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="129"/>
+      <c r="C16" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="119"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="157"/>
       <c r="G16" s="51"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
       <c r="L16" s="13"/>
       <c r="M16" s="19"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="153"/>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="153"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
       <c r="S16" s="13"/>
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
@@ -4250,8 +4355,8 @@
       <c r="AG16" s="13"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="7"/>
-      <c r="AJ16" s="163"/>
-      <c r="AK16" s="174"/>
+      <c r="AJ16" s="73"/>
+      <c r="AK16" s="84"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="13"/>
@@ -4280,27 +4385,27 @@
       <c r="BK16" s="7"/>
       <c r="BL16" s="7"/>
       <c r="BM16" s="7"/>
-      <c r="BN16" s="163"/>
+      <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="130"/>
+      <c r="A17" s="145"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="107"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="152"/>
       <c r="G17" s="52"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
       <c r="L17" s="25"/>
       <c r="M17" s="26"/>
-      <c r="N17" s="154"/>
-      <c r="O17" s="154"/>
-      <c r="P17" s="154"/>
-      <c r="Q17" s="154"/>
-      <c r="R17" s="154"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
       <c r="S17" s="25"/>
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
@@ -4318,8 +4423,8 @@
       <c r="AG17" s="25"/>
       <c r="AH17" s="26"/>
       <c r="AI17" s="24"/>
-      <c r="AJ17" s="164"/>
-      <c r="AK17" s="175"/>
+      <c r="AJ17" s="74"/>
+      <c r="AK17" s="85"/>
       <c r="AL17" s="24"/>
       <c r="AM17" s="24"/>
       <c r="AN17" s="25"/>
@@ -4348,19 +4453,2556 @@
       <c r="BK17" s="24"/>
       <c r="BL17" s="24"/>
       <c r="BM17" s="24"/>
-      <c r="BN17" s="164"/>
+      <c r="BN17" s="74"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="130">
+      <c r="A18" s="158">
+        <v>6</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="159" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="160"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="75"/>
+      <c r="AK18" s="86"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="21"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="15"/>
+      <c r="AV18" s="21"/>
+      <c r="AW18" s="21"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="15"/>
+      <c r="BC18" s="21"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
+      <c r="BH18" s="6"/>
+      <c r="BI18" s="15"/>
+      <c r="BJ18" s="21"/>
+      <c r="BK18" s="6"/>
+      <c r="BL18" s="6"/>
+      <c r="BM18" s="6"/>
+      <c r="BN18" s="75"/>
+    </row>
+    <row r="19" spans="1:66" ht="12" customHeight="1">
+      <c r="A19" s="158"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="74"/>
+      <c r="AK19" s="85"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="24"/>
+      <c r="AN19" s="25"/>
+      <c r="AO19" s="26"/>
+      <c r="AP19" s="24"/>
+      <c r="AQ19" s="24"/>
+      <c r="AR19" s="24"/>
+      <c r="AS19" s="24"/>
+      <c r="AT19" s="24"/>
+      <c r="AU19" s="25"/>
+      <c r="AV19" s="26"/>
+      <c r="AW19" s="26"/>
+      <c r="AX19" s="24"/>
+      <c r="AY19" s="24"/>
+      <c r="AZ19" s="24"/>
+      <c r="BA19" s="24"/>
+      <c r="BB19" s="25"/>
+      <c r="BC19" s="26"/>
+      <c r="BD19" s="24"/>
+      <c r="BE19" s="24"/>
+      <c r="BF19" s="24"/>
+      <c r="BG19" s="24"/>
+      <c r="BH19" s="24"/>
+      <c r="BI19" s="25"/>
+      <c r="BJ19" s="26"/>
+      <c r="BK19" s="24"/>
+      <c r="BL19" s="24"/>
+      <c r="BM19" s="24"/>
+      <c r="BN19" s="74"/>
+    </row>
+    <row r="20" spans="1:66" ht="12" customHeight="1">
+      <c r="A20" s="158">
+        <v>7</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="119"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="73"/>
+      <c r="AK20" s="84"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="19"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="7"/>
+      <c r="AZ20" s="7"/>
+      <c r="BA20" s="7"/>
+      <c r="BB20" s="13"/>
+      <c r="BC20" s="19"/>
+      <c r="BD20" s="7"/>
+      <c r="BE20" s="7"/>
+      <c r="BF20" s="7"/>
+      <c r="BG20" s="7"/>
+      <c r="BH20" s="7"/>
+      <c r="BI20" s="13"/>
+      <c r="BJ20" s="19"/>
+      <c r="BK20" s="7"/>
+      <c r="BL20" s="7"/>
+      <c r="BM20" s="7"/>
+      <c r="BN20" s="73"/>
+    </row>
+    <row r="21" spans="1:66" ht="12" customHeight="1">
+      <c r="A21" s="158"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="24"/>
+      <c r="AJ21" s="74"/>
+      <c r="AK21" s="85"/>
+      <c r="AL21" s="24"/>
+      <c r="AM21" s="24"/>
+      <c r="AN21" s="25"/>
+      <c r="AO21" s="26"/>
+      <c r="AP21" s="24"/>
+      <c r="AQ21" s="24"/>
+      <c r="AR21" s="24"/>
+      <c r="AS21" s="24"/>
+      <c r="AT21" s="24"/>
+      <c r="AU21" s="25"/>
+      <c r="AV21" s="26"/>
+      <c r="AW21" s="26"/>
+      <c r="AX21" s="24"/>
+      <c r="AY21" s="24"/>
+      <c r="AZ21" s="24"/>
+      <c r="BA21" s="24"/>
+      <c r="BB21" s="25"/>
+      <c r="BC21" s="26"/>
+      <c r="BD21" s="24"/>
+      <c r="BE21" s="24"/>
+      <c r="BF21" s="24"/>
+      <c r="BG21" s="24"/>
+      <c r="BH21" s="24"/>
+      <c r="BI21" s="25"/>
+      <c r="BJ21" s="26"/>
+      <c r="BK21" s="24"/>
+      <c r="BL21" s="24"/>
+      <c r="BM21" s="24"/>
+      <c r="BN21" s="74"/>
+    </row>
+    <row r="22" spans="1:66" ht="12" customHeight="1">
+      <c r="A22" s="158">
         <v>8</v>
       </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="118" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="119"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="64"/>
+      <c r="AD22" s="64"/>
+      <c r="AE22" s="64"/>
+      <c r="AF22" s="64"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="64"/>
+      <c r="AJ22" s="77"/>
+      <c r="AK22" s="88"/>
+      <c r="AL22" s="64"/>
+      <c r="AM22" s="64"/>
+      <c r="AN22" s="25"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="64"/>
+      <c r="AQ22" s="64"/>
+      <c r="AR22" s="64"/>
+      <c r="AS22" s="64"/>
+      <c r="AT22" s="64"/>
+      <c r="AU22" s="25"/>
+      <c r="AV22" s="26"/>
+      <c r="AW22" s="26"/>
+      <c r="AX22" s="64"/>
+      <c r="AY22" s="64"/>
+      <c r="AZ22" s="64"/>
+      <c r="BA22" s="64"/>
+      <c r="BB22" s="25"/>
+      <c r="BC22" s="26"/>
+      <c r="BD22" s="64"/>
+      <c r="BE22" s="64"/>
+      <c r="BF22" s="64"/>
+      <c r="BG22" s="64"/>
+      <c r="BH22" s="64"/>
+      <c r="BI22" s="25"/>
+      <c r="BJ22" s="26"/>
+      <c r="BK22" s="64"/>
+      <c r="BL22" s="64"/>
+      <c r="BM22" s="64"/>
+      <c r="BN22" s="77"/>
+    </row>
+    <row r="23" spans="1:66" ht="12" customHeight="1">
+      <c r="A23" s="158"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="68"/>
+      <c r="X23" s="68"/>
+      <c r="Y23" s="68"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="68"/>
+      <c r="AD23" s="68"/>
+      <c r="AE23" s="68"/>
+      <c r="AF23" s="68"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="68"/>
+      <c r="AJ23" s="78"/>
+      <c r="AK23" s="89"/>
+      <c r="AL23" s="68"/>
+      <c r="AM23" s="68"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="23"/>
+      <c r="AP23" s="68"/>
+      <c r="AQ23" s="68"/>
+      <c r="AR23" s="68"/>
+      <c r="AS23" s="68"/>
+      <c r="AT23" s="68"/>
+      <c r="AU23" s="17"/>
+      <c r="AV23" s="23"/>
+      <c r="AW23" s="23"/>
+      <c r="AX23" s="68"/>
+      <c r="AY23" s="68"/>
+      <c r="AZ23" s="68"/>
+      <c r="BA23" s="68"/>
+      <c r="BB23" s="17"/>
+      <c r="BC23" s="23"/>
+      <c r="BD23" s="68"/>
+      <c r="BE23" s="68"/>
+      <c r="BF23" s="68"/>
+      <c r="BG23" s="68"/>
+      <c r="BH23" s="68"/>
+      <c r="BI23" s="17"/>
+      <c r="BJ23" s="23"/>
+      <c r="BK23" s="68"/>
+      <c r="BL23" s="68"/>
+      <c r="BM23" s="68"/>
+      <c r="BN23" s="78"/>
+    </row>
+    <row r="24" spans="1:66" ht="12" customHeight="1">
+      <c r="A24" s="135">
+        <v>9</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="159" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="160"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="79"/>
+      <c r="AK24" s="90"/>
+      <c r="AL24" s="65"/>
+      <c r="AM24" s="65"/>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="21"/>
+      <c r="AP24" s="65"/>
+      <c r="AQ24" s="65"/>
+      <c r="AR24" s="65"/>
+      <c r="AS24" s="65"/>
+      <c r="AT24" s="65"/>
+      <c r="AU24" s="15"/>
+      <c r="AV24" s="21"/>
+      <c r="AW24" s="21"/>
+      <c r="AX24" s="65"/>
+      <c r="AY24" s="65"/>
+      <c r="AZ24" s="65"/>
+      <c r="BA24" s="65"/>
+      <c r="BB24" s="15"/>
+      <c r="BC24" s="21"/>
+      <c r="BD24" s="65"/>
+      <c r="BE24" s="65"/>
+      <c r="BF24" s="65"/>
+      <c r="BG24" s="65"/>
+      <c r="BH24" s="65"/>
+      <c r="BI24" s="15"/>
+      <c r="BJ24" s="21"/>
+      <c r="BK24" s="65"/>
+      <c r="BL24" s="65"/>
+      <c r="BM24" s="65"/>
+      <c r="BN24" s="79"/>
+    </row>
+    <row r="25" spans="1:66" ht="12" customHeight="1">
+      <c r="A25" s="136"/>
+      <c r="B25" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="120"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="68"/>
+      <c r="Y25" s="68"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="194"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="68"/>
+      <c r="AD25" s="68"/>
+      <c r="AE25" s="68"/>
+      <c r="AF25" s="68"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="23"/>
+      <c r="AI25" s="68"/>
+      <c r="AJ25" s="78"/>
+      <c r="AK25" s="89"/>
+      <c r="AL25" s="68"/>
+      <c r="AM25" s="68"/>
+      <c r="AN25" s="17"/>
+      <c r="AO25" s="23"/>
+      <c r="AP25" s="68"/>
+      <c r="AQ25" s="68"/>
+      <c r="AR25" s="68"/>
+      <c r="AS25" s="68"/>
+      <c r="AT25" s="68"/>
+      <c r="AU25" s="17"/>
+      <c r="AV25" s="23"/>
+      <c r="AW25" s="23"/>
+      <c r="AX25" s="68"/>
+      <c r="AY25" s="68"/>
+      <c r="AZ25" s="68"/>
+      <c r="BA25" s="68"/>
+      <c r="BB25" s="17"/>
+      <c r="BC25" s="23"/>
+      <c r="BD25" s="68"/>
+      <c r="BE25" s="68"/>
+      <c r="BF25" s="68"/>
+      <c r="BG25" s="68"/>
+      <c r="BH25" s="68"/>
+      <c r="BI25" s="17"/>
+      <c r="BJ25" s="23"/>
+      <c r="BK25" s="68"/>
+      <c r="BL25" s="68"/>
+      <c r="BM25" s="68"/>
+      <c r="BN25" s="78"/>
+    </row>
+    <row r="26" spans="1:66" ht="12" customHeight="1">
+      <c r="A26" s="188">
+        <v>10</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="159" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="160"/>
+      <c r="E26" s="205"/>
+      <c r="F26" s="208"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="62"/>
+      <c r="AD26" s="62"/>
+      <c r="AE26" s="62"/>
+      <c r="AF26" s="62"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="22"/>
+      <c r="AI26" s="62"/>
+      <c r="AJ26" s="195"/>
+      <c r="AK26" s="196"/>
+      <c r="AL26" s="62"/>
+      <c r="AM26" s="62"/>
+      <c r="AN26" s="16"/>
+      <c r="AO26" s="22"/>
+      <c r="AP26" s="62"/>
+      <c r="AQ26" s="62"/>
+      <c r="AR26" s="62"/>
+      <c r="AS26" s="62"/>
+      <c r="AT26" s="62"/>
+      <c r="AU26" s="16"/>
+      <c r="AV26" s="22"/>
+      <c r="AW26" s="22"/>
+      <c r="AX26" s="62"/>
+      <c r="AY26" s="62"/>
+      <c r="AZ26" s="62"/>
+      <c r="BA26" s="62"/>
+      <c r="BB26" s="16"/>
+      <c r="BC26" s="22"/>
+      <c r="BD26" s="62"/>
+      <c r="BE26" s="62"/>
+      <c r="BF26" s="62"/>
+      <c r="BG26" s="62"/>
+      <c r="BH26" s="62"/>
+      <c r="BI26" s="16"/>
+      <c r="BJ26" s="22"/>
+      <c r="BK26" s="62"/>
+      <c r="BL26" s="62"/>
+      <c r="BM26" s="62"/>
+      <c r="BN26" s="195"/>
+    </row>
+    <row r="27" spans="1:66" ht="12" customHeight="1">
+      <c r="A27" s="189"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="200"/>
+      <c r="F27" s="202"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="193"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="63"/>
+      <c r="AD27" s="63"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="63"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="63"/>
+      <c r="AJ27" s="80"/>
+      <c r="AK27" s="91"/>
+      <c r="AL27" s="63"/>
+      <c r="AM27" s="63"/>
+      <c r="AN27" s="13"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="63"/>
+      <c r="AQ27" s="63"/>
+      <c r="AR27" s="63"/>
+      <c r="AS27" s="63"/>
+      <c r="AT27" s="63"/>
+      <c r="AU27" s="13"/>
+      <c r="AV27" s="19"/>
+      <c r="AW27" s="19"/>
+      <c r="AX27" s="63"/>
+      <c r="AY27" s="63"/>
+      <c r="AZ27" s="63"/>
+      <c r="BA27" s="63"/>
+      <c r="BB27" s="13"/>
+      <c r="BC27" s="19"/>
+      <c r="BD27" s="63"/>
+      <c r="BE27" s="63"/>
+      <c r="BF27" s="63"/>
+      <c r="BG27" s="63"/>
+      <c r="BH27" s="63"/>
+      <c r="BI27" s="13"/>
+      <c r="BJ27" s="19"/>
+      <c r="BK27" s="63"/>
+      <c r="BL27" s="63"/>
+      <c r="BM27" s="63"/>
+      <c r="BN27" s="80"/>
+    </row>
+    <row r="28" spans="1:66" ht="12" customHeight="1">
+      <c r="A28" s="188">
+        <v>11</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="119"/>
+      <c r="E28" s="197"/>
+      <c r="F28" s="201"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="63"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="63"/>
+      <c r="AJ28" s="80"/>
+      <c r="AK28" s="91"/>
+      <c r="AL28" s="63"/>
+      <c r="AM28" s="63"/>
+      <c r="AN28" s="13"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="63"/>
+      <c r="AQ28" s="63"/>
+      <c r="AR28" s="63"/>
+      <c r="AS28" s="63"/>
+      <c r="AT28" s="63"/>
+      <c r="AU28" s="13"/>
+      <c r="AV28" s="19"/>
+      <c r="AW28" s="19"/>
+      <c r="AX28" s="63"/>
+      <c r="AY28" s="63"/>
+      <c r="AZ28" s="63"/>
+      <c r="BA28" s="63"/>
+      <c r="BB28" s="13"/>
+      <c r="BC28" s="19"/>
+      <c r="BD28" s="63"/>
+      <c r="BE28" s="63"/>
+      <c r="BF28" s="63"/>
+      <c r="BG28" s="63"/>
+      <c r="BH28" s="63"/>
+      <c r="BI28" s="13"/>
+      <c r="BJ28" s="19"/>
+      <c r="BK28" s="63"/>
+      <c r="BL28" s="63"/>
+      <c r="BM28" s="63"/>
+      <c r="BN28" s="80"/>
+    </row>
+    <row r="29" spans="1:66" ht="12" customHeight="1">
+      <c r="A29" s="189"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="198"/>
+      <c r="F29" s="202"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="193"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="63"/>
+      <c r="AD29" s="63"/>
+      <c r="AE29" s="63"/>
+      <c r="AF29" s="63"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="63"/>
+      <c r="AJ29" s="80"/>
+      <c r="AK29" s="91"/>
+      <c r="AL29" s="63"/>
+      <c r="AM29" s="63"/>
+      <c r="AN29" s="13"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="63"/>
+      <c r="AQ29" s="63"/>
+      <c r="AR29" s="63"/>
+      <c r="AS29" s="63"/>
+      <c r="AT29" s="63"/>
+      <c r="AU29" s="13"/>
+      <c r="AV29" s="19"/>
+      <c r="AW29" s="19"/>
+      <c r="AX29" s="63"/>
+      <c r="AY29" s="63"/>
+      <c r="AZ29" s="63"/>
+      <c r="BA29" s="63"/>
+      <c r="BB29" s="13"/>
+      <c r="BC29" s="19"/>
+      <c r="BD29" s="63"/>
+      <c r="BE29" s="63"/>
+      <c r="BF29" s="63"/>
+      <c r="BG29" s="63"/>
+      <c r="BH29" s="63"/>
+      <c r="BI29" s="13"/>
+      <c r="BJ29" s="19"/>
+      <c r="BK29" s="63"/>
+      <c r="BL29" s="63"/>
+      <c r="BM29" s="63"/>
+      <c r="BN29" s="80"/>
+    </row>
+    <row r="30" spans="1:66" ht="12" customHeight="1">
+      <c r="A30" s="188">
+        <v>12</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="119"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="201"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="63"/>
+      <c r="Y30" s="63"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="63"/>
+      <c r="AD30" s="63"/>
+      <c r="AE30" s="63"/>
+      <c r="AF30" s="63"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="63"/>
+      <c r="AJ30" s="80"/>
+      <c r="AK30" s="91"/>
+      <c r="AL30" s="63"/>
+      <c r="AM30" s="63"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="19"/>
+      <c r="AP30" s="63"/>
+      <c r="AQ30" s="63"/>
+      <c r="AR30" s="63"/>
+      <c r="AS30" s="63"/>
+      <c r="AT30" s="63"/>
+      <c r="AU30" s="13"/>
+      <c r="AV30" s="19"/>
+      <c r="AW30" s="19"/>
+      <c r="AX30" s="63"/>
+      <c r="AY30" s="63"/>
+      <c r="AZ30" s="63"/>
+      <c r="BA30" s="63"/>
+      <c r="BB30" s="13"/>
+      <c r="BC30" s="19"/>
+      <c r="BD30" s="63"/>
+      <c r="BE30" s="63"/>
+      <c r="BF30" s="63"/>
+      <c r="BG30" s="63"/>
+      <c r="BH30" s="63"/>
+      <c r="BI30" s="13"/>
+      <c r="BJ30" s="19"/>
+      <c r="BK30" s="63"/>
+      <c r="BL30" s="63"/>
+      <c r="BM30" s="63"/>
+      <c r="BN30" s="80"/>
+    </row>
+    <row r="31" spans="1:66" ht="12" customHeight="1">
+      <c r="A31" s="189"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="200"/>
+      <c r="F31" s="202"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="193"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="63"/>
+      <c r="AD31" s="63"/>
+      <c r="AE31" s="63"/>
+      <c r="AF31" s="63"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="63"/>
+      <c r="AJ31" s="80"/>
+      <c r="AK31" s="91"/>
+      <c r="AL31" s="63"/>
+      <c r="AM31" s="63"/>
+      <c r="AN31" s="13"/>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="63"/>
+      <c r="AQ31" s="63"/>
+      <c r="AR31" s="63"/>
+      <c r="AS31" s="63"/>
+      <c r="AT31" s="63"/>
+      <c r="AU31" s="13"/>
+      <c r="AV31" s="19"/>
+      <c r="AW31" s="19"/>
+      <c r="AX31" s="63"/>
+      <c r="AY31" s="63"/>
+      <c r="AZ31" s="63"/>
+      <c r="BA31" s="63"/>
+      <c r="BB31" s="13"/>
+      <c r="BC31" s="19"/>
+      <c r="BD31" s="63"/>
+      <c r="BE31" s="63"/>
+      <c r="BF31" s="63"/>
+      <c r="BG31" s="63"/>
+      <c r="BH31" s="63"/>
+      <c r="BI31" s="13"/>
+      <c r="BJ31" s="19"/>
+      <c r="BK31" s="63"/>
+      <c r="BL31" s="63"/>
+      <c r="BM31" s="63"/>
+      <c r="BN31" s="80"/>
+    </row>
+    <row r="32" spans="1:66" ht="12" customHeight="1">
+      <c r="A32" s="188">
+        <v>13</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="118" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="119"/>
+      <c r="E32" s="199"/>
+      <c r="F32" s="201"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="64"/>
+      <c r="X32" s="64"/>
+      <c r="Y32" s="64"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="64"/>
+      <c r="AD32" s="64"/>
+      <c r="AE32" s="64"/>
+      <c r="AF32" s="64"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="26"/>
+      <c r="AI32" s="64"/>
+      <c r="AJ32" s="77"/>
+      <c r="AK32" s="88"/>
+      <c r="AL32" s="64"/>
+      <c r="AM32" s="64"/>
+      <c r="AN32" s="25"/>
+      <c r="AO32" s="26"/>
+      <c r="AP32" s="64"/>
+      <c r="AQ32" s="64"/>
+      <c r="AR32" s="64"/>
+      <c r="AS32" s="64"/>
+      <c r="AT32" s="64"/>
+      <c r="AU32" s="25"/>
+      <c r="AV32" s="26"/>
+      <c r="AW32" s="26"/>
+      <c r="AX32" s="64"/>
+      <c r="AY32" s="64"/>
+      <c r="AZ32" s="64"/>
+      <c r="BA32" s="64"/>
+      <c r="BB32" s="25"/>
+      <c r="BC32" s="26"/>
+      <c r="BD32" s="64"/>
+      <c r="BE32" s="64"/>
+      <c r="BF32" s="64"/>
+      <c r="BG32" s="64"/>
+      <c r="BH32" s="64"/>
+      <c r="BI32" s="25"/>
+      <c r="BJ32" s="26"/>
+      <c r="BK32" s="64"/>
+      <c r="BL32" s="64"/>
+      <c r="BM32" s="64"/>
+      <c r="BN32" s="77"/>
+    </row>
+    <row r="33" spans="1:66" ht="12" customHeight="1">
+      <c r="A33" s="189"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="200"/>
+      <c r="F33" s="202"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="64"/>
+      <c r="W33" s="64"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="64"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="64"/>
+      <c r="AD33" s="64"/>
+      <c r="AE33" s="64"/>
+      <c r="AF33" s="64"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="64"/>
+      <c r="AJ33" s="77"/>
+      <c r="AK33" s="88"/>
+      <c r="AL33" s="64"/>
+      <c r="AM33" s="64"/>
+      <c r="AN33" s="25"/>
+      <c r="AO33" s="26"/>
+      <c r="AP33" s="64"/>
+      <c r="AQ33" s="64"/>
+      <c r="AR33" s="64"/>
+      <c r="AS33" s="64"/>
+      <c r="AT33" s="64"/>
+      <c r="AU33" s="25"/>
+      <c r="AV33" s="26"/>
+      <c r="AW33" s="26"/>
+      <c r="AX33" s="64"/>
+      <c r="AY33" s="64"/>
+      <c r="AZ33" s="64"/>
+      <c r="BA33" s="64"/>
+      <c r="BB33" s="25"/>
+      <c r="BC33" s="26"/>
+      <c r="BD33" s="64"/>
+      <c r="BE33" s="64"/>
+      <c r="BF33" s="64"/>
+      <c r="BG33" s="64"/>
+      <c r="BH33" s="64"/>
+      <c r="BI33" s="25"/>
+      <c r="BJ33" s="26"/>
+      <c r="BK33" s="64"/>
+      <c r="BL33" s="64"/>
+      <c r="BM33" s="64"/>
+      <c r="BN33" s="77"/>
+    </row>
+    <row r="34" spans="1:66" ht="12" customHeight="1">
+      <c r="A34" s="188">
+        <v>14</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="119"/>
+      <c r="E34" s="199"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="64"/>
+      <c r="X34" s="64"/>
+      <c r="Y34" s="64"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="64"/>
+      <c r="AD34" s="64"/>
+      <c r="AE34" s="64"/>
+      <c r="AF34" s="64"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="64"/>
+      <c r="AJ34" s="77"/>
+      <c r="AK34" s="88"/>
+      <c r="AL34" s="64"/>
+      <c r="AM34" s="64"/>
+      <c r="AN34" s="25"/>
+      <c r="AO34" s="26"/>
+      <c r="AP34" s="64"/>
+      <c r="AQ34" s="64"/>
+      <c r="AR34" s="64"/>
+      <c r="AS34" s="64"/>
+      <c r="AT34" s="64"/>
+      <c r="AU34" s="25"/>
+      <c r="AV34" s="26"/>
+      <c r="AW34" s="26"/>
+      <c r="AX34" s="64"/>
+      <c r="AY34" s="64"/>
+      <c r="AZ34" s="64"/>
+      <c r="BA34" s="64"/>
+      <c r="BB34" s="25"/>
+      <c r="BC34" s="26"/>
+      <c r="BD34" s="64"/>
+      <c r="BE34" s="64"/>
+      <c r="BF34" s="64"/>
+      <c r="BG34" s="64"/>
+      <c r="BH34" s="64"/>
+      <c r="BI34" s="25"/>
+      <c r="BJ34" s="26"/>
+      <c r="BK34" s="64"/>
+      <c r="BL34" s="64"/>
+      <c r="BM34" s="64"/>
+      <c r="BN34" s="77"/>
+    </row>
+    <row r="35" spans="1:66" ht="12" customHeight="1">
+      <c r="A35" s="189"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="200"/>
+      <c r="F35" s="202"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="64"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="64"/>
+      <c r="AD35" s="64"/>
+      <c r="AE35" s="64"/>
+      <c r="AF35" s="64"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="64"/>
+      <c r="AJ35" s="77"/>
+      <c r="AK35" s="88"/>
+      <c r="AL35" s="64"/>
+      <c r="AM35" s="64"/>
+      <c r="AN35" s="25"/>
+      <c r="AO35" s="26"/>
+      <c r="AP35" s="64"/>
+      <c r="AQ35" s="64"/>
+      <c r="AR35" s="64"/>
+      <c r="AS35" s="64"/>
+      <c r="AT35" s="64"/>
+      <c r="AU35" s="25"/>
+      <c r="AV35" s="26"/>
+      <c r="AW35" s="26"/>
+      <c r="AX35" s="64"/>
+      <c r="AY35" s="64"/>
+      <c r="AZ35" s="64"/>
+      <c r="BA35" s="64"/>
+      <c r="BB35" s="25"/>
+      <c r="BC35" s="26"/>
+      <c r="BD35" s="64"/>
+      <c r="BE35" s="64"/>
+      <c r="BF35" s="64"/>
+      <c r="BG35" s="64"/>
+      <c r="BH35" s="64"/>
+      <c r="BI35" s="25"/>
+      <c r="BJ35" s="26"/>
+      <c r="BK35" s="64"/>
+      <c r="BL35" s="64"/>
+      <c r="BM35" s="64"/>
+      <c r="BN35" s="77"/>
+    </row>
+    <row r="36" spans="1:66" ht="12" customHeight="1">
+      <c r="A36" s="188">
+        <v>15</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="118" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="119"/>
+      <c r="E36" s="199"/>
+      <c r="F36" s="201"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="64"/>
+      <c r="W36" s="64"/>
+      <c r="X36" s="64"/>
+      <c r="Y36" s="64"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="64"/>
+      <c r="AD36" s="64"/>
+      <c r="AE36" s="64"/>
+      <c r="AF36" s="64"/>
+      <c r="AG36" s="25"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="64"/>
+      <c r="AJ36" s="77"/>
+      <c r="AK36" s="88"/>
+      <c r="AL36" s="64"/>
+      <c r="AM36" s="64"/>
+      <c r="AN36" s="25"/>
+      <c r="AO36" s="26"/>
+      <c r="AP36" s="64"/>
+      <c r="AQ36" s="64"/>
+      <c r="AR36" s="64"/>
+      <c r="AS36" s="64"/>
+      <c r="AT36" s="64"/>
+      <c r="AU36" s="25"/>
+      <c r="AV36" s="26"/>
+      <c r="AW36" s="26"/>
+      <c r="AX36" s="64"/>
+      <c r="AY36" s="64"/>
+      <c r="AZ36" s="64"/>
+      <c r="BA36" s="64"/>
+      <c r="BB36" s="25"/>
+      <c r="BC36" s="26"/>
+      <c r="BD36" s="64"/>
+      <c r="BE36" s="64"/>
+      <c r="BF36" s="64"/>
+      <c r="BG36" s="64"/>
+      <c r="BH36" s="64"/>
+      <c r="BI36" s="25"/>
+      <c r="BJ36" s="26"/>
+      <c r="BK36" s="64"/>
+      <c r="BL36" s="64"/>
+      <c r="BM36" s="64"/>
+      <c r="BN36" s="77"/>
+    </row>
+    <row r="37" spans="1:66" ht="12" customHeight="1">
+      <c r="A37" s="189"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="206"/>
+      <c r="F37" s="207"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="64"/>
+      <c r="W37" s="64"/>
+      <c r="X37" s="64"/>
+      <c r="Y37" s="64"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="64"/>
+      <c r="AD37" s="64"/>
+      <c r="AE37" s="64"/>
+      <c r="AF37" s="64"/>
+      <c r="AG37" s="25"/>
+      <c r="AH37" s="26"/>
+      <c r="AI37" s="64"/>
+      <c r="AJ37" s="77"/>
+      <c r="AK37" s="88"/>
+      <c r="AL37" s="64"/>
+      <c r="AM37" s="64"/>
+      <c r="AN37" s="25"/>
+      <c r="AO37" s="26"/>
+      <c r="AP37" s="64"/>
+      <c r="AQ37" s="64"/>
+      <c r="AR37" s="64"/>
+      <c r="AS37" s="64"/>
+      <c r="AT37" s="64"/>
+      <c r="AU37" s="25"/>
+      <c r="AV37" s="26"/>
+      <c r="AW37" s="26"/>
+      <c r="AX37" s="64"/>
+      <c r="AY37" s="64"/>
+      <c r="AZ37" s="64"/>
+      <c r="BA37" s="64"/>
+      <c r="BB37" s="25"/>
+      <c r="BC37" s="26"/>
+      <c r="BD37" s="64"/>
+      <c r="BE37" s="64"/>
+      <c r="BF37" s="64"/>
+      <c r="BG37" s="64"/>
+      <c r="BH37" s="64"/>
+      <c r="BI37" s="25"/>
+      <c r="BJ37" s="26"/>
+      <c r="BK37" s="64"/>
+      <c r="BL37" s="64"/>
+      <c r="BM37" s="64"/>
+      <c r="BN37" s="77"/>
+    </row>
+    <row r="38" spans="1:66" ht="12" customHeight="1">
+      <c r="A38" s="188">
+        <v>16</v>
+      </c>
+      <c r="B38" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="164" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="165"/>
+      <c r="E38" s="168"/>
+      <c r="F38" s="170"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="65"/>
+      <c r="R38" s="65"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="65"/>
+      <c r="AD38" s="65"/>
+      <c r="AE38" s="65"/>
+      <c r="AF38" s="65"/>
+      <c r="AG38" s="15"/>
+      <c r="AH38" s="21"/>
+      <c r="AI38" s="65"/>
+      <c r="AJ38" s="79"/>
+      <c r="AK38" s="90"/>
+      <c r="AL38" s="65"/>
+      <c r="AM38" s="65"/>
+      <c r="AN38" s="15"/>
+      <c r="AO38" s="21"/>
+      <c r="AP38" s="65"/>
+      <c r="AQ38" s="65"/>
+      <c r="AR38" s="65"/>
+      <c r="AS38" s="65"/>
+      <c r="AT38" s="65"/>
+      <c r="AU38" s="15"/>
+      <c r="AV38" s="21"/>
+      <c r="AW38" s="21"/>
+      <c r="AX38" s="65"/>
+      <c r="AY38" s="65"/>
+      <c r="AZ38" s="65"/>
+      <c r="BA38" s="65"/>
+      <c r="BB38" s="15"/>
+      <c r="BC38" s="21"/>
+      <c r="BD38" s="65"/>
+      <c r="BE38" s="65"/>
+      <c r="BF38" s="65"/>
+      <c r="BG38" s="65"/>
+      <c r="BH38" s="65"/>
+      <c r="BI38" s="15"/>
+      <c r="BJ38" s="21"/>
+      <c r="BK38" s="65"/>
+      <c r="BL38" s="65"/>
+      <c r="BM38" s="65"/>
+      <c r="BN38" s="79"/>
+    </row>
+    <row r="39" spans="1:66" ht="12" customHeight="1">
+      <c r="A39" s="189"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="166"/>
+      <c r="D39" s="167"/>
+      <c r="E39" s="169"/>
+      <c r="F39" s="171"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="63"/>
+      <c r="W39" s="63"/>
+      <c r="X39" s="63"/>
+      <c r="Y39" s="63"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="63"/>
+      <c r="AD39" s="63"/>
+      <c r="AE39" s="63"/>
+      <c r="AF39" s="63"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="19"/>
+      <c r="AI39" s="63"/>
+      <c r="AJ39" s="80"/>
+      <c r="AK39" s="91"/>
+      <c r="AL39" s="63"/>
+      <c r="AM39" s="63"/>
+      <c r="AN39" s="13"/>
+      <c r="AO39" s="19"/>
+      <c r="AP39" s="63"/>
+      <c r="AQ39" s="63"/>
+      <c r="AR39" s="63"/>
+      <c r="AS39" s="63"/>
+      <c r="AT39" s="63"/>
+      <c r="AU39" s="13"/>
+      <c r="AV39" s="19"/>
+      <c r="AW39" s="19"/>
+      <c r="AX39" s="63"/>
+      <c r="AY39" s="63"/>
+      <c r="AZ39" s="63"/>
+      <c r="BA39" s="63"/>
+      <c r="BB39" s="13"/>
+      <c r="BC39" s="19"/>
+      <c r="BD39" s="63"/>
+      <c r="BE39" s="63"/>
+      <c r="BF39" s="63"/>
+      <c r="BG39" s="63"/>
+      <c r="BH39" s="63"/>
+      <c r="BI39" s="13"/>
+      <c r="BJ39" s="19"/>
+      <c r="BK39" s="63"/>
+      <c r="BL39" s="63"/>
+      <c r="BM39" s="63"/>
+      <c r="BN39" s="80"/>
+    </row>
+    <row r="40" spans="1:66" ht="12" customHeight="1">
+      <c r="A40" s="188">
+        <v>17</v>
+      </c>
+      <c r="B40" s="173" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="159" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="160"/>
+      <c r="E40" s="173"/>
+      <c r="F40" s="177"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="65"/>
+      <c r="W40" s="65"/>
+      <c r="X40" s="65"/>
+      <c r="Y40" s="65"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="65"/>
+      <c r="AD40" s="65"/>
+      <c r="AE40" s="65"/>
+      <c r="AF40" s="65"/>
+      <c r="AG40" s="15"/>
+      <c r="AH40" s="21"/>
+      <c r="AI40" s="65"/>
+      <c r="AJ40" s="79"/>
+      <c r="AK40" s="90"/>
+      <c r="AL40" s="65"/>
+      <c r="AM40" s="65"/>
+      <c r="AN40" s="15"/>
+      <c r="AO40" s="21"/>
+      <c r="AP40" s="65"/>
+      <c r="AQ40" s="65"/>
+      <c r="AR40" s="65"/>
+      <c r="AS40" s="65"/>
+      <c r="AT40" s="65"/>
+      <c r="AU40" s="15"/>
+      <c r="AV40" s="21"/>
+      <c r="AW40" s="21"/>
+      <c r="AX40" s="65"/>
+      <c r="AY40" s="65"/>
+      <c r="AZ40" s="65"/>
+      <c r="BA40" s="65"/>
+      <c r="BB40" s="15"/>
+      <c r="BC40" s="21"/>
+      <c r="BD40" s="65"/>
+      <c r="BE40" s="65"/>
+      <c r="BF40" s="65"/>
+      <c r="BG40" s="65"/>
+      <c r="BH40" s="65"/>
+      <c r="BI40" s="15"/>
+      <c r="BJ40" s="21"/>
+      <c r="BK40" s="65"/>
+      <c r="BL40" s="65"/>
+      <c r="BM40" s="65"/>
+      <c r="BN40" s="79"/>
+    </row>
+    <row r="41" spans="1:66" ht="12" customHeight="1" thickBot="1">
+      <c r="A41" s="189"/>
+      <c r="B41" s="174"/>
+      <c r="C41" s="175"/>
+      <c r="D41" s="176"/>
+      <c r="E41" s="174"/>
+      <c r="F41" s="178"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="69"/>
+      <c r="W41" s="69"/>
+      <c r="X41" s="69"/>
+      <c r="Y41" s="69"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="69"/>
+      <c r="AD41" s="69"/>
+      <c r="AE41" s="69"/>
+      <c r="AF41" s="69"/>
+      <c r="AG41" s="14"/>
+      <c r="AH41" s="20"/>
+      <c r="AI41" s="69"/>
+      <c r="AJ41" s="81"/>
+      <c r="AK41" s="92"/>
+      <c r="AL41" s="69"/>
+      <c r="AM41" s="69"/>
+      <c r="AN41" s="14"/>
+      <c r="AO41" s="20"/>
+      <c r="AP41" s="69"/>
+      <c r="AQ41" s="69"/>
+      <c r="AR41" s="69"/>
+      <c r="AS41" s="69"/>
+      <c r="AT41" s="69"/>
+      <c r="AU41" s="14"/>
+      <c r="AV41" s="20"/>
+      <c r="AW41" s="20"/>
+      <c r="AX41" s="69"/>
+      <c r="AY41" s="69"/>
+      <c r="AZ41" s="69"/>
+      <c r="BA41" s="69"/>
+      <c r="BB41" s="14"/>
+      <c r="BC41" s="20"/>
+      <c r="BD41" s="69"/>
+      <c r="BE41" s="69"/>
+      <c r="BF41" s="69"/>
+      <c r="BG41" s="69"/>
+      <c r="BH41" s="69"/>
+      <c r="BI41" s="14"/>
+      <c r="BJ41" s="20"/>
+      <c r="BK41" s="69"/>
+      <c r="BL41" s="69"/>
+      <c r="BM41" s="69"/>
+      <c r="BN41" s="81"/>
+    </row>
+    <row r="42" spans="1:66">
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+    </row>
+    <row r="43" spans="1:66">
+      <c r="A43" s="27"/>
+      <c r="B43" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:66">
+      <c r="A44" s="28"/>
+      <c r="B44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="81">
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <printOptions gridLinesSet="0"/>
+  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"ＭＳ Ｐゴシック,太字"&amp;12開発スケジュール&amp;R&amp;"ＭＳ Ｐゴシック,標準"&amp;8印刷日：&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;"ＭＳ Ｐゴシック,標準"&amp;8- &amp;P -&amp;R&amp;8Copyright © 2014 *** Corporation. All Rights Reserved.</oddFooter>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="30" max="80" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624DF4ED-FA44-48E9-9005-27B4AB47060E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AD32"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="AF27" sqref="AF27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="3" customWidth="1"/>
+    <col min="7" max="30" width="3.109375" style="3" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="10.5" customHeight="1">
+      <c r="A1" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="105"/>
+      <c r="E1" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="95"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="97"/>
+    </row>
+    <row r="2" spans="1:30" ht="10.5" customHeight="1">
+      <c r="A2" s="99"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="46">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4">
+        <v>23</v>
+      </c>
+      <c r="I2" s="4">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4">
+        <v>25</v>
+      </c>
+      <c r="K2" s="4">
+        <v>26</v>
+      </c>
+      <c r="L2" s="4">
+        <v>27</v>
+      </c>
+      <c r="M2" s="4">
+        <v>28</v>
+      </c>
+      <c r="N2" s="4">
+        <v>29</v>
+      </c>
+      <c r="O2" s="4">
+        <v>30</v>
+      </c>
+      <c r="P2" s="4">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4">
+        <v>2</v>
+      </c>
+      <c r="S2" s="4">
+        <v>3</v>
+      </c>
+      <c r="T2" s="4">
+        <v>4</v>
+      </c>
+      <c r="U2" s="4">
+        <v>5</v>
+      </c>
+      <c r="V2" s="4">
+        <v>6</v>
+      </c>
+      <c r="W2" s="4">
+        <v>7</v>
+      </c>
+      <c r="X2" s="4">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>13</v>
+      </c>
+      <c r="AD2" s="47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A3" s="100"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" s="58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A4" s="126">
+        <v>1</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="128"/>
+      <c r="E4" s="131" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="133"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="182" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A5" s="117"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="183"/>
+      <c r="AD5" s="180"/>
+    </row>
+    <row r="6" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A6" s="116">
+        <v>2</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="119"/>
+      <c r="E6" s="122" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="124"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="183"/>
+      <c r="AD6" s="180"/>
+    </row>
+    <row r="7" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A7" s="117"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="183"/>
+      <c r="AD7" s="180"/>
+    </row>
+    <row r="8" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A8" s="135">
+        <v>3</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="138"/>
+      <c r="E8" s="141" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="143"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="183"/>
+      <c r="AD8" s="180"/>
+    </row>
+    <row r="9" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A9" s="136"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="183"/>
+      <c r="AD9" s="180"/>
+    </row>
+    <row r="10" spans="1:30" ht="12" customHeight="1">
+      <c r="A10" s="145">
+        <v>4</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="147"/>
+      <c r="E10" s="150" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="152"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="183"/>
+      <c r="AD10" s="180"/>
+    </row>
+    <row r="11" spans="1:30" ht="12" customHeight="1">
+      <c r="A11" s="136"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="183"/>
+      <c r="AD11" s="180"/>
+    </row>
+    <row r="12" spans="1:30" ht="12" customHeight="1">
+      <c r="A12" s="135">
+        <v>5</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="119"/>
+      <c r="E12" s="156" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="157"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="183"/>
+      <c r="AD12" s="180"/>
+    </row>
+    <row r="13" spans="1:30" ht="12" customHeight="1">
+      <c r="A13" s="145"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="183"/>
+      <c r="AD13" s="180"/>
+    </row>
+    <row r="14" spans="1:30" ht="12" customHeight="1">
+      <c r="A14" s="158">
+        <v>6</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="159" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="160"/>
+      <c r="E14" s="161" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="143"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="183"/>
+      <c r="AD14" s="180"/>
+    </row>
+    <row r="15" spans="1:30" ht="12" customHeight="1">
+      <c r="A15" s="158"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="183"/>
+      <c r="AD15" s="180"/>
+    </row>
+    <row r="16" spans="1:30" ht="12" customHeight="1">
+      <c r="A16" s="158">
+        <v>7</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="119"/>
+      <c r="E16" s="162" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="157"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="183"/>
+      <c r="AD16" s="180"/>
+    </row>
+    <row r="17" spans="1:30" ht="12" customHeight="1">
+      <c r="A17" s="158"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="183"/>
+      <c r="AD17" s="180"/>
+    </row>
+    <row r="18" spans="1:30" ht="12" customHeight="1">
+      <c r="A18" s="158">
+        <v>8</v>
+      </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="110"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="129"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="162" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="157"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -4368,67 +7010,31 @@
       <c r="K18" s="24"/>
       <c r="L18" s="25"/>
       <c r="M18" s="26"/>
-      <c r="N18" s="154"/>
-      <c r="O18" s="154"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="154"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
       <c r="S18" s="25"/>
       <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="154"/>
-      <c r="W18" s="154"/>
-      <c r="X18" s="154"/>
-      <c r="Y18" s="154"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="154"/>
-      <c r="AD18" s="154"/>
-      <c r="AE18" s="154"/>
-      <c r="AF18" s="154"/>
-      <c r="AG18" s="25"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="154"/>
-      <c r="AJ18" s="167"/>
-      <c r="AK18" s="178"/>
-      <c r="AL18" s="154"/>
-      <c r="AM18" s="154"/>
-      <c r="AN18" s="25"/>
-      <c r="AO18" s="26"/>
-      <c r="AP18" s="154"/>
-      <c r="AQ18" s="154"/>
-      <c r="AR18" s="154"/>
-      <c r="AS18" s="154"/>
-      <c r="AT18" s="154"/>
-      <c r="AU18" s="25"/>
-      <c r="AV18" s="26"/>
-      <c r="AW18" s="26"/>
-      <c r="AX18" s="154"/>
-      <c r="AY18" s="154"/>
-      <c r="AZ18" s="154"/>
-      <c r="BA18" s="154"/>
-      <c r="BB18" s="25"/>
-      <c r="BC18" s="26"/>
-      <c r="BD18" s="154"/>
-      <c r="BE18" s="154"/>
-      <c r="BF18" s="154"/>
-      <c r="BG18" s="154"/>
-      <c r="BH18" s="154"/>
-      <c r="BI18" s="25"/>
-      <c r="BJ18" s="26"/>
-      <c r="BK18" s="154"/>
-      <c r="BL18" s="154"/>
-      <c r="BM18" s="154"/>
-      <c r="BN18" s="167"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="183"/>
+      <c r="AD18" s="180"/>
     </row>
-    <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="130"/>
+    <row r="19" spans="1:30" ht="12" customHeight="1">
+      <c r="A19" s="158"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="125"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="144"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -4436,73 +7042,39 @@
       <c r="K19" s="8"/>
       <c r="L19" s="17"/>
       <c r="M19" s="23"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="158"/>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="158"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
       <c r="S19" s="17"/>
       <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="158"/>
-      <c r="W19" s="158"/>
-      <c r="X19" s="158"/>
-      <c r="Y19" s="158"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="158"/>
-      <c r="AD19" s="158"/>
-      <c r="AE19" s="158"/>
-      <c r="AF19" s="158"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="158"/>
-      <c r="AJ19" s="168"/>
-      <c r="AK19" s="179"/>
-      <c r="AL19" s="158"/>
-      <c r="AM19" s="158"/>
-      <c r="AN19" s="17"/>
-      <c r="AO19" s="23"/>
-      <c r="AP19" s="158"/>
-      <c r="AQ19" s="158"/>
-      <c r="AR19" s="158"/>
-      <c r="AS19" s="158"/>
-      <c r="AT19" s="158"/>
-      <c r="AU19" s="17"/>
-      <c r="AV19" s="23"/>
-      <c r="AW19" s="23"/>
-      <c r="AX19" s="158"/>
-      <c r="AY19" s="158"/>
-      <c r="AZ19" s="158"/>
-      <c r="BA19" s="158"/>
-      <c r="BB19" s="17"/>
-      <c r="BC19" s="23"/>
-      <c r="BD19" s="158"/>
-      <c r="BE19" s="158"/>
-      <c r="BF19" s="158"/>
-      <c r="BG19" s="158"/>
-      <c r="BH19" s="158"/>
-      <c r="BI19" s="17"/>
-      <c r="BJ19" s="23"/>
-      <c r="BK19" s="158"/>
-      <c r="BL19" s="158"/>
-      <c r="BM19" s="158"/>
-      <c r="BN19" s="168"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="183"/>
+      <c r="AD19" s="180"/>
     </row>
-    <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="117">
+    <row r="20" spans="1:30" ht="12" customHeight="1">
+      <c r="A20" s="135">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="131" t="s">
+      <c r="C20" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="124"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="161" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="143"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -4510,69 +7082,33 @@
       <c r="K20" s="6"/>
       <c r="L20" s="15"/>
       <c r="M20" s="21"/>
-      <c r="N20" s="155"/>
-      <c r="O20" s="155"/>
-      <c r="P20" s="155"/>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="155"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
       <c r="S20" s="15"/>
       <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="155"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="155"/>
-      <c r="Y20" s="155"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="155"/>
-      <c r="AD20" s="155"/>
-      <c r="AE20" s="155"/>
-      <c r="AF20" s="155"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="21"/>
-      <c r="AI20" s="155"/>
-      <c r="AJ20" s="169"/>
-      <c r="AK20" s="180"/>
-      <c r="AL20" s="155"/>
-      <c r="AM20" s="155"/>
-      <c r="AN20" s="15"/>
-      <c r="AO20" s="21"/>
-      <c r="AP20" s="155"/>
-      <c r="AQ20" s="155"/>
-      <c r="AR20" s="155"/>
-      <c r="AS20" s="155"/>
-      <c r="AT20" s="155"/>
-      <c r="AU20" s="15"/>
-      <c r="AV20" s="21"/>
-      <c r="AW20" s="21"/>
-      <c r="AX20" s="155"/>
-      <c r="AY20" s="155"/>
-      <c r="AZ20" s="155"/>
-      <c r="BA20" s="155"/>
-      <c r="BB20" s="15"/>
-      <c r="BC20" s="21"/>
-      <c r="BD20" s="155"/>
-      <c r="BE20" s="155"/>
-      <c r="BF20" s="155"/>
-      <c r="BG20" s="155"/>
-      <c r="BH20" s="155"/>
-      <c r="BI20" s="15"/>
-      <c r="BJ20" s="21"/>
-      <c r="BK20" s="155"/>
-      <c r="BL20" s="155"/>
-      <c r="BM20" s="155"/>
-      <c r="BN20" s="169"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="183"/>
+      <c r="AD20" s="180"/>
     </row>
-    <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="89"/>
+    <row r="21" spans="1:30" ht="12" customHeight="1">
+      <c r="A21" s="136"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="107"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="153"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -4580,71 +7116,37 @@
       <c r="K21" s="7"/>
       <c r="L21" s="13"/>
       <c r="M21" s="19"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="153"/>
-      <c r="R21" s="153"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
       <c r="S21" s="13"/>
       <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="153"/>
-      <c r="W21" s="153"/>
-      <c r="X21" s="153"/>
-      <c r="Y21" s="153"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="153"/>
-      <c r="AD21" s="153"/>
-      <c r="AE21" s="153"/>
-      <c r="AF21" s="153"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="153"/>
-      <c r="AJ21" s="170"/>
-      <c r="AK21" s="181"/>
-      <c r="AL21" s="153"/>
-      <c r="AM21" s="153"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="19"/>
-      <c r="AP21" s="153"/>
-      <c r="AQ21" s="153"/>
-      <c r="AR21" s="153"/>
-      <c r="AS21" s="153"/>
-      <c r="AT21" s="153"/>
-      <c r="AU21" s="13"/>
-      <c r="AV21" s="19"/>
-      <c r="AW21" s="19"/>
-      <c r="AX21" s="153"/>
-      <c r="AY21" s="153"/>
-      <c r="AZ21" s="153"/>
-      <c r="BA21" s="153"/>
-      <c r="BB21" s="13"/>
-      <c r="BC21" s="19"/>
-      <c r="BD21" s="153"/>
-      <c r="BE21" s="153"/>
-      <c r="BF21" s="153"/>
-      <c r="BG21" s="153"/>
-      <c r="BH21" s="153"/>
-      <c r="BI21" s="13"/>
-      <c r="BJ21" s="19"/>
-      <c r="BK21" s="153"/>
-      <c r="BL21" s="153"/>
-      <c r="BM21" s="153"/>
-      <c r="BN21" s="170"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="183"/>
+      <c r="AD21" s="180"/>
     </row>
-    <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="117">
+    <row r="22" spans="1:30" ht="12" customHeight="1">
+      <c r="A22" s="135">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="110"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="129"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="162" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="157"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -4652,67 +7154,31 @@
       <c r="K22" s="7"/>
       <c r="L22" s="13"/>
       <c r="M22" s="19"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="153"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
       <c r="S22" s="13"/>
       <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="153"/>
-      <c r="W22" s="153"/>
-      <c r="X22" s="153"/>
-      <c r="Y22" s="153"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="153"/>
-      <c r="AD22" s="153"/>
-      <c r="AE22" s="153"/>
-      <c r="AF22" s="153"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="153"/>
-      <c r="AJ22" s="170"/>
-      <c r="AK22" s="181"/>
-      <c r="AL22" s="153"/>
-      <c r="AM22" s="153"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="19"/>
-      <c r="AP22" s="153"/>
-      <c r="AQ22" s="153"/>
-      <c r="AR22" s="153"/>
-      <c r="AS22" s="153"/>
-      <c r="AT22" s="153"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="19"/>
-      <c r="AW22" s="19"/>
-      <c r="AX22" s="153"/>
-      <c r="AY22" s="153"/>
-      <c r="AZ22" s="153"/>
-      <c r="BA22" s="153"/>
-      <c r="BB22" s="13"/>
-      <c r="BC22" s="19"/>
-      <c r="BD22" s="153"/>
-      <c r="BE22" s="153"/>
-      <c r="BF22" s="153"/>
-      <c r="BG22" s="153"/>
-      <c r="BH22" s="153"/>
-      <c r="BI22" s="13"/>
-      <c r="BJ22" s="19"/>
-      <c r="BK22" s="153"/>
-      <c r="BL22" s="153"/>
-      <c r="BM22" s="153"/>
-      <c r="BN22" s="170"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="183"/>
+      <c r="AD22" s="180"/>
     </row>
-    <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="89"/>
+    <row r="23" spans="1:30" ht="12" customHeight="1">
+      <c r="A23" s="136"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="107"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="153"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -4720,71 +7186,37 @@
       <c r="K23" s="7"/>
       <c r="L23" s="13"/>
       <c r="M23" s="19"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="153"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
       <c r="S23" s="13"/>
       <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="153"/>
-      <c r="W23" s="153"/>
-      <c r="X23" s="153"/>
-      <c r="Y23" s="153"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="153"/>
-      <c r="AD23" s="153"/>
-      <c r="AE23" s="153"/>
-      <c r="AF23" s="153"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="153"/>
-      <c r="AJ23" s="170"/>
-      <c r="AK23" s="181"/>
-      <c r="AL23" s="153"/>
-      <c r="AM23" s="153"/>
-      <c r="AN23" s="13"/>
-      <c r="AO23" s="19"/>
-      <c r="AP23" s="153"/>
-      <c r="AQ23" s="153"/>
-      <c r="AR23" s="153"/>
-      <c r="AS23" s="153"/>
-      <c r="AT23" s="153"/>
-      <c r="AU23" s="13"/>
-      <c r="AV23" s="19"/>
-      <c r="AW23" s="19"/>
-      <c r="AX23" s="153"/>
-      <c r="AY23" s="153"/>
-      <c r="AZ23" s="153"/>
-      <c r="BA23" s="153"/>
-      <c r="BB23" s="13"/>
-      <c r="BC23" s="19"/>
-      <c r="BD23" s="153"/>
-      <c r="BE23" s="153"/>
-      <c r="BF23" s="153"/>
-      <c r="BG23" s="153"/>
-      <c r="BH23" s="153"/>
-      <c r="BI23" s="13"/>
-      <c r="BJ23" s="19"/>
-      <c r="BK23" s="153"/>
-      <c r="BL23" s="153"/>
-      <c r="BM23" s="153"/>
-      <c r="BN23" s="170"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="183"/>
+      <c r="AD23" s="180"/>
     </row>
-    <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="117">
+    <row r="24" spans="1:30" ht="12" customHeight="1">
+      <c r="A24" s="135">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="143" t="s">
+      <c r="C24" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="110"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="129"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="162" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="157"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -4792,67 +7224,31 @@
       <c r="K24" s="24"/>
       <c r="L24" s="25"/>
       <c r="M24" s="26"/>
-      <c r="N24" s="154"/>
-      <c r="O24" s="154"/>
-      <c r="P24" s="154"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="154"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
       <c r="S24" s="25"/>
       <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="154"/>
-      <c r="W24" s="154"/>
-      <c r="X24" s="154"/>
-      <c r="Y24" s="154"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="154"/>
-      <c r="AD24" s="154"/>
-      <c r="AE24" s="154"/>
-      <c r="AF24" s="154"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="26"/>
-      <c r="AI24" s="154"/>
-      <c r="AJ24" s="167"/>
-      <c r="AK24" s="178"/>
-      <c r="AL24" s="154"/>
-      <c r="AM24" s="154"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="26"/>
-      <c r="AP24" s="154"/>
-      <c r="AQ24" s="154"/>
-      <c r="AR24" s="154"/>
-      <c r="AS24" s="154"/>
-      <c r="AT24" s="154"/>
-      <c r="AU24" s="25"/>
-      <c r="AV24" s="26"/>
-      <c r="AW24" s="26"/>
-      <c r="AX24" s="154"/>
-      <c r="AY24" s="154"/>
-      <c r="AZ24" s="154"/>
-      <c r="BA24" s="154"/>
-      <c r="BB24" s="25"/>
-      <c r="BC24" s="26"/>
-      <c r="BD24" s="154"/>
-      <c r="BE24" s="154"/>
-      <c r="BF24" s="154"/>
-      <c r="BG24" s="154"/>
-      <c r="BH24" s="154"/>
-      <c r="BI24" s="25"/>
-      <c r="BJ24" s="26"/>
-      <c r="BK24" s="154"/>
-      <c r="BL24" s="154"/>
-      <c r="BM24" s="154"/>
-      <c r="BN24" s="167"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="183"/>
+      <c r="AD24" s="180"/>
     </row>
-    <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="89"/>
+    <row r="25" spans="1:30" ht="12" customHeight="1">
+      <c r="A25" s="136"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="125"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="144"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -4860,73 +7256,39 @@
       <c r="K25" s="8"/>
       <c r="L25" s="17"/>
       <c r="M25" s="23"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="158"/>
-      <c r="Q25" s="158"/>
-      <c r="R25" s="158"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
       <c r="S25" s="17"/>
       <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="158"/>
-      <c r="W25" s="158"/>
-      <c r="X25" s="158"/>
-      <c r="Y25" s="158"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="158"/>
-      <c r="AD25" s="158"/>
-      <c r="AE25" s="158"/>
-      <c r="AF25" s="158"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="158"/>
-      <c r="AJ25" s="168"/>
-      <c r="AK25" s="179"/>
-      <c r="AL25" s="158"/>
-      <c r="AM25" s="158"/>
-      <c r="AN25" s="17"/>
-      <c r="AO25" s="23"/>
-      <c r="AP25" s="158"/>
-      <c r="AQ25" s="158"/>
-      <c r="AR25" s="158"/>
-      <c r="AS25" s="158"/>
-      <c r="AT25" s="158"/>
-      <c r="AU25" s="17"/>
-      <c r="AV25" s="23"/>
-      <c r="AW25" s="23"/>
-      <c r="AX25" s="158"/>
-      <c r="AY25" s="158"/>
-      <c r="AZ25" s="158"/>
-      <c r="BA25" s="158"/>
-      <c r="BB25" s="17"/>
-      <c r="BC25" s="23"/>
-      <c r="BD25" s="158"/>
-      <c r="BE25" s="158"/>
-      <c r="BF25" s="158"/>
-      <c r="BG25" s="158"/>
-      <c r="BH25" s="158"/>
-      <c r="BI25" s="17"/>
-      <c r="BJ25" s="23"/>
-      <c r="BK25" s="158"/>
-      <c r="BL25" s="158"/>
-      <c r="BM25" s="158"/>
-      <c r="BN25" s="168"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="183"/>
+      <c r="AD25" s="180"/>
     </row>
-    <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="108">
+    <row r="26" spans="1:30" ht="12" customHeight="1">
+      <c r="A26" s="116">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="135" t="s">
+      <c r="C26" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="136"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="141"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="168" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="170"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -4934,67 +7296,31 @@
       <c r="K26" s="6"/>
       <c r="L26" s="15"/>
       <c r="M26" s="21"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="155"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="155"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
       <c r="S26" s="15"/>
       <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="155"/>
-      <c r="W26" s="155"/>
-      <c r="X26" s="155"/>
-      <c r="Y26" s="155"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="6"/>
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="155"/>
-      <c r="AD26" s="155"/>
-      <c r="AE26" s="155"/>
-      <c r="AF26" s="155"/>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="21"/>
-      <c r="AI26" s="155"/>
-      <c r="AJ26" s="169"/>
-      <c r="AK26" s="180"/>
-      <c r="AL26" s="155"/>
-      <c r="AM26" s="155"/>
-      <c r="AN26" s="15"/>
-      <c r="AO26" s="21"/>
-      <c r="AP26" s="155"/>
-      <c r="AQ26" s="155"/>
-      <c r="AR26" s="155"/>
-      <c r="AS26" s="155"/>
-      <c r="AT26" s="155"/>
-      <c r="AU26" s="15"/>
-      <c r="AV26" s="21"/>
-      <c r="AW26" s="21"/>
-      <c r="AX26" s="155"/>
-      <c r="AY26" s="155"/>
-      <c r="AZ26" s="155"/>
-      <c r="BA26" s="155"/>
-      <c r="BB26" s="15"/>
-      <c r="BC26" s="21"/>
-      <c r="BD26" s="155"/>
-      <c r="BE26" s="155"/>
-      <c r="BF26" s="155"/>
-      <c r="BG26" s="155"/>
-      <c r="BH26" s="155"/>
-      <c r="BI26" s="15"/>
-      <c r="BJ26" s="21"/>
-      <c r="BK26" s="155"/>
-      <c r="BL26" s="155"/>
-      <c r="BM26" s="155"/>
-      <c r="BN26" s="169"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="183"/>
+      <c r="AD26" s="180"/>
     </row>
-    <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="91"/>
+    <row r="27" spans="1:30" ht="12" customHeight="1">
+      <c r="A27" s="117"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="142"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="171"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5002,73 +7328,39 @@
       <c r="K27" s="7"/>
       <c r="L27" s="13"/>
       <c r="M27" s="19"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="153"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="153"/>
-      <c r="R27" s="153"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
       <c r="S27" s="13"/>
       <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="153"/>
-      <c r="W27" s="153"/>
-      <c r="X27" s="153"/>
-      <c r="Y27" s="153"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="153"/>
-      <c r="AD27" s="153"/>
-      <c r="AE27" s="153"/>
-      <c r="AF27" s="153"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="153"/>
-      <c r="AJ27" s="170"/>
-      <c r="AK27" s="181"/>
-      <c r="AL27" s="153"/>
-      <c r="AM27" s="153"/>
-      <c r="AN27" s="13"/>
-      <c r="AO27" s="19"/>
-      <c r="AP27" s="153"/>
-      <c r="AQ27" s="153"/>
-      <c r="AR27" s="153"/>
-      <c r="AS27" s="153"/>
-      <c r="AT27" s="153"/>
-      <c r="AU27" s="13"/>
-      <c r="AV27" s="19"/>
-      <c r="AW27" s="19"/>
-      <c r="AX27" s="153"/>
-      <c r="AY27" s="153"/>
-      <c r="AZ27" s="153"/>
-      <c r="BA27" s="153"/>
-      <c r="BB27" s="13"/>
-      <c r="BC27" s="19"/>
-      <c r="BD27" s="153"/>
-      <c r="BE27" s="153"/>
-      <c r="BF27" s="153"/>
-      <c r="BG27" s="153"/>
-      <c r="BH27" s="153"/>
-      <c r="BI27" s="13"/>
-      <c r="BJ27" s="19"/>
-      <c r="BK27" s="153"/>
-      <c r="BL27" s="153"/>
-      <c r="BM27" s="153"/>
-      <c r="BN27" s="170"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="183"/>
+      <c r="AD27" s="180"/>
     </row>
-    <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="108">
+    <row r="28" spans="1:30" ht="12" customHeight="1">
+      <c r="A28" s="116">
         <v>14</v>
       </c>
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="131" t="s">
+      <c r="C28" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="149"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="173" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="177"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -5083,60 +7375,24 @@
       <c r="R28" s="6"/>
       <c r="S28" s="15"/>
       <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="155"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="40"/>
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="155"/>
-      <c r="AD28" s="155"/>
-      <c r="AE28" s="155"/>
-      <c r="AF28" s="155"/>
-      <c r="AG28" s="15"/>
-      <c r="AH28" s="21"/>
-      <c r="AI28" s="155"/>
-      <c r="AJ28" s="169"/>
-      <c r="AK28" s="180"/>
-      <c r="AL28" s="155"/>
-      <c r="AM28" s="155"/>
-      <c r="AN28" s="15"/>
-      <c r="AO28" s="21"/>
-      <c r="AP28" s="155"/>
-      <c r="AQ28" s="155"/>
-      <c r="AR28" s="155"/>
-      <c r="AS28" s="155"/>
-      <c r="AT28" s="155"/>
-      <c r="AU28" s="15"/>
-      <c r="AV28" s="21"/>
-      <c r="AW28" s="21"/>
-      <c r="AX28" s="155"/>
-      <c r="AY28" s="155"/>
-      <c r="AZ28" s="155"/>
-      <c r="BA28" s="155"/>
-      <c r="BB28" s="15"/>
-      <c r="BC28" s="21"/>
-      <c r="BD28" s="155"/>
-      <c r="BE28" s="155"/>
-      <c r="BF28" s="155"/>
-      <c r="BG28" s="155"/>
-      <c r="BH28" s="155"/>
-      <c r="BI28" s="15"/>
-      <c r="BJ28" s="21"/>
-      <c r="BK28" s="155"/>
-      <c r="BL28" s="155"/>
-      <c r="BM28" s="155"/>
-      <c r="BN28" s="169"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="183"/>
+      <c r="AD28" s="180"/>
     </row>
-    <row r="29" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="144"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="150"/>
+    <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
+      <c r="A29" s="172"/>
+      <c r="B29" s="174"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="176"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="178"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -5151,78 +7407,42 @@
       <c r="R29" s="11"/>
       <c r="S29" s="14"/>
       <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="159"/>
-      <c r="W29" s="159"/>
-      <c r="X29" s="159"/>
-      <c r="Y29" s="159"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="159"/>
-      <c r="AD29" s="159"/>
-      <c r="AE29" s="159"/>
-      <c r="AF29" s="159"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="20"/>
-      <c r="AI29" s="159"/>
-      <c r="AJ29" s="171"/>
-      <c r="AK29" s="182"/>
-      <c r="AL29" s="159"/>
-      <c r="AM29" s="159"/>
-      <c r="AN29" s="14"/>
-      <c r="AO29" s="20"/>
-      <c r="AP29" s="159"/>
-      <c r="AQ29" s="159"/>
-      <c r="AR29" s="159"/>
-      <c r="AS29" s="159"/>
-      <c r="AT29" s="159"/>
-      <c r="AU29" s="14"/>
-      <c r="AV29" s="20"/>
-      <c r="AW29" s="20"/>
-      <c r="AX29" s="159"/>
-      <c r="AY29" s="159"/>
-      <c r="AZ29" s="159"/>
-      <c r="BA29" s="159"/>
-      <c r="BB29" s="14"/>
-      <c r="BC29" s="20"/>
-      <c r="BD29" s="159"/>
-      <c r="BE29" s="159"/>
-      <c r="BF29" s="159"/>
-      <c r="BG29" s="159"/>
-      <c r="BH29" s="159"/>
-      <c r="BI29" s="14"/>
-      <c r="BJ29" s="20"/>
-      <c r="BK29" s="159"/>
-      <c r="BL29" s="159"/>
-      <c r="BM29" s="159"/>
-      <c r="BN29" s="171"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="184"/>
+      <c r="AD29" s="181"/>
     </row>
-    <row r="30" spans="1:66">
+    <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:66">
+    <row r="31" spans="1:30">
       <c r="A31" s="27"/>
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:66">
+    <row r="32" spans="1:30">
       <c r="A32" s="28"/>
       <c r="B32" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
+  <mergeCells count="61">
+    <mergeCell ref="G1:AD1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:D3"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
+    <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:E7"/>
@@ -5231,6 +7451,7 @@
     <mergeCell ref="C4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="AC4:AC29"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="E8:E9"/>
@@ -5290,1257 +7511,4 @@
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624DF4ED-FA44-48E9-9005-27B4AB47060E}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AD32"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AF27" sqref="AF27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="3" customWidth="1"/>
-    <col min="7" max="30" width="3.125" style="3" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="63"/>
-    </row>
-    <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="46">
-        <v>22</v>
-      </c>
-      <c r="H2" s="4">
-        <v>23</v>
-      </c>
-      <c r="I2" s="4">
-        <v>24</v>
-      </c>
-      <c r="J2" s="4">
-        <v>25</v>
-      </c>
-      <c r="K2" s="4">
-        <v>26</v>
-      </c>
-      <c r="L2" s="4">
-        <v>27</v>
-      </c>
-      <c r="M2" s="4">
-        <v>28</v>
-      </c>
-      <c r="N2" s="4">
-        <v>29</v>
-      </c>
-      <c r="O2" s="4">
-        <v>30</v>
-      </c>
-      <c r="P2" s="4">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>1</v>
-      </c>
-      <c r="R2" s="4">
-        <v>2</v>
-      </c>
-      <c r="S2" s="4">
-        <v>3</v>
-      </c>
-      <c r="T2" s="4">
-        <v>4</v>
-      </c>
-      <c r="U2" s="4">
-        <v>5</v>
-      </c>
-      <c r="V2" s="4">
-        <v>6</v>
-      </c>
-      <c r="W2" s="4">
-        <v>7</v>
-      </c>
-      <c r="X2" s="4">
-        <v>8</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>10</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>11</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>12</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>13</v>
-      </c>
-      <c r="AD2" s="47">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="W3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z3" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD3" s="58" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="90">
-        <v>1</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="98"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD4" s="67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="91"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="65"/>
-      <c r="AD5" s="68"/>
-    </row>
-    <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="108">
-        <v>2</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="115"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="68"/>
-    </row>
-    <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="91"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="68"/>
-    </row>
-    <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="117">
-        <v>3</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="118" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="122" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="124"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="68"/>
-    </row>
-    <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="89"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="68"/>
-    </row>
-    <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="88">
-        <v>4</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="106"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="68"/>
-    </row>
-    <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="89"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="68"/>
-    </row>
-    <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="117">
-        <v>5</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="109" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="110"/>
-      <c r="E12" s="128" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="129"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="68"/>
-    </row>
-    <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="88"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="68"/>
-    </row>
-    <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="130">
-        <v>6</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="124"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="68"/>
-    </row>
-    <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="130"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="68"/>
-    </row>
-    <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="130">
-        <v>7</v>
-      </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="134" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="129"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="68"/>
-    </row>
-    <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="130"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="68"/>
-    </row>
-    <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="130">
-        <v>8</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="110"/>
-      <c r="E18" s="134" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="129"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="68"/>
-    </row>
-    <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="130"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="68"/>
-    </row>
-    <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="117">
-        <v>9</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="131" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="124"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="68"/>
-    </row>
-    <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="89"/>
-      <c r="B21" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="68"/>
-    </row>
-    <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="117">
-        <v>10</v>
-      </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="143" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="110"/>
-      <c r="E22" s="134" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="129"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="68"/>
-    </row>
-    <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="89"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="68"/>
-    </row>
-    <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="117">
-        <v>11</v>
-      </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="143" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="110"/>
-      <c r="E24" s="134" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="129"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="68"/>
-    </row>
-    <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="89"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="68"/>
-    </row>
-    <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="108">
-        <v>12</v>
-      </c>
-      <c r="B26" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="135" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="136"/>
-      <c r="E26" s="139" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="141"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="65"/>
-      <c r="AD26" s="68"/>
-    </row>
-    <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="91"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="68"/>
-    </row>
-    <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="108">
-        <v>14</v>
-      </c>
-      <c r="B28" s="145" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="131" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="145" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="149"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="65"/>
-      <c r="AD28" s="68"/>
-    </row>
-    <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="144"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="66"/>
-      <c r="AD29" s="69"/>
-    </row>
-    <row r="30" spans="1:30">
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-    </row>
-    <row r="31" spans="1:30">
-      <c r="A31" s="27"/>
-      <c r="B31" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30">
-      <c r="A32" s="28"/>
-      <c r="B32" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="AD4:AD29"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="AC4:AC29"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-  </mergeCells>
-  <phoneticPr fontId="4"/>
-  <printOptions gridLinesSet="0"/>
-  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"ＭＳ Ｐゴシック,太字"&amp;12開発スケジュール&amp;R&amp;"ＭＳ Ｐゴシック,標準"&amp;8印刷日：&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;"ＭＳ Ｐゴシック,標準"&amp;8- &amp;P -&amp;R&amp;8Copyright © 2014 *** Corporation. All Rights Reserved.</oddFooter>
-  </headerFooter>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="30" max="80" man="1"/>
-  </colBreaks>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B088FDAC-4019-40E8-BF56-AF778D745796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371F1343-A0E5-4E6F-B0CC-F0D08F770696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="2820" windowWidth="17304" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール (テンプレート)" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="54">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -479,6 +479,28 @@
   <si>
     <t>会員画面</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>馬嶋</t>
+    <rPh sb="0" eb="2">
+      <t>マジマ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>画面遷移図</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>イベント定義書</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>機能一覧</t>
+    <rPh sb="0" eb="4">
+      <t>キノウイチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1610,7 +1632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1888,6 +1910,213 @@
     <xf numFmtId="178" fontId="2" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1951,290 +2180,56 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2944,7 +2939,7 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14:F15"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2961,94 +2956,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="110" t="s">
+      <c r="D1" s="174"/>
+      <c r="E1" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="95">
+      <c r="G1" s="164">
         <v>45536</v>
       </c>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="97"/>
-      <c r="AK1" s="95">
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="165"/>
+      <c r="AD1" s="165"/>
+      <c r="AE1" s="165"/>
+      <c r="AF1" s="165"/>
+      <c r="AG1" s="165"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="165"/>
+      <c r="AJ1" s="166"/>
+      <c r="AK1" s="164">
         <v>45566</v>
       </c>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="96"/>
-      <c r="AO1" s="96"/>
-      <c r="AP1" s="96"/>
-      <c r="AQ1" s="96"/>
-      <c r="AR1" s="96"/>
-      <c r="AS1" s="96"/>
-      <c r="AT1" s="96"/>
-      <c r="AU1" s="96"/>
-      <c r="AV1" s="96"/>
-      <c r="AW1" s="96"/>
-      <c r="AX1" s="96"/>
-      <c r="AY1" s="96"/>
-      <c r="AZ1" s="96"/>
-      <c r="BA1" s="96"/>
-      <c r="BB1" s="96"/>
-      <c r="BC1" s="96"/>
-      <c r="BD1" s="96"/>
-      <c r="BE1" s="96"/>
-      <c r="BF1" s="96"/>
-      <c r="BG1" s="96"/>
-      <c r="BH1" s="96"/>
-      <c r="BI1" s="96"/>
-      <c r="BJ1" s="96"/>
-      <c r="BK1" s="96"/>
-      <c r="BL1" s="96"/>
-      <c r="BM1" s="96"/>
-      <c r="BN1" s="97"/>
+      <c r="AL1" s="165"/>
+      <c r="AM1" s="165"/>
+      <c r="AN1" s="165"/>
+      <c r="AO1" s="165"/>
+      <c r="AP1" s="165"/>
+      <c r="AQ1" s="165"/>
+      <c r="AR1" s="165"/>
+      <c r="AS1" s="165"/>
+      <c r="AT1" s="165"/>
+      <c r="AU1" s="165"/>
+      <c r="AV1" s="165"/>
+      <c r="AW1" s="165"/>
+      <c r="AX1" s="165"/>
+      <c r="AY1" s="165"/>
+      <c r="AZ1" s="165"/>
+      <c r="BA1" s="165"/>
+      <c r="BB1" s="165"/>
+      <c r="BC1" s="165"/>
+      <c r="BD1" s="165"/>
+      <c r="BE1" s="165"/>
+      <c r="BF1" s="165"/>
+      <c r="BG1" s="165"/>
+      <c r="BH1" s="165"/>
+      <c r="BI1" s="165"/>
+      <c r="BJ1" s="165"/>
+      <c r="BK1" s="165"/>
+      <c r="BL1" s="165"/>
+      <c r="BM1" s="165"/>
+      <c r="BN1" s="166"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="99"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="114"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="183"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3290,12 +3285,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="100"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="115"/>
+      <c r="A3" s="169"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="184"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3478,19 +3473,21 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="126">
+      <c r="A4" s="157">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="49"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="194" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="162"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
@@ -3552,13 +3549,13 @@
       <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="117"/>
+      <c r="A5" s="152"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="50"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="31"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
       <c r="J5" s="62"/>
@@ -3620,21 +3617,23 @@
       <c r="BN5" s="72"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="116">
+      <c r="A6" s="151">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="124"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="201" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="155"/>
       <c r="G6" s="51"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
       <c r="L6" s="13"/>
       <c r="M6" s="19"/>
       <c r="N6" s="63"/>
@@ -3692,12 +3691,12 @@
       <c r="BN6" s="73"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="117"/>
+      <c r="A7" s="152"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="125"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="156"/>
       <c r="G7" s="52"/>
       <c r="H7" s="64"/>
       <c r="I7" s="64"/>
@@ -3760,18 +3759,20 @@
       <c r="BN7" s="74"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="185">
+      <c r="A8" s="151">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="137" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="138"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="208"/>
+      <c r="C8" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="109"/>
+      <c r="E8" s="194" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="100"/>
       <c r="G8" s="38"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -3834,12 +3835,12 @@
       <c r="BN8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="186"/>
+      <c r="A9" s="152"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="209"/>
-      <c r="F9" s="202"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="101"/>
       <c r="G9" s="51"/>
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
@@ -3902,12 +3903,18 @@
       <c r="BN9" s="73"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="186"/>
+      <c r="A10" s="151">
+        <v>4</v>
+      </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="201"/>
+      <c r="C10" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="113"/>
+      <c r="E10" s="201" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="102"/>
       <c r="G10" s="51"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
@@ -3970,12 +3977,12 @@
       <c r="BN10" s="73"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="186"/>
+      <c r="A11" s="152"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="209"/>
-      <c r="F11" s="202"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="101"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4038,12 +4045,18 @@
       <c r="BN11" s="73"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="186"/>
+      <c r="A12" s="151">
+        <v>5</v>
+      </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="192"/>
-      <c r="F12" s="201"/>
+      <c r="C12" s="112" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="113"/>
+      <c r="E12" s="196" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="102"/>
       <c r="G12" s="51"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
@@ -4106,12 +4119,12 @@
       <c r="BN12" s="73"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="187"/>
+      <c r="A13" s="152"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="191"/>
-      <c r="F13" s="207"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="103"/>
       <c r="G13" s="53"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
@@ -4119,7 +4132,7 @@
       <c r="K13" s="66"/>
       <c r="L13" s="44"/>
       <c r="M13" s="45"/>
-      <c r="N13" s="203"/>
+      <c r="N13" s="98"/>
       <c r="O13" s="66"/>
       <c r="P13" s="66"/>
       <c r="Q13" s="66"/>
@@ -4171,21 +4184,23 @@
       <c r="BK13" s="43"/>
       <c r="BL13" s="43"/>
       <c r="BM13" s="43"/>
-      <c r="BN13" s="204"/>
+      <c r="BN13" s="99"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="145">
-        <v>4</v>
+      <c r="A14" s="151">
+        <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="146" t="s">
+      <c r="C14" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="147"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="152"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="194" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="150"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4248,12 +4263,12 @@
       <c r="BN14" s="72"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="136"/>
+      <c r="A15" s="152"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="153"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="195"/>
+      <c r="F15" s="144"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4316,16 +4331,18 @@
       <c r="BN15" s="72"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="135">
-        <v>5</v>
+      <c r="A16" s="151">
+        <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="118" t="s">
+      <c r="C16" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="119"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="157"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="201" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="143"/>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -4388,12 +4405,12 @@
       <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="145"/>
+      <c r="A17" s="152"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="152"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="150"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -4456,18 +4473,20 @@
       <c r="BN17" s="74"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="158">
-        <v>6</v>
+      <c r="A18" s="151">
+        <v>8</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="159" t="s">
+      <c r="C18" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="160"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="143"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="194" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="138"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -4530,12 +4549,12 @@
       <c r="BN18" s="75"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="158"/>
+      <c r="A19" s="152"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="153"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="144"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -4598,16 +4617,18 @@
       <c r="BN19" s="74"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="158">
-        <v>7</v>
+      <c r="A20" s="151">
+        <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="118" t="s">
+      <c r="C20" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="119"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="157"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="201" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="143"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4670,12 +4691,12 @@
       <c r="BN20" s="73"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="158"/>
+      <c r="A21" s="152"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="153"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="199"/>
+      <c r="F21" s="144"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4738,16 +4759,18 @@
       <c r="BN21" s="74"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="158">
-        <v>8</v>
+      <c r="A22" s="151">
+        <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="157"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="196" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="143"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4810,12 +4833,12 @@
       <c r="BN22" s="77"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="158"/>
+      <c r="A23" s="152"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="144"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="139"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4878,18 +4901,20 @@
       <c r="BN23" s="78"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="135">
-        <v>9</v>
+      <c r="A24" s="151">
+        <v>11</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="159" t="s">
+      <c r="C24" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="160"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="143"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="194" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="138"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -4952,86 +4977,88 @@
       <c r="BN24" s="79"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="136"/>
+      <c r="A25" s="152"/>
       <c r="B25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="120"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="142"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="199"/>
       <c r="F25" s="144"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="68"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="68"/>
-      <c r="Y25" s="68"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="194"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="68"/>
-      <c r="AD25" s="68"/>
-      <c r="AE25" s="68"/>
-      <c r="AF25" s="68"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="68"/>
-      <c r="AJ25" s="78"/>
-      <c r="AK25" s="89"/>
-      <c r="AL25" s="68"/>
-      <c r="AM25" s="68"/>
-      <c r="AN25" s="17"/>
-      <c r="AO25" s="23"/>
-      <c r="AP25" s="68"/>
-      <c r="AQ25" s="68"/>
-      <c r="AR25" s="68"/>
-      <c r="AS25" s="68"/>
-      <c r="AT25" s="68"/>
-      <c r="AU25" s="17"/>
-      <c r="AV25" s="23"/>
-      <c r="AW25" s="23"/>
-      <c r="AX25" s="68"/>
-      <c r="AY25" s="68"/>
-      <c r="AZ25" s="68"/>
-      <c r="BA25" s="68"/>
-      <c r="BB25" s="17"/>
-      <c r="BC25" s="23"/>
-      <c r="BD25" s="68"/>
-      <c r="BE25" s="68"/>
-      <c r="BF25" s="68"/>
-      <c r="BG25" s="68"/>
-      <c r="BH25" s="68"/>
-      <c r="BI25" s="17"/>
-      <c r="BJ25" s="23"/>
-      <c r="BK25" s="68"/>
-      <c r="BL25" s="68"/>
-      <c r="BM25" s="68"/>
-      <c r="BN25" s="78"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="200"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="200"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="63"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="63"/>
+      <c r="AJ25" s="80"/>
+      <c r="AK25" s="91"/>
+      <c r="AL25" s="63"/>
+      <c r="AM25" s="63"/>
+      <c r="AN25" s="13"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="63"/>
+      <c r="AQ25" s="63"/>
+      <c r="AR25" s="63"/>
+      <c r="AS25" s="63"/>
+      <c r="AT25" s="63"/>
+      <c r="AU25" s="13"/>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="63"/>
+      <c r="AY25" s="63"/>
+      <c r="AZ25" s="63"/>
+      <c r="BA25" s="63"/>
+      <c r="BB25" s="13"/>
+      <c r="BC25" s="19"/>
+      <c r="BD25" s="63"/>
+      <c r="BE25" s="63"/>
+      <c r="BF25" s="63"/>
+      <c r="BG25" s="63"/>
+      <c r="BH25" s="63"/>
+      <c r="BI25" s="13"/>
+      <c r="BJ25" s="19"/>
+      <c r="BK25" s="63"/>
+      <c r="BL25" s="63"/>
+      <c r="BM25" s="63"/>
+      <c r="BN25" s="80"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="188">
-        <v>10</v>
+      <c r="A26" s="151">
+        <v>12</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="159" t="s">
+      <c r="C26" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="160"/>
-      <c r="E26" s="205"/>
-      <c r="F26" s="208"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="196" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="198"/>
       <c r="G26" s="50"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -5061,8 +5088,8 @@
       <c r="AG26" s="16"/>
       <c r="AH26" s="22"/>
       <c r="AI26" s="62"/>
-      <c r="AJ26" s="195"/>
-      <c r="AK26" s="196"/>
+      <c r="AJ26" s="96"/>
+      <c r="AK26" s="97"/>
       <c r="AL26" s="62"/>
       <c r="AM26" s="62"/>
       <c r="AN26" s="16"/>
@@ -5091,17 +5118,17 @@
       <c r="BK26" s="62"/>
       <c r="BL26" s="62"/>
       <c r="BM26" s="62"/>
-      <c r="BN26" s="195"/>
+      <c r="BN26" s="80"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="189"/>
+      <c r="A27" s="152"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="200"/>
-      <c r="F27" s="202"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="101"/>
       <c r="G27" s="51"/>
-      <c r="H27" s="193"/>
+      <c r="H27" s="95"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -5162,16 +5189,18 @@
       <c r="BN27" s="80"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="188">
-        <v>11</v>
+      <c r="A28" s="151">
+        <v>13</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="118" t="s">
+      <c r="C28" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="119"/>
-      <c r="E28" s="197"/>
-      <c r="F28" s="201"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="201" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="102"/>
       <c r="G28" s="50"/>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
@@ -5234,15 +5263,15 @@
       <c r="BN28" s="80"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="189"/>
+      <c r="A29" s="152"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="198"/>
-      <c r="F29" s="202"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="195"/>
+      <c r="F29" s="101"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="193"/>
+      <c r="I29" s="95"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="13"/>
@@ -5302,16 +5331,18 @@
       <c r="BN29" s="80"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="188">
-        <v>12</v>
+      <c r="A30" s="151">
+        <v>14</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="118" t="s">
+      <c r="C30" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="119"/>
-      <c r="E30" s="199"/>
-      <c r="F30" s="201"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="201" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="102"/>
       <c r="G30" s="50"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -5374,14 +5405,14 @@
       <c r="BN30" s="80"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="189"/>
+      <c r="A31" s="152"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="200"/>
-      <c r="F31" s="202"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="199"/>
+      <c r="F31" s="101"/>
       <c r="G31" s="51"/>
-      <c r="H31" s="193"/>
+      <c r="H31" s="95"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -5442,16 +5473,18 @@
       <c r="BN31" s="80"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="188">
-        <v>13</v>
+      <c r="A32" s="151">
+        <v>15</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="118" t="s">
+      <c r="C32" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="119"/>
-      <c r="E32" s="199"/>
-      <c r="F32" s="201"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="196" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="102"/>
       <c r="G32" s="52"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5514,12 +5547,12 @@
       <c r="BN32" s="77"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="189"/>
+      <c r="A33" s="152"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="200"/>
-      <c r="F33" s="202"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="195"/>
+      <c r="F33" s="101"/>
       <c r="G33" s="52"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5582,16 +5615,18 @@
       <c r="BN33" s="77"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="188">
-        <v>14</v>
+      <c r="A34" s="151">
+        <v>16</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="118" t="s">
+      <c r="C34" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="119"/>
-      <c r="E34" s="199"/>
-      <c r="F34" s="201"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="201" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="102"/>
       <c r="G34" s="52"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5654,12 +5689,12 @@
       <c r="BN34" s="77"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="189"/>
+      <c r="A35" s="152"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="129"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="200"/>
-      <c r="F35" s="202"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="101"/>
       <c r="G35" s="52"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5722,16 +5757,18 @@
       <c r="BN35" s="77"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="188">
-        <v>15</v>
+      <c r="A36" s="151">
+        <v>17</v>
       </c>
       <c r="B36" s="36"/>
-      <c r="C36" s="118" t="s">
+      <c r="C36" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="119"/>
-      <c r="E36" s="199"/>
-      <c r="F36" s="201"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="201" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="102"/>
       <c r="G36" s="52"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5794,12 +5831,12 @@
       <c r="BN36" s="77"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="189"/>
+      <c r="A37" s="152"/>
       <c r="B37" s="36"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="206"/>
-      <c r="F37" s="207"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="194"/>
+      <c r="F37" s="103"/>
       <c r="G37" s="52"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5862,18 +5899,20 @@
       <c r="BN37" s="77"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="188">
-        <v>16</v>
+      <c r="A38" s="151">
+        <v>18</v>
       </c>
       <c r="B38" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="164" t="s">
+      <c r="C38" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="165"/>
-      <c r="E38" s="168"/>
-      <c r="F38" s="170"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="194" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="132"/>
       <c r="G38" s="38"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -5936,12 +5975,12 @@
       <c r="BN38" s="79"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="189"/>
+      <c r="A39" s="152"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="166"/>
-      <c r="D39" s="167"/>
-      <c r="E39" s="169"/>
-      <c r="F39" s="171"/>
+      <c r="C39" s="128"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="194"/>
+      <c r="F39" s="133"/>
       <c r="G39" s="51"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -6004,18 +6043,20 @@
       <c r="BN39" s="80"/>
     </row>
     <row r="40" spans="1:66" ht="12" customHeight="1">
-      <c r="A40" s="188">
-        <v>17</v>
-      </c>
-      <c r="B40" s="173" t="s">
+      <c r="A40" s="151">
+        <v>19</v>
+      </c>
+      <c r="B40" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="159" t="s">
+      <c r="C40" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="160"/>
-      <c r="E40" s="173"/>
-      <c r="F40" s="177"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="195" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="124"/>
       <c r="G40" s="38"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -6078,12 +6119,12 @@
       <c r="BN40" s="79"/>
     </row>
     <row r="41" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A41" s="189"/>
-      <c r="B41" s="174"/>
-      <c r="C41" s="175"/>
-      <c r="D41" s="176"/>
-      <c r="E41" s="174"/>
-      <c r="F41" s="178"/>
+      <c r="A41" s="152"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="197"/>
+      <c r="F41" s="125"/>
       <c r="G41" s="39"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -6162,19 +6203,63 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E26:E27"/>
+  <mergeCells count="84">
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="A32:A33"/>
@@ -6191,59 +6276,18 @@
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -6267,11 +6311,11 @@
   </sheetPr>
   <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AF27" sqref="AF27"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -6287,54 +6331,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="110" t="s">
+      <c r="D1" s="174"/>
+      <c r="E1" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="95"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="97"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="165"/>
+      <c r="AD1" s="166"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="99"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="114"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="183"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -6409,12 +6453,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="100"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="115"/>
+      <c r="A3" s="169"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="184"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -6489,20 +6533,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="126">
+      <c r="A4" s="157">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="131" t="s">
+      <c r="D4" s="159"/>
+      <c r="E4" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="133"/>
+      <c r="F4" s="162"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -6525,20 +6569,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="182" t="s">
+      <c r="AC4" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="179" t="s">
+      <c r="AD4" s="185" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="117"/>
+      <c r="A5" s="152"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="134"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="163"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -6561,22 +6605,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="183"/>
-      <c r="AD5" s="180"/>
+      <c r="AC5" s="189"/>
+      <c r="AD5" s="186"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="116">
+      <c r="A6" s="151">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="122" t="s">
+      <c r="D6" s="117"/>
+      <c r="E6" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="124"/>
+      <c r="F6" s="155"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -6599,16 +6643,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="183"/>
-      <c r="AD6" s="180"/>
+      <c r="AC6" s="189"/>
+      <c r="AD6" s="186"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="117"/>
+      <c r="A7" s="152"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="125"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="156"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -6631,24 +6675,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="183"/>
-      <c r="AD7" s="180"/>
+      <c r="AC7" s="189"/>
+      <c r="AD7" s="186"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="135">
+      <c r="A8" s="134">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="137" t="s">
+      <c r="C8" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="138"/>
-      <c r="E8" s="141" t="s">
+      <c r="D8" s="109"/>
+      <c r="E8" s="191" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="143"/>
+      <c r="F8" s="138"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -6671,16 +6715,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="183"/>
-      <c r="AD8" s="180"/>
+      <c r="AC8" s="189"/>
+      <c r="AD8" s="186"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="136"/>
+      <c r="A9" s="135"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="144"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="139"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -6703,8 +6747,8 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="183"/>
-      <c r="AD9" s="180"/>
+      <c r="AC9" s="189"/>
+      <c r="AD9" s="186"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
       <c r="A10" s="145">
@@ -6713,14 +6757,14 @@
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="146" t="s">
+      <c r="C10" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="147"/>
-      <c r="E10" s="150" t="s">
+      <c r="D10" s="113"/>
+      <c r="E10" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="152"/>
+      <c r="F10" s="150"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -6743,16 +6787,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="183"/>
-      <c r="AD10" s="180"/>
+      <c r="AC10" s="189"/>
+      <c r="AD10" s="186"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="136"/>
+      <c r="A11" s="135"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="153"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="144"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -6775,22 +6819,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="183"/>
-      <c r="AD11" s="180"/>
+      <c r="AC11" s="189"/>
+      <c r="AD11" s="186"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="135">
+      <c r="A12" s="134">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="118" t="s">
+      <c r="C12" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="156" t="s">
+      <c r="D12" s="117"/>
+      <c r="E12" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="157"/>
+      <c r="F12" s="143"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -6813,16 +6857,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="183"/>
-      <c r="AD12" s="180"/>
+      <c r="AC12" s="189"/>
+      <c r="AD12" s="186"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
       <c r="A13" s="145"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="152"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="150"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -6845,24 +6889,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="183"/>
-      <c r="AD13" s="180"/>
+      <c r="AC13" s="189"/>
+      <c r="AD13" s="186"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="158">
+      <c r="A14" s="140">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="159" t="s">
+      <c r="C14" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="160"/>
-      <c r="E14" s="161" t="s">
+      <c r="D14" s="105"/>
+      <c r="E14" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="143"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -6885,16 +6929,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="183"/>
-      <c r="AD14" s="180"/>
+      <c r="AC14" s="189"/>
+      <c r="AD14" s="186"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="158"/>
+      <c r="A15" s="140"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="153"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="144"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -6917,22 +6961,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="183"/>
-      <c r="AD15" s="180"/>
+      <c r="AC15" s="189"/>
+      <c r="AD15" s="186"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="158">
+      <c r="A16" s="140">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="118" t="s">
+      <c r="C16" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="119"/>
-      <c r="E16" s="162" t="s">
+      <c r="D16" s="117"/>
+      <c r="E16" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="157"/>
+      <c r="F16" s="143"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -6955,16 +6999,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="183"/>
-      <c r="AD16" s="180"/>
+      <c r="AC16" s="189"/>
+      <c r="AD16" s="186"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="158"/>
+      <c r="A17" s="140"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="153"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="144"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -6987,22 +7031,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="183"/>
-      <c r="AD17" s="180"/>
+      <c r="AC17" s="189"/>
+      <c r="AD17" s="186"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="158">
+      <c r="A18" s="140">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="118" t="s">
+      <c r="C18" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="119"/>
-      <c r="E18" s="162" t="s">
+      <c r="D18" s="117"/>
+      <c r="E18" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="157"/>
+      <c r="F18" s="143"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7025,16 +7069,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="183"/>
-      <c r="AD18" s="180"/>
+      <c r="AC18" s="189"/>
+      <c r="AD18" s="186"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="158"/>
+      <c r="A19" s="140"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="144"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="139"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7057,24 +7101,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="183"/>
-      <c r="AD19" s="180"/>
+      <c r="AC19" s="189"/>
+      <c r="AD19" s="186"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="135">
+      <c r="A20" s="134">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="159" t="s">
+      <c r="C20" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="160"/>
-      <c r="E20" s="161" t="s">
+      <c r="D20" s="105"/>
+      <c r="E20" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="143"/>
+      <c r="F20" s="138"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7097,18 +7141,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="183"/>
-      <c r="AD20" s="180"/>
+      <c r="AC20" s="189"/>
+      <c r="AD20" s="186"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="136"/>
+      <c r="A21" s="135"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="129"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="153"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="144"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -7131,22 +7175,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="183"/>
-      <c r="AD21" s="180"/>
+      <c r="AC21" s="189"/>
+      <c r="AD21" s="186"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="135">
+      <c r="A22" s="134">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="163" t="s">
+      <c r="C22" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="162" t="s">
+      <c r="D22" s="117"/>
+      <c r="E22" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="157"/>
+      <c r="F22" s="143"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -7169,16 +7213,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="183"/>
-      <c r="AD22" s="180"/>
+      <c r="AC22" s="189"/>
+      <c r="AD22" s="186"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="136"/>
+      <c r="A23" s="135"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="153"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="144"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -7201,22 +7245,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="183"/>
-      <c r="AD23" s="180"/>
+      <c r="AC23" s="189"/>
+      <c r="AD23" s="186"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="135">
+      <c r="A24" s="134">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="163" t="s">
+      <c r="C24" s="192" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="119"/>
-      <c r="E24" s="162" t="s">
+      <c r="D24" s="117"/>
+      <c r="E24" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="157"/>
+      <c r="F24" s="143"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -7239,16 +7283,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="183"/>
-      <c r="AD24" s="180"/>
+      <c r="AC24" s="189"/>
+      <c r="AD24" s="186"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="136"/>
+      <c r="A25" s="135"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="144"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="139"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -7271,24 +7315,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="183"/>
-      <c r="AD25" s="180"/>
+      <c r="AC25" s="189"/>
+      <c r="AD25" s="186"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="116">
+      <c r="A26" s="151">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="164" t="s">
+      <c r="C26" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="165"/>
-      <c r="E26" s="168" t="s">
+      <c r="D26" s="127"/>
+      <c r="E26" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="170"/>
+      <c r="F26" s="132"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -7311,16 +7355,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="183"/>
-      <c r="AD26" s="180"/>
+      <c r="AC26" s="189"/>
+      <c r="AD26" s="186"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="117"/>
+      <c r="A27" s="152"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="171"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="133"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -7343,24 +7387,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="183"/>
-      <c r="AD27" s="180"/>
+      <c r="AC27" s="189"/>
+      <c r="AD27" s="186"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="116">
+      <c r="A28" s="151">
         <v>14</v>
       </c>
-      <c r="B28" s="173" t="s">
+      <c r="B28" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="159" t="s">
+      <c r="C28" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="160"/>
-      <c r="E28" s="173" t="s">
+      <c r="D28" s="105"/>
+      <c r="E28" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="177"/>
+      <c r="F28" s="124"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -7383,16 +7427,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="183"/>
-      <c r="AD28" s="180"/>
+      <c r="AC28" s="189"/>
+      <c r="AD28" s="186"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="172"/>
-      <c r="B29" s="174"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="176"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="178"/>
+      <c r="A29" s="193"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="125"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -7415,8 +7459,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="184"/>
-      <c r="AD29" s="181"/>
+      <c r="AC29" s="190"/>
+      <c r="AD29" s="187"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -7436,12 +7480,45 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -7458,45 +7535,12 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371F1343-A0E5-4E6F-B0CC-F0D08F770696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93849B28-632D-4D3F-8426-67F526B59B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -607,7 +607,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="82">
+  <borders count="84">
     <border>
       <left/>
       <right/>
@@ -1628,11 +1628,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1913,29 +1937,161 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1943,11 +2099,65 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1955,65 +2165,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2021,11 +2183,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2033,56 +2192,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2090,146 +2234,39 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2933,13 +2970,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN44"/>
+  <dimension ref="A1:BO44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10:E11"/>
+      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2956,94 +2993,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="170" t="s">
+      <c r="B1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="173" t="s">
+      <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="174"/>
-      <c r="E1" s="179" t="s">
+      <c r="D1" s="111"/>
+      <c r="E1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="182" t="s">
+      <c r="F1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="164">
+      <c r="G1" s="101">
         <v>45536</v>
       </c>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="165"/>
-      <c r="T1" s="165"/>
-      <c r="U1" s="165"/>
-      <c r="V1" s="165"/>
-      <c r="W1" s="165"/>
-      <c r="X1" s="165"/>
-      <c r="Y1" s="165"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="165"/>
-      <c r="AB1" s="165"/>
-      <c r="AC1" s="165"/>
-      <c r="AD1" s="165"/>
-      <c r="AE1" s="165"/>
-      <c r="AF1" s="165"/>
-      <c r="AG1" s="165"/>
-      <c r="AH1" s="165"/>
-      <c r="AI1" s="165"/>
-      <c r="AJ1" s="166"/>
-      <c r="AK1" s="164">
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="102"/>
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="102"/>
+      <c r="AB1" s="102"/>
+      <c r="AC1" s="102"/>
+      <c r="AD1" s="102"/>
+      <c r="AE1" s="102"/>
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="102"/>
+      <c r="AH1" s="102"/>
+      <c r="AI1" s="102"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="101">
         <v>45566</v>
       </c>
-      <c r="AL1" s="165"/>
-      <c r="AM1" s="165"/>
-      <c r="AN1" s="165"/>
-      <c r="AO1" s="165"/>
-      <c r="AP1" s="165"/>
-      <c r="AQ1" s="165"/>
-      <c r="AR1" s="165"/>
-      <c r="AS1" s="165"/>
-      <c r="AT1" s="165"/>
-      <c r="AU1" s="165"/>
-      <c r="AV1" s="165"/>
-      <c r="AW1" s="165"/>
-      <c r="AX1" s="165"/>
-      <c r="AY1" s="165"/>
-      <c r="AZ1" s="165"/>
-      <c r="BA1" s="165"/>
-      <c r="BB1" s="165"/>
-      <c r="BC1" s="165"/>
-      <c r="BD1" s="165"/>
-      <c r="BE1" s="165"/>
-      <c r="BF1" s="165"/>
-      <c r="BG1" s="165"/>
-      <c r="BH1" s="165"/>
-      <c r="BI1" s="165"/>
-      <c r="BJ1" s="165"/>
-      <c r="BK1" s="165"/>
-      <c r="BL1" s="165"/>
-      <c r="BM1" s="165"/>
-      <c r="BN1" s="166"/>
+      <c r="AL1" s="102"/>
+      <c r="AM1" s="102"/>
+      <c r="AN1" s="102"/>
+      <c r="AO1" s="102"/>
+      <c r="AP1" s="102"/>
+      <c r="AQ1" s="102"/>
+      <c r="AR1" s="102"/>
+      <c r="AS1" s="102"/>
+      <c r="AT1" s="102"/>
+      <c r="AU1" s="102"/>
+      <c r="AV1" s="102"/>
+      <c r="AW1" s="102"/>
+      <c r="AX1" s="102"/>
+      <c r="AY1" s="102"/>
+      <c r="AZ1" s="102"/>
+      <c r="BA1" s="102"/>
+      <c r="BB1" s="102"/>
+      <c r="BC1" s="102"/>
+      <c r="BD1" s="102"/>
+      <c r="BE1" s="102"/>
+      <c r="BF1" s="102"/>
+      <c r="BG1" s="102"/>
+      <c r="BH1" s="102"/>
+      <c r="BI1" s="102"/>
+      <c r="BJ1" s="102"/>
+      <c r="BK1" s="102"/>
+      <c r="BL1" s="102"/>
+      <c r="BM1" s="102"/>
+      <c r="BN1" s="103"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="183"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="119"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3285,12 +3322,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="169"/>
-      <c r="B3" s="172"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="184"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="120"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3473,20 +3510,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="157">
+      <c r="A4" s="121">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="158" t="s">
+      <c r="C4" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="194" t="s">
+      <c r="D4" s="124"/>
+      <c r="E4" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="162"/>
+      <c r="F4" s="129"/>
       <c r="G4" s="29"/>
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
@@ -3549,12 +3586,12 @@
       <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="152"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="163"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="130"/>
       <c r="G5" s="31"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
@@ -3617,18 +3654,18 @@
       <c r="BN5" s="72"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="151">
+      <c r="A6" s="131">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="201" t="s">
+      <c r="D6" s="139"/>
+      <c r="E6" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="155"/>
+      <c r="F6" s="143"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -3691,12 +3728,12 @@
       <c r="BN6" s="73"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="152"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="156"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="144"/>
       <c r="G7" s="52"/>
       <c r="H7" s="64"/>
       <c r="I7" s="64"/>
@@ -3759,20 +3796,20 @@
       <c r="BN7" s="74"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="151">
+      <c r="A8" s="131">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="170" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="194" t="s">
+      <c r="D8" s="171"/>
+      <c r="E8" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="100"/>
+      <c r="F8" s="175"/>
       <c r="G8" s="38"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -3780,7 +3817,7 @@
       <c r="K8" s="65"/>
       <c r="L8" s="15"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="63"/>
+      <c r="N8" s="30"/>
       <c r="O8" s="65"/>
       <c r="P8" s="65"/>
       <c r="Q8" s="65"/>
@@ -3835,12 +3872,12 @@
       <c r="BN8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="152"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="101"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="168"/>
       <c r="G9" s="51"/>
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
@@ -3903,18 +3940,18 @@
       <c r="BN9" s="73"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="151">
+      <c r="A10" s="131">
         <v>4</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="201" t="s">
+      <c r="D10" s="133"/>
+      <c r="E10" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="102"/>
+      <c r="F10" s="167"/>
       <c r="G10" s="51"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
@@ -3923,7 +3960,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="19"/>
       <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
+      <c r="O10" s="30"/>
       <c r="P10" s="63"/>
       <c r="Q10" s="63"/>
       <c r="R10" s="63"/>
@@ -3977,12 +4014,12 @@
       <c r="BN10" s="73"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="152"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="199"/>
-      <c r="F11" s="101"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="168"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4045,18 +4082,18 @@
       <c r="BN11" s="73"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="151">
+      <c r="A12" s="131">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="196" t="s">
+      <c r="D12" s="133"/>
+      <c r="E12" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="102"/>
+      <c r="F12" s="167"/>
       <c r="G12" s="51"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
@@ -4065,8 +4102,8 @@
       <c r="L12" s="13"/>
       <c r="M12" s="19"/>
       <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
       <c r="Q12" s="63"/>
       <c r="R12" s="63"/>
       <c r="S12" s="13"/>
@@ -4119,12 +4156,12 @@
       <c r="BN12" s="73"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="152"/>
+      <c r="A13" s="122"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="194"/>
-      <c r="F13" s="103"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="169"/>
       <c r="G13" s="53"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
@@ -4132,7 +4169,7 @@
       <c r="K13" s="66"/>
       <c r="L13" s="44"/>
       <c r="M13" s="45"/>
-      <c r="N13" s="98"/>
+      <c r="N13" s="96"/>
       <c r="O13" s="66"/>
       <c r="P13" s="66"/>
       <c r="Q13" s="66"/>
@@ -4184,23 +4221,23 @@
       <c r="BK13" s="43"/>
       <c r="BL13" s="43"/>
       <c r="BM13" s="43"/>
-      <c r="BN13" s="99"/>
+      <c r="BN13" s="97"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="151">
+      <c r="A14" s="131">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="194" t="s">
+      <c r="D14" s="133"/>
+      <c r="E14" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="150"/>
+      <c r="F14" s="136"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4210,16 +4247,16 @@
       <c r="M14" s="22"/>
       <c r="N14" s="67"/>
       <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
       <c r="S14" s="16"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
       <c r="Z14" s="16"/>
       <c r="AA14" s="22"/>
       <c r="AB14" s="22"/>
@@ -4263,12 +4300,12 @@
       <c r="BN14" s="72"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="152"/>
+      <c r="A15" s="122"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="195"/>
-      <c r="F15" s="144"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="137"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4331,18 +4368,18 @@
       <c r="BN15" s="72"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="151">
+      <c r="A16" s="131">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="201" t="s">
+      <c r="D16" s="139"/>
+      <c r="E16" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="143"/>
+      <c r="F16" s="147"/>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -4358,17 +4395,17 @@
       <c r="S16" s="13"/>
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="9"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
       <c r="AG16" s="13"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="7"/>
@@ -4405,12 +4442,12 @@
       <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="152"/>
+      <c r="A17" s="122"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="150"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="136"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -4429,18 +4466,18 @@
       <c r="V17" s="24"/>
       <c r="W17" s="24"/>
       <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
+      <c r="Y17" s="9"/>
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="26"/>
       <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
+      <c r="AD17" s="43"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="205"/>
       <c r="AG17" s="25"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="74"/>
+      <c r="AH17" s="23"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="97"/>
       <c r="AK17" s="85"/>
       <c r="AL17" s="24"/>
       <c r="AM17" s="24"/>
@@ -4473,20 +4510,20 @@
       <c r="BN17" s="74"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="151">
+      <c r="A18" s="131">
         <v>8</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="105"/>
-      <c r="E18" s="194" t="s">
+      <c r="D18" s="149"/>
+      <c r="E18" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="138"/>
+      <c r="F18" s="150"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -4505,18 +4542,18 @@
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
+      <c r="Y18" s="60"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="21"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
+      <c r="AC18" s="60"/>
+      <c r="AD18" s="60"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
       <c r="AG18" s="15"/>
-      <c r="AH18" s="21"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="75"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="98"/>
       <c r="AK18" s="86"/>
       <c r="AL18" s="6"/>
       <c r="AM18" s="6"/>
@@ -4549,12 +4586,12 @@
       <c r="BN18" s="75"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="152"/>
+      <c r="A19" s="122"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="144"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -4584,7 +4621,7 @@
       <c r="AG19" s="25"/>
       <c r="AH19" s="26"/>
       <c r="AI19" s="24"/>
-      <c r="AJ19" s="74"/>
+      <c r="AJ19" s="73"/>
       <c r="AK19" s="85"/>
       <c r="AL19" s="24"/>
       <c r="AM19" s="24"/>
@@ -4617,18 +4654,18 @@
       <c r="BN19" s="74"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="151">
+      <c r="A20" s="131">
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="116" t="s">
+      <c r="C20" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="201" t="s">
+      <c r="D20" s="139"/>
+      <c r="E20" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="143"/>
+      <c r="F20" s="147"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4651,16 +4688,16 @@
       <c r="Z20" s="13"/>
       <c r="AA20" s="19"/>
       <c r="AB20" s="19"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="24"/>
       <c r="AG20" s="13"/>
       <c r="AH20" s="19"/>
-      <c r="AI20" s="7"/>
+      <c r="AI20" s="24"/>
       <c r="AJ20" s="73"/>
-      <c r="AK20" s="84"/>
-      <c r="AL20" s="7"/>
+      <c r="AK20" s="85"/>
+      <c r="AL20" s="24"/>
       <c r="AM20" s="7"/>
       <c r="AN20" s="13"/>
       <c r="AO20" s="19"/>
@@ -4691,12 +4728,12 @@
       <c r="BN20" s="73"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="152"/>
+      <c r="A21" s="122"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="144"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="137"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4720,8 +4757,8 @@
       <c r="AA21" s="26"/>
       <c r="AB21" s="26"/>
       <c r="AC21" s="24"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
+      <c r="AD21" s="64"/>
+      <c r="AE21" s="64"/>
       <c r="AF21" s="24"/>
       <c r="AG21" s="25"/>
       <c r="AH21" s="26"/>
@@ -4759,18 +4796,18 @@
       <c r="BN21" s="74"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="151">
+      <c r="A22" s="131">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="116" t="s">
+      <c r="C22" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="196" t="s">
+      <c r="D22" s="139"/>
+      <c r="E22" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="143"/>
+      <c r="F22" s="147"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4795,18 +4832,18 @@
       <c r="AB22" s="26"/>
       <c r="AC22" s="64"/>
       <c r="AD22" s="64"/>
-      <c r="AE22" s="64"/>
-      <c r="AF22" s="64"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
       <c r="AG22" s="25"/>
       <c r="AH22" s="26"/>
-      <c r="AI22" s="64"/>
-      <c r="AJ22" s="77"/>
-      <c r="AK22" s="88"/>
-      <c r="AL22" s="64"/>
-      <c r="AM22" s="64"/>
+      <c r="AI22" s="24"/>
+      <c r="AJ22" s="99"/>
+      <c r="AK22" s="85"/>
+      <c r="AL22" s="24"/>
+      <c r="AM22" s="24"/>
       <c r="AN22" s="25"/>
       <c r="AO22" s="26"/>
-      <c r="AP22" s="64"/>
+      <c r="AP22" s="24"/>
       <c r="AQ22" s="64"/>
       <c r="AR22" s="64"/>
       <c r="AS22" s="64"/>
@@ -4833,12 +4870,12 @@
       <c r="BN22" s="77"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="152"/>
+      <c r="A23" s="122"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="139"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="153"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4901,20 +4938,20 @@
       <c r="BN23" s="78"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="151">
+      <c r="A24" s="131">
         <v>11</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="104" t="s">
+      <c r="C24" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="105"/>
-      <c r="E24" s="194" t="s">
+      <c r="D24" s="149"/>
+      <c r="E24" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="138"/>
+      <c r="F24" s="150"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -4943,11 +4980,11 @@
       <c r="AF24" s="65"/>
       <c r="AG24" s="15"/>
       <c r="AH24" s="21"/>
-      <c r="AI24" s="65"/>
-      <c r="AJ24" s="79"/>
-      <c r="AK24" s="90"/>
-      <c r="AL24" s="65"/>
-      <c r="AM24" s="65"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="80"/>
+      <c r="AK24" s="63"/>
+      <c r="AL24" s="63"/>
+      <c r="AM24" s="63"/>
       <c r="AN24" s="15"/>
       <c r="AO24" s="21"/>
       <c r="AP24" s="65"/>
@@ -4977,21 +5014,21 @@
       <c r="BN24" s="79"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="152"/>
+      <c r="A25" s="122"/>
       <c r="B25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="106"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="199"/>
-      <c r="F25" s="144"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="137"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="13"/>
-      <c r="M25" s="200"/>
+      <c r="M25" s="100"/>
       <c r="N25" s="63"/>
       <c r="O25" s="63"/>
       <c r="P25" s="63"/>
@@ -5005,7 +5042,7 @@
       <c r="X25" s="63"/>
       <c r="Y25" s="63"/>
       <c r="Z25" s="13"/>
-      <c r="AA25" s="200"/>
+      <c r="AA25" s="100"/>
       <c r="AB25" s="19"/>
       <c r="AC25" s="63"/>
       <c r="AD25" s="63"/>
@@ -5047,18 +5084,18 @@
       <c r="BN25" s="80"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="151">
+      <c r="A26" s="131">
         <v>12</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="146" t="s">
+      <c r="C26" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="147"/>
-      <c r="E26" s="196" t="s">
+      <c r="D26" s="146"/>
+      <c r="E26" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="198"/>
+      <c r="F26" s="174"/>
       <c r="G26" s="50"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -5087,17 +5124,17 @@
       <c r="AF26" s="62"/>
       <c r="AG26" s="16"/>
       <c r="AH26" s="22"/>
-      <c r="AI26" s="62"/>
-      <c r="AJ26" s="96"/>
-      <c r="AK26" s="97"/>
-      <c r="AL26" s="62"/>
-      <c r="AM26" s="62"/>
+      <c r="AI26" s="30"/>
+      <c r="AJ26" s="202"/>
+      <c r="AK26" s="30"/>
+      <c r="AL26" s="63"/>
+      <c r="AM26" s="63"/>
       <c r="AN26" s="16"/>
       <c r="AO26" s="22"/>
-      <c r="AP26" s="62"/>
-      <c r="AQ26" s="62"/>
-      <c r="AR26" s="62"/>
-      <c r="AS26" s="62"/>
+      <c r="AP26" s="63"/>
+      <c r="AQ26" s="63"/>
+      <c r="AR26" s="63"/>
+      <c r="AS26" s="63"/>
       <c r="AT26" s="62"/>
       <c r="AU26" s="16"/>
       <c r="AV26" s="22"/>
@@ -5121,12 +5158,12 @@
       <c r="BN26" s="80"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="152"/>
+      <c r="A27" s="122"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="195"/>
-      <c r="F27" s="101"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="168"/>
       <c r="G27" s="51"/>
       <c r="H27" s="95"/>
       <c r="I27" s="7"/>
@@ -5189,18 +5226,18 @@
       <c r="BN27" s="80"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="151">
+      <c r="A28" s="131">
         <v>13</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="116" t="s">
+      <c r="C28" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="117"/>
-      <c r="E28" s="201" t="s">
+      <c r="D28" s="139"/>
+      <c r="E28" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="102"/>
+      <c r="F28" s="167"/>
       <c r="G28" s="50"/>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
@@ -5231,9 +5268,9 @@
       <c r="AH28" s="19"/>
       <c r="AI28" s="63"/>
       <c r="AJ28" s="80"/>
-      <c r="AK28" s="91"/>
-      <c r="AL28" s="63"/>
-      <c r="AM28" s="63"/>
+      <c r="AK28" s="30"/>
+      <c r="AL28" s="30"/>
+      <c r="AM28" s="30"/>
       <c r="AN28" s="13"/>
       <c r="AO28" s="19"/>
       <c r="AP28" s="63"/>
@@ -5263,12 +5300,12 @@
       <c r="BN28" s="80"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="152"/>
+      <c r="A29" s="122"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="195"/>
-      <c r="F29" s="101"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="168"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="95"/>
@@ -5331,18 +5368,18 @@
       <c r="BN29" s="80"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="151">
+      <c r="A30" s="131">
         <v>14</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="116" t="s">
+      <c r="C30" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="117"/>
-      <c r="E30" s="201" t="s">
+      <c r="D30" s="139"/>
+      <c r="E30" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="102"/>
+      <c r="F30" s="167"/>
       <c r="G30" s="50"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -5375,11 +5412,11 @@
       <c r="AJ30" s="80"/>
       <c r="AK30" s="91"/>
       <c r="AL30" s="63"/>
-      <c r="AM30" s="63"/>
+      <c r="AM30" s="30"/>
       <c r="AN30" s="13"/>
       <c r="AO30" s="19"/>
-      <c r="AP30" s="63"/>
-      <c r="AQ30" s="63"/>
+      <c r="AP30" s="30"/>
+      <c r="AQ30" s="30"/>
       <c r="AR30" s="63"/>
       <c r="AS30" s="63"/>
       <c r="AT30" s="63"/>
@@ -5405,12 +5442,12 @@
       <c r="BN30" s="80"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="152"/>
+      <c r="A31" s="122"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="199"/>
-      <c r="F31" s="101"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="168"/>
       <c r="G31" s="51"/>
       <c r="H31" s="95"/>
       <c r="I31" s="7"/>
@@ -5473,18 +5510,18 @@
       <c r="BN31" s="80"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="151">
+      <c r="A32" s="131">
         <v>15</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="116" t="s">
+      <c r="C32" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="117"/>
-      <c r="E32" s="196" t="s">
+      <c r="D32" s="139"/>
+      <c r="E32" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="102"/>
+      <c r="F32" s="167"/>
       <c r="G32" s="52"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5521,20 +5558,20 @@
       <c r="AN32" s="25"/>
       <c r="AO32" s="26"/>
       <c r="AP32" s="64"/>
-      <c r="AQ32" s="64"/>
-      <c r="AR32" s="64"/>
-      <c r="AS32" s="64"/>
-      <c r="AT32" s="64"/>
+      <c r="AQ32" s="30"/>
+      <c r="AR32" s="30"/>
+      <c r="AS32" s="30"/>
+      <c r="AT32" s="63"/>
       <c r="AU32" s="25"/>
       <c r="AV32" s="26"/>
       <c r="AW32" s="26"/>
-      <c r="AX32" s="64"/>
-      <c r="AY32" s="64"/>
-      <c r="AZ32" s="64"/>
-      <c r="BA32" s="64"/>
+      <c r="AX32" s="63"/>
+      <c r="AY32" s="63"/>
+      <c r="AZ32" s="63"/>
+      <c r="BA32" s="63"/>
       <c r="BB32" s="25"/>
       <c r="BC32" s="26"/>
-      <c r="BD32" s="64"/>
+      <c r="BD32" s="63"/>
       <c r="BE32" s="64"/>
       <c r="BF32" s="64"/>
       <c r="BG32" s="64"/>
@@ -5546,13 +5583,13 @@
       <c r="BM32" s="64"/>
       <c r="BN32" s="77"/>
     </row>
-    <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="152"/>
+    <row r="33" spans="1:67" ht="12" customHeight="1">
+      <c r="A33" s="122"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="195"/>
-      <c r="F33" s="101"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="168"/>
       <c r="G33" s="52"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5596,13 +5633,13 @@
       <c r="AU33" s="25"/>
       <c r="AV33" s="26"/>
       <c r="AW33" s="26"/>
-      <c r="AX33" s="64"/>
+      <c r="AX33" s="63"/>
       <c r="AY33" s="64"/>
       <c r="AZ33" s="64"/>
-      <c r="BA33" s="64"/>
+      <c r="BA33" s="63"/>
       <c r="BB33" s="25"/>
       <c r="BC33" s="26"/>
-      <c r="BD33" s="64"/>
+      <c r="BD33" s="63"/>
       <c r="BE33" s="64"/>
       <c r="BF33" s="64"/>
       <c r="BG33" s="64"/>
@@ -5614,19 +5651,19 @@
       <c r="BM33" s="64"/>
       <c r="BN33" s="77"/>
     </row>
-    <row r="34" spans="1:66" ht="12" customHeight="1">
-      <c r="A34" s="151">
+    <row r="34" spans="1:67" ht="12" customHeight="1">
+      <c r="A34" s="131">
         <v>16</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="116" t="s">
+      <c r="C34" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="117"/>
-      <c r="E34" s="201" t="s">
+      <c r="D34" s="139"/>
+      <c r="E34" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="102"/>
+      <c r="F34" s="167"/>
       <c r="G34" s="52"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5665,18 +5702,18 @@
       <c r="AP34" s="64"/>
       <c r="AQ34" s="64"/>
       <c r="AR34" s="64"/>
-      <c r="AS34" s="64"/>
-      <c r="AT34" s="64"/>
+      <c r="AS34" s="30"/>
+      <c r="AT34" s="30"/>
       <c r="AU34" s="25"/>
       <c r="AV34" s="26"/>
       <c r="AW34" s="26"/>
-      <c r="AX34" s="64"/>
-      <c r="AY34" s="64"/>
+      <c r="AX34" s="30"/>
+      <c r="AY34" s="30"/>
       <c r="AZ34" s="64"/>
-      <c r="BA34" s="64"/>
+      <c r="BA34" s="63"/>
       <c r="BB34" s="25"/>
       <c r="BC34" s="26"/>
-      <c r="BD34" s="64"/>
+      <c r="BD34" s="63"/>
       <c r="BE34" s="64"/>
       <c r="BF34" s="64"/>
       <c r="BG34" s="64"/>
@@ -5688,13 +5725,13 @@
       <c r="BM34" s="64"/>
       <c r="BN34" s="77"/>
     </row>
-    <row r="35" spans="1:66" ht="12" customHeight="1">
-      <c r="A35" s="152"/>
+    <row r="35" spans="1:67" ht="12" customHeight="1">
+      <c r="A35" s="122"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="195"/>
-      <c r="F35" s="101"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="168"/>
       <c r="G35" s="52"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5756,19 +5793,19 @@
       <c r="BM35" s="64"/>
       <c r="BN35" s="77"/>
     </row>
-    <row r="36" spans="1:66" ht="12" customHeight="1">
-      <c r="A36" s="151">
+    <row r="36" spans="1:67" ht="12" customHeight="1">
+      <c r="A36" s="131">
         <v>17</v>
       </c>
       <c r="B36" s="36"/>
-      <c r="C36" s="116" t="s">
+      <c r="C36" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="117"/>
-      <c r="E36" s="201" t="s">
+      <c r="D36" s="139"/>
+      <c r="E36" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="102"/>
+      <c r="F36" s="167"/>
       <c r="G36" s="52"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5813,12 +5850,12 @@
       <c r="AV36" s="26"/>
       <c r="AW36" s="26"/>
       <c r="AX36" s="64"/>
-      <c r="AY36" s="64"/>
-      <c r="AZ36" s="64"/>
-      <c r="BA36" s="64"/>
+      <c r="AY36" s="30"/>
+      <c r="AZ36" s="30"/>
+      <c r="BA36" s="30"/>
       <c r="BB36" s="25"/>
       <c r="BC36" s="26"/>
-      <c r="BD36" s="64"/>
+      <c r="BD36" s="30"/>
       <c r="BE36" s="64"/>
       <c r="BF36" s="64"/>
       <c r="BG36" s="64"/>
@@ -5830,13 +5867,13 @@
       <c r="BM36" s="64"/>
       <c r="BN36" s="77"/>
     </row>
-    <row r="37" spans="1:66" ht="12" customHeight="1">
-      <c r="A37" s="152"/>
+    <row r="37" spans="1:67" ht="12" customHeight="1">
+      <c r="A37" s="122"/>
       <c r="B37" s="36"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="194"/>
-      <c r="F37" s="103"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="141"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="169"/>
       <c r="G37" s="52"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5888,31 +5925,31 @@
       <c r="BC37" s="26"/>
       <c r="BD37" s="64"/>
       <c r="BE37" s="64"/>
-      <c r="BF37" s="64"/>
-      <c r="BG37" s="64"/>
-      <c r="BH37" s="64"/>
+      <c r="BF37" s="203"/>
+      <c r="BG37" s="68"/>
+      <c r="BH37" s="203"/>
       <c r="BI37" s="25"/>
       <c r="BJ37" s="26"/>
-      <c r="BK37" s="64"/>
-      <c r="BL37" s="64"/>
-      <c r="BM37" s="64"/>
+      <c r="BK37" s="68"/>
+      <c r="BL37" s="68"/>
+      <c r="BM37" s="203"/>
       <c r="BN37" s="77"/>
     </row>
-    <row r="38" spans="1:66" ht="12" customHeight="1">
-      <c r="A38" s="151">
+    <row r="38" spans="1:67" ht="12" customHeight="1">
+      <c r="A38" s="131">
         <v>18</v>
       </c>
       <c r="B38" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="126" t="s">
+      <c r="C38" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="127"/>
-      <c r="E38" s="194" t="s">
+      <c r="D38" s="155"/>
+      <c r="E38" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="132"/>
+      <c r="F38" s="158"/>
       <c r="G38" s="38"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -5936,7 +5973,7 @@
       <c r="AA38" s="21"/>
       <c r="AB38" s="21"/>
       <c r="AC38" s="65"/>
-      <c r="AD38" s="65"/>
+      <c r="AD38" s="67"/>
       <c r="AE38" s="65"/>
       <c r="AF38" s="65"/>
       <c r="AG38" s="15"/>
@@ -5963,24 +6000,24 @@
       <c r="BB38" s="15"/>
       <c r="BC38" s="21"/>
       <c r="BD38" s="65"/>
-      <c r="BE38" s="65"/>
-      <c r="BF38" s="65"/>
-      <c r="BG38" s="65"/>
-      <c r="BH38" s="65"/>
+      <c r="BE38" s="60"/>
+      <c r="BF38" s="41"/>
+      <c r="BG38" s="41"/>
+      <c r="BH38" s="41"/>
       <c r="BI38" s="15"/>
       <c r="BJ38" s="21"/>
-      <c r="BK38" s="65"/>
-      <c r="BL38" s="65"/>
-      <c r="BM38" s="65"/>
+      <c r="BK38" s="60"/>
+      <c r="BL38" s="62"/>
+      <c r="BM38" s="62"/>
       <c r="BN38" s="79"/>
     </row>
-    <row r="39" spans="1:66" ht="12" customHeight="1">
-      <c r="A39" s="152"/>
+    <row r="39" spans="1:67" ht="12" customHeight="1">
+      <c r="A39" s="122"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="128"/>
-      <c r="D39" s="129"/>
-      <c r="E39" s="194"/>
-      <c r="F39" s="133"/>
+      <c r="C39" s="156"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="159"/>
       <c r="G39" s="51"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -6032,31 +6069,31 @@
       <c r="BC39" s="19"/>
       <c r="BD39" s="63"/>
       <c r="BE39" s="63"/>
-      <c r="BF39" s="63"/>
+      <c r="BF39" s="203"/>
       <c r="BG39" s="63"/>
       <c r="BH39" s="63"/>
       <c r="BI39" s="13"/>
       <c r="BJ39" s="19"/>
-      <c r="BK39" s="63"/>
-      <c r="BL39" s="63"/>
-      <c r="BM39" s="63"/>
-      <c r="BN39" s="80"/>
+      <c r="BK39" s="64"/>
+      <c r="BL39" s="64"/>
+      <c r="BM39" s="68"/>
+      <c r="BN39" s="78"/>
     </row>
-    <row r="40" spans="1:66" ht="12" customHeight="1">
-      <c r="A40" s="151">
+    <row r="40" spans="1:67" ht="12" customHeight="1">
+      <c r="A40" s="131">
         <v>19</v>
       </c>
-      <c r="B40" s="120" t="s">
+      <c r="B40" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="104" t="s">
+      <c r="C40" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="105"/>
-      <c r="E40" s="195" t="s">
+      <c r="D40" s="149"/>
+      <c r="E40" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="124"/>
+      <c r="F40" s="165"/>
       <c r="G40" s="38"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -6113,18 +6150,19 @@
       <c r="BH40" s="65"/>
       <c r="BI40" s="15"/>
       <c r="BJ40" s="21"/>
-      <c r="BK40" s="65"/>
-      <c r="BL40" s="65"/>
-      <c r="BM40" s="65"/>
-      <c r="BN40" s="79"/>
+      <c r="BK40" s="60"/>
+      <c r="BL40" s="60"/>
+      <c r="BM40" s="60"/>
+      <c r="BN40" s="60"/>
+      <c r="BO40" s="204"/>
     </row>
-    <row r="41" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A41" s="152"/>
-      <c r="B41" s="121"/>
-      <c r="C41" s="122"/>
-      <c r="D41" s="123"/>
-      <c r="E41" s="197"/>
-      <c r="F41" s="125"/>
+    <row r="41" spans="1:67" ht="12" customHeight="1" thickBot="1">
+      <c r="A41" s="178"/>
+      <c r="B41" s="161"/>
+      <c r="C41" s="162"/>
+      <c r="D41" s="163"/>
+      <c r="E41" s="164"/>
+      <c r="F41" s="166"/>
       <c r="G41" s="39"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -6184,19 +6222,20 @@
       <c r="BK41" s="69"/>
       <c r="BL41" s="69"/>
       <c r="BM41" s="69"/>
-      <c r="BN41" s="81"/>
+      <c r="BN41" s="206"/>
+      <c r="BO41" s="204"/>
     </row>
-    <row r="42" spans="1:66">
+    <row r="42" spans="1:67">
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:66">
+    <row r="43" spans="1:67">
       <c r="A43" s="27"/>
       <c r="B43" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:66">
+    <row r="44" spans="1:67">
       <c r="A44" s="28"/>
       <c r="B44" s="1" t="s">
         <v>8</v>
@@ -6204,75 +6243,6 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="F32:F33"/>
@@ -6288,6 +6258,75 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -6331,54 +6370,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="170" t="s">
+      <c r="B1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="173" t="s">
+      <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="174"/>
-      <c r="E1" s="179" t="s">
+      <c r="D1" s="111"/>
+      <c r="E1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="182" t="s">
+      <c r="F1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="164"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="165"/>
-      <c r="T1" s="165"/>
-      <c r="U1" s="165"/>
-      <c r="V1" s="165"/>
-      <c r="W1" s="165"/>
-      <c r="X1" s="165"/>
-      <c r="Y1" s="165"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="165"/>
-      <c r="AB1" s="165"/>
-      <c r="AC1" s="165"/>
-      <c r="AD1" s="166"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="102"/>
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="102"/>
+      <c r="AB1" s="102"/>
+      <c r="AC1" s="102"/>
+      <c r="AD1" s="103"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="183"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="119"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -6453,12 +6492,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="169"/>
-      <c r="B3" s="172"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="184"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="120"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -6533,20 +6572,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="157">
+      <c r="A4" s="121">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="158" t="s">
+      <c r="C4" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="160" t="s">
+      <c r="D4" s="124"/>
+      <c r="E4" s="195" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="162"/>
+      <c r="F4" s="129"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -6569,20 +6608,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="188" t="s">
+      <c r="AC4" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="185" t="s">
+      <c r="AD4" s="190" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="152"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="163"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="130"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -6605,22 +6644,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="189"/>
-      <c r="AD5" s="186"/>
+      <c r="AC5" s="198"/>
+      <c r="AD5" s="191"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="151">
+      <c r="A6" s="131">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="153" t="s">
+      <c r="D6" s="139"/>
+      <c r="E6" s="193" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="155"/>
+      <c r="F6" s="143"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -6643,16 +6682,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="189"/>
-      <c r="AD6" s="186"/>
+      <c r="AC6" s="198"/>
+      <c r="AD6" s="191"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="152"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="156"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="144"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -6675,24 +6714,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="189"/>
-      <c r="AD7" s="186"/>
+      <c r="AC7" s="198"/>
+      <c r="AD7" s="191"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="134">
+      <c r="A8" s="179">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="191" t="s">
+      <c r="D8" s="171"/>
+      <c r="E8" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="138"/>
+      <c r="F8" s="150"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -6715,16 +6754,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="189"/>
-      <c r="AD8" s="186"/>
+      <c r="AC8" s="198"/>
+      <c r="AD8" s="191"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="135"/>
+      <c r="A9" s="180"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="139"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="153"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -6747,24 +6786,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="189"/>
-      <c r="AD9" s="186"/>
+      <c r="AC9" s="198"/>
+      <c r="AD9" s="191"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="145">
+      <c r="A10" s="188">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="149" t="s">
+      <c r="D10" s="133"/>
+      <c r="E10" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="150"/>
+      <c r="F10" s="136"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -6787,16 +6826,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="189"/>
-      <c r="AD10" s="186"/>
+      <c r="AC10" s="198"/>
+      <c r="AD10" s="191"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="135"/>
+      <c r="A11" s="180"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="144"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="137"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -6819,22 +6858,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="189"/>
-      <c r="AD11" s="186"/>
+      <c r="AC11" s="198"/>
+      <c r="AD11" s="191"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="134">
+      <c r="A12" s="179">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="116" t="s">
+      <c r="C12" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="117"/>
-      <c r="E12" s="148" t="s">
+      <c r="D12" s="139"/>
+      <c r="E12" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="143"/>
+      <c r="F12" s="147"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -6857,16 +6896,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="189"/>
-      <c r="AD12" s="186"/>
+      <c r="AC12" s="198"/>
+      <c r="AD12" s="191"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="145"/>
+      <c r="A13" s="188"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="150"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="136"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -6889,24 +6928,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="189"/>
-      <c r="AD13" s="186"/>
+      <c r="AC13" s="198"/>
+      <c r="AD13" s="191"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="140">
+      <c r="A14" s="184">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="105"/>
-      <c r="E14" s="136" t="s">
+      <c r="D14" s="149"/>
+      <c r="E14" s="186" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="138"/>
+      <c r="F14" s="150"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -6929,16 +6968,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="189"/>
-      <c r="AD14" s="186"/>
+      <c r="AC14" s="198"/>
+      <c r="AD14" s="191"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="140"/>
+      <c r="A15" s="184"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="144"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="137"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -6961,22 +7000,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="189"/>
-      <c r="AD15" s="186"/>
+      <c r="AC15" s="198"/>
+      <c r="AD15" s="191"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="140">
+      <c r="A16" s="184">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="141" t="s">
+      <c r="D16" s="139"/>
+      <c r="E16" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="143"/>
+      <c r="F16" s="147"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -6999,16 +7038,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="189"/>
-      <c r="AD16" s="186"/>
+      <c r="AC16" s="198"/>
+      <c r="AD16" s="191"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="140"/>
+      <c r="A17" s="184"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="144"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="137"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7031,22 +7070,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="189"/>
-      <c r="AD17" s="186"/>
+      <c r="AC17" s="198"/>
+      <c r="AD17" s="191"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="140">
+      <c r="A18" s="184">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="116" t="s">
+      <c r="C18" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="117"/>
-      <c r="E18" s="141" t="s">
+      <c r="D18" s="139"/>
+      <c r="E18" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="143"/>
+      <c r="F18" s="147"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7069,16 +7108,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="189"/>
-      <c r="AD18" s="186"/>
+      <c r="AC18" s="198"/>
+      <c r="AD18" s="191"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="140"/>
+      <c r="A19" s="184"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="139"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="153"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7101,24 +7140,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="189"/>
-      <c r="AD19" s="186"/>
+      <c r="AC19" s="198"/>
+      <c r="AD19" s="191"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="134">
+      <c r="A20" s="179">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="104" t="s">
+      <c r="C20" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="105"/>
-      <c r="E20" s="136" t="s">
+      <c r="D20" s="149"/>
+      <c r="E20" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="138"/>
+      <c r="F20" s="150"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7141,18 +7180,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="189"/>
-      <c r="AD20" s="186"/>
+      <c r="AC20" s="198"/>
+      <c r="AD20" s="191"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="135"/>
+      <c r="A21" s="180"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="144"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="137"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -7175,22 +7214,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="189"/>
-      <c r="AD21" s="186"/>
+      <c r="AC21" s="198"/>
+      <c r="AD21" s="191"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="134">
+      <c r="A22" s="179">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="192" t="s">
+      <c r="C22" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="141" t="s">
+      <c r="D22" s="139"/>
+      <c r="E22" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="143"/>
+      <c r="F22" s="147"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -7213,16 +7252,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="189"/>
-      <c r="AD22" s="186"/>
+      <c r="AC22" s="198"/>
+      <c r="AD22" s="191"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="135"/>
+      <c r="A23" s="180"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="144"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="137"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -7245,22 +7284,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="189"/>
-      <c r="AD23" s="186"/>
+      <c r="AC23" s="198"/>
+      <c r="AD23" s="191"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="134">
+      <c r="A24" s="179">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="192" t="s">
+      <c r="C24" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="141" t="s">
+      <c r="D24" s="139"/>
+      <c r="E24" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="143"/>
+      <c r="F24" s="147"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -7283,16 +7322,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="189"/>
-      <c r="AD24" s="186"/>
+      <c r="AC24" s="198"/>
+      <c r="AD24" s="191"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="135"/>
+      <c r="A25" s="180"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="139"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="153"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -7315,24 +7354,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="189"/>
-      <c r="AD25" s="186"/>
+      <c r="AC25" s="198"/>
+      <c r="AD25" s="191"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="151">
+      <c r="A26" s="131">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="126" t="s">
+      <c r="C26" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="127"/>
-      <c r="E26" s="130" t="s">
+      <c r="D26" s="155"/>
+      <c r="E26" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="132"/>
+      <c r="F26" s="158"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -7355,16 +7394,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="189"/>
-      <c r="AD26" s="186"/>
+      <c r="AC26" s="198"/>
+      <c r="AD26" s="191"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="152"/>
+      <c r="A27" s="122"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="133"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="159"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -7387,24 +7426,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="189"/>
-      <c r="AD27" s="186"/>
+      <c r="AC27" s="198"/>
+      <c r="AD27" s="191"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="151">
+      <c r="A28" s="131">
         <v>14</v>
       </c>
-      <c r="B28" s="120" t="s">
+      <c r="B28" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="104" t="s">
+      <c r="C28" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="105"/>
-      <c r="E28" s="120" t="s">
+      <c r="D28" s="149"/>
+      <c r="E28" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="124"/>
+      <c r="F28" s="165"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -7427,16 +7466,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="189"/>
-      <c r="AD28" s="186"/>
+      <c r="AC28" s="198"/>
+      <c r="AD28" s="191"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="193"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="125"/>
+      <c r="A29" s="178"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="166"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -7459,8 +7498,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="190"/>
-      <c r="AD29" s="187"/>
+      <c r="AC29" s="199"/>
+      <c r="AD29" s="192"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -7480,45 +7519,12 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -7535,12 +7541,45 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93849B28-632D-4D3F-8426-67F526B59B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6058E104-36AE-4642-BC98-C772B65ED9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1952,6 +1952,187 @@
     <xf numFmtId="49" fontId="2" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2012,261 +2193,80 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2976,7 +2976,7 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2993,94 +2993,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="111"/>
-      <c r="E1" s="116" t="s">
+      <c r="D1" s="172"/>
+      <c r="E1" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="101">
+      <c r="G1" s="162">
         <v>45536</v>
       </c>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="102"/>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="102"/>
-      <c r="AD1" s="102"/>
-      <c r="AE1" s="102"/>
-      <c r="AF1" s="102"/>
-      <c r="AG1" s="102"/>
-      <c r="AH1" s="102"/>
-      <c r="AI1" s="102"/>
-      <c r="AJ1" s="103"/>
-      <c r="AK1" s="101">
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="163"/>
+      <c r="AA1" s="163"/>
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="163"/>
+      <c r="AD1" s="163"/>
+      <c r="AE1" s="163"/>
+      <c r="AF1" s="163"/>
+      <c r="AG1" s="163"/>
+      <c r="AH1" s="163"/>
+      <c r="AI1" s="163"/>
+      <c r="AJ1" s="164"/>
+      <c r="AK1" s="162">
         <v>45566</v>
       </c>
-      <c r="AL1" s="102"/>
-      <c r="AM1" s="102"/>
-      <c r="AN1" s="102"/>
-      <c r="AO1" s="102"/>
-      <c r="AP1" s="102"/>
-      <c r="AQ1" s="102"/>
-      <c r="AR1" s="102"/>
-      <c r="AS1" s="102"/>
-      <c r="AT1" s="102"/>
-      <c r="AU1" s="102"/>
-      <c r="AV1" s="102"/>
-      <c r="AW1" s="102"/>
-      <c r="AX1" s="102"/>
-      <c r="AY1" s="102"/>
-      <c r="AZ1" s="102"/>
-      <c r="BA1" s="102"/>
-      <c r="BB1" s="102"/>
-      <c r="BC1" s="102"/>
-      <c r="BD1" s="102"/>
-      <c r="BE1" s="102"/>
-      <c r="BF1" s="102"/>
-      <c r="BG1" s="102"/>
-      <c r="BH1" s="102"/>
-      <c r="BI1" s="102"/>
-      <c r="BJ1" s="102"/>
-      <c r="BK1" s="102"/>
-      <c r="BL1" s="102"/>
-      <c r="BM1" s="102"/>
-      <c r="BN1" s="103"/>
+      <c r="AL1" s="163"/>
+      <c r="AM1" s="163"/>
+      <c r="AN1" s="163"/>
+      <c r="AO1" s="163"/>
+      <c r="AP1" s="163"/>
+      <c r="AQ1" s="163"/>
+      <c r="AR1" s="163"/>
+      <c r="AS1" s="163"/>
+      <c r="AT1" s="163"/>
+      <c r="AU1" s="163"/>
+      <c r="AV1" s="163"/>
+      <c r="AW1" s="163"/>
+      <c r="AX1" s="163"/>
+      <c r="AY1" s="163"/>
+      <c r="AZ1" s="163"/>
+      <c r="BA1" s="163"/>
+      <c r="BB1" s="163"/>
+      <c r="BC1" s="163"/>
+      <c r="BD1" s="163"/>
+      <c r="BE1" s="163"/>
+      <c r="BF1" s="163"/>
+      <c r="BG1" s="163"/>
+      <c r="BH1" s="163"/>
+      <c r="BI1" s="163"/>
+      <c r="BJ1" s="163"/>
+      <c r="BK1" s="163"/>
+      <c r="BL1" s="163"/>
+      <c r="BM1" s="163"/>
+      <c r="BN1" s="164"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="119"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="180"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3322,12 +3322,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="106"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="120"/>
+      <c r="A3" s="167"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="181"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3510,20 +3510,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="121">
+      <c r="A4" s="157">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="127" t="s">
+      <c r="D4" s="159"/>
+      <c r="E4" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="129"/>
+      <c r="F4" s="160"/>
       <c r="G4" s="29"/>
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
@@ -3586,12 +3586,12 @@
       <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="122"/>
+      <c r="A5" s="131"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="130"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="161"/>
       <c r="G5" s="31"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
@@ -3654,18 +3654,18 @@
       <c r="BN5" s="72"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="131">
+      <c r="A6" s="130">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="142" t="s">
+      <c r="D6" s="129"/>
+      <c r="E6" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="143"/>
+      <c r="F6" s="155"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -3728,14 +3728,14 @@
       <c r="BN6" s="73"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="122"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="144"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="156"/>
       <c r="G7" s="52"/>
-      <c r="H7" s="64"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="64"/>
       <c r="J7" s="64"/>
       <c r="K7" s="64"/>
@@ -3796,20 +3796,20 @@
       <c r="BN7" s="74"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="131">
+      <c r="A8" s="130">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="170" t="s">
+      <c r="C8" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="171"/>
-      <c r="E8" s="127" t="s">
+      <c r="D8" s="114"/>
+      <c r="E8" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="175"/>
+      <c r="F8" s="127"/>
       <c r="G8" s="38"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -3872,12 +3872,12 @@
       <c r="BN8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="122"/>
+      <c r="A9" s="131"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="168"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="107"/>
       <c r="G9" s="51"/>
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
@@ -3940,18 +3940,18 @@
       <c r="BN9" s="73"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="131">
+      <c r="A10" s="130">
         <v>4</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="132" t="s">
+      <c r="C10" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="133"/>
-      <c r="E10" s="142" t="s">
+      <c r="D10" s="118"/>
+      <c r="E10" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="167"/>
+      <c r="F10" s="106"/>
       <c r="G10" s="51"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
@@ -4014,12 +4014,12 @@
       <c r="BN10" s="73"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="122"/>
+      <c r="A11" s="131"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="168"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="107"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4082,18 +4082,18 @@
       <c r="BN11" s="73"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="131">
+      <c r="A12" s="130">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="133"/>
-      <c r="E12" s="152" t="s">
+      <c r="D12" s="118"/>
+      <c r="E12" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="167"/>
+      <c r="F12" s="106"/>
       <c r="G12" s="51"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
@@ -4156,12 +4156,12 @@
       <c r="BN12" s="73"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="122"/>
+      <c r="A13" s="131"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="169"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="108"/>
       <c r="G13" s="53"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
@@ -4224,20 +4224,20 @@
       <c r="BN13" s="97"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="131">
+      <c r="A14" s="130">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="132" t="s">
+      <c r="C14" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="133"/>
-      <c r="E14" s="127" t="s">
+      <c r="D14" s="118"/>
+      <c r="E14" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="136"/>
+      <c r="F14" s="154"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4300,12 +4300,12 @@
       <c r="BN14" s="72"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="122"/>
+      <c r="A15" s="131"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="137"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="151"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4368,18 +4368,18 @@
       <c r="BN15" s="72"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="131">
+      <c r="A16" s="130">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="139"/>
-      <c r="E16" s="142" t="s">
+      <c r="D16" s="129"/>
+      <c r="E16" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="147"/>
+      <c r="F16" s="152"/>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -4442,12 +4442,12 @@
       <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="122"/>
+      <c r="A17" s="131"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="136"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="154"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -4473,7 +4473,7 @@
       <c r="AC17" s="24"/>
       <c r="AD17" s="43"/>
       <c r="AE17" s="8"/>
-      <c r="AF17" s="205"/>
+      <c r="AF17" s="104"/>
       <c r="AG17" s="25"/>
       <c r="AH17" s="23"/>
       <c r="AI17" s="8"/>
@@ -4510,17 +4510,17 @@
       <c r="BN17" s="74"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="131">
+      <c r="A18" s="130">
         <v>8</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="148" t="s">
+      <c r="C18" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="149"/>
-      <c r="E18" s="127" t="s">
+      <c r="D18" s="138"/>
+      <c r="E18" s="124" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="150"/>
@@ -4586,12 +4586,12 @@
       <c r="BN18" s="75"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="122"/>
+      <c r="A19" s="131"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="137"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="151"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -4654,18 +4654,18 @@
       <c r="BN19" s="74"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="131">
+      <c r="A20" s="130">
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="138" t="s">
+      <c r="C20" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="139"/>
-      <c r="E20" s="142" t="s">
+      <c r="D20" s="129"/>
+      <c r="E20" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="147"/>
+      <c r="F20" s="152"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4728,12 +4728,12 @@
       <c r="BN20" s="73"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="122"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="137"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="151"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4796,18 +4796,18 @@
       <c r="BN21" s="74"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="131">
+      <c r="A22" s="130">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="138" t="s">
+      <c r="C22" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="139"/>
-      <c r="E22" s="152" t="s">
+      <c r="D22" s="129"/>
+      <c r="E22" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="147"/>
+      <c r="F22" s="152"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4870,11 +4870,11 @@
       <c r="BN22" s="77"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="122"/>
+      <c r="A23" s="131"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="140"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="127"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="124"/>
       <c r="F23" s="153"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
@@ -4938,17 +4938,17 @@
       <c r="BN23" s="78"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="131">
+      <c r="A24" s="130">
         <v>11</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="148" t="s">
+      <c r="C24" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="149"/>
-      <c r="E24" s="127" t="s">
+      <c r="D24" s="138"/>
+      <c r="E24" s="124" t="s">
         <v>50</v>
       </c>
       <c r="F24" s="150"/>
@@ -5014,14 +5014,14 @@
       <c r="BN24" s="79"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="122"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="125"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="137"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="151"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5084,18 +5084,18 @@
       <c r="BN25" s="80"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="131">
+      <c r="A26" s="130">
         <v>12</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="145" t="s">
+      <c r="C26" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="146"/>
-      <c r="E26" s="152" t="s">
+      <c r="D26" s="110"/>
+      <c r="E26" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="174"/>
+      <c r="F26" s="123"/>
       <c r="G26" s="50"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -5125,7 +5125,7 @@
       <c r="AG26" s="16"/>
       <c r="AH26" s="22"/>
       <c r="AI26" s="30"/>
-      <c r="AJ26" s="202"/>
+      <c r="AJ26" s="101"/>
       <c r="AK26" s="30"/>
       <c r="AL26" s="63"/>
       <c r="AM26" s="63"/>
@@ -5158,12 +5158,12 @@
       <c r="BN26" s="80"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="122"/>
+      <c r="A27" s="131"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="168"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="107"/>
       <c r="G27" s="51"/>
       <c r="H27" s="95"/>
       <c r="I27" s="7"/>
@@ -5226,18 +5226,18 @@
       <c r="BN27" s="80"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="131">
+      <c r="A28" s="130">
         <v>13</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="138" t="s">
+      <c r="C28" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="139"/>
-      <c r="E28" s="142" t="s">
+      <c r="D28" s="129"/>
+      <c r="E28" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="167"/>
+      <c r="F28" s="106"/>
       <c r="G28" s="50"/>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
@@ -5300,12 +5300,12 @@
       <c r="BN28" s="80"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="122"/>
+      <c r="A29" s="131"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="168"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="107"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="95"/>
@@ -5368,18 +5368,18 @@
       <c r="BN29" s="80"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="131">
+      <c r="A30" s="130">
         <v>14</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="138" t="s">
+      <c r="C30" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="139"/>
-      <c r="E30" s="142" t="s">
+      <c r="D30" s="129"/>
+      <c r="E30" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="167"/>
+      <c r="F30" s="106"/>
       <c r="G30" s="50"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -5442,12 +5442,12 @@
       <c r="BN30" s="80"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="122"/>
+      <c r="A31" s="131"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="168"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="107"/>
       <c r="G31" s="51"/>
       <c r="H31" s="95"/>
       <c r="I31" s="7"/>
@@ -5510,18 +5510,18 @@
       <c r="BN31" s="80"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="131">
+      <c r="A32" s="130">
         <v>15</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="138" t="s">
+      <c r="C32" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="139"/>
-      <c r="E32" s="152" t="s">
+      <c r="D32" s="129"/>
+      <c r="E32" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="167"/>
+      <c r="F32" s="106"/>
       <c r="G32" s="52"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5584,12 +5584,12 @@
       <c r="BN32" s="77"/>
     </row>
     <row r="33" spans="1:67" ht="12" customHeight="1">
-      <c r="A33" s="122"/>
+      <c r="A33" s="131"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="168"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="107"/>
       <c r="G33" s="52"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5652,18 +5652,18 @@
       <c r="BN33" s="77"/>
     </row>
     <row r="34" spans="1:67" ht="12" customHeight="1">
-      <c r="A34" s="131">
+      <c r="A34" s="130">
         <v>16</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="138" t="s">
+      <c r="C34" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="139"/>
-      <c r="E34" s="142" t="s">
+      <c r="D34" s="129"/>
+      <c r="E34" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="167"/>
+      <c r="F34" s="106"/>
       <c r="G34" s="52"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5726,12 +5726,12 @@
       <c r="BN34" s="77"/>
     </row>
     <row r="35" spans="1:67" ht="12" customHeight="1">
-      <c r="A35" s="122"/>
+      <c r="A35" s="131"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="168"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="122"/>
+      <c r="F35" s="107"/>
       <c r="G35" s="52"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5794,18 +5794,18 @@
       <c r="BN35" s="77"/>
     </row>
     <row r="36" spans="1:67" ht="12" customHeight="1">
-      <c r="A36" s="131">
+      <c r="A36" s="130">
         <v>17</v>
       </c>
       <c r="B36" s="36"/>
-      <c r="C36" s="138" t="s">
+      <c r="C36" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="139"/>
-      <c r="E36" s="142" t="s">
+      <c r="D36" s="129"/>
+      <c r="E36" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="167"/>
+      <c r="F36" s="106"/>
       <c r="G36" s="52"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5868,12 +5868,12 @@
       <c r="BN36" s="77"/>
     </row>
     <row r="37" spans="1:67" ht="12" customHeight="1">
-      <c r="A37" s="122"/>
+      <c r="A37" s="131"/>
       <c r="B37" s="36"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="169"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="124"/>
+      <c r="F37" s="108"/>
       <c r="G37" s="52"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5925,31 +5925,31 @@
       <c r="BC37" s="26"/>
       <c r="BD37" s="64"/>
       <c r="BE37" s="64"/>
-      <c r="BF37" s="203"/>
+      <c r="BF37" s="102"/>
       <c r="BG37" s="68"/>
-      <c r="BH37" s="203"/>
+      <c r="BH37" s="102"/>
       <c r="BI37" s="25"/>
       <c r="BJ37" s="26"/>
       <c r="BK37" s="68"/>
       <c r="BL37" s="68"/>
-      <c r="BM37" s="203"/>
+      <c r="BM37" s="102"/>
       <c r="BN37" s="77"/>
     </row>
     <row r="38" spans="1:67" ht="12" customHeight="1">
-      <c r="A38" s="131">
+      <c r="A38" s="130">
         <v>18</v>
       </c>
       <c r="B38" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="154" t="s">
+      <c r="C38" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="155"/>
-      <c r="E38" s="127" t="s">
+      <c r="D38" s="145"/>
+      <c r="E38" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="158"/>
+      <c r="F38" s="148"/>
       <c r="G38" s="38"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -6012,12 +6012,12 @@
       <c r="BN38" s="79"/>
     </row>
     <row r="39" spans="1:67" ht="12" customHeight="1">
-      <c r="A39" s="122"/>
+      <c r="A39" s="131"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="156"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="159"/>
+      <c r="C39" s="146"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="149"/>
       <c r="G39" s="51"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -6069,7 +6069,7 @@
       <c r="BC39" s="19"/>
       <c r="BD39" s="63"/>
       <c r="BE39" s="63"/>
-      <c r="BF39" s="203"/>
+      <c r="BF39" s="102"/>
       <c r="BG39" s="63"/>
       <c r="BH39" s="63"/>
       <c r="BI39" s="13"/>
@@ -6080,20 +6080,20 @@
       <c r="BN39" s="78"/>
     </row>
     <row r="40" spans="1:67" ht="12" customHeight="1">
-      <c r="A40" s="131">
+      <c r="A40" s="130">
         <v>19</v>
       </c>
-      <c r="B40" s="160" t="s">
+      <c r="B40" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="148" t="s">
+      <c r="C40" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="149"/>
-      <c r="E40" s="128" t="s">
+      <c r="D40" s="138"/>
+      <c r="E40" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="165"/>
+      <c r="F40" s="142"/>
       <c r="G40" s="38"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -6154,15 +6154,15 @@
       <c r="BL40" s="60"/>
       <c r="BM40" s="60"/>
       <c r="BN40" s="60"/>
-      <c r="BO40" s="204"/>
+      <c r="BO40" s="103"/>
     </row>
     <row r="41" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A41" s="178"/>
-      <c r="B41" s="161"/>
-      <c r="C41" s="162"/>
-      <c r="D41" s="163"/>
-      <c r="E41" s="164"/>
-      <c r="F41" s="166"/>
+      <c r="A41" s="134"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="139"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="143"/>
       <c r="G41" s="39"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -6222,8 +6222,8 @@
       <c r="BK41" s="69"/>
       <c r="BL41" s="69"/>
       <c r="BM41" s="69"/>
-      <c r="BN41" s="206"/>
-      <c r="BO41" s="204"/>
+      <c r="BN41" s="105"/>
+      <c r="BO41" s="103"/>
     </row>
     <row r="42" spans="1:67">
       <c r="Z42" s="5"/>
@@ -6243,6 +6243,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="C32:D33"/>
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="F32:F33"/>
@@ -6259,74 +6327,6 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="C30:D31"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -6370,54 +6370,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="111"/>
-      <c r="E1" s="116" t="s">
+      <c r="D1" s="172"/>
+      <c r="E1" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="101"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="102"/>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="102"/>
-      <c r="AD1" s="103"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="163"/>
+      <c r="AA1" s="163"/>
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="163"/>
+      <c r="AD1" s="164"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="119"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="180"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -6492,12 +6492,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="106"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="120"/>
+      <c r="A3" s="167"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="181"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -6572,20 +6572,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="121">
+      <c r="A4" s="157">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="195" t="s">
+      <c r="D4" s="159"/>
+      <c r="E4" s="188" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="129"/>
+      <c r="F4" s="160"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -6608,20 +6608,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="197" t="s">
+      <c r="AC4" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="190" t="s">
+      <c r="AD4" s="183" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="122"/>
+      <c r="A5" s="131"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="130"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="161"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -6644,22 +6644,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="198"/>
-      <c r="AD5" s="191"/>
+      <c r="AC5" s="191"/>
+      <c r="AD5" s="184"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="131">
+      <c r="A6" s="130">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="193" t="s">
+      <c r="D6" s="129"/>
+      <c r="E6" s="186" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="143"/>
+      <c r="F6" s="155"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -6682,16 +6682,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="198"/>
-      <c r="AD6" s="191"/>
+      <c r="AC6" s="191"/>
+      <c r="AD6" s="184"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="122"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="144"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="156"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -6714,21 +6714,21 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="198"/>
-      <c r="AD7" s="191"/>
+      <c r="AC7" s="191"/>
+      <c r="AD7" s="184"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="179">
+      <c r="A8" s="193">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="170" t="s">
+      <c r="C8" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="171"/>
-      <c r="E8" s="200" t="s">
+      <c r="D8" s="114"/>
+      <c r="E8" s="195" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="150"/>
@@ -6754,15 +6754,15 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="198"/>
-      <c r="AD8" s="191"/>
+      <c r="AC8" s="191"/>
+      <c r="AD8" s="184"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="180"/>
+      <c r="A9" s="194"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="185"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="196"/>
       <c r="F9" s="153"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
@@ -6786,24 +6786,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="198"/>
-      <c r="AD9" s="191"/>
+      <c r="AC9" s="191"/>
+      <c r="AD9" s="184"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="188">
+      <c r="A10" s="197">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="132" t="s">
+      <c r="C10" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="133"/>
-      <c r="E10" s="187" t="s">
+      <c r="D10" s="118"/>
+      <c r="E10" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="136"/>
+      <c r="F10" s="154"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -6826,16 +6826,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="198"/>
-      <c r="AD10" s="191"/>
+      <c r="AC10" s="191"/>
+      <c r="AD10" s="184"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="180"/>
+      <c r="A11" s="194"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="137"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="151"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -6858,22 +6858,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="198"/>
-      <c r="AD11" s="191"/>
+      <c r="AC11" s="191"/>
+      <c r="AD11" s="184"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="179">
+      <c r="A12" s="193">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="139"/>
-      <c r="E12" s="189" t="s">
+      <c r="D12" s="129"/>
+      <c r="E12" s="200" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="147"/>
+      <c r="F12" s="152"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -6896,16 +6896,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="198"/>
-      <c r="AD12" s="191"/>
+      <c r="AC12" s="191"/>
+      <c r="AD12" s="184"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="188"/>
+      <c r="A13" s="197"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="136"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="154"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -6928,21 +6928,21 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="198"/>
-      <c r="AD13" s="191"/>
+      <c r="AC13" s="191"/>
+      <c r="AD13" s="184"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="184">
+      <c r="A14" s="201">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="148" t="s">
+      <c r="C14" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="149"/>
-      <c r="E14" s="186" t="s">
+      <c r="D14" s="138"/>
+      <c r="E14" s="202" t="s">
         <v>38</v>
       </c>
       <c r="F14" s="150"/>
@@ -6968,16 +6968,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="198"/>
-      <c r="AD14" s="191"/>
+      <c r="AC14" s="191"/>
+      <c r="AD14" s="184"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="184"/>
+      <c r="A15" s="201"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="137"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="199"/>
+      <c r="F15" s="151"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7000,22 +7000,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="198"/>
-      <c r="AD15" s="191"/>
+      <c r="AC15" s="191"/>
+      <c r="AD15" s="184"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="184">
+      <c r="A16" s="201">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="139"/>
-      <c r="E16" s="182" t="s">
+      <c r="D16" s="129"/>
+      <c r="E16" s="203" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="147"/>
+      <c r="F16" s="152"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7038,16 +7038,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="198"/>
-      <c r="AD16" s="191"/>
+      <c r="AC16" s="191"/>
+      <c r="AD16" s="184"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="184"/>
+      <c r="A17" s="201"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="137"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="151"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7070,22 +7070,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="198"/>
-      <c r="AD17" s="191"/>
+      <c r="AC17" s="191"/>
+      <c r="AD17" s="184"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="184">
+      <c r="A18" s="201">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="138" t="s">
+      <c r="C18" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="139"/>
-      <c r="E18" s="182" t="s">
+      <c r="D18" s="129"/>
+      <c r="E18" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="147"/>
+      <c r="F18" s="152"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7108,15 +7108,15 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="198"/>
-      <c r="AD18" s="191"/>
+      <c r="AC18" s="191"/>
+      <c r="AD18" s="184"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="184"/>
+      <c r="A19" s="201"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="185"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="196"/>
       <c r="F19" s="153"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
@@ -7140,21 +7140,21 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="198"/>
-      <c r="AD19" s="191"/>
+      <c r="AC19" s="191"/>
+      <c r="AD19" s="184"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="179">
+      <c r="A20" s="193">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="148" t="s">
+      <c r="C20" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="149"/>
-      <c r="E20" s="186" t="s">
+      <c r="D20" s="138"/>
+      <c r="E20" s="202" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="150"/>
@@ -7180,18 +7180,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="198"/>
-      <c r="AD20" s="191"/>
+      <c r="AC20" s="191"/>
+      <c r="AD20" s="184"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="180"/>
+      <c r="A21" s="194"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="137"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="199"/>
+      <c r="F21" s="151"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -7214,22 +7214,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="198"/>
-      <c r="AD21" s="191"/>
+      <c r="AC21" s="191"/>
+      <c r="AD21" s="184"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="179">
+      <c r="A22" s="193">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="181" t="s">
+      <c r="C22" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="139"/>
-      <c r="E22" s="182" t="s">
+      <c r="D22" s="129"/>
+      <c r="E22" s="203" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="147"/>
+      <c r="F22" s="152"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -7252,16 +7252,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="198"/>
-      <c r="AD22" s="191"/>
+      <c r="AC22" s="191"/>
+      <c r="AD22" s="184"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="180"/>
+      <c r="A23" s="194"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="137"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="151"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -7284,22 +7284,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="198"/>
-      <c r="AD23" s="191"/>
+      <c r="AC23" s="191"/>
+      <c r="AD23" s="184"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="179">
+      <c r="A24" s="193">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="181" t="s">
+      <c r="C24" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="139"/>
-      <c r="E24" s="182" t="s">
+      <c r="D24" s="129"/>
+      <c r="E24" s="203" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="147"/>
+      <c r="F24" s="152"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -7322,15 +7322,15 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="198"/>
-      <c r="AD24" s="191"/>
+      <c r="AC24" s="191"/>
+      <c r="AD24" s="184"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="180"/>
+      <c r="A25" s="194"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="183"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="199"/>
       <c r="F25" s="153"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
@@ -7354,24 +7354,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="198"/>
-      <c r="AD25" s="191"/>
+      <c r="AC25" s="191"/>
+      <c r="AD25" s="184"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="131">
+      <c r="A26" s="130">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="154" t="s">
+      <c r="C26" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="155"/>
-      <c r="E26" s="176" t="s">
+      <c r="D26" s="145"/>
+      <c r="E26" s="205" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="158"/>
+      <c r="F26" s="148"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -7394,16 +7394,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="198"/>
-      <c r="AD26" s="191"/>
+      <c r="AC26" s="191"/>
+      <c r="AD26" s="184"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="122"/>
+      <c r="A27" s="131"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="159"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="206"/>
+      <c r="F27" s="149"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -7426,24 +7426,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="198"/>
-      <c r="AD27" s="191"/>
+      <c r="AC27" s="191"/>
+      <c r="AD27" s="184"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="131">
+      <c r="A28" s="130">
         <v>14</v>
       </c>
-      <c r="B28" s="160" t="s">
+      <c r="B28" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="148" t="s">
+      <c r="C28" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="149"/>
-      <c r="E28" s="160" t="s">
+      <c r="D28" s="138"/>
+      <c r="E28" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="165"/>
+      <c r="F28" s="142"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -7466,16 +7466,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="198"/>
-      <c r="AD28" s="191"/>
+      <c r="AC28" s="191"/>
+      <c r="AD28" s="184"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="178"/>
-      <c r="B29" s="161"/>
-      <c r="C29" s="162"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="166"/>
+      <c r="A29" s="134"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="143"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -7498,8 +7498,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="199"/>
-      <c r="AD29" s="192"/>
+      <c r="AC29" s="192"/>
+      <c r="AD29" s="185"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -7519,12 +7519,45 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -7541,45 +7574,12 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6058E104-36AE-4642-BC98-C772B65ED9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCCCB9B-239B-43F4-95FD-411296D09773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1965,14 +1965,137 @@
     <xf numFmtId="49" fontId="2" fillId="10" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1980,11 +2103,77 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1992,281 +2181,92 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2973,10 +2973,10 @@
   <dimension ref="A1:BO44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="7" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2993,94 +2993,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="171" t="s">
+      <c r="C1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="172"/>
-      <c r="E1" s="177" t="s">
+      <c r="D1" s="116"/>
+      <c r="E1" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="179" t="s">
+      <c r="F1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="162">
+      <c r="G1" s="106">
         <v>45536</v>
       </c>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="163"/>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="163"/>
-      <c r="AJ1" s="164"/>
-      <c r="AK1" s="162">
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="107"/>
+      <c r="AH1" s="107"/>
+      <c r="AI1" s="107"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="106">
         <v>45566</v>
       </c>
-      <c r="AL1" s="163"/>
-      <c r="AM1" s="163"/>
-      <c r="AN1" s="163"/>
-      <c r="AO1" s="163"/>
-      <c r="AP1" s="163"/>
-      <c r="AQ1" s="163"/>
-      <c r="AR1" s="163"/>
-      <c r="AS1" s="163"/>
-      <c r="AT1" s="163"/>
-      <c r="AU1" s="163"/>
-      <c r="AV1" s="163"/>
-      <c r="AW1" s="163"/>
-      <c r="AX1" s="163"/>
-      <c r="AY1" s="163"/>
-      <c r="AZ1" s="163"/>
-      <c r="BA1" s="163"/>
-      <c r="BB1" s="163"/>
-      <c r="BC1" s="163"/>
-      <c r="BD1" s="163"/>
-      <c r="BE1" s="163"/>
-      <c r="BF1" s="163"/>
-      <c r="BG1" s="163"/>
-      <c r="BH1" s="163"/>
-      <c r="BI1" s="163"/>
-      <c r="BJ1" s="163"/>
-      <c r="BK1" s="163"/>
-      <c r="BL1" s="163"/>
-      <c r="BM1" s="163"/>
-      <c r="BN1" s="164"/>
+      <c r="AL1" s="107"/>
+      <c r="AM1" s="107"/>
+      <c r="AN1" s="107"/>
+      <c r="AO1" s="107"/>
+      <c r="AP1" s="107"/>
+      <c r="AQ1" s="107"/>
+      <c r="AR1" s="107"/>
+      <c r="AS1" s="107"/>
+      <c r="AT1" s="107"/>
+      <c r="AU1" s="107"/>
+      <c r="AV1" s="107"/>
+      <c r="AW1" s="107"/>
+      <c r="AX1" s="107"/>
+      <c r="AY1" s="107"/>
+      <c r="AZ1" s="107"/>
+      <c r="BA1" s="107"/>
+      <c r="BB1" s="107"/>
+      <c r="BC1" s="107"/>
+      <c r="BD1" s="107"/>
+      <c r="BE1" s="107"/>
+      <c r="BF1" s="107"/>
+      <c r="BG1" s="107"/>
+      <c r="BH1" s="107"/>
+      <c r="BI1" s="107"/>
+      <c r="BJ1" s="107"/>
+      <c r="BK1" s="107"/>
+      <c r="BL1" s="107"/>
+      <c r="BM1" s="107"/>
+      <c r="BN1" s="108"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="180"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="124"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3322,12 +3322,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="167"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="181"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3510,20 +3510,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="157">
+      <c r="A4" s="126">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="158" t="s">
+      <c r="C4" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="124" t="s">
+      <c r="D4" s="129"/>
+      <c r="E4" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="160"/>
+      <c r="F4" s="134"/>
       <c r="G4" s="29"/>
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
@@ -3586,12 +3586,12 @@
       <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="131"/>
+      <c r="A5" s="127"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="161"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="31"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
@@ -3654,18 +3654,18 @@
       <c r="BN5" s="72"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="130">
+      <c r="A6" s="136">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="129"/>
-      <c r="E6" s="125" t="s">
+      <c r="D6" s="144"/>
+      <c r="E6" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="155"/>
+      <c r="F6" s="148"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -3728,12 +3728,12 @@
       <c r="BN6" s="73"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="131"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="156"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="149"/>
       <c r="G7" s="52"/>
       <c r="H7" s="31"/>
       <c r="I7" s="64"/>
@@ -3796,20 +3796,20 @@
       <c r="BN7" s="74"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="130">
+      <c r="A8" s="136">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="124" t="s">
+      <c r="D8" s="177"/>
+      <c r="E8" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="127"/>
+      <c r="F8" s="181"/>
       <c r="G8" s="38"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -3872,12 +3872,12 @@
       <c r="BN8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="131"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="107"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="166"/>
       <c r="G9" s="51"/>
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
@@ -3940,18 +3940,18 @@
       <c r="BN9" s="73"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="130">
+      <c r="A10" s="136">
         <v>4</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="125" t="s">
+      <c r="D10" s="138"/>
+      <c r="E10" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="106"/>
+      <c r="F10" s="165"/>
       <c r="G10" s="51"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
@@ -4014,12 +4014,12 @@
       <c r="BN10" s="73"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="131"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="107"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="166"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4082,18 +4082,18 @@
       <c r="BN11" s="73"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="130">
+      <c r="A12" s="136">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="117" t="s">
+      <c r="C12" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="121" t="s">
+      <c r="D12" s="138"/>
+      <c r="E12" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="106"/>
+      <c r="F12" s="165"/>
       <c r="G12" s="51"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
@@ -4156,12 +4156,12 @@
       <c r="BN12" s="73"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="131"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="108"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="175"/>
       <c r="G13" s="53"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
@@ -4224,20 +4224,20 @@
       <c r="BN13" s="97"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="130">
+      <c r="A14" s="136">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="117" t="s">
+      <c r="C14" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="118"/>
-      <c r="E14" s="124" t="s">
+      <c r="D14" s="138"/>
+      <c r="E14" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="154"/>
+      <c r="F14" s="141"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4300,12 +4300,12 @@
       <c r="BN14" s="72"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="131"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="151"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="142"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4368,15 +4368,15 @@
       <c r="BN15" s="72"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="130">
+      <c r="A16" s="136">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="128" t="s">
+      <c r="C16" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="129"/>
-      <c r="E16" s="125" t="s">
+      <c r="D16" s="144"/>
+      <c r="E16" s="147" t="s">
         <v>50</v>
       </c>
       <c r="F16" s="152"/>
@@ -4442,12 +4442,12 @@
       <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="131"/>
+      <c r="A17" s="127"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="154"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="141"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -4510,20 +4510,20 @@
       <c r="BN17" s="74"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="130">
+      <c r="A18" s="136">
         <v>8</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="137" t="s">
+      <c r="C18" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="138"/>
-      <c r="E18" s="124" t="s">
+      <c r="D18" s="154"/>
+      <c r="E18" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="150"/>
+      <c r="F18" s="155"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -4586,12 +4586,12 @@
       <c r="BN18" s="75"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="131"/>
+      <c r="A19" s="127"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="151"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="142"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -4654,15 +4654,15 @@
       <c r="BN19" s="74"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="130">
+      <c r="A20" s="136">
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="128" t="s">
+      <c r="C20" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="129"/>
-      <c r="E20" s="125" t="s">
+      <c r="D20" s="144"/>
+      <c r="E20" s="147" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="152"/>
@@ -4728,12 +4728,12 @@
       <c r="BN20" s="73"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="131"/>
+      <c r="A21" s="127"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="151"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="142"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4796,15 +4796,15 @@
       <c r="BN21" s="74"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="130">
+      <c r="A22" s="136">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="121" t="s">
+      <c r="D22" s="144"/>
+      <c r="E22" s="157" t="s">
         <v>50</v>
       </c>
       <c r="F22" s="152"/>
@@ -4870,12 +4870,12 @@
       <c r="BN22" s="77"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="131"/>
+      <c r="A23" s="127"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="153"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="158"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4938,20 +4938,20 @@
       <c r="BN23" s="78"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="130">
+      <c r="A24" s="136">
         <v>11</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="137" t="s">
+      <c r="C24" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="138"/>
-      <c r="E24" s="124" t="s">
+      <c r="D24" s="154"/>
+      <c r="E24" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="150"/>
+      <c r="F24" s="155"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5014,14 +5014,14 @@
       <c r="BN24" s="79"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="131"/>
+      <c r="A25" s="127"/>
       <c r="B25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="111"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="151"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="142"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5084,18 +5084,18 @@
       <c r="BN25" s="80"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="130">
+      <c r="A26" s="136">
         <v>12</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="109" t="s">
+      <c r="C26" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="110"/>
-      <c r="E26" s="121" t="s">
+      <c r="D26" s="151"/>
+      <c r="E26" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="123"/>
+      <c r="F26" s="180"/>
       <c r="G26" s="50"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -5158,12 +5158,12 @@
       <c r="BN26" s="80"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="131"/>
+      <c r="A27" s="127"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="107"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="166"/>
       <c r="G27" s="51"/>
       <c r="H27" s="95"/>
       <c r="I27" s="7"/>
@@ -5226,18 +5226,18 @@
       <c r="BN27" s="80"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="130">
+      <c r="A28" s="136">
         <v>13</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="128" t="s">
+      <c r="C28" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="129"/>
-      <c r="E28" s="125" t="s">
+      <c r="D28" s="144"/>
+      <c r="E28" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="106"/>
+      <c r="F28" s="165"/>
       <c r="G28" s="50"/>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
@@ -5300,12 +5300,12 @@
       <c r="BN28" s="80"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="131"/>
+      <c r="A29" s="127"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="107"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="166"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="95"/>
@@ -5368,18 +5368,18 @@
       <c r="BN29" s="80"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="130">
+      <c r="A30" s="136">
         <v>14</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="128" t="s">
+      <c r="C30" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="129"/>
-      <c r="E30" s="125" t="s">
+      <c r="D30" s="144"/>
+      <c r="E30" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="106"/>
+      <c r="F30" s="165"/>
       <c r="G30" s="50"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -5442,12 +5442,12 @@
       <c r="BN30" s="80"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="131"/>
+      <c r="A31" s="127"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="107"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="166"/>
       <c r="G31" s="51"/>
       <c r="H31" s="95"/>
       <c r="I31" s="7"/>
@@ -5510,18 +5510,18 @@
       <c r="BN31" s="80"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="130">
+      <c r="A32" s="136">
         <v>15</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="128" t="s">
+      <c r="C32" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="129"/>
-      <c r="E32" s="121" t="s">
+      <c r="D32" s="144"/>
+      <c r="E32" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="106"/>
+      <c r="F32" s="165"/>
       <c r="G32" s="52"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5584,12 +5584,12 @@
       <c r="BN32" s="77"/>
     </row>
     <row r="33" spans="1:67" ht="12" customHeight="1">
-      <c r="A33" s="131"/>
+      <c r="A33" s="127"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="107"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="166"/>
       <c r="G33" s="52"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5652,18 +5652,18 @@
       <c r="BN33" s="77"/>
     </row>
     <row r="34" spans="1:67" ht="12" customHeight="1">
-      <c r="A34" s="130">
+      <c r="A34" s="136">
         <v>16</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="128" t="s">
+      <c r="C34" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="129"/>
-      <c r="E34" s="125" t="s">
+      <c r="D34" s="144"/>
+      <c r="E34" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="106"/>
+      <c r="F34" s="165"/>
       <c r="G34" s="52"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5726,12 +5726,12 @@
       <c r="BN34" s="77"/>
     </row>
     <row r="35" spans="1:67" ht="12" customHeight="1">
-      <c r="A35" s="131"/>
+      <c r="A35" s="127"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="107"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="166"/>
       <c r="G35" s="52"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5794,18 +5794,18 @@
       <c r="BN35" s="77"/>
     </row>
     <row r="36" spans="1:67" ht="12" customHeight="1">
-      <c r="A36" s="130">
+      <c r="A36" s="136">
         <v>17</v>
       </c>
       <c r="B36" s="36"/>
-      <c r="C36" s="128" t="s">
+      <c r="C36" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="129"/>
-      <c r="E36" s="125" t="s">
+      <c r="D36" s="144"/>
+      <c r="E36" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="106"/>
+      <c r="F36" s="165"/>
       <c r="G36" s="52"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5868,12 +5868,12 @@
       <c r="BN36" s="77"/>
     </row>
     <row r="37" spans="1:67" ht="12" customHeight="1">
-      <c r="A37" s="131"/>
+      <c r="A37" s="127"/>
       <c r="B37" s="36"/>
-      <c r="C37" s="132"/>
-      <c r="D37" s="133"/>
-      <c r="E37" s="124"/>
-      <c r="F37" s="108"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="175"/>
       <c r="G37" s="52"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5936,20 +5936,20 @@
       <c r="BN37" s="77"/>
     </row>
     <row r="38" spans="1:67" ht="12" customHeight="1">
-      <c r="A38" s="130">
+      <c r="A38" s="136">
         <v>18</v>
       </c>
       <c r="B38" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="144" t="s">
+      <c r="C38" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="145"/>
-      <c r="E38" s="124" t="s">
+      <c r="D38" s="160"/>
+      <c r="E38" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="148"/>
+      <c r="F38" s="163"/>
       <c r="G38" s="38"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -6012,12 +6012,12 @@
       <c r="BN38" s="79"/>
     </row>
     <row r="39" spans="1:67" ht="12" customHeight="1">
-      <c r="A39" s="131"/>
+      <c r="A39" s="127"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="146"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="149"/>
+      <c r="C39" s="161"/>
+      <c r="D39" s="162"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="164"/>
       <c r="G39" s="51"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -6080,20 +6080,20 @@
       <c r="BN39" s="78"/>
     </row>
     <row r="40" spans="1:67" ht="12" customHeight="1">
-      <c r="A40" s="130">
+      <c r="A40" s="136">
         <v>19</v>
       </c>
-      <c r="B40" s="135" t="s">
+      <c r="B40" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="137" t="s">
+      <c r="C40" s="153" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="138"/>
-      <c r="E40" s="122" t="s">
+      <c r="D40" s="154"/>
+      <c r="E40" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="142"/>
+      <c r="F40" s="173"/>
       <c r="G40" s="38"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -6157,12 +6157,12 @@
       <c r="BO40" s="103"/>
     </row>
     <row r="41" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A41" s="134"/>
-      <c r="B41" s="136"/>
-      <c r="C41" s="139"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="143"/>
+      <c r="A41" s="167"/>
+      <c r="B41" s="169"/>
+      <c r="C41" s="170"/>
+      <c r="D41" s="171"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="174"/>
       <c r="G41" s="39"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -6243,44 +6243,36 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="C38:D39"/>
     <mergeCell ref="E38:E39"/>
@@ -6297,36 +6289,44 @@
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -6370,54 +6370,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="171" t="s">
+      <c r="C1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="172"/>
-      <c r="E1" s="177" t="s">
+      <c r="D1" s="116"/>
+      <c r="E1" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="179" t="s">
+      <c r="F1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="162"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="164"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="108"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="180"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="124"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -6492,12 +6492,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="167"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="181"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -6572,20 +6572,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="157">
+      <c r="A4" s="126">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="158" t="s">
+      <c r="C4" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="188" t="s">
+      <c r="D4" s="129"/>
+      <c r="E4" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="160"/>
+      <c r="F4" s="134"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -6608,20 +6608,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="190" t="s">
+      <c r="AC4" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="183" t="s">
+      <c r="AD4" s="195" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="131"/>
+      <c r="A5" s="127"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="161"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -6644,22 +6644,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="191"/>
-      <c r="AD5" s="184"/>
+      <c r="AC5" s="203"/>
+      <c r="AD5" s="196"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="130">
+      <c r="A6" s="136">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="129"/>
-      <c r="E6" s="186" t="s">
+      <c r="D6" s="144"/>
+      <c r="E6" s="198" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="155"/>
+      <c r="F6" s="148"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -6682,16 +6682,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="191"/>
-      <c r="AD6" s="184"/>
+      <c r="AC6" s="203"/>
+      <c r="AD6" s="196"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="131"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="156"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="149"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -6714,24 +6714,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="191"/>
-      <c r="AD7" s="184"/>
+      <c r="AC7" s="203"/>
+      <c r="AD7" s="196"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="193">
+      <c r="A8" s="184">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="195" t="s">
+      <c r="D8" s="177"/>
+      <c r="E8" s="205" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="150"/>
+      <c r="F8" s="155"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -6754,16 +6754,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="191"/>
-      <c r="AD8" s="184"/>
+      <c r="AC8" s="203"/>
+      <c r="AD8" s="196"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="194"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="153"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="158"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -6786,24 +6786,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="191"/>
-      <c r="AD9" s="184"/>
+      <c r="AC9" s="203"/>
+      <c r="AD9" s="196"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="197">
+      <c r="A10" s="193">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="198" t="s">
+      <c r="D10" s="138"/>
+      <c r="E10" s="192" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="154"/>
+      <c r="F10" s="141"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -6826,16 +6826,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="191"/>
-      <c r="AD10" s="184"/>
+      <c r="AC10" s="203"/>
+      <c r="AD10" s="196"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="194"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="199"/>
-      <c r="F11" s="151"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="142"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -6858,19 +6858,19 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="191"/>
-      <c r="AD11" s="184"/>
+      <c r="AC11" s="203"/>
+      <c r="AD11" s="196"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="193">
+      <c r="A12" s="184">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="129"/>
-      <c r="E12" s="200" t="s">
+      <c r="D12" s="144"/>
+      <c r="E12" s="194" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="152"/>
@@ -6896,16 +6896,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="191"/>
-      <c r="AD12" s="184"/>
+      <c r="AC12" s="203"/>
+      <c r="AD12" s="196"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="197"/>
+      <c r="A13" s="193"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="198"/>
-      <c r="F13" s="154"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="192"/>
+      <c r="F13" s="141"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -6928,24 +6928,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="191"/>
-      <c r="AD13" s="184"/>
+      <c r="AC13" s="203"/>
+      <c r="AD13" s="196"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="201">
+      <c r="A14" s="189">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="138"/>
-      <c r="E14" s="202" t="s">
+      <c r="D14" s="154"/>
+      <c r="E14" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="150"/>
+      <c r="F14" s="155"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -6968,16 +6968,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="191"/>
-      <c r="AD14" s="184"/>
+      <c r="AC14" s="203"/>
+      <c r="AD14" s="196"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="201"/>
+      <c r="A15" s="189"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="199"/>
-      <c r="F15" s="151"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="142"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7000,19 +7000,19 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="191"/>
-      <c r="AD15" s="184"/>
+      <c r="AC15" s="203"/>
+      <c r="AD15" s="196"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="201">
+      <c r="A16" s="189">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="128" t="s">
+      <c r="C16" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="129"/>
-      <c r="E16" s="203" t="s">
+      <c r="D16" s="144"/>
+      <c r="E16" s="187" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="152"/>
@@ -7038,16 +7038,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="191"/>
-      <c r="AD16" s="184"/>
+      <c r="AC16" s="203"/>
+      <c r="AD16" s="196"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="201"/>
+      <c r="A17" s="189"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="199"/>
-      <c r="F17" s="151"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="142"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7070,19 +7070,19 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="191"/>
-      <c r="AD17" s="184"/>
+      <c r="AC17" s="203"/>
+      <c r="AD17" s="196"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="201">
+      <c r="A18" s="189">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="128" t="s">
+      <c r="C18" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="129"/>
-      <c r="E18" s="203" t="s">
+      <c r="D18" s="144"/>
+      <c r="E18" s="187" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="152"/>
@@ -7108,16 +7108,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="191"/>
-      <c r="AD18" s="184"/>
+      <c r="AC18" s="203"/>
+      <c r="AD18" s="196"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="201"/>
+      <c r="A19" s="189"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="153"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="158"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7140,24 +7140,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="191"/>
-      <c r="AD19" s="184"/>
+      <c r="AC19" s="203"/>
+      <c r="AD19" s="196"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="193">
+      <c r="A20" s="184">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="138"/>
-      <c r="E20" s="202" t="s">
+      <c r="D20" s="154"/>
+      <c r="E20" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="150"/>
+      <c r="F20" s="155"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7180,18 +7180,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="191"/>
-      <c r="AD20" s="184"/>
+      <c r="AC20" s="203"/>
+      <c r="AD20" s="196"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="194"/>
+      <c r="A21" s="185"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="151"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="142"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -7214,19 +7214,19 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="191"/>
-      <c r="AD21" s="184"/>
+      <c r="AC21" s="203"/>
+      <c r="AD21" s="196"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="193">
+      <c r="A22" s="184">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="204" t="s">
+      <c r="C22" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="203" t="s">
+      <c r="D22" s="144"/>
+      <c r="E22" s="187" t="s">
         <v>42</v>
       </c>
       <c r="F22" s="152"/>
@@ -7252,16 +7252,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="191"/>
-      <c r="AD22" s="184"/>
+      <c r="AC22" s="203"/>
+      <c r="AD22" s="196"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="194"/>
+      <c r="A23" s="185"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="199"/>
-      <c r="F23" s="151"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="142"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -7284,19 +7284,19 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="191"/>
-      <c r="AD23" s="184"/>
+      <c r="AC23" s="203"/>
+      <c r="AD23" s="196"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="193">
+      <c r="A24" s="184">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="204" t="s">
+      <c r="C24" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="129"/>
-      <c r="E24" s="203" t="s">
+      <c r="D24" s="144"/>
+      <c r="E24" s="187" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="152"/>
@@ -7322,16 +7322,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="191"/>
-      <c r="AD24" s="184"/>
+      <c r="AC24" s="203"/>
+      <c r="AD24" s="196"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="194"/>
+      <c r="A25" s="185"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="199"/>
-      <c r="F25" s="153"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="158"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -7354,24 +7354,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="191"/>
-      <c r="AD25" s="184"/>
+      <c r="AC25" s="203"/>
+      <c r="AD25" s="196"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="130">
+      <c r="A26" s="136">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="144" t="s">
+      <c r="C26" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="145"/>
-      <c r="E26" s="205" t="s">
+      <c r="D26" s="160"/>
+      <c r="E26" s="182" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="148"/>
+      <c r="F26" s="163"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -7394,16 +7394,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="191"/>
-      <c r="AD26" s="184"/>
+      <c r="AC26" s="203"/>
+      <c r="AD26" s="196"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="131"/>
+      <c r="A27" s="127"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="206"/>
-      <c r="F27" s="149"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="164"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -7426,24 +7426,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="191"/>
-      <c r="AD27" s="184"/>
+      <c r="AC27" s="203"/>
+      <c r="AD27" s="196"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="130">
+      <c r="A28" s="136">
         <v>14</v>
       </c>
-      <c r="B28" s="135" t="s">
+      <c r="B28" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="137" t="s">
+      <c r="C28" s="153" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="138"/>
-      <c r="E28" s="135" t="s">
+      <c r="D28" s="154"/>
+      <c r="E28" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="142"/>
+      <c r="F28" s="173"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -7466,16 +7466,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="191"/>
-      <c r="AD28" s="184"/>
+      <c r="AC28" s="203"/>
+      <c r="AD28" s="196"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="134"/>
-      <c r="B29" s="136"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="143"/>
+      <c r="A29" s="167"/>
+      <c r="B29" s="169"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="174"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -7498,8 +7498,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="192"/>
-      <c r="AD29" s="185"/>
+      <c r="AC29" s="204"/>
+      <c r="AD29" s="197"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -7519,45 +7519,12 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -7574,12 +7541,45 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCCCB9B-239B-43F4-95FD-411296D09773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F62ECB-6FF0-475F-8A7A-779810A11F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1965,6 +1965,174 @@
     <xf numFmtId="49" fontId="2" fillId="10" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2025,248 +2193,80 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2973,10 +2973,10 @@
   <dimension ref="A1:BO44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomRight" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2993,94 +2993,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="121" t="s">
+      <c r="D1" s="172"/>
+      <c r="E1" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="106">
+      <c r="G1" s="162">
         <v>45536</v>
       </c>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="107"/>
-      <c r="AH1" s="107"/>
-      <c r="AI1" s="107"/>
-      <c r="AJ1" s="108"/>
-      <c r="AK1" s="106">
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="163"/>
+      <c r="AA1" s="163"/>
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="163"/>
+      <c r="AD1" s="163"/>
+      <c r="AE1" s="163"/>
+      <c r="AF1" s="163"/>
+      <c r="AG1" s="163"/>
+      <c r="AH1" s="163"/>
+      <c r="AI1" s="163"/>
+      <c r="AJ1" s="164"/>
+      <c r="AK1" s="162">
         <v>45566</v>
       </c>
-      <c r="AL1" s="107"/>
-      <c r="AM1" s="107"/>
-      <c r="AN1" s="107"/>
-      <c r="AO1" s="107"/>
-      <c r="AP1" s="107"/>
-      <c r="AQ1" s="107"/>
-      <c r="AR1" s="107"/>
-      <c r="AS1" s="107"/>
-      <c r="AT1" s="107"/>
-      <c r="AU1" s="107"/>
-      <c r="AV1" s="107"/>
-      <c r="AW1" s="107"/>
-      <c r="AX1" s="107"/>
-      <c r="AY1" s="107"/>
-      <c r="AZ1" s="107"/>
-      <c r="BA1" s="107"/>
-      <c r="BB1" s="107"/>
-      <c r="BC1" s="107"/>
-      <c r="BD1" s="107"/>
-      <c r="BE1" s="107"/>
-      <c r="BF1" s="107"/>
-      <c r="BG1" s="107"/>
-      <c r="BH1" s="107"/>
-      <c r="BI1" s="107"/>
-      <c r="BJ1" s="107"/>
-      <c r="BK1" s="107"/>
-      <c r="BL1" s="107"/>
-      <c r="BM1" s="107"/>
-      <c r="BN1" s="108"/>
+      <c r="AL1" s="163"/>
+      <c r="AM1" s="163"/>
+      <c r="AN1" s="163"/>
+      <c r="AO1" s="163"/>
+      <c r="AP1" s="163"/>
+      <c r="AQ1" s="163"/>
+      <c r="AR1" s="163"/>
+      <c r="AS1" s="163"/>
+      <c r="AT1" s="163"/>
+      <c r="AU1" s="163"/>
+      <c r="AV1" s="163"/>
+      <c r="AW1" s="163"/>
+      <c r="AX1" s="163"/>
+      <c r="AY1" s="163"/>
+      <c r="AZ1" s="163"/>
+      <c r="BA1" s="163"/>
+      <c r="BB1" s="163"/>
+      <c r="BC1" s="163"/>
+      <c r="BD1" s="163"/>
+      <c r="BE1" s="163"/>
+      <c r="BF1" s="163"/>
+      <c r="BG1" s="163"/>
+      <c r="BH1" s="163"/>
+      <c r="BI1" s="163"/>
+      <c r="BJ1" s="163"/>
+      <c r="BK1" s="163"/>
+      <c r="BL1" s="163"/>
+      <c r="BM1" s="163"/>
+      <c r="BN1" s="164"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="110"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="124"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="180"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3322,12 +3322,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="111"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="125"/>
+      <c r="A3" s="167"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="181"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3510,20 +3510,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="126">
+      <c r="A4" s="157">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="129"/>
-      <c r="E4" s="132" t="s">
+      <c r="D4" s="159"/>
+      <c r="E4" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="134"/>
+      <c r="F4" s="160"/>
       <c r="G4" s="29"/>
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
@@ -3586,12 +3586,12 @@
       <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="127"/>
+      <c r="A5" s="131"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="135"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="161"/>
       <c r="G5" s="31"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
@@ -3654,18 +3654,18 @@
       <c r="BN5" s="72"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="136">
+      <c r="A6" s="130">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="143" t="s">
+      <c r="C6" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="144"/>
-      <c r="E6" s="147" t="s">
+      <c r="D6" s="129"/>
+      <c r="E6" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="148"/>
+      <c r="F6" s="155"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -3728,12 +3728,12 @@
       <c r="BN6" s="73"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="127"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="149"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="156"/>
       <c r="G7" s="52"/>
       <c r="H7" s="31"/>
       <c r="I7" s="64"/>
@@ -3796,20 +3796,20 @@
       <c r="BN7" s="74"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="136">
+      <c r="A8" s="130">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="176" t="s">
+      <c r="C8" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="177"/>
-      <c r="E8" s="132" t="s">
+      <c r="D8" s="114"/>
+      <c r="E8" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="181"/>
+      <c r="F8" s="127"/>
       <c r="G8" s="38"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -3872,12 +3872,12 @@
       <c r="BN8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="127"/>
+      <c r="A9" s="131"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="166"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="107"/>
       <c r="G9" s="51"/>
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
@@ -3940,18 +3940,18 @@
       <c r="BN9" s="73"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="136">
+      <c r="A10" s="130">
         <v>4</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="137" t="s">
+      <c r="C10" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="138"/>
-      <c r="E10" s="147" t="s">
+      <c r="D10" s="118"/>
+      <c r="E10" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="165"/>
+      <c r="F10" s="106"/>
       <c r="G10" s="51"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
@@ -4014,12 +4014,12 @@
       <c r="BN10" s="73"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="127"/>
+      <c r="A11" s="131"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="166"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="107"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4082,18 +4082,18 @@
       <c r="BN11" s="73"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="136">
+      <c r="A12" s="130">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="138"/>
-      <c r="E12" s="157" t="s">
+      <c r="D12" s="118"/>
+      <c r="E12" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="165"/>
+      <c r="F12" s="106"/>
       <c r="G12" s="51"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
@@ -4156,12 +4156,12 @@
       <c r="BN12" s="73"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="127"/>
+      <c r="A13" s="131"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="175"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="108"/>
       <c r="G13" s="53"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
@@ -4224,20 +4224,20 @@
       <c r="BN13" s="97"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="136">
+      <c r="A14" s="130">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="138"/>
-      <c r="E14" s="132" t="s">
+      <c r="D14" s="118"/>
+      <c r="E14" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="141"/>
+      <c r="F14" s="154"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4300,12 +4300,12 @@
       <c r="BN14" s="72"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="127"/>
+      <c r="A15" s="131"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="142"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="151"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4368,15 +4368,15 @@
       <c r="BN15" s="72"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="136">
+      <c r="A16" s="130">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="143" t="s">
+      <c r="C16" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="144"/>
-      <c r="E16" s="147" t="s">
+      <c r="D16" s="129"/>
+      <c r="E16" s="125" t="s">
         <v>50</v>
       </c>
       <c r="F16" s="152"/>
@@ -4442,12 +4442,12 @@
       <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="127"/>
+      <c r="A17" s="131"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="141"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="154"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -4510,20 +4510,20 @@
       <c r="BN17" s="74"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="136">
+      <c r="A18" s="130">
         <v>8</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="153" t="s">
+      <c r="C18" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="154"/>
-      <c r="E18" s="132" t="s">
+      <c r="D18" s="138"/>
+      <c r="E18" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="155"/>
+      <c r="F18" s="150"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -4586,12 +4586,12 @@
       <c r="BN18" s="75"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="127"/>
+      <c r="A19" s="131"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="142"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="151"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -4654,15 +4654,15 @@
       <c r="BN19" s="74"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="136">
+      <c r="A20" s="130">
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="143" t="s">
+      <c r="C20" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="144"/>
-      <c r="E20" s="147" t="s">
+      <c r="D20" s="129"/>
+      <c r="E20" s="125" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="152"/>
@@ -4728,12 +4728,12 @@
       <c r="BN20" s="73"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="127"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="142"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="151"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4796,15 +4796,15 @@
       <c r="BN21" s="74"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="136">
+      <c r="A22" s="130">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="144"/>
-      <c r="E22" s="157" t="s">
+      <c r="D22" s="129"/>
+      <c r="E22" s="121" t="s">
         <v>50</v>
       </c>
       <c r="F22" s="152"/>
@@ -4870,12 +4870,12 @@
       <c r="BN22" s="77"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="127"/>
+      <c r="A23" s="131"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="158"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="153"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4938,20 +4938,20 @@
       <c r="BN23" s="78"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="136">
+      <c r="A24" s="130">
         <v>11</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="153" t="s">
+      <c r="C24" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="154"/>
-      <c r="E24" s="132" t="s">
+      <c r="D24" s="138"/>
+      <c r="E24" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="155"/>
+      <c r="F24" s="150"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5014,14 +5014,14 @@
       <c r="BN24" s="79"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="127"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="130"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="142"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="151"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5084,18 +5084,18 @@
       <c r="BN25" s="80"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="136">
+      <c r="A26" s="130">
         <v>12</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="150" t="s">
+      <c r="C26" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="151"/>
-      <c r="E26" s="157" t="s">
+      <c r="D26" s="110"/>
+      <c r="E26" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="180"/>
+      <c r="F26" s="123"/>
       <c r="G26" s="50"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -5158,12 +5158,12 @@
       <c r="BN26" s="80"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="127"/>
+      <c r="A27" s="131"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="166"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="107"/>
       <c r="G27" s="51"/>
       <c r="H27" s="95"/>
       <c r="I27" s="7"/>
@@ -5226,18 +5226,18 @@
       <c r="BN27" s="80"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="136">
+      <c r="A28" s="130">
         <v>13</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="143" t="s">
+      <c r="C28" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="144"/>
-      <c r="E28" s="147" t="s">
+      <c r="D28" s="129"/>
+      <c r="E28" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="165"/>
+      <c r="F28" s="106"/>
       <c r="G28" s="50"/>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
@@ -5300,12 +5300,12 @@
       <c r="BN28" s="80"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="127"/>
+      <c r="A29" s="131"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="166"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="107"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="95"/>
@@ -5368,18 +5368,18 @@
       <c r="BN29" s="80"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="136">
+      <c r="A30" s="130">
         <v>14</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="143" t="s">
+      <c r="C30" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="144"/>
-      <c r="E30" s="147" t="s">
+      <c r="D30" s="129"/>
+      <c r="E30" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="165"/>
+      <c r="F30" s="106"/>
       <c r="G30" s="50"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -5442,12 +5442,12 @@
       <c r="BN30" s="80"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="127"/>
+      <c r="A31" s="131"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="166"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="107"/>
       <c r="G31" s="51"/>
       <c r="H31" s="95"/>
       <c r="I31" s="7"/>
@@ -5510,18 +5510,18 @@
       <c r="BN31" s="80"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="136">
+      <c r="A32" s="130">
         <v>15</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="143" t="s">
+      <c r="C32" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="144"/>
-      <c r="E32" s="157" t="s">
+      <c r="D32" s="129"/>
+      <c r="E32" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="165"/>
+      <c r="F32" s="106"/>
       <c r="G32" s="52"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5584,12 +5584,12 @@
       <c r="BN32" s="77"/>
     </row>
     <row r="33" spans="1:67" ht="12" customHeight="1">
-      <c r="A33" s="127"/>
+      <c r="A33" s="131"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="166"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="107"/>
       <c r="G33" s="52"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5652,18 +5652,18 @@
       <c r="BN33" s="77"/>
     </row>
     <row r="34" spans="1:67" ht="12" customHeight="1">
-      <c r="A34" s="136">
+      <c r="A34" s="130">
         <v>16</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="143" t="s">
+      <c r="C34" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="144"/>
-      <c r="E34" s="147" t="s">
+      <c r="D34" s="129"/>
+      <c r="E34" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="165"/>
+      <c r="F34" s="106"/>
       <c r="G34" s="52"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5726,12 +5726,12 @@
       <c r="BN34" s="77"/>
     </row>
     <row r="35" spans="1:67" ht="12" customHeight="1">
-      <c r="A35" s="127"/>
+      <c r="A35" s="131"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="131"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="166"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="122"/>
+      <c r="F35" s="107"/>
       <c r="G35" s="52"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5794,18 +5794,18 @@
       <c r="BN35" s="77"/>
     </row>
     <row r="36" spans="1:67" ht="12" customHeight="1">
-      <c r="A36" s="136">
+      <c r="A36" s="130">
         <v>17</v>
       </c>
       <c r="B36" s="36"/>
-      <c r="C36" s="143" t="s">
+      <c r="C36" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="144"/>
-      <c r="E36" s="147" t="s">
+      <c r="D36" s="129"/>
+      <c r="E36" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="165"/>
+      <c r="F36" s="106"/>
       <c r="G36" s="52"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5868,12 +5868,12 @@
       <c r="BN36" s="77"/>
     </row>
     <row r="37" spans="1:67" ht="12" customHeight="1">
-      <c r="A37" s="127"/>
+      <c r="A37" s="131"/>
       <c r="B37" s="36"/>
-      <c r="C37" s="145"/>
-      <c r="D37" s="146"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="175"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="124"/>
+      <c r="F37" s="108"/>
       <c r="G37" s="52"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5936,20 +5936,20 @@
       <c r="BN37" s="77"/>
     </row>
     <row r="38" spans="1:67" ht="12" customHeight="1">
-      <c r="A38" s="136">
+      <c r="A38" s="130">
         <v>18</v>
       </c>
       <c r="B38" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="159" t="s">
+      <c r="C38" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="160"/>
-      <c r="E38" s="132" t="s">
+      <c r="D38" s="145"/>
+      <c r="E38" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="163"/>
+      <c r="F38" s="148"/>
       <c r="G38" s="38"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -6012,12 +6012,12 @@
       <c r="BN38" s="79"/>
     </row>
     <row r="39" spans="1:67" ht="12" customHeight="1">
-      <c r="A39" s="127"/>
+      <c r="A39" s="131"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="161"/>
-      <c r="D39" s="162"/>
-      <c r="E39" s="132"/>
-      <c r="F39" s="164"/>
+      <c r="C39" s="146"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="149"/>
       <c r="G39" s="51"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -6080,20 +6080,20 @@
       <c r="BN39" s="78"/>
     </row>
     <row r="40" spans="1:67" ht="12" customHeight="1">
-      <c r="A40" s="136">
+      <c r="A40" s="130">
         <v>19</v>
       </c>
-      <c r="B40" s="168" t="s">
+      <c r="B40" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="153" t="s">
+      <c r="C40" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="154"/>
-      <c r="E40" s="133" t="s">
+      <c r="D40" s="138"/>
+      <c r="E40" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="173"/>
+      <c r="F40" s="142"/>
       <c r="G40" s="38"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -6157,12 +6157,12 @@
       <c r="BO40" s="103"/>
     </row>
     <row r="41" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A41" s="167"/>
-      <c r="B41" s="169"/>
-      <c r="C41" s="170"/>
-      <c r="D41" s="171"/>
-      <c r="E41" s="172"/>
-      <c r="F41" s="174"/>
+      <c r="A41" s="134"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="139"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="143"/>
       <c r="G41" s="39"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -6243,6 +6243,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="C32:D33"/>
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="F32:F33"/>
@@ -6259,74 +6327,6 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="C30:D31"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -6370,54 +6370,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="121" t="s">
+      <c r="D1" s="172"/>
+      <c r="E1" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="106"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="108"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="163"/>
+      <c r="AA1" s="163"/>
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="163"/>
+      <c r="AD1" s="164"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="110"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="124"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="180"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -6492,12 +6492,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="111"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="125"/>
+      <c r="A3" s="167"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="181"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -6572,20 +6572,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="126">
+      <c r="A4" s="157">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="129"/>
-      <c r="E4" s="200" t="s">
+      <c r="D4" s="159"/>
+      <c r="E4" s="188" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="134"/>
+      <c r="F4" s="160"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -6608,20 +6608,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="202" t="s">
+      <c r="AC4" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="195" t="s">
+      <c r="AD4" s="183" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="127"/>
+      <c r="A5" s="131"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="135"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="161"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -6644,22 +6644,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="203"/>
-      <c r="AD5" s="196"/>
+      <c r="AC5" s="191"/>
+      <c r="AD5" s="184"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="136">
+      <c r="A6" s="130">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="143" t="s">
+      <c r="C6" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="144"/>
-      <c r="E6" s="198" t="s">
+      <c r="D6" s="129"/>
+      <c r="E6" s="186" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="148"/>
+      <c r="F6" s="155"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -6682,16 +6682,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="203"/>
-      <c r="AD6" s="196"/>
+      <c r="AC6" s="191"/>
+      <c r="AD6" s="184"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="127"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="199"/>
-      <c r="F7" s="149"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="156"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -6714,24 +6714,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="203"/>
-      <c r="AD7" s="196"/>
+      <c r="AC7" s="191"/>
+      <c r="AD7" s="184"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="184">
+      <c r="A8" s="193">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="176" t="s">
+      <c r="C8" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="177"/>
-      <c r="E8" s="205" t="s">
+      <c r="D8" s="114"/>
+      <c r="E8" s="195" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="155"/>
+      <c r="F8" s="150"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -6754,16 +6754,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="203"/>
-      <c r="AD8" s="196"/>
+      <c r="AC8" s="191"/>
+      <c r="AD8" s="184"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="185"/>
+      <c r="A9" s="194"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="158"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="153"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -6786,24 +6786,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="203"/>
-      <c r="AD9" s="196"/>
+      <c r="AC9" s="191"/>
+      <c r="AD9" s="184"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="193">
+      <c r="A10" s="197">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="137" t="s">
+      <c r="C10" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="138"/>
-      <c r="E10" s="192" t="s">
+      <c r="D10" s="118"/>
+      <c r="E10" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="141"/>
+      <c r="F10" s="154"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -6826,16 +6826,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="203"/>
-      <c r="AD10" s="196"/>
+      <c r="AC10" s="191"/>
+      <c r="AD10" s="184"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="185"/>
+      <c r="A11" s="194"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="142"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="151"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -6858,19 +6858,19 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="203"/>
-      <c r="AD11" s="196"/>
+      <c r="AC11" s="191"/>
+      <c r="AD11" s="184"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="184">
+      <c r="A12" s="193">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="143" t="s">
+      <c r="C12" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="144"/>
-      <c r="E12" s="194" t="s">
+      <c r="D12" s="129"/>
+      <c r="E12" s="200" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="152"/>
@@ -6896,16 +6896,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="203"/>
-      <c r="AD12" s="196"/>
+      <c r="AC12" s="191"/>
+      <c r="AD12" s="184"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="193"/>
+      <c r="A13" s="197"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="192"/>
-      <c r="F13" s="141"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="154"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -6928,24 +6928,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="203"/>
-      <c r="AD13" s="196"/>
+      <c r="AC13" s="191"/>
+      <c r="AD13" s="184"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="189">
+      <c r="A14" s="201">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="153" t="s">
+      <c r="C14" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="154"/>
-      <c r="E14" s="191" t="s">
+      <c r="D14" s="138"/>
+      <c r="E14" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="155"/>
+      <c r="F14" s="150"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -6968,16 +6968,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="203"/>
-      <c r="AD14" s="196"/>
+      <c r="AC14" s="191"/>
+      <c r="AD14" s="184"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="189"/>
+      <c r="A15" s="201"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="142"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="199"/>
+      <c r="F15" s="151"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7000,19 +7000,19 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="203"/>
-      <c r="AD15" s="196"/>
+      <c r="AC15" s="191"/>
+      <c r="AD15" s="184"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="189">
+      <c r="A16" s="201">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="143" t="s">
+      <c r="C16" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="144"/>
-      <c r="E16" s="187" t="s">
+      <c r="D16" s="129"/>
+      <c r="E16" s="203" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="152"/>
@@ -7038,16 +7038,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="203"/>
-      <c r="AD16" s="196"/>
+      <c r="AC16" s="191"/>
+      <c r="AD16" s="184"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="189"/>
+      <c r="A17" s="201"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="142"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="151"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7070,19 +7070,19 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="203"/>
-      <c r="AD17" s="196"/>
+      <c r="AC17" s="191"/>
+      <c r="AD17" s="184"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="189">
+      <c r="A18" s="201">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="143" t="s">
+      <c r="C18" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="144"/>
-      <c r="E18" s="187" t="s">
+      <c r="D18" s="129"/>
+      <c r="E18" s="203" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="152"/>
@@ -7108,16 +7108,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="203"/>
-      <c r="AD18" s="196"/>
+      <c r="AC18" s="191"/>
+      <c r="AD18" s="184"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="189"/>
+      <c r="A19" s="201"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="190"/>
-      <c r="F19" s="158"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="153"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7140,24 +7140,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="203"/>
-      <c r="AD19" s="196"/>
+      <c r="AC19" s="191"/>
+      <c r="AD19" s="184"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="184">
+      <c r="A20" s="193">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="153" t="s">
+      <c r="C20" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="154"/>
-      <c r="E20" s="191" t="s">
+      <c r="D20" s="138"/>
+      <c r="E20" s="202" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="155"/>
+      <c r="F20" s="150"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7180,18 +7180,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="203"/>
-      <c r="AD20" s="196"/>
+      <c r="AC20" s="191"/>
+      <c r="AD20" s="184"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="185"/>
+      <c r="A21" s="194"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="130"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="142"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="199"/>
+      <c r="F21" s="151"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -7214,19 +7214,19 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="203"/>
-      <c r="AD21" s="196"/>
+      <c r="AC21" s="191"/>
+      <c r="AD21" s="184"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="184">
+      <c r="A22" s="193">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="186" t="s">
+      <c r="C22" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="144"/>
-      <c r="E22" s="187" t="s">
+      <c r="D22" s="129"/>
+      <c r="E22" s="203" t="s">
         <v>42</v>
       </c>
       <c r="F22" s="152"/>
@@ -7252,16 +7252,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="203"/>
-      <c r="AD22" s="196"/>
+      <c r="AC22" s="191"/>
+      <c r="AD22" s="184"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="185"/>
+      <c r="A23" s="194"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="142"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="151"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -7284,19 +7284,19 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="203"/>
-      <c r="AD23" s="196"/>
+      <c r="AC23" s="191"/>
+      <c r="AD23" s="184"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="184">
+      <c r="A24" s="193">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="186" t="s">
+      <c r="C24" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="144"/>
-      <c r="E24" s="187" t="s">
+      <c r="D24" s="129"/>
+      <c r="E24" s="203" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="152"/>
@@ -7322,16 +7322,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="203"/>
-      <c r="AD24" s="196"/>
+      <c r="AC24" s="191"/>
+      <c r="AD24" s="184"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="185"/>
+      <c r="A25" s="194"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="158"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="199"/>
+      <c r="F25" s="153"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -7354,24 +7354,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="203"/>
-      <c r="AD25" s="196"/>
+      <c r="AC25" s="191"/>
+      <c r="AD25" s="184"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="136">
+      <c r="A26" s="130">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="159" t="s">
+      <c r="C26" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="160"/>
-      <c r="E26" s="182" t="s">
+      <c r="D26" s="145"/>
+      <c r="E26" s="205" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="163"/>
+      <c r="F26" s="148"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -7394,16 +7394,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="203"/>
-      <c r="AD26" s="196"/>
+      <c r="AC26" s="191"/>
+      <c r="AD26" s="184"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="127"/>
+      <c r="A27" s="131"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="161"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="164"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="206"/>
+      <c r="F27" s="149"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -7426,24 +7426,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="203"/>
-      <c r="AD27" s="196"/>
+      <c r="AC27" s="191"/>
+      <c r="AD27" s="184"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="136">
+      <c r="A28" s="130">
         <v>14</v>
       </c>
-      <c r="B28" s="168" t="s">
+      <c r="B28" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="153" t="s">
+      <c r="C28" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="154"/>
-      <c r="E28" s="168" t="s">
+      <c r="D28" s="138"/>
+      <c r="E28" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="173"/>
+      <c r="F28" s="142"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -7466,16 +7466,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="203"/>
-      <c r="AD28" s="196"/>
+      <c r="AC28" s="191"/>
+      <c r="AD28" s="184"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="167"/>
-      <c r="B29" s="169"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="174"/>
+      <c r="A29" s="134"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="143"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -7498,8 +7498,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="204"/>
-      <c r="AD29" s="197"/>
+      <c r="AC29" s="192"/>
+      <c r="AD29" s="185"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -7519,12 +7519,45 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -7541,45 +7574,12 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F62ECB-6FF0-475F-8A7A-779810A11F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFD378F-97E7-4666-A814-DC9BA350D193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1965,14 +1965,137 @@
     <xf numFmtId="49" fontId="2" fillId="10" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1980,11 +2103,77 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1992,281 +2181,92 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2976,7 +2976,7 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" sqref="A1:A3"/>
+      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2993,94 +2993,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="171" t="s">
+      <c r="C1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="172"/>
-      <c r="E1" s="177" t="s">
+      <c r="D1" s="116"/>
+      <c r="E1" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="179" t="s">
+      <c r="F1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="162">
+      <c r="G1" s="106">
         <v>45536</v>
       </c>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="163"/>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="163"/>
-      <c r="AJ1" s="164"/>
-      <c r="AK1" s="162">
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="107"/>
+      <c r="AH1" s="107"/>
+      <c r="AI1" s="107"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="106">
         <v>45566</v>
       </c>
-      <c r="AL1" s="163"/>
-      <c r="AM1" s="163"/>
-      <c r="AN1" s="163"/>
-      <c r="AO1" s="163"/>
-      <c r="AP1" s="163"/>
-      <c r="AQ1" s="163"/>
-      <c r="AR1" s="163"/>
-      <c r="AS1" s="163"/>
-      <c r="AT1" s="163"/>
-      <c r="AU1" s="163"/>
-      <c r="AV1" s="163"/>
-      <c r="AW1" s="163"/>
-      <c r="AX1" s="163"/>
-      <c r="AY1" s="163"/>
-      <c r="AZ1" s="163"/>
-      <c r="BA1" s="163"/>
-      <c r="BB1" s="163"/>
-      <c r="BC1" s="163"/>
-      <c r="BD1" s="163"/>
-      <c r="BE1" s="163"/>
-      <c r="BF1" s="163"/>
-      <c r="BG1" s="163"/>
-      <c r="BH1" s="163"/>
-      <c r="BI1" s="163"/>
-      <c r="BJ1" s="163"/>
-      <c r="BK1" s="163"/>
-      <c r="BL1" s="163"/>
-      <c r="BM1" s="163"/>
-      <c r="BN1" s="164"/>
+      <c r="AL1" s="107"/>
+      <c r="AM1" s="107"/>
+      <c r="AN1" s="107"/>
+      <c r="AO1" s="107"/>
+      <c r="AP1" s="107"/>
+      <c r="AQ1" s="107"/>
+      <c r="AR1" s="107"/>
+      <c r="AS1" s="107"/>
+      <c r="AT1" s="107"/>
+      <c r="AU1" s="107"/>
+      <c r="AV1" s="107"/>
+      <c r="AW1" s="107"/>
+      <c r="AX1" s="107"/>
+      <c r="AY1" s="107"/>
+      <c r="AZ1" s="107"/>
+      <c r="BA1" s="107"/>
+      <c r="BB1" s="107"/>
+      <c r="BC1" s="107"/>
+      <c r="BD1" s="107"/>
+      <c r="BE1" s="107"/>
+      <c r="BF1" s="107"/>
+      <c r="BG1" s="107"/>
+      <c r="BH1" s="107"/>
+      <c r="BI1" s="107"/>
+      <c r="BJ1" s="107"/>
+      <c r="BK1" s="107"/>
+      <c r="BL1" s="107"/>
+      <c r="BM1" s="107"/>
+      <c r="BN1" s="108"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="180"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="124"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3322,12 +3322,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="167"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="181"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3510,20 +3510,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="157">
+      <c r="A4" s="126">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="158" t="s">
+      <c r="C4" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="124" t="s">
+      <c r="D4" s="129"/>
+      <c r="E4" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="160"/>
+      <c r="F4" s="134"/>
       <c r="G4" s="29"/>
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
@@ -3586,12 +3586,12 @@
       <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="131"/>
+      <c r="A5" s="127"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="161"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="31"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
@@ -3654,18 +3654,18 @@
       <c r="BN5" s="72"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="130">
+      <c r="A6" s="136">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="129"/>
-      <c r="E6" s="125" t="s">
+      <c r="D6" s="144"/>
+      <c r="E6" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="155"/>
+      <c r="F6" s="148"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -3728,12 +3728,12 @@
       <c r="BN6" s="73"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="131"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="156"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="149"/>
       <c r="G7" s="52"/>
       <c r="H7" s="31"/>
       <c r="I7" s="64"/>
@@ -3796,20 +3796,20 @@
       <c r="BN7" s="74"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="130">
+      <c r="A8" s="136">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="124" t="s">
+      <c r="D8" s="177"/>
+      <c r="E8" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="127"/>
+      <c r="F8" s="181"/>
       <c r="G8" s="38"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -3872,12 +3872,12 @@
       <c r="BN8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="131"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="107"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="166"/>
       <c r="G9" s="51"/>
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
@@ -3940,18 +3940,18 @@
       <c r="BN9" s="73"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="130">
+      <c r="A10" s="136">
         <v>4</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="125" t="s">
+      <c r="D10" s="138"/>
+      <c r="E10" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="106"/>
+      <c r="F10" s="165"/>
       <c r="G10" s="51"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
@@ -3959,7 +3959,7 @@
       <c r="K10" s="63"/>
       <c r="L10" s="13"/>
       <c r="M10" s="19"/>
-      <c r="N10" s="63"/>
+      <c r="N10" s="30"/>
       <c r="O10" s="30"/>
       <c r="P10" s="63"/>
       <c r="Q10" s="63"/>
@@ -4014,12 +4014,12 @@
       <c r="BN10" s="73"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="131"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="107"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="166"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4082,18 +4082,18 @@
       <c r="BN11" s="73"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="130">
+      <c r="A12" s="136">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="117" t="s">
+      <c r="C12" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="121" t="s">
+      <c r="D12" s="138"/>
+      <c r="E12" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="106"/>
+      <c r="F12" s="165"/>
       <c r="G12" s="51"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
@@ -4156,12 +4156,12 @@
       <c r="BN12" s="73"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="131"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="108"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="175"/>
       <c r="G13" s="53"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
@@ -4224,20 +4224,20 @@
       <c r="BN13" s="97"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="130">
+      <c r="A14" s="136">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="117" t="s">
+      <c r="C14" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="118"/>
-      <c r="E14" s="124" t="s">
+      <c r="D14" s="138"/>
+      <c r="E14" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="154"/>
+      <c r="F14" s="141"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4247,16 +4247,16 @@
       <c r="M14" s="22"/>
       <c r="N14" s="67"/>
       <c r="O14" s="62"/>
-      <c r="P14" s="30"/>
+      <c r="P14" s="62"/>
       <c r="Q14" s="30"/>
       <c r="R14" s="30"/>
       <c r="S14" s="16"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
       <c r="V14" s="30"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
       <c r="Z14" s="16"/>
       <c r="AA14" s="22"/>
       <c r="AB14" s="22"/>
@@ -4300,12 +4300,12 @@
       <c r="BN14" s="72"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="131"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="151"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="142"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4368,15 +4368,15 @@
       <c r="BN15" s="72"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="130">
+      <c r="A16" s="136">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="128" t="s">
+      <c r="C16" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="129"/>
-      <c r="E16" s="125" t="s">
+      <c r="D16" s="144"/>
+      <c r="E16" s="147" t="s">
         <v>50</v>
       </c>
       <c r="F16" s="152"/>
@@ -4390,15 +4390,15 @@
       <c r="N16" s="63"/>
       <c r="O16" s="63"/>
       <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
       <c r="S16" s="13"/>
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
       <c r="V16" s="30"/>
       <c r="W16" s="30"/>
       <c r="X16" s="30"/>
-      <c r="Y16" s="9"/>
+      <c r="Y16" s="30"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
@@ -4442,12 +4442,12 @@
       <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="131"/>
+      <c r="A17" s="127"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="154"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="141"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -4510,20 +4510,20 @@
       <c r="BN17" s="74"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="130">
+      <c r="A18" s="136">
         <v>8</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="137" t="s">
+      <c r="C18" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="138"/>
-      <c r="E18" s="124" t="s">
+      <c r="D18" s="154"/>
+      <c r="E18" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="150"/>
+      <c r="F18" s="155"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -4542,17 +4542,17 @@
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
-      <c r="Y18" s="60"/>
+      <c r="Y18" s="6"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="21"/>
       <c r="AC18" s="60"/>
       <c r="AD18" s="60"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="60"/>
       <c r="AG18" s="15"/>
       <c r="AH18" s="22"/>
-      <c r="AI18" s="9"/>
+      <c r="AI18" s="60"/>
       <c r="AJ18" s="98"/>
       <c r="AK18" s="86"/>
       <c r="AL18" s="6"/>
@@ -4586,12 +4586,12 @@
       <c r="BN18" s="75"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="131"/>
+      <c r="A19" s="127"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="151"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="142"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -4654,15 +4654,15 @@
       <c r="BN19" s="74"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="130">
+      <c r="A20" s="136">
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="128" t="s">
+      <c r="C20" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="129"/>
-      <c r="E20" s="125" t="s">
+      <c r="D20" s="144"/>
+      <c r="E20" s="147" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="152"/>
@@ -4691,10 +4691,10 @@
       <c r="AC20" s="30"/>
       <c r="AD20" s="30"/>
       <c r="AE20" s="30"/>
-      <c r="AF20" s="24"/>
+      <c r="AF20" s="30"/>
       <c r="AG20" s="13"/>
       <c r="AH20" s="19"/>
-      <c r="AI20" s="24"/>
+      <c r="AI20" s="30"/>
       <c r="AJ20" s="73"/>
       <c r="AK20" s="85"/>
       <c r="AL20" s="24"/>
@@ -4728,12 +4728,12 @@
       <c r="BN20" s="73"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="131"/>
+      <c r="A21" s="127"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="151"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="142"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4796,15 +4796,15 @@
       <c r="BN21" s="74"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="130">
+      <c r="A22" s="136">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="121" t="s">
+      <c r="D22" s="144"/>
+      <c r="E22" s="157" t="s">
         <v>50</v>
       </c>
       <c r="F22" s="152"/>
@@ -4830,13 +4830,13 @@
       <c r="Z22" s="25"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
-      <c r="AC22" s="64"/>
-      <c r="AD22" s="64"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
       <c r="AE22" s="30"/>
       <c r="AF22" s="30"/>
       <c r="AG22" s="25"/>
       <c r="AH22" s="26"/>
-      <c r="AI22" s="24"/>
+      <c r="AI22" s="30"/>
       <c r="AJ22" s="99"/>
       <c r="AK22" s="85"/>
       <c r="AL22" s="24"/>
@@ -4870,12 +4870,12 @@
       <c r="BN22" s="77"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="131"/>
+      <c r="A23" s="127"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="153"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="158"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4938,20 +4938,20 @@
       <c r="BN23" s="78"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="130">
+      <c r="A24" s="136">
         <v>11</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="137" t="s">
+      <c r="C24" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="138"/>
-      <c r="E24" s="124" t="s">
+      <c r="D24" s="154"/>
+      <c r="E24" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="150"/>
+      <c r="F24" s="155"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -4980,8 +4980,8 @@
       <c r="AF24" s="65"/>
       <c r="AG24" s="15"/>
       <c r="AH24" s="21"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="80"/>
+      <c r="AI24" s="63"/>
+      <c r="AJ24" s="101"/>
       <c r="AK24" s="63"/>
       <c r="AL24" s="63"/>
       <c r="AM24" s="63"/>
@@ -5014,14 +5014,14 @@
       <c r="BN24" s="79"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="131"/>
+      <c r="A25" s="127"/>
       <c r="B25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="111"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="151"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="142"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5084,18 +5084,18 @@
       <c r="BN25" s="80"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="130">
+      <c r="A26" s="136">
         <v>12</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="109" t="s">
+      <c r="C26" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="110"/>
-      <c r="E26" s="121" t="s">
+      <c r="D26" s="151"/>
+      <c r="E26" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="123"/>
+      <c r="F26" s="180"/>
       <c r="G26" s="50"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -5124,10 +5124,10 @@
       <c r="AF26" s="62"/>
       <c r="AG26" s="16"/>
       <c r="AH26" s="22"/>
-      <c r="AI26" s="30"/>
+      <c r="AI26" s="63"/>
       <c r="AJ26" s="101"/>
       <c r="AK26" s="30"/>
-      <c r="AL26" s="63"/>
+      <c r="AL26" s="30"/>
       <c r="AM26" s="63"/>
       <c r="AN26" s="16"/>
       <c r="AO26" s="22"/>
@@ -5158,12 +5158,12 @@
       <c r="BN26" s="80"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="131"/>
+      <c r="A27" s="127"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="107"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="166"/>
       <c r="G27" s="51"/>
       <c r="H27" s="95"/>
       <c r="I27" s="7"/>
@@ -5226,18 +5226,18 @@
       <c r="BN27" s="80"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="130">
+      <c r="A28" s="136">
         <v>13</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="128" t="s">
+      <c r="C28" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="129"/>
-      <c r="E28" s="125" t="s">
+      <c r="D28" s="144"/>
+      <c r="E28" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="106"/>
+      <c r="F28" s="165"/>
       <c r="G28" s="50"/>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
@@ -5268,12 +5268,12 @@
       <c r="AH28" s="19"/>
       <c r="AI28" s="63"/>
       <c r="AJ28" s="80"/>
-      <c r="AK28" s="30"/>
+      <c r="AK28" s="91"/>
       <c r="AL28" s="30"/>
       <c r="AM28" s="30"/>
       <c r="AN28" s="13"/>
       <c r="AO28" s="19"/>
-      <c r="AP28" s="63"/>
+      <c r="AP28" s="30"/>
       <c r="AQ28" s="63"/>
       <c r="AR28" s="63"/>
       <c r="AS28" s="63"/>
@@ -5300,12 +5300,12 @@
       <c r="BN28" s="80"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="131"/>
+      <c r="A29" s="127"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="107"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="166"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="95"/>
@@ -5368,18 +5368,18 @@
       <c r="BN29" s="80"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="130">
+      <c r="A30" s="136">
         <v>14</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="128" t="s">
+      <c r="C30" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="129"/>
-      <c r="E30" s="125" t="s">
+      <c r="D30" s="144"/>
+      <c r="E30" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="106"/>
+      <c r="F30" s="165"/>
       <c r="G30" s="50"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -5412,12 +5412,12 @@
       <c r="AJ30" s="80"/>
       <c r="AK30" s="91"/>
       <c r="AL30" s="63"/>
-      <c r="AM30" s="30"/>
+      <c r="AM30" s="63"/>
       <c r="AN30" s="13"/>
       <c r="AO30" s="19"/>
       <c r="AP30" s="30"/>
       <c r="AQ30" s="30"/>
-      <c r="AR30" s="63"/>
+      <c r="AR30" s="30"/>
       <c r="AS30" s="63"/>
       <c r="AT30" s="63"/>
       <c r="AU30" s="13"/>
@@ -5442,12 +5442,12 @@
       <c r="BN30" s="80"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="131"/>
+      <c r="A31" s="127"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="107"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="166"/>
       <c r="G31" s="51"/>
       <c r="H31" s="95"/>
       <c r="I31" s="7"/>
@@ -5510,18 +5510,18 @@
       <c r="BN31" s="80"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="130">
+      <c r="A32" s="136">
         <v>15</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="128" t="s">
+      <c r="C32" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="129"/>
-      <c r="E32" s="121" t="s">
+      <c r="D32" s="144"/>
+      <c r="E32" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="106"/>
+      <c r="F32" s="165"/>
       <c r="G32" s="52"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5558,10 +5558,10 @@
       <c r="AN32" s="25"/>
       <c r="AO32" s="26"/>
       <c r="AP32" s="64"/>
-      <c r="AQ32" s="30"/>
+      <c r="AQ32" s="64"/>
       <c r="AR32" s="30"/>
       <c r="AS32" s="30"/>
-      <c r="AT32" s="63"/>
+      <c r="AT32" s="30"/>
       <c r="AU32" s="25"/>
       <c r="AV32" s="26"/>
       <c r="AW32" s="26"/>
@@ -5584,12 +5584,12 @@
       <c r="BN32" s="77"/>
     </row>
     <row r="33" spans="1:67" ht="12" customHeight="1">
-      <c r="A33" s="131"/>
+      <c r="A33" s="127"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="107"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="166"/>
       <c r="G33" s="52"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5652,18 +5652,18 @@
       <c r="BN33" s="77"/>
     </row>
     <row r="34" spans="1:67" ht="12" customHeight="1">
-      <c r="A34" s="130">
+      <c r="A34" s="136">
         <v>16</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="128" t="s">
+      <c r="C34" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="129"/>
-      <c r="E34" s="125" t="s">
+      <c r="D34" s="144"/>
+      <c r="E34" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="106"/>
+      <c r="F34" s="165"/>
       <c r="G34" s="52"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5702,14 +5702,14 @@
       <c r="AP34" s="64"/>
       <c r="AQ34" s="64"/>
       <c r="AR34" s="64"/>
-      <c r="AS34" s="30"/>
+      <c r="AS34" s="64"/>
       <c r="AT34" s="30"/>
       <c r="AU34" s="25"/>
       <c r="AV34" s="26"/>
       <c r="AW34" s="26"/>
       <c r="AX34" s="30"/>
       <c r="AY34" s="30"/>
-      <c r="AZ34" s="64"/>
+      <c r="AZ34" s="30"/>
       <c r="BA34" s="63"/>
       <c r="BB34" s="25"/>
       <c r="BC34" s="26"/>
@@ -5726,12 +5726,12 @@
       <c r="BN34" s="77"/>
     </row>
     <row r="35" spans="1:67" ht="12" customHeight="1">
-      <c r="A35" s="131"/>
+      <c r="A35" s="127"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="107"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="166"/>
       <c r="G35" s="52"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5794,18 +5794,18 @@
       <c r="BN35" s="77"/>
     </row>
     <row r="36" spans="1:67" ht="12" customHeight="1">
-      <c r="A36" s="130">
+      <c r="A36" s="136">
         <v>17</v>
       </c>
       <c r="B36" s="36"/>
-      <c r="C36" s="128" t="s">
+      <c r="C36" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="129"/>
-      <c r="E36" s="125" t="s">
+      <c r="D36" s="144"/>
+      <c r="E36" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="106"/>
+      <c r="F36" s="165"/>
       <c r="G36" s="52"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5850,13 +5850,13 @@
       <c r="AV36" s="26"/>
       <c r="AW36" s="26"/>
       <c r="AX36" s="64"/>
-      <c r="AY36" s="30"/>
+      <c r="AY36" s="64"/>
       <c r="AZ36" s="30"/>
       <c r="BA36" s="30"/>
       <c r="BB36" s="25"/>
       <c r="BC36" s="26"/>
       <c r="BD36" s="30"/>
-      <c r="BE36" s="64"/>
+      <c r="BE36" s="30"/>
       <c r="BF36" s="64"/>
       <c r="BG36" s="64"/>
       <c r="BH36" s="64"/>
@@ -5868,12 +5868,12 @@
       <c r="BN36" s="77"/>
     </row>
     <row r="37" spans="1:67" ht="12" customHeight="1">
-      <c r="A37" s="131"/>
+      <c r="A37" s="127"/>
       <c r="B37" s="36"/>
-      <c r="C37" s="132"/>
-      <c r="D37" s="133"/>
-      <c r="E37" s="124"/>
-      <c r="F37" s="108"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="175"/>
       <c r="G37" s="52"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5936,20 +5936,20 @@
       <c r="BN37" s="77"/>
     </row>
     <row r="38" spans="1:67" ht="12" customHeight="1">
-      <c r="A38" s="130">
+      <c r="A38" s="136">
         <v>18</v>
       </c>
       <c r="B38" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="144" t="s">
+      <c r="C38" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="145"/>
-      <c r="E38" s="124" t="s">
+      <c r="D38" s="160"/>
+      <c r="E38" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="148"/>
+      <c r="F38" s="163"/>
       <c r="G38" s="38"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -6000,7 +6000,7 @@
       <c r="BB38" s="15"/>
       <c r="BC38" s="21"/>
       <c r="BD38" s="65"/>
-      <c r="BE38" s="60"/>
+      <c r="BE38" s="65"/>
       <c r="BF38" s="41"/>
       <c r="BG38" s="41"/>
       <c r="BH38" s="41"/>
@@ -6012,12 +6012,12 @@
       <c r="BN38" s="79"/>
     </row>
     <row r="39" spans="1:67" ht="12" customHeight="1">
-      <c r="A39" s="131"/>
+      <c r="A39" s="127"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="146"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="149"/>
+      <c r="C39" s="161"/>
+      <c r="D39" s="162"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="164"/>
       <c r="G39" s="51"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -6080,20 +6080,20 @@
       <c r="BN39" s="78"/>
     </row>
     <row r="40" spans="1:67" ht="12" customHeight="1">
-      <c r="A40" s="130">
+      <c r="A40" s="136">
         <v>19</v>
       </c>
-      <c r="B40" s="135" t="s">
+      <c r="B40" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="137" t="s">
+      <c r="C40" s="153" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="138"/>
-      <c r="E40" s="122" t="s">
+      <c r="D40" s="154"/>
+      <c r="E40" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="142"/>
+      <c r="F40" s="173"/>
       <c r="G40" s="38"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -6157,12 +6157,12 @@
       <c r="BO40" s="103"/>
     </row>
     <row r="41" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A41" s="134"/>
-      <c r="B41" s="136"/>
-      <c r="C41" s="139"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="143"/>
+      <c r="A41" s="167"/>
+      <c r="B41" s="169"/>
+      <c r="C41" s="170"/>
+      <c r="D41" s="171"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="174"/>
       <c r="G41" s="39"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -6243,44 +6243,36 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="C38:D39"/>
     <mergeCell ref="E38:E39"/>
@@ -6297,36 +6289,44 @@
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -6370,54 +6370,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="171" t="s">
+      <c r="C1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="172"/>
-      <c r="E1" s="177" t="s">
+      <c r="D1" s="116"/>
+      <c r="E1" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="179" t="s">
+      <c r="F1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="162"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="164"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="108"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="180"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="124"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -6492,12 +6492,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="167"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="181"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -6572,20 +6572,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="157">
+      <c r="A4" s="126">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="158" t="s">
+      <c r="C4" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="188" t="s">
+      <c r="D4" s="129"/>
+      <c r="E4" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="160"/>
+      <c r="F4" s="134"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -6608,20 +6608,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="190" t="s">
+      <c r="AC4" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="183" t="s">
+      <c r="AD4" s="195" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="131"/>
+      <c r="A5" s="127"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="161"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -6644,22 +6644,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="191"/>
-      <c r="AD5" s="184"/>
+      <c r="AC5" s="203"/>
+      <c r="AD5" s="196"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="130">
+      <c r="A6" s="136">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="129"/>
-      <c r="E6" s="186" t="s">
+      <c r="D6" s="144"/>
+      <c r="E6" s="198" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="155"/>
+      <c r="F6" s="148"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -6682,16 +6682,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="191"/>
-      <c r="AD6" s="184"/>
+      <c r="AC6" s="203"/>
+      <c r="AD6" s="196"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="131"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="156"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="149"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -6714,24 +6714,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="191"/>
-      <c r="AD7" s="184"/>
+      <c r="AC7" s="203"/>
+      <c r="AD7" s="196"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="193">
+      <c r="A8" s="184">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="195" t="s">
+      <c r="D8" s="177"/>
+      <c r="E8" s="205" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="150"/>
+      <c r="F8" s="155"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -6754,16 +6754,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="191"/>
-      <c r="AD8" s="184"/>
+      <c r="AC8" s="203"/>
+      <c r="AD8" s="196"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="194"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="153"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="158"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -6786,24 +6786,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="191"/>
-      <c r="AD9" s="184"/>
+      <c r="AC9" s="203"/>
+      <c r="AD9" s="196"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="197">
+      <c r="A10" s="193">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="198" t="s">
+      <c r="D10" s="138"/>
+      <c r="E10" s="192" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="154"/>
+      <c r="F10" s="141"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -6826,16 +6826,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="191"/>
-      <c r="AD10" s="184"/>
+      <c r="AC10" s="203"/>
+      <c r="AD10" s="196"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="194"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="199"/>
-      <c r="F11" s="151"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="142"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -6858,19 +6858,19 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="191"/>
-      <c r="AD11" s="184"/>
+      <c r="AC11" s="203"/>
+      <c r="AD11" s="196"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="193">
+      <c r="A12" s="184">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="129"/>
-      <c r="E12" s="200" t="s">
+      <c r="D12" s="144"/>
+      <c r="E12" s="194" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="152"/>
@@ -6896,16 +6896,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="191"/>
-      <c r="AD12" s="184"/>
+      <c r="AC12" s="203"/>
+      <c r="AD12" s="196"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="197"/>
+      <c r="A13" s="193"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="198"/>
-      <c r="F13" s="154"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="192"/>
+      <c r="F13" s="141"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -6928,24 +6928,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="191"/>
-      <c r="AD13" s="184"/>
+      <c r="AC13" s="203"/>
+      <c r="AD13" s="196"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="201">
+      <c r="A14" s="189">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="138"/>
-      <c r="E14" s="202" t="s">
+      <c r="D14" s="154"/>
+      <c r="E14" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="150"/>
+      <c r="F14" s="155"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -6968,16 +6968,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="191"/>
-      <c r="AD14" s="184"/>
+      <c r="AC14" s="203"/>
+      <c r="AD14" s="196"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="201"/>
+      <c r="A15" s="189"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="199"/>
-      <c r="F15" s="151"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="142"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7000,19 +7000,19 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="191"/>
-      <c r="AD15" s="184"/>
+      <c r="AC15" s="203"/>
+      <c r="AD15" s="196"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="201">
+      <c r="A16" s="189">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="128" t="s">
+      <c r="C16" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="129"/>
-      <c r="E16" s="203" t="s">
+      <c r="D16" s="144"/>
+      <c r="E16" s="187" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="152"/>
@@ -7038,16 +7038,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="191"/>
-      <c r="AD16" s="184"/>
+      <c r="AC16" s="203"/>
+      <c r="AD16" s="196"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="201"/>
+      <c r="A17" s="189"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="199"/>
-      <c r="F17" s="151"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="142"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7070,19 +7070,19 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="191"/>
-      <c r="AD17" s="184"/>
+      <c r="AC17" s="203"/>
+      <c r="AD17" s="196"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="201">
+      <c r="A18" s="189">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="128" t="s">
+      <c r="C18" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="129"/>
-      <c r="E18" s="203" t="s">
+      <c r="D18" s="144"/>
+      <c r="E18" s="187" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="152"/>
@@ -7108,16 +7108,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="191"/>
-      <c r="AD18" s="184"/>
+      <c r="AC18" s="203"/>
+      <c r="AD18" s="196"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="201"/>
+      <c r="A19" s="189"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="153"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="158"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7140,24 +7140,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="191"/>
-      <c r="AD19" s="184"/>
+      <c r="AC19" s="203"/>
+      <c r="AD19" s="196"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="193">
+      <c r="A20" s="184">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="138"/>
-      <c r="E20" s="202" t="s">
+      <c r="D20" s="154"/>
+      <c r="E20" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="150"/>
+      <c r="F20" s="155"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7180,18 +7180,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="191"/>
-      <c r="AD20" s="184"/>
+      <c r="AC20" s="203"/>
+      <c r="AD20" s="196"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="194"/>
+      <c r="A21" s="185"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="151"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="142"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -7214,19 +7214,19 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="191"/>
-      <c r="AD21" s="184"/>
+      <c r="AC21" s="203"/>
+      <c r="AD21" s="196"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="193">
+      <c r="A22" s="184">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="204" t="s">
+      <c r="C22" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="203" t="s">
+      <c r="D22" s="144"/>
+      <c r="E22" s="187" t="s">
         <v>42</v>
       </c>
       <c r="F22" s="152"/>
@@ -7252,16 +7252,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="191"/>
-      <c r="AD22" s="184"/>
+      <c r="AC22" s="203"/>
+      <c r="AD22" s="196"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="194"/>
+      <c r="A23" s="185"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="199"/>
-      <c r="F23" s="151"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="142"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -7284,19 +7284,19 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="191"/>
-      <c r="AD23" s="184"/>
+      <c r="AC23" s="203"/>
+      <c r="AD23" s="196"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="193">
+      <c r="A24" s="184">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="204" t="s">
+      <c r="C24" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="129"/>
-      <c r="E24" s="203" t="s">
+      <c r="D24" s="144"/>
+      <c r="E24" s="187" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="152"/>
@@ -7322,16 +7322,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="191"/>
-      <c r="AD24" s="184"/>
+      <c r="AC24" s="203"/>
+      <c r="AD24" s="196"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="194"/>
+      <c r="A25" s="185"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="199"/>
-      <c r="F25" s="153"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="158"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -7354,24 +7354,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="191"/>
-      <c r="AD25" s="184"/>
+      <c r="AC25" s="203"/>
+      <c r="AD25" s="196"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="130">
+      <c r="A26" s="136">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="144" t="s">
+      <c r="C26" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="145"/>
-      <c r="E26" s="205" t="s">
+      <c r="D26" s="160"/>
+      <c r="E26" s="182" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="148"/>
+      <c r="F26" s="163"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -7394,16 +7394,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="191"/>
-      <c r="AD26" s="184"/>
+      <c r="AC26" s="203"/>
+      <c r="AD26" s="196"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="131"/>
+      <c r="A27" s="127"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="206"/>
-      <c r="F27" s="149"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="164"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -7426,24 +7426,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="191"/>
-      <c r="AD27" s="184"/>
+      <c r="AC27" s="203"/>
+      <c r="AD27" s="196"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="130">
+      <c r="A28" s="136">
         <v>14</v>
       </c>
-      <c r="B28" s="135" t="s">
+      <c r="B28" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="137" t="s">
+      <c r="C28" s="153" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="138"/>
-      <c r="E28" s="135" t="s">
+      <c r="D28" s="154"/>
+      <c r="E28" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="142"/>
+      <c r="F28" s="173"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -7466,16 +7466,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="191"/>
-      <c r="AD28" s="184"/>
+      <c r="AC28" s="203"/>
+      <c r="AD28" s="196"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="134"/>
-      <c r="B29" s="136"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="143"/>
+      <c r="A29" s="167"/>
+      <c r="B29" s="169"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="174"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -7498,8 +7498,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="192"/>
-      <c r="AD29" s="185"/>
+      <c r="AC29" s="204"/>
+      <c r="AD29" s="197"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -7519,45 +7519,12 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -7574,12 +7541,45 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFD378F-97E7-4666-A814-DC9BA350D193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE26BB78-FC58-468A-93D7-3E83D387509B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31365" yWindow="2055" windowWidth="20190" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール (テンプレート)" sheetId="13" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2070,6 +2070,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2103,6 +2106,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2118,9 +2127,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2248,9 +2254,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2976,7 +2979,7 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3658,14 +3661,14 @@
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="143" t="s">
+      <c r="C6" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="144"/>
-      <c r="E6" s="147" t="s">
+      <c r="D6" s="145"/>
+      <c r="E6" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="148"/>
+      <c r="F6" s="149"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -3730,10 +3733,10 @@
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
       <c r="A7" s="127"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="147"/>
       <c r="E7" s="132"/>
-      <c r="F7" s="149"/>
+      <c r="F7" s="150"/>
       <c r="G7" s="52"/>
       <c r="H7" s="31"/>
       <c r="I7" s="64"/>
@@ -3802,14 +3805,14 @@
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="176" t="s">
+      <c r="C8" s="178" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="177"/>
+      <c r="D8" s="179"/>
       <c r="E8" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="181"/>
+      <c r="F8" s="183"/>
       <c r="G8" s="38"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -3877,7 +3880,7 @@
       <c r="C9" s="139"/>
       <c r="D9" s="140"/>
       <c r="E9" s="133"/>
-      <c r="F9" s="166"/>
+      <c r="F9" s="168"/>
       <c r="G9" s="51"/>
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
@@ -3948,10 +3951,10 @@
         <v>51</v>
       </c>
       <c r="D10" s="138"/>
-      <c r="E10" s="147" t="s">
+      <c r="E10" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="165"/>
+      <c r="F10" s="167"/>
       <c r="G10" s="51"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
@@ -4018,8 +4021,8 @@
       <c r="B11" s="36"/>
       <c r="C11" s="139"/>
       <c r="D11" s="140"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="166"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="168"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4090,10 +4093,10 @@
         <v>52</v>
       </c>
       <c r="D12" s="138"/>
-      <c r="E12" s="157" t="s">
+      <c r="E12" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="165"/>
+      <c r="F12" s="167"/>
       <c r="G12" s="51"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
@@ -4158,10 +4161,10 @@
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
       <c r="A13" s="127"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="175"/>
+      <c r="C13" s="180"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="177"/>
       <c r="G13" s="53"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
@@ -4234,10 +4237,10 @@
         <v>6</v>
       </c>
       <c r="D14" s="138"/>
-      <c r="E14" s="132" t="s">
+      <c r="E14" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="141"/>
+      <c r="F14" s="142"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4304,8 +4307,8 @@
       <c r="B15" s="36"/>
       <c r="C15" s="139"/>
       <c r="D15" s="140"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="142"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="143"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4372,14 +4375,14 @@
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="143" t="s">
+      <c r="C16" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="144"/>
-      <c r="E16" s="147" t="s">
+      <c r="D16" s="145"/>
+      <c r="E16" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="152"/>
+      <c r="F16" s="155"/>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -4444,10 +4447,10 @@
     <row r="17" spans="1:66" ht="12" customHeight="1">
       <c r="A17" s="127"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="141"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="142"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -4516,14 +4519,14 @@
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="153" t="s">
+      <c r="C18" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="154"/>
+      <c r="D18" s="157"/>
       <c r="E18" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="155"/>
+      <c r="F18" s="158"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -4591,7 +4594,7 @@
       <c r="C19" s="130"/>
       <c r="D19" s="131"/>
       <c r="E19" s="133"/>
-      <c r="F19" s="142"/>
+      <c r="F19" s="143"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -4658,14 +4661,14 @@
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="143" t="s">
+      <c r="C20" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="144"/>
-      <c r="E20" s="147" t="s">
+      <c r="D20" s="145"/>
+      <c r="E20" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="152"/>
+      <c r="F20" s="155"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4732,8 +4735,8 @@
       <c r="B21" s="36"/>
       <c r="C21" s="130"/>
       <c r="D21" s="131"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="142"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="143"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4800,14 +4803,14 @@
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="144"/>
-      <c r="E22" s="157" t="s">
+      <c r="D22" s="145"/>
+      <c r="E22" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="152"/>
+      <c r="F22" s="155"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4872,10 +4875,10 @@
     <row r="23" spans="1:66" ht="12" customHeight="1">
       <c r="A23" s="127"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="146"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="147"/>
       <c r="E23" s="132"/>
-      <c r="F23" s="158"/>
+      <c r="F23" s="160"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4944,14 +4947,14 @@
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="153" t="s">
+      <c r="C24" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="154"/>
+      <c r="D24" s="157"/>
       <c r="E24" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="155"/>
+      <c r="F24" s="158"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5020,8 +5023,8 @@
       </c>
       <c r="C25" s="130"/>
       <c r="D25" s="131"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="142"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="143"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5088,14 +5091,14 @@
         <v>12</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="150" t="s">
+      <c r="C26" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="151"/>
-      <c r="E26" s="157" t="s">
+      <c r="D26" s="152"/>
+      <c r="E26" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="180"/>
+      <c r="F26" s="182"/>
       <c r="G26" s="50"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -5163,7 +5166,7 @@
       <c r="C27" s="130"/>
       <c r="D27" s="131"/>
       <c r="E27" s="133"/>
-      <c r="F27" s="166"/>
+      <c r="F27" s="168"/>
       <c r="G27" s="51"/>
       <c r="H27" s="95"/>
       <c r="I27" s="7"/>
@@ -5230,14 +5233,14 @@
         <v>13</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="143" t="s">
+      <c r="C28" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="144"/>
-      <c r="E28" s="147" t="s">
+      <c r="D28" s="145"/>
+      <c r="E28" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="165"/>
+      <c r="F28" s="167"/>
       <c r="G28" s="50"/>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
@@ -5305,7 +5308,7 @@
       <c r="C29" s="130"/>
       <c r="D29" s="131"/>
       <c r="E29" s="133"/>
-      <c r="F29" s="166"/>
+      <c r="F29" s="168"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="95"/>
@@ -5372,14 +5375,14 @@
         <v>14</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="143" t="s">
+      <c r="C30" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="144"/>
-      <c r="E30" s="147" t="s">
+      <c r="D30" s="145"/>
+      <c r="E30" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="165"/>
+      <c r="F30" s="167"/>
       <c r="G30" s="50"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -5446,8 +5449,8 @@
       <c r="B31" s="36"/>
       <c r="C31" s="130"/>
       <c r="D31" s="131"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="166"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="168"/>
       <c r="G31" s="51"/>
       <c r="H31" s="95"/>
       <c r="I31" s="7"/>
@@ -5514,14 +5517,14 @@
         <v>15</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="143" t="s">
+      <c r="C32" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="144"/>
-      <c r="E32" s="157" t="s">
+      <c r="D32" s="145"/>
+      <c r="E32" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="165"/>
+      <c r="F32" s="167"/>
       <c r="G32" s="52"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5589,7 +5592,7 @@
       <c r="C33" s="130"/>
       <c r="D33" s="131"/>
       <c r="E33" s="133"/>
-      <c r="F33" s="166"/>
+      <c r="F33" s="168"/>
       <c r="G33" s="52"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5656,14 +5659,14 @@
         <v>16</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="143" t="s">
+      <c r="C34" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="144"/>
-      <c r="E34" s="147" t="s">
+      <c r="D34" s="145"/>
+      <c r="E34" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="165"/>
+      <c r="F34" s="167"/>
       <c r="G34" s="52"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5731,7 +5734,7 @@
       <c r="C35" s="130"/>
       <c r="D35" s="131"/>
       <c r="E35" s="133"/>
-      <c r="F35" s="166"/>
+      <c r="F35" s="168"/>
       <c r="G35" s="52"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5798,14 +5801,14 @@
         <v>17</v>
       </c>
       <c r="B36" s="36"/>
-      <c r="C36" s="143" t="s">
+      <c r="C36" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="144"/>
-      <c r="E36" s="147" t="s">
+      <c r="D36" s="145"/>
+      <c r="E36" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="165"/>
+      <c r="F36" s="167"/>
       <c r="G36" s="52"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5870,10 +5873,10 @@
     <row r="37" spans="1:67" ht="12" customHeight="1">
       <c r="A37" s="127"/>
       <c r="B37" s="36"/>
-      <c r="C37" s="145"/>
-      <c r="D37" s="146"/>
+      <c r="C37" s="146"/>
+      <c r="D37" s="147"/>
       <c r="E37" s="132"/>
-      <c r="F37" s="175"/>
+      <c r="F37" s="177"/>
       <c r="G37" s="52"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5942,14 +5945,14 @@
       <c r="B38" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="159" t="s">
+      <c r="C38" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="160"/>
+      <c r="D38" s="162"/>
       <c r="E38" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="163"/>
+      <c r="F38" s="165"/>
       <c r="G38" s="38"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -6014,10 +6017,10 @@
     <row r="39" spans="1:67" ht="12" customHeight="1">
       <c r="A39" s="127"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="161"/>
-      <c r="D39" s="162"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="164"/>
       <c r="E39" s="132"/>
-      <c r="F39" s="164"/>
+      <c r="F39" s="166"/>
       <c r="G39" s="51"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -6083,17 +6086,17 @@
       <c r="A40" s="136">
         <v>19</v>
       </c>
-      <c r="B40" s="168" t="s">
+      <c r="B40" s="170" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="153" t="s">
+      <c r="C40" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="154"/>
+      <c r="D40" s="157"/>
       <c r="E40" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="173"/>
+      <c r="F40" s="175"/>
       <c r="G40" s="38"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -6157,12 +6160,12 @@
       <c r="BO40" s="103"/>
     </row>
     <row r="41" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A41" s="167"/>
-      <c r="B41" s="169"/>
-      <c r="C41" s="170"/>
-      <c r="D41" s="171"/>
-      <c r="E41" s="172"/>
-      <c r="F41" s="174"/>
+      <c r="A41" s="169"/>
+      <c r="B41" s="171"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="173"/>
+      <c r="E41" s="174"/>
+      <c r="F41" s="176"/>
       <c r="G41" s="39"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -6496,7 +6499,7 @@
       <c r="B3" s="114"/>
       <c r="C3" s="119"/>
       <c r="D3" s="120"/>
-      <c r="E3" s="206"/>
+      <c r="E3" s="207"/>
       <c r="F3" s="125"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
@@ -6582,7 +6585,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="129"/>
-      <c r="E4" s="200" t="s">
+      <c r="E4" s="202" t="s">
         <v>35</v>
       </c>
       <c r="F4" s="134"/>
@@ -6608,10 +6611,10 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="202" t="s">
+      <c r="AC4" s="203" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="195" t="s">
+      <c r="AD4" s="197" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6620,7 +6623,7 @@
       <c r="B5" s="34"/>
       <c r="C5" s="130"/>
       <c r="D5" s="131"/>
-      <c r="E5" s="201"/>
+      <c r="E5" s="141"/>
       <c r="F5" s="135"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
@@ -6644,22 +6647,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="203"/>
-      <c r="AD5" s="196"/>
+      <c r="AC5" s="204"/>
+      <c r="AD5" s="198"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
       <c r="A6" s="136">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="143" t="s">
+      <c r="C6" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="144"/>
-      <c r="E6" s="198" t="s">
+      <c r="D6" s="145"/>
+      <c r="E6" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="148"/>
+      <c r="F6" s="149"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -6682,16 +6685,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="203"/>
-      <c r="AD6" s="196"/>
+      <c r="AC6" s="204"/>
+      <c r="AD6" s="198"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
       <c r="A7" s="127"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="199"/>
-      <c r="F7" s="149"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="150"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -6714,24 +6717,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="203"/>
-      <c r="AD7" s="196"/>
+      <c r="AC7" s="204"/>
+      <c r="AD7" s="198"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="184">
+      <c r="A8" s="186">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="176" t="s">
+      <c r="C8" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="177"/>
-      <c r="E8" s="205" t="s">
+      <c r="D8" s="179"/>
+      <c r="E8" s="206" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="155"/>
+      <c r="F8" s="158"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -6754,16 +6757,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="203"/>
-      <c r="AD8" s="196"/>
+      <c r="AC8" s="204"/>
+      <c r="AD8" s="198"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="185"/>
+      <c r="A9" s="187"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="158"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="160"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -6786,11 +6789,11 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="203"/>
-      <c r="AD9" s="196"/>
+      <c r="AC9" s="204"/>
+      <c r="AD9" s="198"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="193">
+      <c r="A10" s="195">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
@@ -6800,10 +6803,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="138"/>
-      <c r="E10" s="192" t="s">
+      <c r="E10" s="194" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="141"/>
+      <c r="F10" s="142"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -6826,16 +6829,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="203"/>
-      <c r="AD10" s="196"/>
+      <c r="AC10" s="204"/>
+      <c r="AD10" s="198"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="185"/>
+      <c r="A11" s="187"/>
       <c r="B11" s="36"/>
       <c r="C11" s="139"/>
       <c r="D11" s="140"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="142"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="143"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -6858,22 +6861,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="203"/>
-      <c r="AD11" s="196"/>
+      <c r="AC11" s="204"/>
+      <c r="AD11" s="198"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="184">
+      <c r="A12" s="186">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="143" t="s">
+      <c r="C12" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="144"/>
-      <c r="E12" s="194" t="s">
+      <c r="D12" s="145"/>
+      <c r="E12" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="152"/>
+      <c r="F12" s="155"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -6896,16 +6899,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="203"/>
-      <c r="AD12" s="196"/>
+      <c r="AC12" s="204"/>
+      <c r="AD12" s="198"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="193"/>
+      <c r="A13" s="195"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="192"/>
-      <c r="F13" s="141"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="142"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -6928,24 +6931,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="203"/>
-      <c r="AD13" s="196"/>
+      <c r="AC13" s="204"/>
+      <c r="AD13" s="198"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="189">
+      <c r="A14" s="191">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="153" t="s">
+      <c r="C14" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="154"/>
-      <c r="E14" s="191" t="s">
+      <c r="D14" s="157"/>
+      <c r="E14" s="193" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="155"/>
+      <c r="F14" s="158"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -6968,16 +6971,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="203"/>
-      <c r="AD14" s="196"/>
+      <c r="AC14" s="204"/>
+      <c r="AD14" s="198"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="189"/>
+      <c r="A15" s="191"/>
       <c r="B15" s="36"/>
       <c r="C15" s="130"/>
       <c r="D15" s="131"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="142"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="143"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7000,22 +7003,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="203"/>
-      <c r="AD15" s="196"/>
+      <c r="AC15" s="204"/>
+      <c r="AD15" s="198"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="189">
+      <c r="A16" s="191">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="143" t="s">
+      <c r="C16" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="144"/>
-      <c r="E16" s="187" t="s">
+      <c r="D16" s="145"/>
+      <c r="E16" s="189" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="152"/>
+      <c r="F16" s="155"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7038,16 +7041,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="203"/>
-      <c r="AD16" s="196"/>
+      <c r="AC16" s="204"/>
+      <c r="AD16" s="198"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="189"/>
+      <c r="A17" s="191"/>
       <c r="B17" s="36"/>
       <c r="C17" s="130"/>
       <c r="D17" s="131"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="142"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="143"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7070,22 +7073,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="203"/>
-      <c r="AD17" s="196"/>
+      <c r="AC17" s="204"/>
+      <c r="AD17" s="198"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="189">
+      <c r="A18" s="191">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="143" t="s">
+      <c r="C18" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="144"/>
-      <c r="E18" s="187" t="s">
+      <c r="D18" s="145"/>
+      <c r="E18" s="189" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="152"/>
+      <c r="F18" s="155"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7108,16 +7111,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="203"/>
-      <c r="AD18" s="196"/>
+      <c r="AC18" s="204"/>
+      <c r="AD18" s="198"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="189"/>
+      <c r="A19" s="191"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="190"/>
-      <c r="F19" s="158"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="192"/>
+      <c r="F19" s="160"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7140,24 +7143,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="203"/>
-      <c r="AD19" s="196"/>
+      <c r="AC19" s="204"/>
+      <c r="AD19" s="198"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="184">
+      <c r="A20" s="186">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="153" t="s">
+      <c r="C20" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="154"/>
-      <c r="E20" s="191" t="s">
+      <c r="D20" s="157"/>
+      <c r="E20" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="155"/>
+      <c r="F20" s="158"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7180,18 +7183,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="203"/>
-      <c r="AD20" s="196"/>
+      <c r="AC20" s="204"/>
+      <c r="AD20" s="198"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="185"/>
+      <c r="A21" s="187"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="130"/>
       <c r="D21" s="131"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="142"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="143"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -7214,22 +7217,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="203"/>
-      <c r="AD21" s="196"/>
+      <c r="AC21" s="204"/>
+      <c r="AD21" s="198"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="184">
+      <c r="A22" s="186">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="186" t="s">
+      <c r="C22" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="144"/>
-      <c r="E22" s="187" t="s">
+      <c r="D22" s="145"/>
+      <c r="E22" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="152"/>
+      <c r="F22" s="155"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -7252,16 +7255,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="203"/>
-      <c r="AD22" s="196"/>
+      <c r="AC22" s="204"/>
+      <c r="AD22" s="198"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="185"/>
+      <c r="A23" s="187"/>
       <c r="B23" s="36"/>
       <c r="C23" s="130"/>
       <c r="D23" s="131"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="142"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="143"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -7284,22 +7287,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="203"/>
-      <c r="AD23" s="196"/>
+      <c r="AC23" s="204"/>
+      <c r="AD23" s="198"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="184">
+      <c r="A24" s="186">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="186" t="s">
+      <c r="C24" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="144"/>
-      <c r="E24" s="187" t="s">
+      <c r="D24" s="145"/>
+      <c r="E24" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="152"/>
+      <c r="F24" s="155"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -7322,16 +7325,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="203"/>
-      <c r="AD24" s="196"/>
+      <c r="AC24" s="204"/>
+      <c r="AD24" s="198"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="185"/>
+      <c r="A25" s="187"/>
       <c r="B25" s="37"/>
       <c r="C25" s="130"/>
       <c r="D25" s="131"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="158"/>
+      <c r="E25" s="190"/>
+      <c r="F25" s="160"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -7354,8 +7357,8 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="203"/>
-      <c r="AD25" s="196"/>
+      <c r="AC25" s="204"/>
+      <c r="AD25" s="198"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
       <c r="A26" s="136">
@@ -7364,14 +7367,14 @@
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="159" t="s">
+      <c r="C26" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="160"/>
-      <c r="E26" s="182" t="s">
+      <c r="D26" s="162"/>
+      <c r="E26" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="163"/>
+      <c r="F26" s="165"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -7394,16 +7397,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="203"/>
-      <c r="AD26" s="196"/>
+      <c r="AC26" s="204"/>
+      <c r="AD26" s="198"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
       <c r="A27" s="127"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="161"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="164"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="185"/>
+      <c r="F27" s="166"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -7426,24 +7429,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="203"/>
-      <c r="AD27" s="196"/>
+      <c r="AC27" s="204"/>
+      <c r="AD27" s="198"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
       <c r="A28" s="136">
         <v>14</v>
       </c>
-      <c r="B28" s="168" t="s">
+      <c r="B28" s="170" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="153" t="s">
+      <c r="C28" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="154"/>
-      <c r="E28" s="168" t="s">
+      <c r="D28" s="157"/>
+      <c r="E28" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="173"/>
+      <c r="F28" s="175"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -7466,16 +7469,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="203"/>
-      <c r="AD28" s="196"/>
+      <c r="AC28" s="204"/>
+      <c r="AD28" s="198"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="167"/>
-      <c r="B29" s="169"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="174"/>
+      <c r="A29" s="169"/>
+      <c r="B29" s="171"/>
+      <c r="C29" s="172"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="176"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -7498,8 +7501,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="204"/>
-      <c r="AD29" s="197"/>
+      <c r="AC29" s="205"/>
+      <c r="AD29" s="199"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE26BB78-FC58-468A-93D7-3E83D387509B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A03BF1-A30E-4120-9C8F-14246C827604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31365" yWindow="2055" windowWidth="20190" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="1440" windowWidth="20190" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール (テンプレート)" sheetId="13" r:id="rId1"/>
@@ -1965,6 +1965,180 @@
     <xf numFmtId="49" fontId="2" fillId="10" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2025,251 +2199,77 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2979,7 +2979,7 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2996,94 +2996,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="121" t="s">
+      <c r="D1" s="174"/>
+      <c r="E1" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="106">
+      <c r="G1" s="164">
         <v>45536</v>
       </c>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="107"/>
-      <c r="AH1" s="107"/>
-      <c r="AI1" s="107"/>
-      <c r="AJ1" s="108"/>
-      <c r="AK1" s="106">
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="165"/>
+      <c r="AD1" s="165"/>
+      <c r="AE1" s="165"/>
+      <c r="AF1" s="165"/>
+      <c r="AG1" s="165"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="165"/>
+      <c r="AJ1" s="166"/>
+      <c r="AK1" s="164">
         <v>45566</v>
       </c>
-      <c r="AL1" s="107"/>
-      <c r="AM1" s="107"/>
-      <c r="AN1" s="107"/>
-      <c r="AO1" s="107"/>
-      <c r="AP1" s="107"/>
-      <c r="AQ1" s="107"/>
-      <c r="AR1" s="107"/>
-      <c r="AS1" s="107"/>
-      <c r="AT1" s="107"/>
-      <c r="AU1" s="107"/>
-      <c r="AV1" s="107"/>
-      <c r="AW1" s="107"/>
-      <c r="AX1" s="107"/>
-      <c r="AY1" s="107"/>
-      <c r="AZ1" s="107"/>
-      <c r="BA1" s="107"/>
-      <c r="BB1" s="107"/>
-      <c r="BC1" s="107"/>
-      <c r="BD1" s="107"/>
-      <c r="BE1" s="107"/>
-      <c r="BF1" s="107"/>
-      <c r="BG1" s="107"/>
-      <c r="BH1" s="107"/>
-      <c r="BI1" s="107"/>
-      <c r="BJ1" s="107"/>
-      <c r="BK1" s="107"/>
-      <c r="BL1" s="107"/>
-      <c r="BM1" s="107"/>
-      <c r="BN1" s="108"/>
+      <c r="AL1" s="165"/>
+      <c r="AM1" s="165"/>
+      <c r="AN1" s="165"/>
+      <c r="AO1" s="165"/>
+      <c r="AP1" s="165"/>
+      <c r="AQ1" s="165"/>
+      <c r="AR1" s="165"/>
+      <c r="AS1" s="165"/>
+      <c r="AT1" s="165"/>
+      <c r="AU1" s="165"/>
+      <c r="AV1" s="165"/>
+      <c r="AW1" s="165"/>
+      <c r="AX1" s="165"/>
+      <c r="AY1" s="165"/>
+      <c r="AZ1" s="165"/>
+      <c r="BA1" s="165"/>
+      <c r="BB1" s="165"/>
+      <c r="BC1" s="165"/>
+      <c r="BD1" s="165"/>
+      <c r="BE1" s="165"/>
+      <c r="BF1" s="165"/>
+      <c r="BG1" s="165"/>
+      <c r="BH1" s="165"/>
+      <c r="BI1" s="165"/>
+      <c r="BJ1" s="165"/>
+      <c r="BK1" s="165"/>
+      <c r="BL1" s="165"/>
+      <c r="BM1" s="165"/>
+      <c r="BN1" s="166"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="110"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="124"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="182"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3325,12 +3325,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="111"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="125"/>
+      <c r="A3" s="169"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="183"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3513,20 +3513,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="126">
+      <c r="A4" s="159">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="129"/>
-      <c r="E4" s="132" t="s">
+      <c r="D4" s="161"/>
+      <c r="E4" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="134"/>
+      <c r="F4" s="162"/>
       <c r="G4" s="29"/>
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
@@ -3589,12 +3589,12 @@
       <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="127"/>
+      <c r="A5" s="131"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="135"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="163"/>
       <c r="G5" s="31"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
@@ -3657,18 +3657,18 @@
       <c r="BN5" s="72"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="136">
+      <c r="A6" s="130">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="144" t="s">
+      <c r="C6" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="145"/>
-      <c r="E6" s="148" t="s">
+      <c r="D6" s="128"/>
+      <c r="E6" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="149"/>
+      <c r="F6" s="157"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -3731,14 +3731,14 @@
       <c r="BN6" s="73"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="127"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="31"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
       <c r="I7" s="64"/>
       <c r="J7" s="64"/>
       <c r="K7" s="64"/>
@@ -3799,20 +3799,20 @@
       <c r="BN7" s="74"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="136">
+      <c r="A8" s="130">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="178" t="s">
+      <c r="C8" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="179"/>
-      <c r="E8" s="132" t="s">
+      <c r="D8" s="114"/>
+      <c r="E8" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="183"/>
+      <c r="F8" s="126"/>
       <c r="G8" s="38"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -3875,12 +3875,12 @@
       <c r="BN8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="127"/>
+      <c r="A9" s="131"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="168"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="107"/>
       <c r="G9" s="51"/>
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
@@ -3943,18 +3943,18 @@
       <c r="BN9" s="73"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="136">
+      <c r="A10" s="130">
         <v>4</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="137" t="s">
+      <c r="C10" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="138"/>
-      <c r="E10" s="132" t="s">
+      <c r="D10" s="118"/>
+      <c r="E10" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="167"/>
+      <c r="F10" s="106"/>
       <c r="G10" s="51"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
@@ -4017,12 +4017,12 @@
       <c r="BN10" s="73"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="127"/>
+      <c r="A11" s="131"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="168"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="107"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4085,18 +4085,18 @@
       <c r="BN11" s="73"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="136">
+      <c r="A12" s="130">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="138"/>
-      <c r="E12" s="153" t="s">
+      <c r="D12" s="118"/>
+      <c r="E12" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="167"/>
+      <c r="F12" s="106"/>
       <c r="G12" s="51"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
@@ -4159,12 +4159,12 @@
       <c r="BN12" s="73"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="127"/>
+      <c r="A13" s="131"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="180"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="177"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="108"/>
       <c r="G13" s="53"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
@@ -4227,20 +4227,20 @@
       <c r="BN13" s="97"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="136">
+      <c r="A14" s="130">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="138"/>
-      <c r="E14" s="133" t="s">
+      <c r="D14" s="118"/>
+      <c r="E14" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="142"/>
+      <c r="F14" s="155"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4303,12 +4303,12 @@
       <c r="BN14" s="72"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="127"/>
+      <c r="A15" s="131"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="143"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="152"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4371,18 +4371,18 @@
       <c r="BN15" s="72"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="136">
+      <c r="A16" s="130">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="144" t="s">
+      <c r="C16" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="145"/>
-      <c r="E16" s="153" t="s">
+      <c r="D16" s="128"/>
+      <c r="E16" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="155"/>
+      <c r="F16" s="153"/>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -4445,12 +4445,12 @@
       <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="127"/>
+      <c r="A17" s="131"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="142"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="155"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -4513,20 +4513,20 @@
       <c r="BN17" s="74"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="136">
+      <c r="A18" s="130">
         <v>8</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="156" t="s">
+      <c r="C18" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="157"/>
-      <c r="E18" s="132" t="s">
+      <c r="D18" s="138"/>
+      <c r="E18" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="158"/>
+      <c r="F18" s="151"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -4589,12 +4589,12 @@
       <c r="BN18" s="75"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="127"/>
+      <c r="A19" s="131"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="143"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="152"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -4657,18 +4657,18 @@
       <c r="BN19" s="74"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="136">
+      <c r="A20" s="130">
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="144" t="s">
+      <c r="C20" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="145"/>
-      <c r="E20" s="148" t="s">
+      <c r="D20" s="128"/>
+      <c r="E20" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="155"/>
+      <c r="F20" s="153"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4731,12 +4731,12 @@
       <c r="BN20" s="73"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="127"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="143"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="152"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4799,18 +4799,18 @@
       <c r="BN21" s="74"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="136">
+      <c r="A22" s="130">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="144" t="s">
+      <c r="C22" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="145"/>
-      <c r="E22" s="154" t="s">
+      <c r="D22" s="128"/>
+      <c r="E22" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="155"/>
+      <c r="F22" s="153"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4873,12 +4873,12 @@
       <c r="BN22" s="77"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="127"/>
+      <c r="A23" s="131"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="160"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="154"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4941,20 +4941,20 @@
       <c r="BN23" s="78"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="136">
+      <c r="A24" s="130">
         <v>11</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="156" t="s">
+      <c r="C24" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="157"/>
-      <c r="E24" s="132" t="s">
+      <c r="D24" s="138"/>
+      <c r="E24" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="158"/>
+      <c r="F24" s="151"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5017,14 +5017,14 @@
       <c r="BN24" s="79"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="127"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="130"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="159"/>
-      <c r="F25" s="143"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="152"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5087,18 +5087,18 @@
       <c r="BN25" s="80"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="136">
+      <c r="A26" s="130">
         <v>12</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="151" t="s">
+      <c r="C26" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="152"/>
-      <c r="E26" s="154" t="s">
+      <c r="D26" s="110"/>
+      <c r="E26" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="182"/>
+      <c r="F26" s="123"/>
       <c r="G26" s="50"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -5161,12 +5161,12 @@
       <c r="BN26" s="80"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="127"/>
+      <c r="A27" s="131"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="168"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="107"/>
       <c r="G27" s="51"/>
       <c r="H27" s="95"/>
       <c r="I27" s="7"/>
@@ -5229,18 +5229,18 @@
       <c r="BN27" s="80"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="136">
+      <c r="A28" s="130">
         <v>13</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="144" t="s">
+      <c r="C28" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="145"/>
-      <c r="E28" s="148" t="s">
+      <c r="D28" s="128"/>
+      <c r="E28" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="167"/>
+      <c r="F28" s="106"/>
       <c r="G28" s="50"/>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
@@ -5303,12 +5303,12 @@
       <c r="BN28" s="80"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="127"/>
+      <c r="A29" s="131"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="168"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="107"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="95"/>
@@ -5371,18 +5371,18 @@
       <c r="BN29" s="80"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="136">
+      <c r="A30" s="130">
         <v>14</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="144" t="s">
+      <c r="C30" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="145"/>
-      <c r="E30" s="148" t="s">
+      <c r="D30" s="128"/>
+      <c r="E30" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="167"/>
+      <c r="F30" s="106"/>
       <c r="G30" s="50"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -5445,12 +5445,12 @@
       <c r="BN30" s="80"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="127"/>
+      <c r="A31" s="131"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="159"/>
-      <c r="F31" s="168"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="107"/>
       <c r="G31" s="51"/>
       <c r="H31" s="95"/>
       <c r="I31" s="7"/>
@@ -5513,18 +5513,18 @@
       <c r="BN31" s="80"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="136">
+      <c r="A32" s="130">
         <v>15</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="144" t="s">
+      <c r="C32" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="145"/>
-      <c r="E32" s="154" t="s">
+      <c r="D32" s="128"/>
+      <c r="E32" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="167"/>
+      <c r="F32" s="106"/>
       <c r="G32" s="52"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5587,12 +5587,12 @@
       <c r="BN32" s="77"/>
     </row>
     <row r="33" spans="1:67" ht="12" customHeight="1">
-      <c r="A33" s="127"/>
+      <c r="A33" s="131"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="168"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="107"/>
       <c r="G33" s="52"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5655,18 +5655,18 @@
       <c r="BN33" s="77"/>
     </row>
     <row r="34" spans="1:67" ht="12" customHeight="1">
-      <c r="A34" s="136">
+      <c r="A34" s="130">
         <v>16</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="144" t="s">
+      <c r="C34" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="145"/>
-      <c r="E34" s="148" t="s">
+      <c r="D34" s="128"/>
+      <c r="E34" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="167"/>
+      <c r="F34" s="106"/>
       <c r="G34" s="52"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5729,12 +5729,12 @@
       <c r="BN34" s="77"/>
     </row>
     <row r="35" spans="1:67" ht="12" customHeight="1">
-      <c r="A35" s="127"/>
+      <c r="A35" s="131"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="131"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="168"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="122"/>
+      <c r="F35" s="107"/>
       <c r="G35" s="52"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5797,18 +5797,18 @@
       <c r="BN35" s="77"/>
     </row>
     <row r="36" spans="1:67" ht="12" customHeight="1">
-      <c r="A36" s="136">
+      <c r="A36" s="130">
         <v>17</v>
       </c>
       <c r="B36" s="36"/>
-      <c r="C36" s="144" t="s">
+      <c r="C36" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="145"/>
-      <c r="E36" s="148" t="s">
+      <c r="D36" s="128"/>
+      <c r="E36" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="167"/>
+      <c r="F36" s="106"/>
       <c r="G36" s="52"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5871,12 +5871,12 @@
       <c r="BN36" s="77"/>
     </row>
     <row r="37" spans="1:67" ht="12" customHeight="1">
-      <c r="A37" s="127"/>
+      <c r="A37" s="131"/>
       <c r="B37" s="36"/>
-      <c r="C37" s="146"/>
-      <c r="D37" s="147"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="177"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="124"/>
+      <c r="F37" s="108"/>
       <c r="G37" s="52"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5939,20 +5939,20 @@
       <c r="BN37" s="77"/>
     </row>
     <row r="38" spans="1:67" ht="12" customHeight="1">
-      <c r="A38" s="136">
+      <c r="A38" s="130">
         <v>18</v>
       </c>
       <c r="B38" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="161" t="s">
+      <c r="C38" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="162"/>
-      <c r="E38" s="132" t="s">
+      <c r="D38" s="145"/>
+      <c r="E38" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="165"/>
+      <c r="F38" s="148"/>
       <c r="G38" s="38"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -6015,12 +6015,12 @@
       <c r="BN38" s="79"/>
     </row>
     <row r="39" spans="1:67" ht="12" customHeight="1">
-      <c r="A39" s="127"/>
+      <c r="A39" s="131"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="164"/>
-      <c r="E39" s="132"/>
-      <c r="F39" s="166"/>
+      <c r="C39" s="146"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="149"/>
       <c r="G39" s="51"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -6083,20 +6083,20 @@
       <c r="BN39" s="78"/>
     </row>
     <row r="40" spans="1:67" ht="12" customHeight="1">
-      <c r="A40" s="136">
+      <c r="A40" s="130">
         <v>19</v>
       </c>
-      <c r="B40" s="170" t="s">
+      <c r="B40" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="156" t="s">
+      <c r="C40" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="157"/>
-      <c r="E40" s="133" t="s">
+      <c r="D40" s="138"/>
+      <c r="E40" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="175"/>
+      <c r="F40" s="142"/>
       <c r="G40" s="38"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -6160,12 +6160,12 @@
       <c r="BO40" s="103"/>
     </row>
     <row r="41" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A41" s="169"/>
-      <c r="B41" s="171"/>
-      <c r="C41" s="172"/>
-      <c r="D41" s="173"/>
-      <c r="E41" s="174"/>
-      <c r="F41" s="176"/>
+      <c r="A41" s="134"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="139"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="143"/>
       <c r="G41" s="39"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -6246,6 +6246,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="C32:D33"/>
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="F32:F33"/>
@@ -6262,74 +6330,6 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="C30:D31"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -6373,54 +6373,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="121" t="s">
+      <c r="D1" s="174"/>
+      <c r="E1" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="106"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="108"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="165"/>
+      <c r="AD1" s="166"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="110"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="124"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="182"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -6495,12 +6495,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="111"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="125"/>
+      <c r="A3" s="169"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="183"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -6575,20 +6575,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="126">
+      <c r="A4" s="159">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="129"/>
-      <c r="E4" s="202" t="s">
+      <c r="D4" s="161"/>
+      <c r="E4" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="134"/>
+      <c r="F4" s="162"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -6611,20 +6611,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="203" t="s">
+      <c r="AC4" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="197" t="s">
+      <c r="AD4" s="185" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="127"/>
+      <c r="A5" s="131"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="135"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="163"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -6647,22 +6647,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="204"/>
-      <c r="AD5" s="198"/>
+      <c r="AC5" s="192"/>
+      <c r="AD5" s="186"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="136">
+      <c r="A6" s="130">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="144" t="s">
+      <c r="C6" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="145"/>
-      <c r="E6" s="200" t="s">
+      <c r="D6" s="128"/>
+      <c r="E6" s="188" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="149"/>
+      <c r="F6" s="157"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -6685,16 +6685,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="204"/>
-      <c r="AD6" s="198"/>
+      <c r="AC6" s="192"/>
+      <c r="AD6" s="186"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="127"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="150"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="158"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -6717,24 +6717,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="204"/>
-      <c r="AD7" s="198"/>
+      <c r="AC7" s="192"/>
+      <c r="AD7" s="186"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="186">
+      <c r="A8" s="194">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="178" t="s">
+      <c r="C8" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="179"/>
-      <c r="E8" s="206" t="s">
+      <c r="D8" s="114"/>
+      <c r="E8" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="158"/>
+      <c r="F8" s="151"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -6757,16 +6757,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="204"/>
-      <c r="AD8" s="198"/>
+      <c r="AC8" s="192"/>
+      <c r="AD8" s="186"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="187"/>
+      <c r="A9" s="195"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="180"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="160"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="197"/>
+      <c r="F9" s="154"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -6789,24 +6789,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="204"/>
-      <c r="AD9" s="198"/>
+      <c r="AC9" s="192"/>
+      <c r="AD9" s="186"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="195">
+      <c r="A10" s="198">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="137" t="s">
+      <c r="C10" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="138"/>
-      <c r="E10" s="194" t="s">
+      <c r="D10" s="118"/>
+      <c r="E10" s="199" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="142"/>
+      <c r="F10" s="155"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -6829,16 +6829,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="204"/>
-      <c r="AD10" s="198"/>
+      <c r="AC10" s="192"/>
+      <c r="AD10" s="186"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="187"/>
+      <c r="A11" s="195"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="190"/>
-      <c r="F11" s="143"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="152"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -6861,22 +6861,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="204"/>
-      <c r="AD11" s="198"/>
+      <c r="AC11" s="192"/>
+      <c r="AD11" s="186"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="186">
+      <c r="A12" s="194">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="144" t="s">
+      <c r="C12" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="145"/>
-      <c r="E12" s="196" t="s">
+      <c r="D12" s="128"/>
+      <c r="E12" s="201" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="155"/>
+      <c r="F12" s="153"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -6899,16 +6899,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="204"/>
-      <c r="AD12" s="198"/>
+      <c r="AC12" s="192"/>
+      <c r="AD12" s="186"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="195"/>
+      <c r="A13" s="198"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="194"/>
-      <c r="F13" s="142"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="155"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -6931,24 +6931,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="204"/>
-      <c r="AD13" s="198"/>
+      <c r="AC13" s="192"/>
+      <c r="AD13" s="186"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="191">
+      <c r="A14" s="202">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="156" t="s">
+      <c r="C14" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="157"/>
-      <c r="E14" s="193" t="s">
+      <c r="D14" s="138"/>
+      <c r="E14" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="158"/>
+      <c r="F14" s="151"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -6971,16 +6971,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="204"/>
-      <c r="AD14" s="198"/>
+      <c r="AC14" s="192"/>
+      <c r="AD14" s="186"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="191"/>
+      <c r="A15" s="202"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="190"/>
-      <c r="F15" s="143"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="152"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7003,22 +7003,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="204"/>
-      <c r="AD15" s="198"/>
+      <c r="AC15" s="192"/>
+      <c r="AD15" s="186"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="191">
+      <c r="A16" s="202">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="144" t="s">
+      <c r="C16" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="145"/>
-      <c r="E16" s="189" t="s">
+      <c r="D16" s="128"/>
+      <c r="E16" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="155"/>
+      <c r="F16" s="153"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7041,16 +7041,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="204"/>
-      <c r="AD16" s="198"/>
+      <c r="AC16" s="192"/>
+      <c r="AD16" s="186"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="191"/>
+      <c r="A17" s="202"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="190"/>
-      <c r="F17" s="143"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="200"/>
+      <c r="F17" s="152"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7073,22 +7073,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="204"/>
-      <c r="AD17" s="198"/>
+      <c r="AC17" s="192"/>
+      <c r="AD17" s="186"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="191">
+      <c r="A18" s="202">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="144" t="s">
+      <c r="C18" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="145"/>
-      <c r="E18" s="189" t="s">
+      <c r="D18" s="128"/>
+      <c r="E18" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="155"/>
+      <c r="F18" s="153"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7111,16 +7111,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="204"/>
-      <c r="AD18" s="198"/>
+      <c r="AC18" s="192"/>
+      <c r="AD18" s="186"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="191"/>
+      <c r="A19" s="202"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="192"/>
-      <c r="F19" s="160"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="197"/>
+      <c r="F19" s="154"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7143,24 +7143,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="204"/>
-      <c r="AD19" s="198"/>
+      <c r="AC19" s="192"/>
+      <c r="AD19" s="186"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="186">
+      <c r="A20" s="194">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="156" t="s">
+      <c r="C20" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="157"/>
-      <c r="E20" s="193" t="s">
+      <c r="D20" s="138"/>
+      <c r="E20" s="203" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="158"/>
+      <c r="F20" s="151"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7183,18 +7183,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="204"/>
-      <c r="AD20" s="198"/>
+      <c r="AC20" s="192"/>
+      <c r="AD20" s="186"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="187"/>
+      <c r="A21" s="195"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="130"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="143"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="200"/>
+      <c r="F21" s="152"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -7217,22 +7217,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="204"/>
-      <c r="AD21" s="198"/>
+      <c r="AC21" s="192"/>
+      <c r="AD21" s="186"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="186">
+      <c r="A22" s="194">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="188" t="s">
+      <c r="C22" s="205" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="145"/>
-      <c r="E22" s="189" t="s">
+      <c r="D22" s="128"/>
+      <c r="E22" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="155"/>
+      <c r="F22" s="153"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -7255,16 +7255,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="204"/>
-      <c r="AD22" s="198"/>
+      <c r="AC22" s="192"/>
+      <c r="AD22" s="186"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="187"/>
+      <c r="A23" s="195"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="190"/>
-      <c r="F23" s="143"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="200"/>
+      <c r="F23" s="152"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -7287,22 +7287,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="204"/>
-      <c r="AD23" s="198"/>
+      <c r="AC23" s="192"/>
+      <c r="AD23" s="186"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="186">
+      <c r="A24" s="194">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="188" t="s">
+      <c r="C24" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="145"/>
-      <c r="E24" s="189" t="s">
+      <c r="D24" s="128"/>
+      <c r="E24" s="204" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="155"/>
+      <c r="F24" s="153"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -7325,16 +7325,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="204"/>
-      <c r="AD24" s="198"/>
+      <c r="AC24" s="192"/>
+      <c r="AD24" s="186"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="187"/>
+      <c r="A25" s="195"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="190"/>
-      <c r="F25" s="160"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="200"/>
+      <c r="F25" s="154"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -7357,24 +7357,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="204"/>
-      <c r="AD25" s="198"/>
+      <c r="AC25" s="192"/>
+      <c r="AD25" s="186"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="136">
+      <c r="A26" s="130">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="161" t="s">
+      <c r="C26" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="162"/>
-      <c r="E26" s="184" t="s">
+      <c r="D26" s="145"/>
+      <c r="E26" s="206" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="165"/>
+      <c r="F26" s="148"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -7397,16 +7397,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="204"/>
-      <c r="AD26" s="198"/>
+      <c r="AC26" s="192"/>
+      <c r="AD26" s="186"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="127"/>
+      <c r="A27" s="131"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="185"/>
-      <c r="F27" s="166"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="207"/>
+      <c r="F27" s="149"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -7429,24 +7429,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="204"/>
-      <c r="AD27" s="198"/>
+      <c r="AC27" s="192"/>
+      <c r="AD27" s="186"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="136">
+      <c r="A28" s="130">
         <v>14</v>
       </c>
-      <c r="B28" s="170" t="s">
+      <c r="B28" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="156" t="s">
+      <c r="C28" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="157"/>
-      <c r="E28" s="170" t="s">
+      <c r="D28" s="138"/>
+      <c r="E28" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="175"/>
+      <c r="F28" s="142"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -7469,16 +7469,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="204"/>
-      <c r="AD28" s="198"/>
+      <c r="AC28" s="192"/>
+      <c r="AD28" s="186"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="169"/>
-      <c r="B29" s="171"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="176"/>
+      <c r="A29" s="134"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="143"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -7501,8 +7501,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="205"/>
-      <c r="AD29" s="199"/>
+      <c r="AC29" s="193"/>
+      <c r="AD29" s="187"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -7522,12 +7522,45 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -7544,45 +7577,12 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A03BF1-A30E-4120-9C8F-14246C827604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC553F73-3E60-4D06-80E1-58ABAD84A92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="1440" windowWidth="20190" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -607,7 +607,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="84">
+  <borders count="85">
     <border>
       <left/>
       <right/>
@@ -1652,11 +1652,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2270,6 +2285,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2979,7 +3000,7 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3737,8 +3758,8 @@
       <c r="D7" s="133"/>
       <c r="E7" s="124"/>
       <c r="F7" s="158"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
+      <c r="G7" s="209"/>
+      <c r="H7" s="208"/>
       <c r="I7" s="64"/>
       <c r="J7" s="64"/>
       <c r="K7" s="64"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC553F73-3E60-4D06-80E1-58ABAD84A92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE776C5-A0C1-4E07-998A-3FC90CCDA188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="1440" windowWidth="20190" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1980,14 +1980,146 @@
     <xf numFmtId="49" fontId="2" fillId="10" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1995,11 +2127,80 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2007,290 +2208,89 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3000,7 +3000,7 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3017,94 +3017,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="170" t="s">
+      <c r="B1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="173" t="s">
+      <c r="C1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="174"/>
-      <c r="E1" s="179" t="s">
+      <c r="D1" s="118"/>
+      <c r="E1" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="181" t="s">
+      <c r="F1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="164">
+      <c r="G1" s="108">
         <v>45536</v>
       </c>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="165"/>
-      <c r="T1" s="165"/>
-      <c r="U1" s="165"/>
-      <c r="V1" s="165"/>
-      <c r="W1" s="165"/>
-      <c r="X1" s="165"/>
-      <c r="Y1" s="165"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="165"/>
-      <c r="AB1" s="165"/>
-      <c r="AC1" s="165"/>
-      <c r="AD1" s="165"/>
-      <c r="AE1" s="165"/>
-      <c r="AF1" s="165"/>
-      <c r="AG1" s="165"/>
-      <c r="AH1" s="165"/>
-      <c r="AI1" s="165"/>
-      <c r="AJ1" s="166"/>
-      <c r="AK1" s="164">
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="109"/>
+      <c r="AG1" s="109"/>
+      <c r="AH1" s="109"/>
+      <c r="AI1" s="109"/>
+      <c r="AJ1" s="110"/>
+      <c r="AK1" s="108">
         <v>45566</v>
       </c>
-      <c r="AL1" s="165"/>
-      <c r="AM1" s="165"/>
-      <c r="AN1" s="165"/>
-      <c r="AO1" s="165"/>
-      <c r="AP1" s="165"/>
-      <c r="AQ1" s="165"/>
-      <c r="AR1" s="165"/>
-      <c r="AS1" s="165"/>
-      <c r="AT1" s="165"/>
-      <c r="AU1" s="165"/>
-      <c r="AV1" s="165"/>
-      <c r="AW1" s="165"/>
-      <c r="AX1" s="165"/>
-      <c r="AY1" s="165"/>
-      <c r="AZ1" s="165"/>
-      <c r="BA1" s="165"/>
-      <c r="BB1" s="165"/>
-      <c r="BC1" s="165"/>
-      <c r="BD1" s="165"/>
-      <c r="BE1" s="165"/>
-      <c r="BF1" s="165"/>
-      <c r="BG1" s="165"/>
-      <c r="BH1" s="165"/>
-      <c r="BI1" s="165"/>
-      <c r="BJ1" s="165"/>
-      <c r="BK1" s="165"/>
-      <c r="BL1" s="165"/>
-      <c r="BM1" s="165"/>
-      <c r="BN1" s="166"/>
+      <c r="AL1" s="109"/>
+      <c r="AM1" s="109"/>
+      <c r="AN1" s="109"/>
+      <c r="AO1" s="109"/>
+      <c r="AP1" s="109"/>
+      <c r="AQ1" s="109"/>
+      <c r="AR1" s="109"/>
+      <c r="AS1" s="109"/>
+      <c r="AT1" s="109"/>
+      <c r="AU1" s="109"/>
+      <c r="AV1" s="109"/>
+      <c r="AW1" s="109"/>
+      <c r="AX1" s="109"/>
+      <c r="AY1" s="109"/>
+      <c r="AZ1" s="109"/>
+      <c r="BA1" s="109"/>
+      <c r="BB1" s="109"/>
+      <c r="BC1" s="109"/>
+      <c r="BD1" s="109"/>
+      <c r="BE1" s="109"/>
+      <c r="BF1" s="109"/>
+      <c r="BG1" s="109"/>
+      <c r="BH1" s="109"/>
+      <c r="BI1" s="109"/>
+      <c r="BJ1" s="109"/>
+      <c r="BK1" s="109"/>
+      <c r="BL1" s="109"/>
+      <c r="BM1" s="109"/>
+      <c r="BN1" s="110"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="182"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="126"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3346,12 +3346,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="169"/>
-      <c r="B3" s="172"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="183"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="127"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3534,20 +3534,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="159">
+      <c r="A4" s="128">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="160" t="s">
+      <c r="C4" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="161"/>
-      <c r="E4" s="124" t="s">
+      <c r="D4" s="131"/>
+      <c r="E4" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="162"/>
+      <c r="F4" s="136"/>
       <c r="G4" s="29"/>
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
@@ -3610,12 +3610,12 @@
       <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="131"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="163"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="31"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
@@ -3678,18 +3678,18 @@
       <c r="BN5" s="72"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="130">
+      <c r="A6" s="138">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="128"/>
-      <c r="E6" s="129" t="s">
+      <c r="D6" s="147"/>
+      <c r="E6" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="157"/>
+      <c r="F6" s="151"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -3752,14 +3752,14 @@
       <c r="BN6" s="73"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="131"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="209"/>
-      <c r="H7" s="208"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="106"/>
       <c r="I7" s="64"/>
       <c r="J7" s="64"/>
       <c r="K7" s="64"/>
@@ -3820,20 +3820,20 @@
       <c r="BN7" s="74"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="130">
+      <c r="A8" s="138">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="180" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="124" t="s">
+      <c r="D8" s="181"/>
+      <c r="E8" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="126"/>
+      <c r="F8" s="185"/>
       <c r="G8" s="38"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -3896,12 +3896,12 @@
       <c r="BN8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="131"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="107"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="170"/>
       <c r="G9" s="51"/>
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
@@ -3964,18 +3964,18 @@
       <c r="BN9" s="73"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="130">
+      <c r="A10" s="138">
         <v>4</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="124" t="s">
+      <c r="D10" s="140"/>
+      <c r="E10" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="106"/>
+      <c r="F10" s="169"/>
       <c r="G10" s="51"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
@@ -4038,12 +4038,12 @@
       <c r="BN10" s="73"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="131"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="107"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="170"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4106,18 +4106,18 @@
       <c r="BN11" s="73"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="130">
+      <c r="A12" s="138">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="117" t="s">
+      <c r="C12" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="125" t="s">
+      <c r="D12" s="140"/>
+      <c r="E12" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="106"/>
+      <c r="F12" s="169"/>
       <c r="G12" s="51"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
@@ -4180,12 +4180,12 @@
       <c r="BN12" s="73"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="131"/>
+      <c r="A13" s="129"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="108"/>
+      <c r="C13" s="182"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="179"/>
       <c r="G13" s="53"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
@@ -4248,20 +4248,20 @@
       <c r="BN13" s="97"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="130">
+      <c r="A14" s="138">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="117" t="s">
+      <c r="C14" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="118"/>
-      <c r="E14" s="122" t="s">
+      <c r="D14" s="140"/>
+      <c r="E14" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="155"/>
+      <c r="F14" s="144"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4324,12 +4324,12 @@
       <c r="BN14" s="72"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="131"/>
+      <c r="A15" s="129"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="152"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="145"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4392,18 +4392,18 @@
       <c r="BN15" s="72"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="130">
+      <c r="A16" s="138">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="127" t="s">
+      <c r="C16" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="128"/>
-      <c r="E16" s="125" t="s">
+      <c r="D16" s="147"/>
+      <c r="E16" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="153"/>
+      <c r="F16" s="157"/>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -4466,12 +4466,12 @@
       <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="131"/>
+      <c r="A17" s="129"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="155"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="144"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -4534,20 +4534,20 @@
       <c r="BN17" s="74"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="130">
+      <c r="A18" s="138">
         <v>8</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="137" t="s">
+      <c r="C18" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="138"/>
-      <c r="E18" s="124" t="s">
+      <c r="D18" s="159"/>
+      <c r="E18" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="151"/>
+      <c r="F18" s="160"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -4610,12 +4610,12 @@
       <c r="BN18" s="75"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="131"/>
+      <c r="A19" s="129"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="152"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="145"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -4678,18 +4678,18 @@
       <c r="BN19" s="74"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="130">
+      <c r="A20" s="138">
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="128"/>
-      <c r="E20" s="129" t="s">
+      <c r="D20" s="147"/>
+      <c r="E20" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="153"/>
+      <c r="F20" s="157"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4752,12 +4752,12 @@
       <c r="BN20" s="73"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="131"/>
+      <c r="A21" s="129"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="152"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="145"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4820,18 +4820,18 @@
       <c r="BN21" s="74"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="130">
+      <c r="A22" s="138">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="127" t="s">
+      <c r="C22" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="128"/>
-      <c r="E22" s="121" t="s">
+      <c r="D22" s="147"/>
+      <c r="E22" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="153"/>
+      <c r="F22" s="157"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4894,12 +4894,12 @@
       <c r="BN22" s="77"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="131"/>
+      <c r="A23" s="129"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="154"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="162"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4962,20 +4962,20 @@
       <c r="BN23" s="78"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="130">
+      <c r="A24" s="138">
         <v>11</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="137" t="s">
+      <c r="C24" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="138"/>
-      <c r="E24" s="124" t="s">
+      <c r="D24" s="159"/>
+      <c r="E24" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="151"/>
+      <c r="F24" s="160"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5038,14 +5038,14 @@
       <c r="BN24" s="79"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="131"/>
+      <c r="A25" s="129"/>
       <c r="B25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="111"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="152"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="145"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5108,18 +5108,18 @@
       <c r="BN25" s="80"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="130">
+      <c r="A26" s="138">
         <v>12</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="109" t="s">
+      <c r="C26" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="110"/>
-      <c r="E26" s="121" t="s">
+      <c r="D26" s="154"/>
+      <c r="E26" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="123"/>
+      <c r="F26" s="184"/>
       <c r="G26" s="50"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -5182,12 +5182,12 @@
       <c r="BN26" s="80"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="131"/>
+      <c r="A27" s="129"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="107"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="170"/>
       <c r="G27" s="51"/>
       <c r="H27" s="95"/>
       <c r="I27" s="7"/>
@@ -5250,18 +5250,18 @@
       <c r="BN27" s="80"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="130">
+      <c r="A28" s="138">
         <v>13</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="127" t="s">
+      <c r="C28" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="128"/>
-      <c r="E28" s="129" t="s">
+      <c r="D28" s="147"/>
+      <c r="E28" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="106"/>
+      <c r="F28" s="169"/>
       <c r="G28" s="50"/>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
@@ -5324,12 +5324,12 @@
       <c r="BN28" s="80"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="131"/>
+      <c r="A29" s="129"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="107"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="170"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="95"/>
@@ -5392,18 +5392,18 @@
       <c r="BN29" s="80"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="130">
+      <c r="A30" s="138">
         <v>14</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="127" t="s">
+      <c r="C30" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="129" t="s">
+      <c r="D30" s="147"/>
+      <c r="E30" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="106"/>
+      <c r="F30" s="169"/>
       <c r="G30" s="50"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -5466,12 +5466,12 @@
       <c r="BN30" s="80"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="131"/>
+      <c r="A31" s="129"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="107"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="170"/>
       <c r="G31" s="51"/>
       <c r="H31" s="95"/>
       <c r="I31" s="7"/>
@@ -5534,18 +5534,18 @@
       <c r="BN31" s="80"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="130">
+      <c r="A32" s="138">
         <v>15</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="127" t="s">
+      <c r="C32" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="128"/>
-      <c r="E32" s="121" t="s">
+      <c r="D32" s="147"/>
+      <c r="E32" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="106"/>
+      <c r="F32" s="169"/>
       <c r="G32" s="52"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5608,12 +5608,12 @@
       <c r="BN32" s="77"/>
     </row>
     <row r="33" spans="1:67" ht="12" customHeight="1">
-      <c r="A33" s="131"/>
+      <c r="A33" s="129"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="107"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="133"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="170"/>
       <c r="G33" s="52"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5676,18 +5676,18 @@
       <c r="BN33" s="77"/>
     </row>
     <row r="34" spans="1:67" ht="12" customHeight="1">
-      <c r="A34" s="130">
+      <c r="A34" s="138">
         <v>16</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="127" t="s">
+      <c r="C34" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="128"/>
-      <c r="E34" s="129" t="s">
+      <c r="D34" s="147"/>
+      <c r="E34" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="106"/>
+      <c r="F34" s="169"/>
       <c r="G34" s="52"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5750,12 +5750,12 @@
       <c r="BN34" s="77"/>
     </row>
     <row r="35" spans="1:67" ht="12" customHeight="1">
-      <c r="A35" s="131"/>
+      <c r="A35" s="129"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="107"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="133"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="170"/>
       <c r="G35" s="52"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5818,18 +5818,18 @@
       <c r="BN35" s="77"/>
     </row>
     <row r="36" spans="1:67" ht="12" customHeight="1">
-      <c r="A36" s="130">
+      <c r="A36" s="138">
         <v>17</v>
       </c>
       <c r="B36" s="36"/>
-      <c r="C36" s="127" t="s">
+      <c r="C36" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="128"/>
-      <c r="E36" s="129" t="s">
+      <c r="D36" s="147"/>
+      <c r="E36" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="106"/>
+      <c r="F36" s="169"/>
       <c r="G36" s="52"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5892,12 +5892,12 @@
       <c r="BN36" s="77"/>
     </row>
     <row r="37" spans="1:67" ht="12" customHeight="1">
-      <c r="A37" s="131"/>
+      <c r="A37" s="129"/>
       <c r="B37" s="36"/>
-      <c r="C37" s="132"/>
-      <c r="D37" s="133"/>
-      <c r="E37" s="124"/>
-      <c r="F37" s="108"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="179"/>
       <c r="G37" s="52"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5960,20 +5960,20 @@
       <c r="BN37" s="77"/>
     </row>
     <row r="38" spans="1:67" ht="12" customHeight="1">
-      <c r="A38" s="130">
+      <c r="A38" s="138">
         <v>18</v>
       </c>
       <c r="B38" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="144" t="s">
+      <c r="C38" s="163" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="145"/>
-      <c r="E38" s="124" t="s">
+      <c r="D38" s="164"/>
+      <c r="E38" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="148"/>
+      <c r="F38" s="167"/>
       <c r="G38" s="38"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -6036,12 +6036,12 @@
       <c r="BN38" s="79"/>
     </row>
     <row r="39" spans="1:67" ht="12" customHeight="1">
-      <c r="A39" s="131"/>
+      <c r="A39" s="129"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="146"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="149"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="166"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="168"/>
       <c r="G39" s="51"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -6104,20 +6104,20 @@
       <c r="BN39" s="78"/>
     </row>
     <row r="40" spans="1:67" ht="12" customHeight="1">
-      <c r="A40" s="130">
+      <c r="A40" s="138">
         <v>19</v>
       </c>
-      <c r="B40" s="135" t="s">
+      <c r="B40" s="172" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="137" t="s">
+      <c r="C40" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="138"/>
-      <c r="E40" s="122" t="s">
+      <c r="D40" s="159"/>
+      <c r="E40" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="142"/>
+      <c r="F40" s="177"/>
       <c r="G40" s="38"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -6181,12 +6181,12 @@
       <c r="BO40" s="103"/>
     </row>
     <row r="41" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A41" s="134"/>
-      <c r="B41" s="136"/>
-      <c r="C41" s="139"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="143"/>
+      <c r="A41" s="171"/>
+      <c r="B41" s="173"/>
+      <c r="C41" s="174"/>
+      <c r="D41" s="175"/>
+      <c r="E41" s="176"/>
+      <c r="F41" s="178"/>
       <c r="G41" s="39"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -6267,44 +6267,36 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="C38:D39"/>
     <mergeCell ref="E38:E39"/>
@@ -6321,36 +6313,44 @@
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -6394,54 +6394,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="170" t="s">
+      <c r="B1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="173" t="s">
+      <c r="C1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="174"/>
-      <c r="E1" s="179" t="s">
+      <c r="D1" s="118"/>
+      <c r="E1" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="181" t="s">
+      <c r="F1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="164"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="165"/>
-      <c r="T1" s="165"/>
-      <c r="U1" s="165"/>
-      <c r="V1" s="165"/>
-      <c r="W1" s="165"/>
-      <c r="X1" s="165"/>
-      <c r="Y1" s="165"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="165"/>
-      <c r="AB1" s="165"/>
-      <c r="AC1" s="165"/>
-      <c r="AD1" s="166"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="110"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="182"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="126"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -6516,12 +6516,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="169"/>
-      <c r="B3" s="172"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="183"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="127"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -6596,20 +6596,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="159">
+      <c r="A4" s="128">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="160" t="s">
+      <c r="C4" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="161"/>
-      <c r="E4" s="190" t="s">
+      <c r="D4" s="131"/>
+      <c r="E4" s="204" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="162"/>
+      <c r="F4" s="136"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -6632,20 +6632,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="191" t="s">
+      <c r="AC4" s="205" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="185" t="s">
+      <c r="AD4" s="199" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="131"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="163"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -6668,22 +6668,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="192"/>
-      <c r="AD5" s="186"/>
+      <c r="AC5" s="206"/>
+      <c r="AD5" s="200"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="130">
+      <c r="A6" s="138">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="128"/>
-      <c r="E6" s="188" t="s">
+      <c r="D6" s="147"/>
+      <c r="E6" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="157"/>
+      <c r="F6" s="151"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -6706,16 +6706,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="192"/>
-      <c r="AD6" s="186"/>
+      <c r="AC6" s="206"/>
+      <c r="AD6" s="200"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="131"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="158"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="203"/>
+      <c r="F7" s="152"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -6738,24 +6738,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="192"/>
-      <c r="AD7" s="186"/>
+      <c r="AC7" s="206"/>
+      <c r="AD7" s="200"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="194">
+      <c r="A8" s="188">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="196" t="s">
+      <c r="D8" s="181"/>
+      <c r="E8" s="208" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="151"/>
+      <c r="F8" s="160"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -6778,16 +6778,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="192"/>
-      <c r="AD8" s="186"/>
+      <c r="AC8" s="206"/>
+      <c r="AD8" s="200"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="195"/>
+      <c r="A9" s="189"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="197"/>
-      <c r="F9" s="154"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="162"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -6810,24 +6810,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="192"/>
-      <c r="AD9" s="186"/>
+      <c r="AC9" s="206"/>
+      <c r="AD9" s="200"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="198">
+      <c r="A10" s="197">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="199" t="s">
+      <c r="D10" s="140"/>
+      <c r="E10" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="155"/>
+      <c r="F10" s="144"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -6850,16 +6850,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="192"/>
-      <c r="AD10" s="186"/>
+      <c r="AC10" s="206"/>
+      <c r="AD10" s="200"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="195"/>
+      <c r="A11" s="189"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="152"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="192"/>
+      <c r="F11" s="145"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -6882,22 +6882,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="192"/>
-      <c r="AD11" s="186"/>
+      <c r="AC11" s="206"/>
+      <c r="AD11" s="200"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="194">
+      <c r="A12" s="188">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="201" t="s">
+      <c r="D12" s="147"/>
+      <c r="E12" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="153"/>
+      <c r="F12" s="157"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -6920,16 +6920,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="192"/>
-      <c r="AD12" s="186"/>
+      <c r="AC12" s="206"/>
+      <c r="AD12" s="200"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="198"/>
+      <c r="A13" s="197"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="199"/>
-      <c r="F13" s="155"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="144"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -6952,24 +6952,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="192"/>
-      <c r="AD13" s="186"/>
+      <c r="AC13" s="206"/>
+      <c r="AD13" s="200"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="202">
+      <c r="A14" s="193">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="138"/>
-      <c r="E14" s="203" t="s">
+      <c r="D14" s="159"/>
+      <c r="E14" s="195" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="151"/>
+      <c r="F14" s="160"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -6992,16 +6992,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="192"/>
-      <c r="AD14" s="186"/>
+      <c r="AC14" s="206"/>
+      <c r="AD14" s="200"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="202"/>
+      <c r="A15" s="193"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="200"/>
-      <c r="F15" s="152"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="192"/>
+      <c r="F15" s="145"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7024,22 +7024,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="192"/>
-      <c r="AD15" s="186"/>
+      <c r="AC15" s="206"/>
+      <c r="AD15" s="200"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="202">
+      <c r="A16" s="193">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="127" t="s">
+      <c r="C16" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="128"/>
-      <c r="E16" s="204" t="s">
+      <c r="D16" s="147"/>
+      <c r="E16" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="153"/>
+      <c r="F16" s="157"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7062,16 +7062,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="192"/>
-      <c r="AD16" s="186"/>
+      <c r="AC16" s="206"/>
+      <c r="AD16" s="200"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="202"/>
+      <c r="A17" s="193"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="200"/>
-      <c r="F17" s="152"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="145"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7094,22 +7094,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="192"/>
-      <c r="AD17" s="186"/>
+      <c r="AC17" s="206"/>
+      <c r="AD17" s="200"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="202">
+      <c r="A18" s="193">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="128"/>
-      <c r="E18" s="204" t="s">
+      <c r="D18" s="147"/>
+      <c r="E18" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="153"/>
+      <c r="F18" s="157"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7132,16 +7132,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="192"/>
-      <c r="AD18" s="186"/>
+      <c r="AC18" s="206"/>
+      <c r="AD18" s="200"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="202"/>
+      <c r="A19" s="193"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="197"/>
-      <c r="F19" s="154"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="162"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7164,24 +7164,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="192"/>
-      <c r="AD19" s="186"/>
+      <c r="AC19" s="206"/>
+      <c r="AD19" s="200"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="194">
+      <c r="A20" s="188">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="138"/>
-      <c r="E20" s="203" t="s">
+      <c r="D20" s="159"/>
+      <c r="E20" s="195" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="151"/>
+      <c r="F20" s="160"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7204,18 +7204,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="192"/>
-      <c r="AD20" s="186"/>
+      <c r="AC20" s="206"/>
+      <c r="AD20" s="200"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="195"/>
+      <c r="A21" s="189"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="200"/>
-      <c r="F21" s="152"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="145"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -7238,22 +7238,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="192"/>
-      <c r="AD21" s="186"/>
+      <c r="AC21" s="206"/>
+      <c r="AD21" s="200"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="194">
+      <c r="A22" s="188">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="205" t="s">
+      <c r="C22" s="190" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="128"/>
-      <c r="E22" s="204" t="s">
+      <c r="D22" s="147"/>
+      <c r="E22" s="191" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="153"/>
+      <c r="F22" s="157"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -7276,16 +7276,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="192"/>
-      <c r="AD22" s="186"/>
+      <c r="AC22" s="206"/>
+      <c r="AD22" s="200"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="195"/>
+      <c r="A23" s="189"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="200"/>
-      <c r="F23" s="152"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="145"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -7308,22 +7308,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="192"/>
-      <c r="AD23" s="186"/>
+      <c r="AC23" s="206"/>
+      <c r="AD23" s="200"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="194">
+      <c r="A24" s="188">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="205" t="s">
+      <c r="C24" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="128"/>
-      <c r="E24" s="204" t="s">
+      <c r="D24" s="147"/>
+      <c r="E24" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="153"/>
+      <c r="F24" s="157"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -7346,16 +7346,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="192"/>
-      <c r="AD24" s="186"/>
+      <c r="AC24" s="206"/>
+      <c r="AD24" s="200"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="195"/>
+      <c r="A25" s="189"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="200"/>
-      <c r="F25" s="154"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="162"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -7378,24 +7378,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="192"/>
-      <c r="AD25" s="186"/>
+      <c r="AC25" s="206"/>
+      <c r="AD25" s="200"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="130">
+      <c r="A26" s="138">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="144" t="s">
+      <c r="C26" s="163" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="145"/>
-      <c r="E26" s="206" t="s">
+      <c r="D26" s="164"/>
+      <c r="E26" s="186" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="148"/>
+      <c r="F26" s="167"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -7418,16 +7418,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="192"/>
-      <c r="AD26" s="186"/>
+      <c r="AC26" s="206"/>
+      <c r="AD26" s="200"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="131"/>
+      <c r="A27" s="129"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="207"/>
-      <c r="F27" s="149"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="168"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -7450,24 +7450,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="192"/>
-      <c r="AD27" s="186"/>
+      <c r="AC27" s="206"/>
+      <c r="AD27" s="200"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="130">
+      <c r="A28" s="138">
         <v>14</v>
       </c>
-      <c r="B28" s="135" t="s">
+      <c r="B28" s="172" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="137" t="s">
+      <c r="C28" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="138"/>
-      <c r="E28" s="135" t="s">
+      <c r="D28" s="159"/>
+      <c r="E28" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="142"/>
+      <c r="F28" s="177"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -7490,16 +7490,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="192"/>
-      <c r="AD28" s="186"/>
+      <c r="AC28" s="206"/>
+      <c r="AD28" s="200"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="134"/>
-      <c r="B29" s="136"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="143"/>
+      <c r="A29" s="171"/>
+      <c r="B29" s="173"/>
+      <c r="C29" s="174"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="178"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -7522,8 +7522,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="193"/>
-      <c r="AD29" s="187"/>
+      <c r="AC29" s="207"/>
+      <c r="AD29" s="201"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -7543,45 +7543,12 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -7598,12 +7565,45 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE776C5-A0C1-4E07-998A-3FC90CCDA188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B71BD31-B617-44A4-945E-951E3808FFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="1440" windowWidth="20190" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール (テンプレート)" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="55">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -501,6 +501,13 @@
       <t>キノウイチラン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー日</t>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -545,7 +552,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,8 +613,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5D000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="85">
+  <borders count="86">
     <border>
       <left/>
       <right/>
@@ -1667,11 +1680,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1922,9 +1950,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1958,12 +1983,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1986,6 +2005,25 @@
     <xf numFmtId="49" fontId="2" fillId="10" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2121,6 +2159,9 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2202,95 +2243,104 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2298,6 +2348,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD5D000"/>
+      <color rgb="FF97B000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2994,13 +3050,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO44"/>
+  <dimension ref="A1:BO45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="AD22" sqref="AD22:AD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3017,94 +3073,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="118"/>
-      <c r="E1" s="123" t="s">
+      <c r="D1" s="122"/>
+      <c r="E1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="125" t="s">
+      <c r="F1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="108">
+      <c r="G1" s="112">
         <v>45536</v>
       </c>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="109"/>
-      <c r="AG1" s="109"/>
-      <c r="AH1" s="109"/>
-      <c r="AI1" s="109"/>
-      <c r="AJ1" s="110"/>
-      <c r="AK1" s="108">
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="113"/>
+      <c r="AC1" s="113"/>
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="113"/>
+      <c r="AH1" s="113"/>
+      <c r="AI1" s="113"/>
+      <c r="AJ1" s="114"/>
+      <c r="AK1" s="112">
         <v>45566</v>
       </c>
-      <c r="AL1" s="109"/>
-      <c r="AM1" s="109"/>
-      <c r="AN1" s="109"/>
-      <c r="AO1" s="109"/>
-      <c r="AP1" s="109"/>
-      <c r="AQ1" s="109"/>
-      <c r="AR1" s="109"/>
-      <c r="AS1" s="109"/>
-      <c r="AT1" s="109"/>
-      <c r="AU1" s="109"/>
-      <c r="AV1" s="109"/>
-      <c r="AW1" s="109"/>
-      <c r="AX1" s="109"/>
-      <c r="AY1" s="109"/>
-      <c r="AZ1" s="109"/>
-      <c r="BA1" s="109"/>
-      <c r="BB1" s="109"/>
-      <c r="BC1" s="109"/>
-      <c r="BD1" s="109"/>
-      <c r="BE1" s="109"/>
-      <c r="BF1" s="109"/>
-      <c r="BG1" s="109"/>
-      <c r="BH1" s="109"/>
-      <c r="BI1" s="109"/>
-      <c r="BJ1" s="109"/>
-      <c r="BK1" s="109"/>
-      <c r="BL1" s="109"/>
-      <c r="BM1" s="109"/>
-      <c r="BN1" s="110"/>
+      <c r="AL1" s="113"/>
+      <c r="AM1" s="113"/>
+      <c r="AN1" s="113"/>
+      <c r="AO1" s="113"/>
+      <c r="AP1" s="113"/>
+      <c r="AQ1" s="113"/>
+      <c r="AR1" s="113"/>
+      <c r="AS1" s="113"/>
+      <c r="AT1" s="113"/>
+      <c r="AU1" s="113"/>
+      <c r="AV1" s="113"/>
+      <c r="AW1" s="113"/>
+      <c r="AX1" s="113"/>
+      <c r="AY1" s="113"/>
+      <c r="AZ1" s="113"/>
+      <c r="BA1" s="113"/>
+      <c r="BB1" s="113"/>
+      <c r="BC1" s="113"/>
+      <c r="BD1" s="113"/>
+      <c r="BE1" s="113"/>
+      <c r="BF1" s="113"/>
+      <c r="BG1" s="113"/>
+      <c r="BH1" s="113"/>
+      <c r="BI1" s="113"/>
+      <c r="BJ1" s="113"/>
+      <c r="BK1" s="113"/>
+      <c r="BL1" s="113"/>
+      <c r="BM1" s="113"/>
+      <c r="BN1" s="114"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="112"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="126"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="130"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3346,12 +3402,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="113"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="127"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="131"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3442,7 +3498,7 @@
       <c r="AJ3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="AK3" s="93" t="s">
+      <c r="AK3" s="92" t="s">
         <v>20</v>
       </c>
       <c r="AL3" s="57" t="s">
@@ -3451,19 +3507,19 @@
       <c r="AM3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="94" t="s">
+      <c r="AN3" s="93" t="s">
         <v>16</v>
       </c>
       <c r="AO3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AP3" s="94" t="s">
+      <c r="AP3" s="93" t="s">
         <v>18</v>
       </c>
       <c r="AQ3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AR3" s="94" t="s">
+      <c r="AR3" s="93" t="s">
         <v>20</v>
       </c>
       <c r="AS3" s="57" t="s">
@@ -3472,19 +3528,19 @@
       <c r="AT3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AU3" s="94" t="s">
+      <c r="AU3" s="93" t="s">
         <v>16</v>
       </c>
       <c r="AV3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AW3" s="94" t="s">
+      <c r="AW3" s="93" t="s">
         <v>18</v>
       </c>
       <c r="AX3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AY3" s="94" t="s">
+      <c r="AY3" s="93" t="s">
         <v>20</v>
       </c>
       <c r="AZ3" s="57" t="s">
@@ -3493,19 +3549,19 @@
       <c r="BA3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BB3" s="94" t="s">
+      <c r="BB3" s="93" t="s">
         <v>16</v>
       </c>
       <c r="BC3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="BD3" s="94" t="s">
+      <c r="BD3" s="93" t="s">
         <v>18</v>
       </c>
       <c r="BE3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="BF3" s="94" t="s">
+      <c r="BF3" s="93" t="s">
         <v>20</v>
       </c>
       <c r="BG3" s="57" t="s">
@@ -3514,19 +3570,19 @@
       <c r="BH3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BI3" s="94" t="s">
+      <c r="BI3" s="93" t="s">
         <v>16</v>
       </c>
       <c r="BJ3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="BK3" s="94" t="s">
+      <c r="BK3" s="93" t="s">
         <v>18</v>
       </c>
       <c r="BL3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="BM3" s="94" t="s">
+      <c r="BM3" s="93" t="s">
         <v>20</v>
       </c>
       <c r="BN3" s="70" t="s">
@@ -3534,28 +3590,28 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="128">
+      <c r="A4" s="132">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="134" t="s">
+      <c r="D4" s="135"/>
+      <c r="E4" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="136"/>
+      <c r="F4" s="140"/>
       <c r="G4" s="29"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="61"/>
       <c r="K4" s="61"/>
       <c r="L4" s="12"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="10"/>
+      <c r="N4" s="110"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
@@ -3609,16 +3665,16 @@
       <c r="BM4" s="10"/>
       <c r="BN4" s="71"/>
     </row>
-    <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="129"/>
+    <row r="5" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A5" s="133"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
       <c r="L5" s="16"/>
@@ -3678,26 +3734,26 @@
       <c r="BN5" s="72"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="138">
+      <c r="A6" s="142">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="150" t="s">
+      <c r="D6" s="151"/>
+      <c r="E6" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="151"/>
+      <c r="F6" s="155"/>
       <c r="G6" s="51"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="13"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="63"/>
+      <c r="N6" s="110"/>
       <c r="O6" s="63"/>
       <c r="P6" s="63"/>
       <c r="Q6" s="63"/>
@@ -3751,58 +3807,58 @@
       <c r="BM6" s="7"/>
       <c r="BN6" s="73"/>
     </row>
-    <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="129"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="26"/>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="74"/>
-      <c r="AK7" s="85"/>
-      <c r="AL7" s="24"/>
-      <c r="AM7" s="24"/>
-      <c r="AN7" s="25"/>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="24"/>
-      <c r="AQ7" s="24"/>
-      <c r="AR7" s="24"/>
-      <c r="AS7" s="24"/>
-      <c r="AT7" s="24"/>
-      <c r="AU7" s="25"/>
-      <c r="AV7" s="26"/>
-      <c r="AW7" s="26"/>
-      <c r="AX7" s="24"/>
-      <c r="AY7" s="24"/>
+    <row r="7" spans="1:66" ht="13.2" customHeight="1">
+      <c r="A7" s="133"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="96"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="17"/>
+      <c r="AO7" s="23"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="17"/>
+      <c r="AV7" s="23"/>
+      <c r="AW7" s="23"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
       <c r="AZ7" s="24"/>
       <c r="BA7" s="24"/>
       <c r="BB7" s="25"/>
@@ -3820,65 +3876,65 @@
       <c r="BN7" s="74"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="138">
+      <c r="A8" s="157">
         <v>3</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="180" t="s">
+      <c r="C8" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="181"/>
-      <c r="E8" s="134" t="s">
+      <c r="D8" s="144"/>
+      <c r="E8" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="185"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="21"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="22"/>
       <c r="N8" s="30"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="75"/>
-      <c r="AK8" s="86"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="15"/>
-      <c r="AO8" s="21"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="15"/>
-      <c r="AV8" s="21"/>
-      <c r="AW8" s="21"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="110"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="105"/>
+      <c r="AK8" s="83"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="22"/>
+      <c r="AW8" s="22"/>
+      <c r="AX8" s="108"/>
+      <c r="AY8" s="9"/>
       <c r="AZ8" s="6"/>
       <c r="BA8" s="6"/>
       <c r="BB8" s="15"/>
@@ -3896,12 +3952,12 @@
       <c r="BN8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="129"/>
+      <c r="A9" s="133"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="170"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="175"/>
       <c r="G9" s="51"/>
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
@@ -3964,18 +4020,18 @@
       <c r="BN9" s="73"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="138">
+      <c r="A10" s="142">
         <v>4</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="139" t="s">
+      <c r="C10" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="140"/>
-      <c r="E10" s="134" t="s">
+      <c r="D10" s="144"/>
+      <c r="E10" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="169"/>
+      <c r="F10" s="174"/>
       <c r="G10" s="51"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
@@ -3985,13 +4041,13 @@
       <c r="M10" s="19"/>
       <c r="N10" s="30"/>
       <c r="O10" s="30"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
       <c r="R10" s="63"/>
       <c r="S10" s="13"/>
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
-      <c r="V10" s="7"/>
+      <c r="V10" s="110"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
@@ -4038,12 +4094,12 @@
       <c r="BN10" s="73"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="129"/>
+      <c r="A11" s="133"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="170"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="175"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4106,18 +4162,18 @@
       <c r="BN11" s="73"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="138">
+      <c r="A12" s="142">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="140"/>
-      <c r="E12" s="155" t="s">
+      <c r="D12" s="144"/>
+      <c r="E12" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="169"/>
+      <c r="F12" s="174"/>
       <c r="G12" s="51"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
@@ -4126,14 +4182,14 @@
       <c r="L12" s="13"/>
       <c r="M12" s="19"/>
       <c r="N12" s="63"/>
-      <c r="O12" s="30"/>
+      <c r="O12" s="63"/>
       <c r="P12" s="30"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
       <c r="S12" s="13"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
-      <c r="V12" s="7"/>
+      <c r="V12" s="110"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
@@ -4180,12 +4236,12 @@
       <c r="BN12" s="73"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="129"/>
+      <c r="A13" s="133"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="182"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="179"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="184"/>
       <c r="G13" s="53"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
@@ -4193,7 +4249,7 @@
       <c r="K13" s="66"/>
       <c r="L13" s="44"/>
       <c r="M13" s="45"/>
-      <c r="N13" s="96"/>
+      <c r="N13" s="95"/>
       <c r="O13" s="66"/>
       <c r="P13" s="66"/>
       <c r="Q13" s="66"/>
@@ -4216,7 +4272,7 @@
       <c r="AH13" s="45"/>
       <c r="AI13" s="43"/>
       <c r="AJ13" s="76"/>
-      <c r="AK13" s="87"/>
+      <c r="AK13" s="86"/>
       <c r="AL13" s="43"/>
       <c r="AM13" s="43"/>
       <c r="AN13" s="44"/>
@@ -4245,23 +4301,23 @@
       <c r="BK13" s="43"/>
       <c r="BL13" s="43"/>
       <c r="BM13" s="43"/>
-      <c r="BN13" s="97"/>
+      <c r="BN13" s="96"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="138">
+      <c r="A14" s="142">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="139" t="s">
+      <c r="C14" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="140"/>
-      <c r="E14" s="135" t="s">
+      <c r="D14" s="144"/>
+      <c r="E14" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="144"/>
+      <c r="F14" s="148"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4272,8 +4328,8 @@
       <c r="N14" s="67"/>
       <c r="O14" s="62"/>
       <c r="P14" s="62"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
       <c r="S14" s="16"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
@@ -4284,7 +4340,7 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="22"/>
       <c r="AB14" s="22"/>
-      <c r="AC14" s="9"/>
+      <c r="AC14" s="110"/>
       <c r="AD14" s="9"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
@@ -4324,12 +4380,12 @@
       <c r="BN14" s="72"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="129"/>
+      <c r="A15" s="133"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="145"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="149"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4392,18 +4448,18 @@
       <c r="BN15" s="72"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="138">
+      <c r="A16" s="142">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="146" t="s">
+      <c r="C16" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="147"/>
-      <c r="E16" s="155" t="s">
+      <c r="D16" s="151"/>
+      <c r="E16" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="157"/>
+      <c r="F16" s="162"/>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -4414,8 +4470,8 @@
       <c r="N16" s="63"/>
       <c r="O16" s="63"/>
       <c r="P16" s="63"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
       <c r="S16" s="13"/>
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
@@ -4426,7 +4482,7 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
-      <c r="AC16" s="9"/>
+      <c r="AC16" s="110"/>
       <c r="AD16" s="9"/>
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
@@ -4434,7 +4490,7 @@
       <c r="AH16" s="19"/>
       <c r="AI16" s="7"/>
       <c r="AJ16" s="73"/>
-      <c r="AK16" s="84"/>
+      <c r="AK16" s="83"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="13"/>
@@ -4466,12 +4522,12 @@
       <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="129"/>
+      <c r="A17" s="133"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="144"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="148"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -4497,12 +4553,12 @@
       <c r="AC17" s="24"/>
       <c r="AD17" s="43"/>
       <c r="AE17" s="8"/>
-      <c r="AF17" s="104"/>
+      <c r="AF17" s="101"/>
       <c r="AG17" s="25"/>
       <c r="AH17" s="23"/>
       <c r="AI17" s="8"/>
-      <c r="AJ17" s="97"/>
-      <c r="AK17" s="85"/>
+      <c r="AJ17" s="96"/>
+      <c r="AK17" s="83"/>
       <c r="AL17" s="24"/>
       <c r="AM17" s="24"/>
       <c r="AN17" s="25"/>
@@ -4534,20 +4590,20 @@
       <c r="BN17" s="74"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="138">
+      <c r="A18" s="142">
         <v>8</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="158" t="s">
+      <c r="C18" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="159"/>
-      <c r="E18" s="134" t="s">
+      <c r="D18" s="164"/>
+      <c r="E18" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="160"/>
+      <c r="F18" s="165"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -4577,13 +4633,13 @@
       <c r="AG18" s="15"/>
       <c r="AH18" s="22"/>
       <c r="AI18" s="60"/>
-      <c r="AJ18" s="98"/>
-      <c r="AK18" s="86"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="83"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9"/>
       <c r="AN18" s="15"/>
       <c r="AO18" s="21"/>
-      <c r="AP18" s="6"/>
+      <c r="AP18" s="111"/>
       <c r="AQ18" s="6"/>
       <c r="AR18" s="6"/>
       <c r="AS18" s="6"/>
@@ -4610,12 +4666,12 @@
       <c r="BN18" s="75"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="129"/>
+      <c r="A19" s="133"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="145"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="149"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -4638,7 +4694,7 @@
       <c r="Z19" s="25"/>
       <c r="AA19" s="26"/>
       <c r="AB19" s="26"/>
-      <c r="AC19" s="24"/>
+      <c r="AC19" s="214"/>
       <c r="AD19" s="24"/>
       <c r="AE19" s="24"/>
       <c r="AF19" s="24"/>
@@ -4678,18 +4734,18 @@
       <c r="BN19" s="74"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="138">
+      <c r="A20" s="142">
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="146" t="s">
+      <c r="C20" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="147"/>
-      <c r="E20" s="150" t="s">
+      <c r="D20" s="151"/>
+      <c r="E20" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="157"/>
+      <c r="F20" s="162"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4712,20 +4768,20 @@
       <c r="Z20" s="13"/>
       <c r="AA20" s="19"/>
       <c r="AB20" s="19"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
+      <c r="AC20" s="214"/>
+      <c r="AD20" s="24"/>
+      <c r="AE20" s="24"/>
       <c r="AF20" s="30"/>
       <c r="AG20" s="13"/>
       <c r="AH20" s="19"/>
-      <c r="AI20" s="30"/>
-      <c r="AJ20" s="73"/>
-      <c r="AK20" s="85"/>
+      <c r="AI20" s="60"/>
+      <c r="AJ20" s="60"/>
+      <c r="AK20" s="60"/>
       <c r="AL20" s="24"/>
-      <c r="AM20" s="7"/>
+      <c r="AM20" s="24"/>
       <c r="AN20" s="13"/>
       <c r="AO20" s="19"/>
-      <c r="AP20" s="7"/>
+      <c r="AP20" s="111"/>
       <c r="AQ20" s="7"/>
       <c r="AR20" s="7"/>
       <c r="AS20" s="7"/>
@@ -4752,12 +4808,12 @@
       <c r="BN20" s="73"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="129"/>
+      <c r="A21" s="133"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="145"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="149"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4780,9 +4836,9 @@
       <c r="Z21" s="25"/>
       <c r="AA21" s="26"/>
       <c r="AB21" s="26"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="64"/>
-      <c r="AE21" s="64"/>
+      <c r="AC21" s="214"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
       <c r="AF21" s="24"/>
       <c r="AG21" s="25"/>
       <c r="AH21" s="26"/>
@@ -4820,18 +4876,18 @@
       <c r="BN21" s="74"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="138">
+      <c r="A22" s="142">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="146" t="s">
+      <c r="C22" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="147"/>
-      <c r="E22" s="156" t="s">
+      <c r="D22" s="151"/>
+      <c r="E22" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="157"/>
+      <c r="F22" s="162"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4854,20 +4910,20 @@
       <c r="Z22" s="25"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
+      <c r="AC22" s="214"/>
+      <c r="AD22" s="24"/>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="24"/>
       <c r="AG22" s="25"/>
       <c r="AH22" s="26"/>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="99"/>
-      <c r="AK22" s="85"/>
-      <c r="AL22" s="24"/>
-      <c r="AM22" s="24"/>
+      <c r="AI22" s="24"/>
+      <c r="AJ22" s="60"/>
+      <c r="AK22" s="60"/>
+      <c r="AL22" s="60"/>
+      <c r="AM22" s="60"/>
       <c r="AN22" s="25"/>
       <c r="AO22" s="26"/>
-      <c r="AP22" s="24"/>
+      <c r="AP22" s="111"/>
       <c r="AQ22" s="64"/>
       <c r="AR22" s="64"/>
       <c r="AS22" s="64"/>
@@ -4894,12 +4950,12 @@
       <c r="BN22" s="77"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="129"/>
+      <c r="A23" s="133"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="162"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="167"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4930,7 +4986,7 @@
       <c r="AH23" s="23"/>
       <c r="AI23" s="68"/>
       <c r="AJ23" s="78"/>
-      <c r="AK23" s="89"/>
+      <c r="AK23" s="88"/>
       <c r="AL23" s="68"/>
       <c r="AM23" s="68"/>
       <c r="AN23" s="17"/>
@@ -4962,20 +5018,20 @@
       <c r="BN23" s="78"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="138">
+      <c r="A24" s="142">
         <v>11</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="158" t="s">
+      <c r="C24" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="159"/>
-      <c r="E24" s="134" t="s">
+      <c r="D24" s="164"/>
+      <c r="E24" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="160"/>
+      <c r="F24" s="165"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5004,8 +5060,8 @@
       <c r="AF24" s="65"/>
       <c r="AG24" s="15"/>
       <c r="AH24" s="21"/>
-      <c r="AI24" s="63"/>
-      <c r="AJ24" s="101"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="98"/>
       <c r="AK24" s="63"/>
       <c r="AL24" s="63"/>
       <c r="AM24" s="63"/>
@@ -5038,21 +5094,21 @@
       <c r="BN24" s="79"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="129"/>
+      <c r="A25" s="133"/>
       <c r="B25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="132"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="145"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="149"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="13"/>
-      <c r="M25" s="100"/>
+      <c r="M25" s="97"/>
       <c r="N25" s="63"/>
       <c r="O25" s="63"/>
       <c r="P25" s="63"/>
@@ -5066,7 +5122,7 @@
       <c r="X25" s="63"/>
       <c r="Y25" s="63"/>
       <c r="Z25" s="13"/>
-      <c r="AA25" s="100"/>
+      <c r="AA25" s="97"/>
       <c r="AB25" s="19"/>
       <c r="AC25" s="63"/>
       <c r="AD25" s="63"/>
@@ -5076,12 +5132,12 @@
       <c r="AH25" s="19"/>
       <c r="AI25" s="63"/>
       <c r="AJ25" s="80"/>
-      <c r="AK25" s="91"/>
+      <c r="AK25" s="90"/>
       <c r="AL25" s="63"/>
       <c r="AM25" s="63"/>
       <c r="AN25" s="13"/>
       <c r="AO25" s="19"/>
-      <c r="AP25" s="63"/>
+      <c r="AP25" s="217"/>
       <c r="AQ25" s="63"/>
       <c r="AR25" s="63"/>
       <c r="AS25" s="63"/>
@@ -5108,18 +5164,18 @@
       <c r="BN25" s="80"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="138">
+      <c r="A26" s="142">
         <v>12</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="153" t="s">
+      <c r="C26" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="154"/>
-      <c r="E26" s="156" t="s">
+      <c r="D26" s="159"/>
+      <c r="E26" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="184"/>
+      <c r="F26" s="187"/>
       <c r="G26" s="50"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -5149,7 +5205,7 @@
       <c r="AG26" s="16"/>
       <c r="AH26" s="22"/>
       <c r="AI26" s="63"/>
-      <c r="AJ26" s="101"/>
+      <c r="AJ26" s="98"/>
       <c r="AK26" s="30"/>
       <c r="AL26" s="30"/>
       <c r="AM26" s="63"/>
@@ -5182,14 +5238,14 @@
       <c r="BN26" s="80"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="129"/>
+      <c r="A27" s="133"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="170"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="175"/>
       <c r="G27" s="51"/>
-      <c r="H27" s="95"/>
+      <c r="H27" s="94"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -5218,7 +5274,7 @@
       <c r="AH27" s="19"/>
       <c r="AI27" s="63"/>
       <c r="AJ27" s="80"/>
-      <c r="AK27" s="91"/>
+      <c r="AK27" s="63"/>
       <c r="AL27" s="63"/>
       <c r="AM27" s="63"/>
       <c r="AN27" s="13"/>
@@ -5250,18 +5306,18 @@
       <c r="BN27" s="80"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="138">
+      <c r="A28" s="142">
         <v>13</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="146" t="s">
+      <c r="C28" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="147"/>
-      <c r="E28" s="150" t="s">
+      <c r="D28" s="151"/>
+      <c r="E28" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="169"/>
+      <c r="F28" s="174"/>
       <c r="G28" s="50"/>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
@@ -5292,12 +5348,12 @@
       <c r="AH28" s="19"/>
       <c r="AI28" s="63"/>
       <c r="AJ28" s="80"/>
-      <c r="AK28" s="91"/>
+      <c r="AK28" s="30"/>
       <c r="AL28" s="30"/>
       <c r="AM28" s="30"/>
       <c r="AN28" s="13"/>
       <c r="AO28" s="19"/>
-      <c r="AP28" s="30"/>
+      <c r="AP28" s="63"/>
       <c r="AQ28" s="63"/>
       <c r="AR28" s="63"/>
       <c r="AS28" s="63"/>
@@ -5324,15 +5380,15 @@
       <c r="BN28" s="80"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="129"/>
+      <c r="A29" s="133"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="170"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="175"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="95"/>
+      <c r="I29" s="94"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="13"/>
@@ -5360,7 +5416,7 @@
       <c r="AH29" s="19"/>
       <c r="AI29" s="63"/>
       <c r="AJ29" s="80"/>
-      <c r="AK29" s="91"/>
+      <c r="AK29" s="90"/>
       <c r="AL29" s="63"/>
       <c r="AM29" s="63"/>
       <c r="AN29" s="13"/>
@@ -5373,7 +5429,7 @@
       <c r="AU29" s="13"/>
       <c r="AV29" s="19"/>
       <c r="AW29" s="19"/>
-      <c r="AX29" s="63"/>
+      <c r="AX29" s="215"/>
       <c r="AY29" s="63"/>
       <c r="AZ29" s="63"/>
       <c r="BA29" s="63"/>
@@ -5392,18 +5448,18 @@
       <c r="BN29" s="80"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="138">
+      <c r="A30" s="142">
         <v>14</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="146" t="s">
+      <c r="C30" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="147"/>
-      <c r="E30" s="150" t="s">
+      <c r="D30" s="151"/>
+      <c r="E30" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="169"/>
+      <c r="F30" s="174"/>
       <c r="G30" s="50"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -5434,7 +5490,7 @@
       <c r="AH30" s="19"/>
       <c r="AI30" s="63"/>
       <c r="AJ30" s="80"/>
-      <c r="AK30" s="91"/>
+      <c r="AK30" s="90"/>
       <c r="AL30" s="63"/>
       <c r="AM30" s="63"/>
       <c r="AN30" s="13"/>
@@ -5447,7 +5503,7 @@
       <c r="AU30" s="13"/>
       <c r="AV30" s="19"/>
       <c r="AW30" s="19"/>
-      <c r="AX30" s="63"/>
+      <c r="AX30" s="216"/>
       <c r="AY30" s="63"/>
       <c r="AZ30" s="63"/>
       <c r="BA30" s="63"/>
@@ -5466,14 +5522,14 @@
       <c r="BN30" s="80"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="129"/>
+      <c r="A31" s="133"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="170"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="166"/>
+      <c r="F31" s="175"/>
       <c r="G31" s="51"/>
-      <c r="H31" s="95"/>
+      <c r="H31" s="94"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -5502,7 +5558,7 @@
       <c r="AH31" s="19"/>
       <c r="AI31" s="63"/>
       <c r="AJ31" s="80"/>
-      <c r="AK31" s="91"/>
+      <c r="AK31" s="90"/>
       <c r="AL31" s="63"/>
       <c r="AM31" s="63"/>
       <c r="AN31" s="13"/>
@@ -5515,7 +5571,7 @@
       <c r="AU31" s="13"/>
       <c r="AV31" s="19"/>
       <c r="AW31" s="19"/>
-      <c r="AX31" s="63"/>
+      <c r="AX31" s="215"/>
       <c r="AY31" s="63"/>
       <c r="AZ31" s="63"/>
       <c r="BA31" s="63"/>
@@ -5534,18 +5590,18 @@
       <c r="BN31" s="80"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="138">
+      <c r="A32" s="142">
         <v>15</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="146" t="s">
+      <c r="C32" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="147"/>
-      <c r="E32" s="156" t="s">
+      <c r="D32" s="151"/>
+      <c r="E32" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="169"/>
+      <c r="F32" s="174"/>
       <c r="G32" s="52"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5576,7 +5632,7 @@
       <c r="AH32" s="26"/>
       <c r="AI32" s="64"/>
       <c r="AJ32" s="77"/>
-      <c r="AK32" s="88"/>
+      <c r="AK32" s="87"/>
       <c r="AL32" s="64"/>
       <c r="AM32" s="64"/>
       <c r="AN32" s="25"/>
@@ -5589,7 +5645,7 @@
       <c r="AU32" s="25"/>
       <c r="AV32" s="26"/>
       <c r="AW32" s="26"/>
-      <c r="AX32" s="63"/>
+      <c r="AX32" s="216"/>
       <c r="AY32" s="63"/>
       <c r="AZ32" s="63"/>
       <c r="BA32" s="63"/>
@@ -5608,12 +5664,12 @@
       <c r="BN32" s="77"/>
     </row>
     <row r="33" spans="1:67" ht="12" customHeight="1">
-      <c r="A33" s="129"/>
+      <c r="A33" s="133"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="133"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="170"/>
+      <c r="C33" s="136"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="175"/>
       <c r="G33" s="52"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5644,7 +5700,7 @@
       <c r="AH33" s="26"/>
       <c r="AI33" s="64"/>
       <c r="AJ33" s="77"/>
-      <c r="AK33" s="88"/>
+      <c r="AK33" s="87"/>
       <c r="AL33" s="64"/>
       <c r="AM33" s="64"/>
       <c r="AN33" s="25"/>
@@ -5676,18 +5732,18 @@
       <c r="BN33" s="77"/>
     </row>
     <row r="34" spans="1:67" ht="12" customHeight="1">
-      <c r="A34" s="138">
+      <c r="A34" s="142">
         <v>16</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="146" t="s">
+      <c r="C34" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="147"/>
-      <c r="E34" s="150" t="s">
+      <c r="D34" s="151"/>
+      <c r="E34" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="169"/>
+      <c r="F34" s="174"/>
       <c r="G34" s="52"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5718,7 +5774,7 @@
       <c r="AH34" s="26"/>
       <c r="AI34" s="64"/>
       <c r="AJ34" s="77"/>
-      <c r="AK34" s="88"/>
+      <c r="AK34" s="87"/>
       <c r="AL34" s="64"/>
       <c r="AM34" s="64"/>
       <c r="AN34" s="25"/>
@@ -5733,11 +5789,11 @@
       <c r="AW34" s="26"/>
       <c r="AX34" s="30"/>
       <c r="AY34" s="30"/>
-      <c r="AZ34" s="30"/>
+      <c r="AZ34" s="64"/>
       <c r="BA34" s="63"/>
       <c r="BB34" s="25"/>
       <c r="BC34" s="26"/>
-      <c r="BD34" s="63"/>
+      <c r="BD34" s="110"/>
       <c r="BE34" s="64"/>
       <c r="BF34" s="64"/>
       <c r="BG34" s="64"/>
@@ -5750,12 +5806,12 @@
       <c r="BN34" s="77"/>
     </row>
     <row r="35" spans="1:67" ht="12" customHeight="1">
-      <c r="A35" s="129"/>
+      <c r="A35" s="133"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="132"/>
-      <c r="D35" s="133"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="170"/>
+      <c r="C35" s="136"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="139"/>
+      <c r="F35" s="175"/>
       <c r="G35" s="52"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5786,7 +5842,7 @@
       <c r="AH35" s="26"/>
       <c r="AI35" s="64"/>
       <c r="AJ35" s="77"/>
-      <c r="AK35" s="88"/>
+      <c r="AK35" s="87"/>
       <c r="AL35" s="64"/>
       <c r="AM35" s="64"/>
       <c r="AN35" s="25"/>
@@ -5818,18 +5874,18 @@
       <c r="BN35" s="77"/>
     </row>
     <row r="36" spans="1:67" ht="12" customHeight="1">
-      <c r="A36" s="138">
+      <c r="A36" s="142">
         <v>17</v>
       </c>
       <c r="B36" s="36"/>
-      <c r="C36" s="146" t="s">
+      <c r="C36" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="147"/>
-      <c r="E36" s="150" t="s">
+      <c r="D36" s="151"/>
+      <c r="E36" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="169"/>
+      <c r="F36" s="174"/>
       <c r="G36" s="52"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5860,7 +5916,7 @@
       <c r="AH36" s="26"/>
       <c r="AI36" s="64"/>
       <c r="AJ36" s="77"/>
-      <c r="AK36" s="88"/>
+      <c r="AK36" s="87"/>
       <c r="AL36" s="64"/>
       <c r="AM36" s="64"/>
       <c r="AN36" s="25"/>
@@ -5874,13 +5930,13 @@
       <c r="AV36" s="26"/>
       <c r="AW36" s="26"/>
       <c r="AX36" s="64"/>
-      <c r="AY36" s="64"/>
+      <c r="AY36" s="42"/>
       <c r="AZ36" s="30"/>
       <c r="BA36" s="30"/>
       <c r="BB36" s="25"/>
       <c r="BC36" s="26"/>
-      <c r="BD36" s="30"/>
-      <c r="BE36" s="30"/>
+      <c r="BD36" s="110"/>
+      <c r="BE36" s="64"/>
       <c r="BF36" s="64"/>
       <c r="BG36" s="64"/>
       <c r="BH36" s="64"/>
@@ -5892,12 +5948,12 @@
       <c r="BN36" s="77"/>
     </row>
     <row r="37" spans="1:67" ht="12" customHeight="1">
-      <c r="A37" s="129"/>
+      <c r="A37" s="133"/>
       <c r="B37" s="36"/>
-      <c r="C37" s="148"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="179"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="138"/>
+      <c r="F37" s="184"/>
       <c r="G37" s="52"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5928,7 +5984,7 @@
       <c r="AH37" s="26"/>
       <c r="AI37" s="64"/>
       <c r="AJ37" s="77"/>
-      <c r="AK37" s="88"/>
+      <c r="AK37" s="87"/>
       <c r="AL37" s="64"/>
       <c r="AM37" s="64"/>
       <c r="AN37" s="25"/>
@@ -5947,33 +6003,33 @@
       <c r="BA37" s="64"/>
       <c r="BB37" s="25"/>
       <c r="BC37" s="26"/>
-      <c r="BD37" s="64"/>
-      <c r="BE37" s="64"/>
-      <c r="BF37" s="102"/>
+      <c r="BD37" s="99"/>
+      <c r="BE37" s="99"/>
+      <c r="BF37" s="99"/>
       <c r="BG37" s="68"/>
-      <c r="BH37" s="102"/>
+      <c r="BH37" s="99"/>
       <c r="BI37" s="25"/>
       <c r="BJ37" s="26"/>
       <c r="BK37" s="68"/>
       <c r="BL37" s="68"/>
-      <c r="BM37" s="102"/>
+      <c r="BM37" s="99"/>
       <c r="BN37" s="77"/>
     </row>
     <row r="38" spans="1:67" ht="12" customHeight="1">
-      <c r="A38" s="138">
+      <c r="A38" s="142">
         <v>18</v>
       </c>
       <c r="B38" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="163" t="s">
+      <c r="C38" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="164"/>
-      <c r="E38" s="134" t="s">
+      <c r="D38" s="169"/>
+      <c r="E38" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="167"/>
+      <c r="F38" s="172"/>
       <c r="G38" s="38"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -6004,7 +6060,7 @@
       <c r="AH38" s="21"/>
       <c r="AI38" s="65"/>
       <c r="AJ38" s="79"/>
-      <c r="AK38" s="90"/>
+      <c r="AK38" s="89"/>
       <c r="AL38" s="65"/>
       <c r="AM38" s="65"/>
       <c r="AN38" s="15"/>
@@ -6023,25 +6079,25 @@
       <c r="BA38" s="65"/>
       <c r="BB38" s="15"/>
       <c r="BC38" s="21"/>
-      <c r="BD38" s="65"/>
-      <c r="BE38" s="65"/>
+      <c r="BD38" s="41"/>
+      <c r="BE38" s="41"/>
       <c r="BF38" s="41"/>
       <c r="BG38" s="41"/>
       <c r="BH38" s="41"/>
       <c r="BI38" s="15"/>
       <c r="BJ38" s="21"/>
-      <c r="BK38" s="60"/>
+      <c r="BK38" s="111"/>
       <c r="BL38" s="62"/>
       <c r="BM38" s="62"/>
       <c r="BN38" s="79"/>
     </row>
     <row r="39" spans="1:67" ht="12" customHeight="1">
-      <c r="A39" s="129"/>
+      <c r="A39" s="133"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="165"/>
-      <c r="D39" s="166"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="168"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="171"/>
+      <c r="E39" s="138"/>
+      <c r="F39" s="173"/>
       <c r="G39" s="51"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -6072,7 +6128,7 @@
       <c r="AH39" s="19"/>
       <c r="AI39" s="63"/>
       <c r="AJ39" s="80"/>
-      <c r="AK39" s="91"/>
+      <c r="AK39" s="90"/>
       <c r="AL39" s="63"/>
       <c r="AM39" s="63"/>
       <c r="AN39" s="13"/>
@@ -6093,7 +6149,7 @@
       <c r="BC39" s="19"/>
       <c r="BD39" s="63"/>
       <c r="BE39" s="63"/>
-      <c r="BF39" s="102"/>
+      <c r="BF39" s="99"/>
       <c r="BG39" s="63"/>
       <c r="BH39" s="63"/>
       <c r="BI39" s="13"/>
@@ -6104,20 +6160,20 @@
       <c r="BN39" s="78"/>
     </row>
     <row r="40" spans="1:67" ht="12" customHeight="1">
-      <c r="A40" s="138">
+      <c r="A40" s="142">
         <v>19</v>
       </c>
-      <c r="B40" s="172" t="s">
+      <c r="B40" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="158" t="s">
+      <c r="C40" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="159"/>
-      <c r="E40" s="135" t="s">
+      <c r="D40" s="164"/>
+      <c r="E40" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="177"/>
+      <c r="F40" s="182"/>
       <c r="G40" s="38"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -6148,7 +6204,7 @@
       <c r="AH40" s="21"/>
       <c r="AI40" s="65"/>
       <c r="AJ40" s="79"/>
-      <c r="AK40" s="90"/>
+      <c r="AK40" s="89"/>
       <c r="AL40" s="65"/>
       <c r="AM40" s="65"/>
       <c r="AN40" s="15"/>
@@ -6178,15 +6234,15 @@
       <c r="BL40" s="60"/>
       <c r="BM40" s="60"/>
       <c r="BN40" s="60"/>
-      <c r="BO40" s="103"/>
+      <c r="BO40" s="100"/>
     </row>
     <row r="41" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A41" s="171"/>
-      <c r="B41" s="173"/>
-      <c r="C41" s="174"/>
-      <c r="D41" s="175"/>
-      <c r="E41" s="176"/>
-      <c r="F41" s="178"/>
+      <c r="A41" s="176"/>
+      <c r="B41" s="178"/>
+      <c r="C41" s="179"/>
+      <c r="D41" s="180"/>
+      <c r="E41" s="181"/>
+      <c r="F41" s="183"/>
       <c r="G41" s="39"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -6217,7 +6273,7 @@
       <c r="AH41" s="20"/>
       <c r="AI41" s="69"/>
       <c r="AJ41" s="81"/>
-      <c r="AK41" s="92"/>
+      <c r="AK41" s="91"/>
       <c r="AL41" s="69"/>
       <c r="AM41" s="69"/>
       <c r="AN41" s="14"/>
@@ -6246,8 +6302,8 @@
       <c r="BK41" s="69"/>
       <c r="BL41" s="69"/>
       <c r="BM41" s="69"/>
-      <c r="BN41" s="105"/>
-      <c r="BO41" s="103"/>
+      <c r="BN41" s="102"/>
+      <c r="BO41" s="100"/>
     </row>
     <row r="42" spans="1:67">
       <c r="Z42" s="5"/>
@@ -6263,6 +6319,12 @@
       <c r="A44" s="28"/>
       <c r="B44" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:67">
+      <c r="A45" s="109"/>
+      <c r="B45" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -6355,7 +6417,7 @@
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"ＭＳ Ｐゴシック,太字"&amp;12開発スケジュール&amp;R&amp;"ＭＳ Ｐゴシック,標準"&amp;8印刷日：&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;"ＭＳ Ｐゴシック,標準"&amp;8- &amp;P -&amp;R&amp;8Copyright © 2014 *** Corporation. All Rights Reserved.</oddFooter>
@@ -6394,54 +6456,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="118"/>
-      <c r="E1" s="123" t="s">
+      <c r="D1" s="122"/>
+      <c r="E1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="125" t="s">
+      <c r="F1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="108"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="110"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="113"/>
+      <c r="AC1" s="113"/>
+      <c r="AD1" s="114"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="112"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="126"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="130"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -6516,12 +6578,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="113"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="127"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="131"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -6596,20 +6658,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="128">
+      <c r="A4" s="132">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="204" t="s">
+      <c r="D4" s="135"/>
+      <c r="E4" s="206" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="136"/>
+      <c r="F4" s="140"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -6632,20 +6694,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="205" t="s">
+      <c r="AC4" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="199" t="s">
+      <c r="AD4" s="201" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="129"/>
+      <c r="A5" s="133"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="137"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="141"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -6668,22 +6730,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="206"/>
-      <c r="AD5" s="200"/>
+      <c r="AC5" s="208"/>
+      <c r="AD5" s="202"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="138">
+      <c r="A6" s="142">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="202" t="s">
+      <c r="D6" s="151"/>
+      <c r="E6" s="204" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="151"/>
+      <c r="F6" s="155"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -6706,16 +6768,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="206"/>
-      <c r="AD6" s="200"/>
+      <c r="AC6" s="208"/>
+      <c r="AD6" s="202"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="129"/>
+      <c r="A7" s="133"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="203"/>
-      <c r="F7" s="152"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="156"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -6738,24 +6800,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="206"/>
-      <c r="AD7" s="200"/>
+      <c r="AC7" s="208"/>
+      <c r="AD7" s="202"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="188">
+      <c r="A8" s="190">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="180" t="s">
+      <c r="C8" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="181"/>
-      <c r="E8" s="208" t="s">
+      <c r="D8" s="211"/>
+      <c r="E8" s="212" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="160"/>
+      <c r="F8" s="165"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -6778,16 +6840,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="206"/>
-      <c r="AD8" s="200"/>
+      <c r="AC8" s="208"/>
+      <c r="AD8" s="202"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="189"/>
+      <c r="A9" s="191"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="162"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="167"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -6810,24 +6872,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="206"/>
-      <c r="AD9" s="200"/>
+      <c r="AC9" s="208"/>
+      <c r="AD9" s="202"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="197">
+      <c r="A10" s="199">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="139" t="s">
+      <c r="C10" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="140"/>
-      <c r="E10" s="196" t="s">
+      <c r="D10" s="144"/>
+      <c r="E10" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="144"/>
+      <c r="F10" s="148"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -6850,16 +6912,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="206"/>
-      <c r="AD10" s="200"/>
+      <c r="AC10" s="208"/>
+      <c r="AD10" s="202"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="189"/>
+      <c r="A11" s="191"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="192"/>
-      <c r="F11" s="145"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="149"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -6882,22 +6944,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="206"/>
-      <c r="AD11" s="200"/>
+      <c r="AC11" s="208"/>
+      <c r="AD11" s="202"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="188">
+      <c r="A12" s="190">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="146" t="s">
+      <c r="C12" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="147"/>
-      <c r="E12" s="198" t="s">
+      <c r="D12" s="151"/>
+      <c r="E12" s="200" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="157"/>
+      <c r="F12" s="162"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -6920,16 +6982,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="206"/>
-      <c r="AD12" s="200"/>
+      <c r="AC12" s="208"/>
+      <c r="AD12" s="202"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="197"/>
+      <c r="A13" s="199"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="144"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="148"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -6952,24 +7014,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="206"/>
-      <c r="AD13" s="200"/>
+      <c r="AC13" s="208"/>
+      <c r="AD13" s="202"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="193">
+      <c r="A14" s="195">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="158" t="s">
+      <c r="C14" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="159"/>
-      <c r="E14" s="195" t="s">
+      <c r="D14" s="164"/>
+      <c r="E14" s="197" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="160"/>
+      <c r="F14" s="165"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -6992,16 +7054,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="206"/>
-      <c r="AD14" s="200"/>
+      <c r="AC14" s="208"/>
+      <c r="AD14" s="202"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="193"/>
+      <c r="A15" s="195"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="192"/>
-      <c r="F15" s="145"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="194"/>
+      <c r="F15" s="149"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7024,22 +7086,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="206"/>
-      <c r="AD15" s="200"/>
+      <c r="AC15" s="208"/>
+      <c r="AD15" s="202"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="193">
+      <c r="A16" s="195">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="146" t="s">
+      <c r="C16" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="147"/>
-      <c r="E16" s="191" t="s">
+      <c r="D16" s="151"/>
+      <c r="E16" s="193" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="157"/>
+      <c r="F16" s="162"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7062,16 +7124,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="206"/>
-      <c r="AD16" s="200"/>
+      <c r="AC16" s="208"/>
+      <c r="AD16" s="202"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="193"/>
+      <c r="A17" s="195"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="145"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="149"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7094,22 +7156,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="206"/>
-      <c r="AD17" s="200"/>
+      <c r="AC17" s="208"/>
+      <c r="AD17" s="202"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="193">
+      <c r="A18" s="195">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="146" t="s">
+      <c r="C18" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="147"/>
-      <c r="E18" s="191" t="s">
+      <c r="D18" s="151"/>
+      <c r="E18" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="157"/>
+      <c r="F18" s="162"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7132,16 +7194,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="206"/>
-      <c r="AD18" s="200"/>
+      <c r="AC18" s="208"/>
+      <c r="AD18" s="202"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="193"/>
+      <c r="A19" s="195"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="194"/>
-      <c r="F19" s="162"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="167"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7164,24 +7226,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="206"/>
-      <c r="AD19" s="200"/>
+      <c r="AC19" s="208"/>
+      <c r="AD19" s="202"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="188">
+      <c r="A20" s="190">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="158" t="s">
+      <c r="C20" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="159"/>
-      <c r="E20" s="195" t="s">
+      <c r="D20" s="164"/>
+      <c r="E20" s="197" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="160"/>
+      <c r="F20" s="165"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7204,18 +7266,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="206"/>
-      <c r="AD20" s="200"/>
+      <c r="AC20" s="208"/>
+      <c r="AD20" s="202"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="189"/>
+      <c r="A21" s="191"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="132"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="192"/>
-      <c r="F21" s="145"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="149"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -7238,22 +7300,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="206"/>
-      <c r="AD21" s="200"/>
+      <c r="AC21" s="208"/>
+      <c r="AD21" s="202"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="188">
+      <c r="A22" s="190">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="190" t="s">
+      <c r="C22" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="147"/>
-      <c r="E22" s="191" t="s">
+      <c r="D22" s="151"/>
+      <c r="E22" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="157"/>
+      <c r="F22" s="162"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -7276,16 +7338,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="206"/>
-      <c r="AD22" s="200"/>
+      <c r="AC22" s="208"/>
+      <c r="AD22" s="202"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="189"/>
+      <c r="A23" s="191"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="145"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="149"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -7308,22 +7370,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="206"/>
-      <c r="AD23" s="200"/>
+      <c r="AC23" s="208"/>
+      <c r="AD23" s="202"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="188">
+      <c r="A24" s="190">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="190" t="s">
+      <c r="C24" s="192" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="147"/>
-      <c r="E24" s="191" t="s">
+      <c r="D24" s="151"/>
+      <c r="E24" s="193" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="157"/>
+      <c r="F24" s="162"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -7346,16 +7408,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="206"/>
-      <c r="AD24" s="200"/>
+      <c r="AC24" s="208"/>
+      <c r="AD24" s="202"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="189"/>
+      <c r="A25" s="191"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="162"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="167"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -7378,24 +7440,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="206"/>
-      <c r="AD25" s="200"/>
+      <c r="AC25" s="208"/>
+      <c r="AD25" s="202"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="138">
+      <c r="A26" s="142">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="163" t="s">
+      <c r="C26" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="164"/>
-      <c r="E26" s="186" t="s">
+      <c r="D26" s="169"/>
+      <c r="E26" s="188" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="167"/>
+      <c r="F26" s="172"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -7418,16 +7480,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="206"/>
-      <c r="AD26" s="200"/>
+      <c r="AC26" s="208"/>
+      <c r="AD26" s="202"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="129"/>
+      <c r="A27" s="133"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="166"/>
-      <c r="E27" s="187"/>
-      <c r="F27" s="168"/>
+      <c r="C27" s="170"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="189"/>
+      <c r="F27" s="173"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -7450,24 +7512,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="206"/>
-      <c r="AD27" s="200"/>
+      <c r="AC27" s="208"/>
+      <c r="AD27" s="202"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="138">
+      <c r="A28" s="142">
         <v>14</v>
       </c>
-      <c r="B28" s="172" t="s">
+      <c r="B28" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="158" t="s">
+      <c r="C28" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="159"/>
-      <c r="E28" s="172" t="s">
+      <c r="D28" s="164"/>
+      <c r="E28" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="177"/>
+      <c r="F28" s="182"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -7490,16 +7552,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="206"/>
-      <c r="AD28" s="200"/>
+      <c r="AC28" s="208"/>
+      <c r="AD28" s="202"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="171"/>
-      <c r="B29" s="173"/>
-      <c r="C29" s="174"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="178"/>
+      <c r="A29" s="176"/>
+      <c r="B29" s="178"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="183"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -7522,8 +7584,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="207"/>
-      <c r="AD29" s="201"/>
+      <c r="AC29" s="209"/>
+      <c r="AD29" s="203"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B71BD31-B617-44A4-945E-951E3808FFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE27E2B-1318-4E64-8F59-2B399BAFF88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1699,7 +1699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2024,6 +2024,192 @@
     <xf numFmtId="49" fontId="2" fillId="11" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2084,263 +2270,83 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3056,7 +3062,7 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AD22" sqref="AD22:AD23"/>
+      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3073,94 +3079,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="122"/>
-      <c r="E1" s="127" t="s">
+      <c r="D1" s="184"/>
+      <c r="E1" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="129" t="s">
+      <c r="F1" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="112">
+      <c r="G1" s="174">
         <v>45536</v>
       </c>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="113"/>
-      <c r="AH1" s="113"/>
-      <c r="AI1" s="113"/>
-      <c r="AJ1" s="114"/>
-      <c r="AK1" s="112">
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
+      <c r="R1" s="175"/>
+      <c r="S1" s="175"/>
+      <c r="T1" s="175"/>
+      <c r="U1" s="175"/>
+      <c r="V1" s="175"/>
+      <c r="W1" s="175"/>
+      <c r="X1" s="175"/>
+      <c r="Y1" s="175"/>
+      <c r="Z1" s="175"/>
+      <c r="AA1" s="175"/>
+      <c r="AB1" s="175"/>
+      <c r="AC1" s="175"/>
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="175"/>
+      <c r="AF1" s="175"/>
+      <c r="AG1" s="175"/>
+      <c r="AH1" s="175"/>
+      <c r="AI1" s="175"/>
+      <c r="AJ1" s="176"/>
+      <c r="AK1" s="174">
         <v>45566</v>
       </c>
-      <c r="AL1" s="113"/>
-      <c r="AM1" s="113"/>
-      <c r="AN1" s="113"/>
-      <c r="AO1" s="113"/>
-      <c r="AP1" s="113"/>
-      <c r="AQ1" s="113"/>
-      <c r="AR1" s="113"/>
-      <c r="AS1" s="113"/>
-      <c r="AT1" s="113"/>
-      <c r="AU1" s="113"/>
-      <c r="AV1" s="113"/>
-      <c r="AW1" s="113"/>
-      <c r="AX1" s="113"/>
-      <c r="AY1" s="113"/>
-      <c r="AZ1" s="113"/>
-      <c r="BA1" s="113"/>
-      <c r="BB1" s="113"/>
-      <c r="BC1" s="113"/>
-      <c r="BD1" s="113"/>
-      <c r="BE1" s="113"/>
-      <c r="BF1" s="113"/>
-      <c r="BG1" s="113"/>
-      <c r="BH1" s="113"/>
-      <c r="BI1" s="113"/>
-      <c r="BJ1" s="113"/>
-      <c r="BK1" s="113"/>
-      <c r="BL1" s="113"/>
-      <c r="BM1" s="113"/>
-      <c r="BN1" s="114"/>
+      <c r="AL1" s="175"/>
+      <c r="AM1" s="175"/>
+      <c r="AN1" s="175"/>
+      <c r="AO1" s="175"/>
+      <c r="AP1" s="175"/>
+      <c r="AQ1" s="175"/>
+      <c r="AR1" s="175"/>
+      <c r="AS1" s="175"/>
+      <c r="AT1" s="175"/>
+      <c r="AU1" s="175"/>
+      <c r="AV1" s="175"/>
+      <c r="AW1" s="175"/>
+      <c r="AX1" s="175"/>
+      <c r="AY1" s="175"/>
+      <c r="AZ1" s="175"/>
+      <c r="BA1" s="175"/>
+      <c r="BB1" s="175"/>
+      <c r="BC1" s="175"/>
+      <c r="BD1" s="175"/>
+      <c r="BE1" s="175"/>
+      <c r="BF1" s="175"/>
+      <c r="BG1" s="175"/>
+      <c r="BH1" s="175"/>
+      <c r="BI1" s="175"/>
+      <c r="BJ1" s="175"/>
+      <c r="BK1" s="175"/>
+      <c r="BL1" s="175"/>
+      <c r="BM1" s="175"/>
+      <c r="BN1" s="176"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="116"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="130"/>
+      <c r="A2" s="178"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="192"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3402,12 +3408,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="117"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="131"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="193"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3590,20 +3596,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="132">
+      <c r="A4" s="169">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="138" t="s">
+      <c r="D4" s="171"/>
+      <c r="E4" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="140"/>
+      <c r="F4" s="172"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -3665,13 +3671,13 @@
       <c r="BM4" s="10"/>
       <c r="BN4" s="71"/>
     </row>
-    <row r="5" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A5" s="133"/>
+    <row r="5" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A5" s="140"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="141"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="173"/>
       <c r="G5" s="103"/>
       <c r="H5" s="103"/>
       <c r="I5" s="103"/>
@@ -3734,21 +3740,21 @@
       <c r="BN5" s="72"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="142">
+      <c r="A6" s="139">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="150" t="s">
+      <c r="C6" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="151"/>
-      <c r="E6" s="154" t="s">
+      <c r="D6" s="137"/>
+      <c r="E6" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="155"/>
+      <c r="F6" s="166"/>
       <c r="G6" s="51"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="13"/>
@@ -3808,12 +3814,12 @@
       <c r="BN6" s="73"/>
     </row>
     <row r="7" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A7" s="133"/>
+      <c r="A7" s="140"/>
       <c r="B7" s="106"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="156"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="167"/>
       <c r="G7" s="104"/>
       <c r="H7" s="68"/>
       <c r="I7" s="68"/>
@@ -3876,20 +3882,20 @@
       <c r="BN7" s="74"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="157">
+      <c r="A8" s="168">
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="143" t="s">
+      <c r="C8" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="144"/>
-      <c r="E8" s="161" t="s">
+      <c r="D8" s="126"/>
+      <c r="E8" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="187"/>
+      <c r="F8" s="133"/>
       <c r="G8" s="50"/>
       <c r="H8" s="62"/>
       <c r="I8" s="62"/>
@@ -3898,7 +3904,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="22"/>
       <c r="N8" s="30"/>
-      <c r="O8" s="62"/>
+      <c r="O8" s="30"/>
       <c r="P8" s="62"/>
       <c r="Q8" s="62"/>
       <c r="R8" s="62"/>
@@ -3952,12 +3958,12 @@
       <c r="BN8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="133"/>
+      <c r="A9" s="140"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="175"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="119"/>
       <c r="G9" s="51"/>
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
@@ -4020,18 +4026,18 @@
       <c r="BN9" s="73"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="142">
+      <c r="A10" s="139">
         <v>4</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="143" t="s">
+      <c r="C10" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="144"/>
-      <c r="E10" s="138" t="s">
+      <c r="D10" s="126"/>
+      <c r="E10" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="174"/>
+      <c r="F10" s="118"/>
       <c r="G10" s="51"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
@@ -4039,7 +4045,7 @@
       <c r="K10" s="63"/>
       <c r="L10" s="13"/>
       <c r="M10" s="19"/>
-      <c r="N10" s="30"/>
+      <c r="N10" s="63"/>
       <c r="O10" s="30"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="30"/>
@@ -4094,12 +4100,12 @@
       <c r="BN10" s="73"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="133"/>
+      <c r="A11" s="140"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="175"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="119"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4162,18 +4168,18 @@
       <c r="BN11" s="73"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="142">
+      <c r="A12" s="139">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="143" t="s">
+      <c r="C12" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="144"/>
-      <c r="E12" s="160" t="s">
+      <c r="D12" s="126"/>
+      <c r="E12" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="174"/>
+      <c r="F12" s="118"/>
       <c r="G12" s="51"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
@@ -4236,12 +4242,12 @@
       <c r="BN12" s="73"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="133"/>
+      <c r="A13" s="140"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="186"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="184"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="120"/>
       <c r="G13" s="53"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
@@ -4304,20 +4310,20 @@
       <c r="BN13" s="96"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="142">
+      <c r="A14" s="139">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="143" t="s">
+      <c r="C14" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="144"/>
-      <c r="E14" s="139" t="s">
+      <c r="D14" s="126"/>
+      <c r="E14" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="148"/>
+      <c r="F14" s="164"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4340,13 +4346,13 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="22"/>
       <c r="AB14" s="22"/>
-      <c r="AC14" s="110"/>
+      <c r="AC14" s="30"/>
       <c r="AD14" s="9"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="16"/>
       <c r="AH14" s="22"/>
-      <c r="AI14" s="9"/>
+      <c r="AI14" s="111"/>
       <c r="AJ14" s="72"/>
       <c r="AK14" s="83"/>
       <c r="AL14" s="9"/>
@@ -4380,12 +4386,12 @@
       <c r="BN14" s="72"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="133"/>
+      <c r="A15" s="140"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="149"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="161"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4448,15 +4454,15 @@
       <c r="BN15" s="72"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="142">
+      <c r="A16" s="139">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="151"/>
-      <c r="E16" s="160" t="s">
+      <c r="D16" s="137"/>
+      <c r="E16" s="135" t="s">
         <v>50</v>
       </c>
       <c r="F16" s="162"/>
@@ -4475,20 +4481,20 @@
       <c r="S16" s="13"/>
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
       <c r="Y16" s="30"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
-      <c r="AC16" s="110"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
       <c r="AG16" s="13"/>
       <c r="AH16" s="19"/>
-      <c r="AI16" s="7"/>
+      <c r="AI16" s="116"/>
       <c r="AJ16" s="73"/>
       <c r="AK16" s="83"/>
       <c r="AL16" s="7"/>
@@ -4522,12 +4528,12 @@
       <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="133"/>
+      <c r="A17" s="140"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="158"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="148"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="164"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -4559,8 +4565,8 @@
       <c r="AI17" s="8"/>
       <c r="AJ17" s="96"/>
       <c r="AK17" s="83"/>
-      <c r="AL17" s="24"/>
-      <c r="AM17" s="24"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
       <c r="AN17" s="25"/>
       <c r="AO17" s="26"/>
       <c r="AP17" s="24"/>
@@ -4590,20 +4596,20 @@
       <c r="BN17" s="74"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="142">
+      <c r="A18" s="139">
         <v>8</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="163" t="s">
+      <c r="C18" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="164"/>
-      <c r="E18" s="138" t="s">
+      <c r="D18" s="147"/>
+      <c r="E18" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="165"/>
+      <c r="F18" s="160"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -4626,17 +4632,17 @@
       <c r="Z18" s="15"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="21"/>
-      <c r="AC18" s="60"/>
-      <c r="AD18" s="60"/>
-      <c r="AE18" s="60"/>
-      <c r="AF18" s="60"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
       <c r="AG18" s="15"/>
       <c r="AH18" s="22"/>
       <c r="AI18" s="60"/>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="83"/>
-      <c r="AL18" s="9"/>
-      <c r="AM18" s="9"/>
+      <c r="AJ18" s="98"/>
+      <c r="AK18" s="60"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
       <c r="AN18" s="15"/>
       <c r="AO18" s="21"/>
       <c r="AP18" s="111"/>
@@ -4666,12 +4672,12 @@
       <c r="BN18" s="75"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="133"/>
+      <c r="A19" s="140"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="136"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="149"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="161"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -4694,7 +4700,7 @@
       <c r="Z19" s="25"/>
       <c r="AA19" s="26"/>
       <c r="AB19" s="26"/>
-      <c r="AC19" s="214"/>
+      <c r="AC19" s="114"/>
       <c r="AD19" s="24"/>
       <c r="AE19" s="24"/>
       <c r="AF19" s="24"/>
@@ -4734,15 +4740,15 @@
       <c r="BN19" s="74"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="142">
+      <c r="A20" s="139">
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="150" t="s">
+      <c r="C20" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="151"/>
-      <c r="E20" s="154" t="s">
+      <c r="D20" s="137"/>
+      <c r="E20" s="138" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="162"/>
@@ -4768,20 +4774,20 @@
       <c r="Z20" s="13"/>
       <c r="AA20" s="19"/>
       <c r="AB20" s="19"/>
-      <c r="AC20" s="214"/>
+      <c r="AC20" s="114"/>
       <c r="AD20" s="24"/>
       <c r="AE20" s="24"/>
-      <c r="AF20" s="30"/>
+      <c r="AF20" s="24"/>
       <c r="AG20" s="13"/>
       <c r="AH20" s="19"/>
-      <c r="AI20" s="60"/>
-      <c r="AJ20" s="60"/>
-      <c r="AK20" s="60"/>
-      <c r="AL20" s="24"/>
+      <c r="AI20" s="24"/>
+      <c r="AJ20" s="98"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="30"/>
       <c r="AM20" s="24"/>
       <c r="AN20" s="13"/>
       <c r="AO20" s="19"/>
-      <c r="AP20" s="111"/>
+      <c r="AP20" s="116"/>
       <c r="AQ20" s="7"/>
       <c r="AR20" s="7"/>
       <c r="AS20" s="7"/>
@@ -4808,12 +4814,12 @@
       <c r="BN20" s="73"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="133"/>
+      <c r="A21" s="140"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="149"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="161"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4836,7 +4842,7 @@
       <c r="Z21" s="25"/>
       <c r="AA21" s="26"/>
       <c r="AB21" s="26"/>
-      <c r="AC21" s="214"/>
+      <c r="AC21" s="114"/>
       <c r="AD21" s="24"/>
       <c r="AE21" s="24"/>
       <c r="AF21" s="24"/>
@@ -4876,15 +4882,15 @@
       <c r="BN21" s="74"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="142">
+      <c r="A22" s="139">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="150" t="s">
+      <c r="C22" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="151"/>
-      <c r="E22" s="161" t="s">
+      <c r="D22" s="137"/>
+      <c r="E22" s="131" t="s">
         <v>50</v>
       </c>
       <c r="F22" s="162"/>
@@ -4910,20 +4916,20 @@
       <c r="Z22" s="25"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
-      <c r="AC22" s="214"/>
+      <c r="AC22" s="114"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="24"/>
       <c r="AF22" s="24"/>
       <c r="AG22" s="25"/>
       <c r="AH22" s="26"/>
       <c r="AI22" s="24"/>
-      <c r="AJ22" s="60"/>
-      <c r="AK22" s="60"/>
-      <c r="AL22" s="60"/>
-      <c r="AM22" s="60"/>
+      <c r="AJ22" s="112"/>
+      <c r="AK22" s="30"/>
+      <c r="AL22" s="30"/>
+      <c r="AM22" s="30"/>
       <c r="AN22" s="25"/>
       <c r="AO22" s="26"/>
-      <c r="AP22" s="111"/>
+      <c r="AP22" s="116"/>
       <c r="AQ22" s="64"/>
       <c r="AR22" s="64"/>
       <c r="AS22" s="64"/>
@@ -4950,12 +4956,12 @@
       <c r="BN22" s="77"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="133"/>
+      <c r="A23" s="140"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="167"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="163"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5018,20 +5024,20 @@
       <c r="BN23" s="78"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="142">
+      <c r="A24" s="139">
         <v>11</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="163" t="s">
+      <c r="C24" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="164"/>
-      <c r="E24" s="138" t="s">
+      <c r="D24" s="147"/>
+      <c r="E24" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="165"/>
+      <c r="F24" s="160"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5060,14 +5066,14 @@
       <c r="AF24" s="65"/>
       <c r="AG24" s="15"/>
       <c r="AH24" s="21"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="98"/>
+      <c r="AI24" s="63"/>
+      <c r="AJ24" s="113"/>
       <c r="AK24" s="63"/>
       <c r="AL24" s="63"/>
       <c r="AM24" s="63"/>
       <c r="AN24" s="15"/>
       <c r="AO24" s="21"/>
-      <c r="AP24" s="65"/>
+      <c r="AP24" s="60"/>
       <c r="AQ24" s="65"/>
       <c r="AR24" s="65"/>
       <c r="AS24" s="65"/>
@@ -5075,7 +5081,7 @@
       <c r="AU24" s="15"/>
       <c r="AV24" s="21"/>
       <c r="AW24" s="21"/>
-      <c r="AX24" s="65"/>
+      <c r="AX24" s="116"/>
       <c r="AY24" s="65"/>
       <c r="AZ24" s="65"/>
       <c r="BA24" s="65"/>
@@ -5094,14 +5100,14 @@
       <c r="BN24" s="79"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="133"/>
+      <c r="A25" s="140"/>
       <c r="B25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="136"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="166"/>
-      <c r="F25" s="149"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="161"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5137,7 +5143,7 @@
       <c r="AM25" s="63"/>
       <c r="AN25" s="13"/>
       <c r="AO25" s="19"/>
-      <c r="AP25" s="217"/>
+      <c r="AP25" s="117"/>
       <c r="AQ25" s="63"/>
       <c r="AR25" s="63"/>
       <c r="AS25" s="63"/>
@@ -5164,18 +5170,18 @@
       <c r="BN25" s="80"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="142">
+      <c r="A26" s="139">
         <v>12</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="158" t="s">
+      <c r="C26" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="159"/>
-      <c r="E26" s="161" t="s">
+      <c r="D26" s="122"/>
+      <c r="E26" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="187"/>
+      <c r="F26" s="133"/>
       <c r="G26" s="50"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -5200,26 +5206,26 @@
       <c r="AB26" s="22"/>
       <c r="AC26" s="62"/>
       <c r="AD26" s="62"/>
-      <c r="AE26" s="62"/>
+      <c r="AE26" s="63"/>
       <c r="AF26" s="62"/>
       <c r="AG26" s="16"/>
       <c r="AH26" s="22"/>
       <c r="AI26" s="63"/>
-      <c r="AJ26" s="98"/>
-      <c r="AK26" s="30"/>
-      <c r="AL26" s="30"/>
+      <c r="AJ26" s="80"/>
+      <c r="AK26" s="90"/>
+      <c r="AL26" s="63"/>
       <c r="AM26" s="63"/>
       <c r="AN26" s="16"/>
       <c r="AO26" s="22"/>
       <c r="AP26" s="63"/>
-      <c r="AQ26" s="63"/>
-      <c r="AR26" s="63"/>
+      <c r="AQ26" s="30"/>
+      <c r="AR26" s="30"/>
       <c r="AS26" s="63"/>
       <c r="AT26" s="62"/>
       <c r="AU26" s="16"/>
       <c r="AV26" s="22"/>
       <c r="AW26" s="22"/>
-      <c r="AX26" s="62"/>
+      <c r="AX26" s="116"/>
       <c r="AY26" s="62"/>
       <c r="AZ26" s="62"/>
       <c r="BA26" s="62"/>
@@ -5238,12 +5244,12 @@
       <c r="BN26" s="80"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="133"/>
+      <c r="A27" s="140"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="175"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="119"/>
       <c r="G27" s="51"/>
       <c r="H27" s="94"/>
       <c r="I27" s="7"/>
@@ -5274,7 +5280,7 @@
       <c r="AH27" s="19"/>
       <c r="AI27" s="63"/>
       <c r="AJ27" s="80"/>
-      <c r="AK27" s="63"/>
+      <c r="AK27" s="90"/>
       <c r="AL27" s="63"/>
       <c r="AM27" s="63"/>
       <c r="AN27" s="13"/>
@@ -5306,18 +5312,18 @@
       <c r="BN27" s="80"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="142">
+      <c r="A28" s="139">
         <v>13</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="150" t="s">
+      <c r="C28" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="151"/>
-      <c r="E28" s="154" t="s">
+      <c r="D28" s="137"/>
+      <c r="E28" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="174"/>
+      <c r="F28" s="118"/>
       <c r="G28" s="50"/>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
@@ -5348,20 +5354,20 @@
       <c r="AH28" s="19"/>
       <c r="AI28" s="63"/>
       <c r="AJ28" s="80"/>
-      <c r="AK28" s="30"/>
-      <c r="AL28" s="30"/>
-      <c r="AM28" s="30"/>
+      <c r="AK28" s="90"/>
+      <c r="AL28" s="63"/>
+      <c r="AM28" s="63"/>
       <c r="AN28" s="13"/>
       <c r="AO28" s="19"/>
       <c r="AP28" s="63"/>
       <c r="AQ28" s="63"/>
-      <c r="AR28" s="63"/>
-      <c r="AS28" s="63"/>
+      <c r="AR28" s="30"/>
+      <c r="AS28" s="30"/>
       <c r="AT28" s="63"/>
       <c r="AU28" s="13"/>
       <c r="AV28" s="19"/>
       <c r="AW28" s="19"/>
-      <c r="AX28" s="63"/>
+      <c r="AX28" s="116"/>
       <c r="AY28" s="63"/>
       <c r="AZ28" s="63"/>
       <c r="BA28" s="63"/>
@@ -5380,12 +5386,12 @@
       <c r="BN28" s="80"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="133"/>
+      <c r="A29" s="140"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="136"/>
-      <c r="D29" s="137"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="175"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="119"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="94"/>
@@ -5429,7 +5435,7 @@
       <c r="AU29" s="13"/>
       <c r="AV29" s="19"/>
       <c r="AW29" s="19"/>
-      <c r="AX29" s="215"/>
+      <c r="AX29" s="115"/>
       <c r="AY29" s="63"/>
       <c r="AZ29" s="63"/>
       <c r="BA29" s="63"/>
@@ -5448,18 +5454,18 @@
       <c r="BN29" s="80"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="142">
+      <c r="A30" s="139">
         <v>14</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="150" t="s">
+      <c r="C30" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="151"/>
-      <c r="E30" s="154" t="s">
+      <c r="D30" s="137"/>
+      <c r="E30" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="174"/>
+      <c r="F30" s="118"/>
       <c r="G30" s="50"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -5495,15 +5501,15 @@
       <c r="AM30" s="63"/>
       <c r="AN30" s="13"/>
       <c r="AO30" s="19"/>
-      <c r="AP30" s="30"/>
-      <c r="AQ30" s="30"/>
-      <c r="AR30" s="30"/>
-      <c r="AS30" s="63"/>
-      <c r="AT30" s="63"/>
+      <c r="AP30" s="63"/>
+      <c r="AQ30" s="63"/>
+      <c r="AR30" s="63"/>
+      <c r="AS30" s="30"/>
+      <c r="AT30" s="30"/>
       <c r="AU30" s="13"/>
       <c r="AV30" s="19"/>
       <c r="AW30" s="19"/>
-      <c r="AX30" s="216"/>
+      <c r="AX30" s="116"/>
       <c r="AY30" s="63"/>
       <c r="AZ30" s="63"/>
       <c r="BA30" s="63"/>
@@ -5522,12 +5528,12 @@
       <c r="BN30" s="80"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="133"/>
+      <c r="A31" s="140"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="166"/>
-      <c r="F31" s="175"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="119"/>
       <c r="G31" s="51"/>
       <c r="H31" s="94"/>
       <c r="I31" s="7"/>
@@ -5571,7 +5577,7 @@
       <c r="AU31" s="13"/>
       <c r="AV31" s="19"/>
       <c r="AW31" s="19"/>
-      <c r="AX31" s="215"/>
+      <c r="AX31" s="115"/>
       <c r="AY31" s="63"/>
       <c r="AZ31" s="63"/>
       <c r="BA31" s="63"/>
@@ -5590,18 +5596,18 @@
       <c r="BN31" s="80"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="142">
+      <c r="A32" s="139">
         <v>15</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="150" t="s">
+      <c r="C32" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="151"/>
-      <c r="E32" s="161" t="s">
+      <c r="D32" s="137"/>
+      <c r="E32" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="174"/>
+      <c r="F32" s="118"/>
       <c r="G32" s="52"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5639,19 +5645,19 @@
       <c r="AO32" s="26"/>
       <c r="AP32" s="64"/>
       <c r="AQ32" s="64"/>
-      <c r="AR32" s="30"/>
-      <c r="AS32" s="30"/>
-      <c r="AT32" s="30"/>
+      <c r="AR32" s="64"/>
+      <c r="AS32" s="64"/>
+      <c r="AT32" s="64"/>
       <c r="AU32" s="25"/>
       <c r="AV32" s="26"/>
       <c r="AW32" s="26"/>
-      <c r="AX32" s="216"/>
-      <c r="AY32" s="63"/>
+      <c r="AX32" s="30"/>
+      <c r="AY32" s="30"/>
       <c r="AZ32" s="63"/>
       <c r="BA32" s="63"/>
       <c r="BB32" s="25"/>
       <c r="BC32" s="26"/>
-      <c r="BD32" s="63"/>
+      <c r="BD32" s="110"/>
       <c r="BE32" s="64"/>
       <c r="BF32" s="64"/>
       <c r="BG32" s="64"/>
@@ -5664,12 +5670,12 @@
       <c r="BN32" s="77"/>
     </row>
     <row r="33" spans="1:67" ht="12" customHeight="1">
-      <c r="A33" s="133"/>
+      <c r="A33" s="140"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="136"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="175"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="119"/>
       <c r="G33" s="52"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5732,18 +5738,18 @@
       <c r="BN33" s="77"/>
     </row>
     <row r="34" spans="1:67" ht="12" customHeight="1">
-      <c r="A34" s="142">
+      <c r="A34" s="139">
         <v>16</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="150" t="s">
+      <c r="C34" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="151"/>
-      <c r="E34" s="154" t="s">
+      <c r="D34" s="137"/>
+      <c r="E34" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="174"/>
+      <c r="F34" s="118"/>
       <c r="G34" s="52"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5783,13 +5789,13 @@
       <c r="AQ34" s="64"/>
       <c r="AR34" s="64"/>
       <c r="AS34" s="64"/>
-      <c r="AT34" s="30"/>
+      <c r="AT34" s="64"/>
       <c r="AU34" s="25"/>
       <c r="AV34" s="26"/>
       <c r="AW34" s="26"/>
-      <c r="AX34" s="30"/>
+      <c r="AX34" s="64"/>
       <c r="AY34" s="30"/>
-      <c r="AZ34" s="64"/>
+      <c r="AZ34" s="30"/>
       <c r="BA34" s="63"/>
       <c r="BB34" s="25"/>
       <c r="BC34" s="26"/>
@@ -5806,12 +5812,12 @@
       <c r="BN34" s="77"/>
     </row>
     <row r="35" spans="1:67" ht="12" customHeight="1">
-      <c r="A35" s="133"/>
+      <c r="A35" s="140"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="136"/>
-      <c r="D35" s="137"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="175"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="119"/>
       <c r="G35" s="52"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5874,18 +5880,18 @@
       <c r="BN35" s="77"/>
     </row>
     <row r="36" spans="1:67" ht="12" customHeight="1">
-      <c r="A36" s="142">
+      <c r="A36" s="139">
         <v>17</v>
       </c>
       <c r="B36" s="36"/>
-      <c r="C36" s="150" t="s">
+      <c r="C36" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="151"/>
-      <c r="E36" s="154" t="s">
+      <c r="D36" s="137"/>
+      <c r="E36" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="174"/>
+      <c r="F36" s="118"/>
       <c r="G36" s="52"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5930,7 +5936,7 @@
       <c r="AV36" s="26"/>
       <c r="AW36" s="26"/>
       <c r="AX36" s="64"/>
-      <c r="AY36" s="42"/>
+      <c r="AY36" s="64"/>
       <c r="AZ36" s="30"/>
       <c r="BA36" s="30"/>
       <c r="BB36" s="25"/>
@@ -5948,12 +5954,12 @@
       <c r="BN36" s="77"/>
     </row>
     <row r="37" spans="1:67" ht="12" customHeight="1">
-      <c r="A37" s="133"/>
+      <c r="A37" s="140"/>
       <c r="B37" s="36"/>
-      <c r="C37" s="152"/>
-      <c r="D37" s="153"/>
-      <c r="E37" s="138"/>
-      <c r="F37" s="184"/>
+      <c r="C37" s="141"/>
+      <c r="D37" s="142"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="120"/>
       <c r="G37" s="52"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -6016,20 +6022,20 @@
       <c r="BN37" s="77"/>
     </row>
     <row r="38" spans="1:67" ht="12" customHeight="1">
-      <c r="A38" s="142">
+      <c r="A38" s="139">
         <v>18</v>
       </c>
       <c r="B38" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="168" t="s">
+      <c r="C38" s="153" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="169"/>
-      <c r="E38" s="138" t="s">
+      <c r="D38" s="154"/>
+      <c r="E38" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="172"/>
+      <c r="F38" s="157"/>
       <c r="G38" s="38"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -6092,12 +6098,12 @@
       <c r="BN38" s="79"/>
     </row>
     <row r="39" spans="1:67" ht="12" customHeight="1">
-      <c r="A39" s="133"/>
+      <c r="A39" s="140"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="171"/>
-      <c r="E39" s="138"/>
-      <c r="F39" s="173"/>
+      <c r="C39" s="155"/>
+      <c r="D39" s="156"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="158"/>
       <c r="G39" s="51"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -6160,20 +6166,20 @@
       <c r="BN39" s="78"/>
     </row>
     <row r="40" spans="1:67" ht="12" customHeight="1">
-      <c r="A40" s="142">
+      <c r="A40" s="139">
         <v>19</v>
       </c>
-      <c r="B40" s="177" t="s">
+      <c r="B40" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="163" t="s">
+      <c r="C40" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="164"/>
-      <c r="E40" s="139" t="s">
+      <c r="D40" s="147"/>
+      <c r="E40" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="182"/>
+      <c r="F40" s="151"/>
       <c r="G40" s="38"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -6237,12 +6243,12 @@
       <c r="BO40" s="100"/>
     </row>
     <row r="41" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A41" s="176"/>
-      <c r="B41" s="178"/>
-      <c r="C41" s="179"/>
-      <c r="D41" s="180"/>
-      <c r="E41" s="181"/>
-      <c r="F41" s="183"/>
+      <c r="A41" s="143"/>
+      <c r="B41" s="145"/>
+      <c r="C41" s="148"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="152"/>
       <c r="G41" s="39"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -6329,6 +6335,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="C32:D33"/>
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="F32:F33"/>
@@ -6345,74 +6419,6 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="C30:D31"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -6456,54 +6462,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="122"/>
-      <c r="E1" s="127" t="s">
+      <c r="D1" s="184"/>
+      <c r="E1" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="129" t="s">
+      <c r="F1" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="114"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
+      <c r="R1" s="175"/>
+      <c r="S1" s="175"/>
+      <c r="T1" s="175"/>
+      <c r="U1" s="175"/>
+      <c r="V1" s="175"/>
+      <c r="W1" s="175"/>
+      <c r="X1" s="175"/>
+      <c r="Y1" s="175"/>
+      <c r="Z1" s="175"/>
+      <c r="AA1" s="175"/>
+      <c r="AB1" s="175"/>
+      <c r="AC1" s="175"/>
+      <c r="AD1" s="176"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="116"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="130"/>
+      <c r="A2" s="178"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="192"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -6578,12 +6584,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="117"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="131"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="193"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -6658,20 +6664,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="132">
+      <c r="A4" s="169">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="206" t="s">
+      <c r="D4" s="171"/>
+      <c r="E4" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="140"/>
+      <c r="F4" s="172"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -6694,20 +6700,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="207" t="s">
+      <c r="AC4" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="201" t="s">
+      <c r="AD4" s="195" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="133"/>
+      <c r="A5" s="140"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="141"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="173"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -6730,22 +6736,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="208"/>
-      <c r="AD5" s="202"/>
+      <c r="AC5" s="202"/>
+      <c r="AD5" s="196"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="142">
+      <c r="A6" s="139">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="150" t="s">
+      <c r="C6" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="151"/>
-      <c r="E6" s="204" t="s">
+      <c r="D6" s="137"/>
+      <c r="E6" s="198" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="155"/>
+      <c r="F6" s="166"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -6768,16 +6774,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="208"/>
-      <c r="AD6" s="202"/>
+      <c r="AC6" s="202"/>
+      <c r="AD6" s="196"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="133"/>
+      <c r="A7" s="140"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="205"/>
-      <c r="F7" s="156"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="167"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -6800,24 +6806,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="208"/>
-      <c r="AD7" s="202"/>
+      <c r="AC7" s="202"/>
+      <c r="AD7" s="196"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="190">
+      <c r="A8" s="204">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="210" t="s">
+      <c r="C8" s="206" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="211"/>
-      <c r="E8" s="212" t="s">
+      <c r="D8" s="207"/>
+      <c r="E8" s="208" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="165"/>
+      <c r="F8" s="160"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -6840,16 +6846,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="208"/>
-      <c r="AD8" s="202"/>
+      <c r="AC8" s="202"/>
+      <c r="AD8" s="196"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="191"/>
+      <c r="A9" s="205"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="167"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="209"/>
+      <c r="F9" s="163"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -6872,24 +6878,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="208"/>
-      <c r="AD9" s="202"/>
+      <c r="AC9" s="202"/>
+      <c r="AD9" s="196"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="199">
+      <c r="A10" s="210">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="143" t="s">
+      <c r="C10" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="144"/>
-      <c r="E10" s="198" t="s">
+      <c r="D10" s="126"/>
+      <c r="E10" s="211" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="148"/>
+      <c r="F10" s="164"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -6912,16 +6918,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="208"/>
-      <c r="AD10" s="202"/>
+      <c r="AC10" s="202"/>
+      <c r="AD10" s="196"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="191"/>
+      <c r="A11" s="205"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="149"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="212"/>
+      <c r="F11" s="161"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -6944,19 +6950,19 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="208"/>
-      <c r="AD11" s="202"/>
+      <c r="AC11" s="202"/>
+      <c r="AD11" s="196"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="190">
+      <c r="A12" s="204">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="151"/>
-      <c r="E12" s="200" t="s">
+      <c r="D12" s="137"/>
+      <c r="E12" s="213" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="162"/>
@@ -6982,16 +6988,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="208"/>
-      <c r="AD12" s="202"/>
+      <c r="AC12" s="202"/>
+      <c r="AD12" s="196"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="199"/>
+      <c r="A13" s="210"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="198"/>
-      <c r="F13" s="148"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="211"/>
+      <c r="F13" s="164"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -7014,24 +7020,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="208"/>
-      <c r="AD13" s="202"/>
+      <c r="AC13" s="202"/>
+      <c r="AD13" s="196"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="195">
+      <c r="A14" s="214">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="163" t="s">
+      <c r="C14" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="164"/>
-      <c r="E14" s="197" t="s">
+      <c r="D14" s="147"/>
+      <c r="E14" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="165"/>
+      <c r="F14" s="160"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -7054,16 +7060,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="208"/>
-      <c r="AD14" s="202"/>
+      <c r="AC14" s="202"/>
+      <c r="AD14" s="196"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="195"/>
+      <c r="A15" s="214"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="194"/>
-      <c r="F15" s="149"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="212"/>
+      <c r="F15" s="161"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7086,19 +7092,19 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="208"/>
-      <c r="AD15" s="202"/>
+      <c r="AC15" s="202"/>
+      <c r="AD15" s="196"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="195">
+      <c r="A16" s="214">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="151"/>
-      <c r="E16" s="193" t="s">
+      <c r="D16" s="137"/>
+      <c r="E16" s="216" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="162"/>
@@ -7124,16 +7130,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="208"/>
-      <c r="AD16" s="202"/>
+      <c r="AC16" s="202"/>
+      <c r="AD16" s="196"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="195"/>
+      <c r="A17" s="214"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="149"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="161"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7156,19 +7162,19 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="208"/>
-      <c r="AD17" s="202"/>
+      <c r="AC17" s="202"/>
+      <c r="AD17" s="196"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="195">
+      <c r="A18" s="214">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="150" t="s">
+      <c r="C18" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="151"/>
-      <c r="E18" s="193" t="s">
+      <c r="D18" s="137"/>
+      <c r="E18" s="216" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="162"/>
@@ -7194,16 +7200,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="208"/>
-      <c r="AD18" s="202"/>
+      <c r="AC18" s="202"/>
+      <c r="AD18" s="196"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="195"/>
+      <c r="A19" s="214"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="167"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="163"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7226,24 +7232,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="208"/>
-      <c r="AD19" s="202"/>
+      <c r="AC19" s="202"/>
+      <c r="AD19" s="196"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="190">
+      <c r="A20" s="204">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="163" t="s">
+      <c r="C20" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="164"/>
-      <c r="E20" s="197" t="s">
+      <c r="D20" s="147"/>
+      <c r="E20" s="215" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="165"/>
+      <c r="F20" s="160"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7266,18 +7272,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="208"/>
-      <c r="AD20" s="202"/>
+      <c r="AC20" s="202"/>
+      <c r="AD20" s="196"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="191"/>
+      <c r="A21" s="205"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="136"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="149"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="161"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -7300,19 +7306,19 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="208"/>
-      <c r="AD21" s="202"/>
+      <c r="AC21" s="202"/>
+      <c r="AD21" s="196"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="190">
+      <c r="A22" s="204">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="192" t="s">
+      <c r="C22" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="151"/>
-      <c r="E22" s="193" t="s">
+      <c r="D22" s="137"/>
+      <c r="E22" s="216" t="s">
         <v>42</v>
       </c>
       <c r="F22" s="162"/>
@@ -7338,16 +7344,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="208"/>
-      <c r="AD22" s="202"/>
+      <c r="AC22" s="202"/>
+      <c r="AD22" s="196"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="191"/>
+      <c r="A23" s="205"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="149"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="212"/>
+      <c r="F23" s="161"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -7370,19 +7376,19 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="208"/>
-      <c r="AD23" s="202"/>
+      <c r="AC23" s="202"/>
+      <c r="AD23" s="196"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="190">
+      <c r="A24" s="204">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="192" t="s">
+      <c r="C24" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="151"/>
-      <c r="E24" s="193" t="s">
+      <c r="D24" s="137"/>
+      <c r="E24" s="216" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="162"/>
@@ -7408,16 +7414,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="208"/>
-      <c r="AD24" s="202"/>
+      <c r="AC24" s="202"/>
+      <c r="AD24" s="196"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="191"/>
+      <c r="A25" s="205"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="136"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="167"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="212"/>
+      <c r="F25" s="163"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -7440,24 +7446,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="208"/>
-      <c r="AD25" s="202"/>
+      <c r="AC25" s="202"/>
+      <c r="AD25" s="196"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="142">
+      <c r="A26" s="139">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="168" t="s">
+      <c r="C26" s="153" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="169"/>
-      <c r="E26" s="188" t="s">
+      <c r="D26" s="154"/>
+      <c r="E26" s="218" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="172"/>
+      <c r="F26" s="157"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -7480,16 +7486,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="208"/>
-      <c r="AD26" s="202"/>
+      <c r="AC26" s="202"/>
+      <c r="AD26" s="196"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="133"/>
+      <c r="A27" s="140"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="171"/>
-      <c r="E27" s="189"/>
-      <c r="F27" s="173"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="219"/>
+      <c r="F27" s="158"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -7512,24 +7518,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="208"/>
-      <c r="AD27" s="202"/>
+      <c r="AC27" s="202"/>
+      <c r="AD27" s="196"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="142">
+      <c r="A28" s="139">
         <v>14</v>
       </c>
-      <c r="B28" s="177" t="s">
+      <c r="B28" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="163" t="s">
+      <c r="C28" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="164"/>
-      <c r="E28" s="177" t="s">
+      <c r="D28" s="147"/>
+      <c r="E28" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="182"/>
+      <c r="F28" s="151"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -7552,16 +7558,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="208"/>
-      <c r="AD28" s="202"/>
+      <c r="AC28" s="202"/>
+      <c r="AD28" s="196"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="176"/>
-      <c r="B29" s="178"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="180"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="183"/>
+      <c r="A29" s="143"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="152"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -7584,8 +7590,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="209"/>
-      <c r="AD29" s="203"/>
+      <c r="AC29" s="203"/>
+      <c r="AD29" s="197"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -7605,12 +7611,45 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -7627,45 +7666,12 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE27E2B-1318-4E64-8F59-2B399BAFF88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FE257A-821B-4FBF-B20F-28AB8731A6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31275" yWindow="2760" windowWidth="23010" windowHeight="12210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="全体スケジュール (テンプレート)" sheetId="13" r:id="rId1"/>
-    <sheet name="全体スケジュール (サンプル)" sheetId="14" r:id="rId2"/>
+    <sheet name="memo" sheetId="16" r:id="rId1"/>
+    <sheet name="全体スケジュール (パターン1)" sheetId="13" r:id="rId2"/>
+    <sheet name="全体スケジュール (パターン2） " sheetId="15" r:id="rId3"/>
+    <sheet name="全体スケジュール (サンプル)" sheetId="14" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'全体スケジュール (サンプル)'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'全体スケジュール (テンプレート)'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'全体スケジュール (サンプル)'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'全体スケジュール (パターン1)'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'全体スケジュール (パターン2） '!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="57">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -509,6 +512,34 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>コーディング、テスト→レビュー　ならパターン１</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>コーディング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>レビュー→テスト　ならパターン２</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -519,7 +550,7 @@
     <numFmt numFmtId="177" formatCode="yyyy/mm"/>
     <numFmt numFmtId="178" formatCode="aaa"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -548,6 +579,24 @@
     <font>
       <sz val="6"/>
       <name val="明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
@@ -1681,16 +1730,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="dotted">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="dashed">
+      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1699,7 +1748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2024,22 +2073,83 @@
     <xf numFmtId="49" fontId="2" fillId="11" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2090,21 +2200,27 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2164,9 +2280,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2527,6 +2640,161 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1461C281-8B75-4A05-A931-9DF98AF59EEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4610100" y="1085850"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 75000"/>
+            <a:gd name="adj2" fmla="val 107843"/>
+            <a:gd name="adj3" fmla="val 75000"/>
+            <a:gd name="adj4" fmla="val 112745"/>
+            <a:gd name="adj5" fmla="val -12500"/>
+            <a:gd name="adj6" fmla="val 118630"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>設計書</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC9B1559-240D-44EB-ADE7-5FCBD43269B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4610100" y="1085850"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 63157"/>
+            <a:gd name="adj2" fmla="val 107921"/>
+            <a:gd name="adj3" fmla="val 63157"/>
+            <a:gd name="adj4" fmla="val 114852"/>
+            <a:gd name="adj5" fmla="val -10528"/>
+            <a:gd name="adj6" fmla="val 124755"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>入出力ファイル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3052,6 +3320,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EC0C92-6A82-40EC-AA30-945B7A2E7B3E}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="121" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="13.8">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3062,7 +3356,7 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3079,94 +3373,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="180" t="s">
+      <c r="B1" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="183" t="s">
+      <c r="C1" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="184"/>
-      <c r="E1" s="189" t="s">
+      <c r="D1" s="206"/>
+      <c r="E1" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="191" t="s">
+      <c r="F1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="174">
+      <c r="G1" s="196">
         <v>45536</v>
       </c>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="175"/>
-      <c r="S1" s="175"/>
-      <c r="T1" s="175"/>
-      <c r="U1" s="175"/>
-      <c r="V1" s="175"/>
-      <c r="W1" s="175"/>
-      <c r="X1" s="175"/>
-      <c r="Y1" s="175"/>
-      <c r="Z1" s="175"/>
-      <c r="AA1" s="175"/>
-      <c r="AB1" s="175"/>
-      <c r="AC1" s="175"/>
-      <c r="AD1" s="175"/>
-      <c r="AE1" s="175"/>
-      <c r="AF1" s="175"/>
-      <c r="AG1" s="175"/>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="175"/>
-      <c r="AJ1" s="176"/>
-      <c r="AK1" s="174">
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="197"/>
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="197"/>
+      <c r="AA1" s="197"/>
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="197"/>
+      <c r="AD1" s="197"/>
+      <c r="AE1" s="197"/>
+      <c r="AF1" s="197"/>
+      <c r="AG1" s="197"/>
+      <c r="AH1" s="197"/>
+      <c r="AI1" s="197"/>
+      <c r="AJ1" s="198"/>
+      <c r="AK1" s="196">
         <v>45566</v>
       </c>
-      <c r="AL1" s="175"/>
-      <c r="AM1" s="175"/>
-      <c r="AN1" s="175"/>
-      <c r="AO1" s="175"/>
-      <c r="AP1" s="175"/>
-      <c r="AQ1" s="175"/>
-      <c r="AR1" s="175"/>
-      <c r="AS1" s="175"/>
-      <c r="AT1" s="175"/>
-      <c r="AU1" s="175"/>
-      <c r="AV1" s="175"/>
-      <c r="AW1" s="175"/>
-      <c r="AX1" s="175"/>
-      <c r="AY1" s="175"/>
-      <c r="AZ1" s="175"/>
-      <c r="BA1" s="175"/>
-      <c r="BB1" s="175"/>
-      <c r="BC1" s="175"/>
-      <c r="BD1" s="175"/>
-      <c r="BE1" s="175"/>
-      <c r="BF1" s="175"/>
-      <c r="BG1" s="175"/>
-      <c r="BH1" s="175"/>
-      <c r="BI1" s="175"/>
-      <c r="BJ1" s="175"/>
-      <c r="BK1" s="175"/>
-      <c r="BL1" s="175"/>
-      <c r="BM1" s="175"/>
-      <c r="BN1" s="176"/>
+      <c r="AL1" s="197"/>
+      <c r="AM1" s="197"/>
+      <c r="AN1" s="197"/>
+      <c r="AO1" s="197"/>
+      <c r="AP1" s="197"/>
+      <c r="AQ1" s="197"/>
+      <c r="AR1" s="197"/>
+      <c r="AS1" s="197"/>
+      <c r="AT1" s="197"/>
+      <c r="AU1" s="197"/>
+      <c r="AV1" s="197"/>
+      <c r="AW1" s="197"/>
+      <c r="AX1" s="197"/>
+      <c r="AY1" s="197"/>
+      <c r="AZ1" s="197"/>
+      <c r="BA1" s="197"/>
+      <c r="BB1" s="197"/>
+      <c r="BC1" s="197"/>
+      <c r="BD1" s="197"/>
+      <c r="BE1" s="197"/>
+      <c r="BF1" s="197"/>
+      <c r="BG1" s="197"/>
+      <c r="BH1" s="197"/>
+      <c r="BI1" s="197"/>
+      <c r="BJ1" s="197"/>
+      <c r="BK1" s="197"/>
+      <c r="BL1" s="197"/>
+      <c r="BM1" s="197"/>
+      <c r="BN1" s="198"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="178"/>
-      <c r="B2" s="181"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="192"/>
+      <c r="A2" s="200"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="214"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3408,12 +3702,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="179"/>
-      <c r="B3" s="182"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="193"/>
+      <c r="A3" s="201"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="215"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3596,20 +3890,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="169">
+      <c r="A4" s="191">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="170" t="s">
+      <c r="C4" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="171"/>
-      <c r="E4" s="134" t="s">
+      <c r="D4" s="193"/>
+      <c r="E4" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="172"/>
+      <c r="F4" s="194"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -3672,16 +3966,16 @@
       <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="140"/>
+      <c r="A5" s="163"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="173"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="195"/>
       <c r="G5" s="103"/>
       <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="62"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="115"/>
       <c r="K5" s="62"/>
       <c r="L5" s="16"/>
       <c r="M5" s="22"/>
@@ -3740,21 +4034,21 @@
       <c r="BN5" s="72"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="139">
+      <c r="A6" s="162">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="137"/>
-      <c r="E6" s="138" t="s">
+      <c r="D6" s="160"/>
+      <c r="E6" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="166"/>
+      <c r="F6" s="188"/>
       <c r="G6" s="51"/>
       <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
+      <c r="I6" s="138"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="13"/>
@@ -3814,15 +4108,15 @@
       <c r="BN6" s="73"/>
     </row>
     <row r="7" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A7" s="140"/>
+      <c r="A7" s="163"/>
       <c r="B7" s="106"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="167"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="189"/>
       <c r="G7" s="104"/>
       <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
+      <c r="I7" s="99"/>
       <c r="J7" s="68"/>
       <c r="K7" s="68"/>
       <c r="L7" s="17"/>
@@ -3882,20 +4176,20 @@
       <c r="BN7" s="74"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="168">
+      <c r="A8" s="190">
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="131" t="s">
+      <c r="D8" s="147"/>
+      <c r="E8" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="133"/>
+      <c r="F8" s="158"/>
       <c r="G8" s="50"/>
       <c r="H8" s="62"/>
       <c r="I8" s="62"/>
@@ -3905,14 +4199,14 @@
       <c r="M8" s="22"/>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
-      <c r="P8" s="62"/>
+      <c r="P8" s="30"/>
       <c r="Q8" s="62"/>
       <c r="R8" s="62"/>
       <c r="S8" s="16"/>
       <c r="T8" s="22"/>
       <c r="U8" s="22"/>
       <c r="V8" s="110"/>
-      <c r="W8" s="9"/>
+      <c r="W8" s="30"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="16"/>
@@ -3958,12 +4252,12 @@
       <c r="BN8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="140"/>
+      <c r="A9" s="163"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="119"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="140"/>
       <c r="G9" s="51"/>
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
@@ -4026,18 +4320,18 @@
       <c r="BN9" s="73"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="139">
+      <c r="A10" s="162">
         <v>4</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="126"/>
-      <c r="E10" s="134" t="s">
+      <c r="D10" s="147"/>
+      <c r="E10" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="118"/>
+      <c r="F10" s="139"/>
       <c r="G10" s="51"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
@@ -4046,7 +4340,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="19"/>
       <c r="N10" s="63"/>
-      <c r="O10" s="30"/>
+      <c r="O10" s="63"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="30"/>
       <c r="R10" s="63"/>
@@ -4054,7 +4348,7 @@
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
       <c r="V10" s="110"/>
-      <c r="W10" s="7"/>
+      <c r="W10" s="30"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="13"/>
@@ -4100,12 +4394,12 @@
       <c r="BN10" s="73"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="140"/>
+      <c r="A11" s="163"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="119"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="140"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4168,18 +4462,18 @@
       <c r="BN11" s="73"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="139">
+      <c r="A12" s="162">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="125" t="s">
+      <c r="C12" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="135" t="s">
+      <c r="D12" s="147"/>
+      <c r="E12" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="118"/>
+      <c r="F12" s="139"/>
       <c r="G12" s="51"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
@@ -4189,14 +4483,14 @@
       <c r="M12" s="19"/>
       <c r="N12" s="63"/>
       <c r="O12" s="63"/>
-      <c r="P12" s="30"/>
+      <c r="P12" s="63"/>
       <c r="Q12" s="30"/>
       <c r="R12" s="30"/>
       <c r="S12" s="13"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
       <c r="V12" s="110"/>
-      <c r="W12" s="7"/>
+      <c r="W12" s="30"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="13"/>
@@ -4242,12 +4536,12 @@
       <c r="BN12" s="73"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="140"/>
+      <c r="A13" s="163"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="120"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="141"/>
       <c r="G13" s="53"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
@@ -4310,20 +4604,20 @@
       <c r="BN13" s="96"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="139">
+      <c r="A14" s="162">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="125" t="s">
+      <c r="C14" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="132" t="s">
+      <c r="D14" s="147"/>
+      <c r="E14" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="164"/>
+      <c r="F14" s="186"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4342,18 +4636,18 @@
       <c r="V14" s="30"/>
       <c r="W14" s="30"/>
       <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
+      <c r="Y14" s="9"/>
       <c r="Z14" s="16"/>
       <c r="AA14" s="22"/>
       <c r="AB14" s="22"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="9"/>
+      <c r="AC14" s="111"/>
+      <c r="AD14" s="30"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="16"/>
       <c r="AH14" s="22"/>
-      <c r="AI14" s="111"/>
-      <c r="AJ14" s="72"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="117"/>
       <c r="AK14" s="83"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
@@ -4386,12 +4680,12 @@
       <c r="BN14" s="72"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="140"/>
+      <c r="A15" s="163"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="161"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="183"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4421,7 +4715,7 @@
       <c r="AG15" s="16"/>
       <c r="AH15" s="22"/>
       <c r="AI15" s="9"/>
-      <c r="AJ15" s="72"/>
+      <c r="AJ15" s="117"/>
       <c r="AK15" s="83"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="9"/>
@@ -4454,18 +4748,18 @@
       <c r="BN15" s="72"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="139">
+      <c r="A16" s="162">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="136" t="s">
+      <c r="C16" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="137"/>
-      <c r="E16" s="135" t="s">
+      <c r="D16" s="160"/>
+      <c r="E16" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="162"/>
+      <c r="F16" s="184"/>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -4482,20 +4776,20 @@
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
       <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
       <c r="Y16" s="30"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
-      <c r="AC16" s="30"/>
+      <c r="AC16" s="110"/>
       <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
       <c r="AG16" s="13"/>
       <c r="AH16" s="19"/>
-      <c r="AI16" s="116"/>
-      <c r="AJ16" s="73"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="117"/>
       <c r="AK16" s="83"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
@@ -4528,12 +4822,12 @@
       <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="140"/>
+      <c r="A17" s="163"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="164"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="186"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -4596,20 +4890,20 @@
       <c r="BN17" s="74"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="139">
+      <c r="A18" s="162">
         <v>8</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="146" t="s">
+      <c r="C18" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="147"/>
-      <c r="E18" s="134" t="s">
+      <c r="D18" s="170"/>
+      <c r="E18" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="160"/>
+      <c r="F18" s="182"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -4632,20 +4926,20 @@
       <c r="Z18" s="15"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="21"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
+      <c r="AC18" s="60"/>
+      <c r="AD18" s="60"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="9"/>
       <c r="AG18" s="15"/>
       <c r="AH18" s="22"/>
-      <c r="AI18" s="60"/>
-      <c r="AJ18" s="98"/>
-      <c r="AK18" s="60"/>
+      <c r="AI18" s="111"/>
+      <c r="AJ18" s="73"/>
+      <c r="AK18" s="120"/>
       <c r="AL18" s="6"/>
       <c r="AM18" s="6"/>
       <c r="AN18" s="15"/>
       <c r="AO18" s="21"/>
-      <c r="AP18" s="111"/>
+      <c r="AP18" s="6"/>
       <c r="AQ18" s="6"/>
       <c r="AR18" s="6"/>
       <c r="AS18" s="6"/>
@@ -4672,12 +4966,12 @@
       <c r="BN18" s="75"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="140"/>
+      <c r="A19" s="163"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="161"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="183"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -4700,7 +4994,7 @@
       <c r="Z19" s="25"/>
       <c r="AA19" s="26"/>
       <c r="AB19" s="26"/>
-      <c r="AC19" s="114"/>
+      <c r="AC19" s="136"/>
       <c r="AD19" s="24"/>
       <c r="AE19" s="24"/>
       <c r="AF19" s="24"/>
@@ -4740,18 +5034,18 @@
       <c r="BN19" s="74"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="139">
+      <c r="A20" s="162">
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="137"/>
-      <c r="E20" s="138" t="s">
+      <c r="D20" s="160"/>
+      <c r="E20" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="162"/>
+      <c r="F20" s="184"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4774,21 +5068,21 @@
       <c r="Z20" s="13"/>
       <c r="AA20" s="19"/>
       <c r="AB20" s="19"/>
-      <c r="AC20" s="114"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="24"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
       <c r="AG20" s="13"/>
       <c r="AH20" s="19"/>
-      <c r="AI20" s="24"/>
-      <c r="AJ20" s="98"/>
-      <c r="AK20" s="30"/>
-      <c r="AL20" s="30"/>
+      <c r="AI20" s="110"/>
+      <c r="AJ20" s="73"/>
+      <c r="AK20" s="24"/>
+      <c r="AL20" s="24"/>
       <c r="AM20" s="24"/>
       <c r="AN20" s="13"/>
       <c r="AO20" s="19"/>
-      <c r="AP20" s="116"/>
-      <c r="AQ20" s="7"/>
+      <c r="AP20" s="24"/>
+      <c r="AQ20" s="24"/>
       <c r="AR20" s="7"/>
       <c r="AS20" s="7"/>
       <c r="AT20" s="7"/>
@@ -4814,12 +5108,12 @@
       <c r="BN20" s="73"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="140"/>
+      <c r="A21" s="163"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="161"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="183"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4842,14 +5136,14 @@
       <c r="Z21" s="25"/>
       <c r="AA21" s="26"/>
       <c r="AB21" s="26"/>
-      <c r="AC21" s="114"/>
+      <c r="AC21" s="135"/>
       <c r="AD21" s="24"/>
       <c r="AE21" s="24"/>
       <c r="AF21" s="24"/>
       <c r="AG21" s="25"/>
       <c r="AH21" s="26"/>
       <c r="AI21" s="24"/>
-      <c r="AJ21" s="74"/>
+      <c r="AJ21" s="73"/>
       <c r="AK21" s="85"/>
       <c r="AL21" s="24"/>
       <c r="AM21" s="24"/>
@@ -4882,18 +5176,18 @@
       <c r="BN21" s="74"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="139">
+      <c r="A22" s="162">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="136" t="s">
+      <c r="C22" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="137"/>
-      <c r="E22" s="131" t="s">
+      <c r="D22" s="160"/>
+      <c r="E22" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="162"/>
+      <c r="F22" s="184"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4916,21 +5210,21 @@
       <c r="Z22" s="25"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
-      <c r="AC22" s="114"/>
+      <c r="AC22" s="94"/>
       <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
       <c r="AG22" s="25"/>
       <c r="AH22" s="26"/>
-      <c r="AI22" s="24"/>
-      <c r="AJ22" s="112"/>
-      <c r="AK22" s="30"/>
-      <c r="AL22" s="30"/>
-      <c r="AM22" s="30"/>
+      <c r="AI22" s="110"/>
+      <c r="AJ22" s="73"/>
+      <c r="AK22" s="85"/>
+      <c r="AL22" s="24"/>
+      <c r="AM22" s="24"/>
       <c r="AN22" s="25"/>
       <c r="AO22" s="26"/>
-      <c r="AP22" s="116"/>
-      <c r="AQ22" s="64"/>
+      <c r="AP22" s="24"/>
+      <c r="AQ22" s="24"/>
       <c r="AR22" s="64"/>
       <c r="AS22" s="64"/>
       <c r="AT22" s="64"/>
@@ -4956,12 +5250,12 @@
       <c r="BN22" s="77"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="140"/>
+      <c r="A23" s="163"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="163"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="185"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4984,7 +5278,7 @@
       <c r="Z23" s="17"/>
       <c r="AA23" s="23"/>
       <c r="AB23" s="23"/>
-      <c r="AC23" s="68"/>
+      <c r="AC23" s="99"/>
       <c r="AD23" s="68"/>
       <c r="AE23" s="68"/>
       <c r="AF23" s="68"/>
@@ -5024,20 +5318,20 @@
       <c r="BN23" s="78"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="139">
+      <c r="A24" s="162">
         <v>11</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="146" t="s">
+      <c r="C24" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="147"/>
-      <c r="E24" s="134" t="s">
+      <c r="D24" s="170"/>
+      <c r="E24" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="160"/>
+      <c r="F24" s="182"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5066,14 +5360,14 @@
       <c r="AF24" s="65"/>
       <c r="AG24" s="15"/>
       <c r="AH24" s="21"/>
-      <c r="AI24" s="63"/>
-      <c r="AJ24" s="113"/>
+      <c r="AI24" s="60"/>
+      <c r="AJ24" s="112"/>
       <c r="AK24" s="63"/>
       <c r="AL24" s="63"/>
       <c r="AM24" s="63"/>
       <c r="AN24" s="15"/>
       <c r="AO24" s="21"/>
-      <c r="AP24" s="60"/>
+      <c r="AP24" s="65"/>
       <c r="AQ24" s="65"/>
       <c r="AR24" s="65"/>
       <c r="AS24" s="65"/>
@@ -5081,7 +5375,7 @@
       <c r="AU24" s="15"/>
       <c r="AV24" s="21"/>
       <c r="AW24" s="21"/>
-      <c r="AX24" s="116"/>
+      <c r="AX24" s="65"/>
       <c r="AY24" s="65"/>
       <c r="AZ24" s="65"/>
       <c r="BA24" s="65"/>
@@ -5100,14 +5394,14 @@
       <c r="BN24" s="79"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="140"/>
+      <c r="A25" s="163"/>
       <c r="B25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="123"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="159"/>
-      <c r="F25" s="161"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="183"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5143,7 +5437,7 @@
       <c r="AM25" s="63"/>
       <c r="AN25" s="13"/>
       <c r="AO25" s="19"/>
-      <c r="AP25" s="117"/>
+      <c r="AP25" s="115"/>
       <c r="AQ25" s="63"/>
       <c r="AR25" s="63"/>
       <c r="AS25" s="63"/>
@@ -5170,18 +5464,18 @@
       <c r="BN25" s="80"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="139">
+      <c r="A26" s="162">
         <v>12</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="121" t="s">
+      <c r="C26" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="122"/>
-      <c r="E26" s="131" t="s">
+      <c r="D26" s="143"/>
+      <c r="E26" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="133"/>
+      <c r="F26" s="154"/>
       <c r="G26" s="50"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -5211,21 +5505,21 @@
       <c r="AG26" s="16"/>
       <c r="AH26" s="22"/>
       <c r="AI26" s="63"/>
-      <c r="AJ26" s="80"/>
-      <c r="AK26" s="90"/>
+      <c r="AJ26" s="98"/>
+      <c r="AK26" s="122"/>
       <c r="AL26" s="63"/>
       <c r="AM26" s="63"/>
       <c r="AN26" s="16"/>
       <c r="AO26" s="22"/>
-      <c r="AP26" s="63"/>
+      <c r="AP26" s="110"/>
       <c r="AQ26" s="30"/>
-      <c r="AR26" s="30"/>
+      <c r="AR26" s="63"/>
       <c r="AS26" s="63"/>
       <c r="AT26" s="62"/>
       <c r="AU26" s="16"/>
       <c r="AV26" s="22"/>
       <c r="AW26" s="22"/>
-      <c r="AX26" s="116"/>
+      <c r="AX26" s="63"/>
       <c r="AY26" s="62"/>
       <c r="AZ26" s="62"/>
       <c r="BA26" s="62"/>
@@ -5244,12 +5538,12 @@
       <c r="BN26" s="80"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="140"/>
+      <c r="A27" s="163"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="119"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="140"/>
       <c r="G27" s="51"/>
       <c r="H27" s="94"/>
       <c r="I27" s="7"/>
@@ -5312,18 +5606,18 @@
       <c r="BN27" s="80"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="139">
+      <c r="A28" s="162">
         <v>13</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="136" t="s">
+      <c r="C28" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="137"/>
-      <c r="E28" s="138" t="s">
+      <c r="D28" s="160"/>
+      <c r="E28" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="118"/>
+      <c r="F28" s="139"/>
       <c r="G28" s="50"/>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
@@ -5355,19 +5649,19 @@
       <c r="AI28" s="63"/>
       <c r="AJ28" s="80"/>
       <c r="AK28" s="90"/>
-      <c r="AL28" s="63"/>
-      <c r="AM28" s="63"/>
+      <c r="AL28" s="30"/>
+      <c r="AM28" s="30"/>
       <c r="AN28" s="13"/>
       <c r="AO28" s="19"/>
-      <c r="AP28" s="63"/>
-      <c r="AQ28" s="63"/>
-      <c r="AR28" s="30"/>
-      <c r="AS28" s="30"/>
+      <c r="AP28" s="110"/>
+      <c r="AQ28" s="30"/>
+      <c r="AR28" s="63"/>
+      <c r="AS28" s="63"/>
       <c r="AT28" s="63"/>
       <c r="AU28" s="13"/>
       <c r="AV28" s="19"/>
       <c r="AW28" s="19"/>
-      <c r="AX28" s="116"/>
+      <c r="AX28" s="63"/>
       <c r="AY28" s="63"/>
       <c r="AZ28" s="63"/>
       <c r="BA28" s="63"/>
@@ -5386,12 +5680,12 @@
       <c r="BN28" s="80"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="140"/>
+      <c r="A29" s="163"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="119"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="140"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="94"/>
@@ -5435,7 +5729,7 @@
       <c r="AU29" s="13"/>
       <c r="AV29" s="19"/>
       <c r="AW29" s="19"/>
-      <c r="AX29" s="115"/>
+      <c r="AX29" s="63"/>
       <c r="AY29" s="63"/>
       <c r="AZ29" s="63"/>
       <c r="BA29" s="63"/>
@@ -5454,18 +5748,18 @@
       <c r="BN29" s="80"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="139">
+      <c r="A30" s="162">
         <v>14</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="136" t="s">
+      <c r="C30" s="159" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="137"/>
-      <c r="E30" s="138" t="s">
+      <c r="D30" s="160"/>
+      <c r="E30" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="118"/>
+      <c r="F30" s="139"/>
       <c r="G30" s="50"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -5502,15 +5796,15 @@
       <c r="AN30" s="13"/>
       <c r="AO30" s="19"/>
       <c r="AP30" s="63"/>
-      <c r="AQ30" s="63"/>
-      <c r="AR30" s="63"/>
-      <c r="AS30" s="30"/>
-      <c r="AT30" s="30"/>
+      <c r="AQ30" s="30"/>
+      <c r="AR30" s="30"/>
+      <c r="AS30" s="63"/>
+      <c r="AT30" s="63"/>
       <c r="AU30" s="13"/>
       <c r="AV30" s="19"/>
       <c r="AW30" s="19"/>
-      <c r="AX30" s="116"/>
-      <c r="AY30" s="63"/>
+      <c r="AX30" s="110"/>
+      <c r="AY30" s="30"/>
       <c r="AZ30" s="63"/>
       <c r="BA30" s="63"/>
       <c r="BB30" s="13"/>
@@ -5528,12 +5822,12 @@
       <c r="BN30" s="80"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="140"/>
+      <c r="A31" s="163"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="159"/>
-      <c r="F31" s="119"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="140"/>
       <c r="G31" s="51"/>
       <c r="H31" s="94"/>
       <c r="I31" s="7"/>
@@ -5577,7 +5871,7 @@
       <c r="AU31" s="13"/>
       <c r="AV31" s="19"/>
       <c r="AW31" s="19"/>
-      <c r="AX31" s="115"/>
+      <c r="AX31" s="113"/>
       <c r="AY31" s="63"/>
       <c r="AZ31" s="63"/>
       <c r="BA31" s="63"/>
@@ -5596,18 +5890,18 @@
       <c r="BN31" s="80"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="139">
+      <c r="A32" s="162">
         <v>15</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="136" t="s">
+      <c r="C32" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="137"/>
-      <c r="E32" s="131" t="s">
+      <c r="D32" s="160"/>
+      <c r="E32" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="118"/>
+      <c r="F32" s="139"/>
       <c r="G32" s="52"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5639,25 +5933,25 @@
       <c r="AI32" s="64"/>
       <c r="AJ32" s="77"/>
       <c r="AK32" s="87"/>
-      <c r="AL32" s="64"/>
+      <c r="AL32" s="63"/>
       <c r="AM32" s="64"/>
       <c r="AN32" s="25"/>
       <c r="AO32" s="26"/>
       <c r="AP32" s="64"/>
       <c r="AQ32" s="64"/>
-      <c r="AR32" s="64"/>
-      <c r="AS32" s="64"/>
-      <c r="AT32" s="64"/>
+      <c r="AR32" s="30"/>
+      <c r="AS32" s="30"/>
+      <c r="AT32" s="30"/>
       <c r="AU32" s="25"/>
       <c r="AV32" s="26"/>
       <c r="AW32" s="26"/>
-      <c r="AX32" s="30"/>
+      <c r="AX32" s="110"/>
       <c r="AY32" s="30"/>
       <c r="AZ32" s="63"/>
       <c r="BA32" s="63"/>
       <c r="BB32" s="25"/>
       <c r="BC32" s="26"/>
-      <c r="BD32" s="110"/>
+      <c r="BD32" s="63"/>
       <c r="BE32" s="64"/>
       <c r="BF32" s="64"/>
       <c r="BG32" s="64"/>
@@ -5670,12 +5964,12 @@
       <c r="BN32" s="77"/>
     </row>
     <row r="33" spans="1:67" ht="12" customHeight="1">
-      <c r="A33" s="140"/>
+      <c r="A33" s="163"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="119"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="140"/>
       <c r="G33" s="52"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5721,7 +6015,7 @@
       <c r="AW33" s="26"/>
       <c r="AX33" s="63"/>
       <c r="AY33" s="64"/>
-      <c r="AZ33" s="64"/>
+      <c r="AZ33" s="63"/>
       <c r="BA33" s="63"/>
       <c r="BB33" s="25"/>
       <c r="BC33" s="26"/>
@@ -5738,18 +6032,18 @@
       <c r="BN33" s="77"/>
     </row>
     <row r="34" spans="1:67" ht="12" customHeight="1">
-      <c r="A34" s="139">
+      <c r="A34" s="162">
         <v>16</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="136" t="s">
+      <c r="C34" s="159" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="137"/>
-      <c r="E34" s="138" t="s">
+      <c r="D34" s="160"/>
+      <c r="E34" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="118"/>
+      <c r="F34" s="139"/>
       <c r="G34" s="52"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5789,18 +6083,18 @@
       <c r="AQ34" s="64"/>
       <c r="AR34" s="64"/>
       <c r="AS34" s="64"/>
-      <c r="AT34" s="64"/>
+      <c r="AT34" s="30"/>
       <c r="AU34" s="25"/>
       <c r="AV34" s="26"/>
       <c r="AW34" s="26"/>
-      <c r="AX34" s="64"/>
+      <c r="AX34" s="30"/>
       <c r="AY34" s="30"/>
-      <c r="AZ34" s="30"/>
+      <c r="AZ34" s="63"/>
       <c r="BA34" s="63"/>
       <c r="BB34" s="25"/>
       <c r="BC34" s="26"/>
       <c r="BD34" s="110"/>
-      <c r="BE34" s="64"/>
+      <c r="BE34" s="30"/>
       <c r="BF34" s="64"/>
       <c r="BG34" s="64"/>
       <c r="BH34" s="64"/>
@@ -5812,12 +6106,12 @@
       <c r="BN34" s="77"/>
     </row>
     <row r="35" spans="1:67" ht="12" customHeight="1">
-      <c r="A35" s="140"/>
+      <c r="A35" s="163"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="119"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="140"/>
       <c r="G35" s="52"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5880,18 +6174,18 @@
       <c r="BN35" s="77"/>
     </row>
     <row r="36" spans="1:67" ht="12" customHeight="1">
-      <c r="A36" s="139">
+      <c r="A36" s="162">
         <v>17</v>
       </c>
       <c r="B36" s="36"/>
-      <c r="C36" s="136" t="s">
+      <c r="C36" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="137"/>
-      <c r="E36" s="138" t="s">
+      <c r="D36" s="160"/>
+      <c r="E36" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="118"/>
+      <c r="F36" s="139"/>
       <c r="G36" s="52"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5936,13 +6230,13 @@
       <c r="AV36" s="26"/>
       <c r="AW36" s="26"/>
       <c r="AX36" s="64"/>
-      <c r="AY36" s="64"/>
+      <c r="AY36" s="30"/>
       <c r="AZ36" s="30"/>
       <c r="BA36" s="30"/>
       <c r="BB36" s="25"/>
       <c r="BC36" s="26"/>
       <c r="BD36" s="110"/>
-      <c r="BE36" s="64"/>
+      <c r="BE36" s="30"/>
       <c r="BF36" s="64"/>
       <c r="BG36" s="64"/>
       <c r="BH36" s="64"/>
@@ -5954,12 +6248,12 @@
       <c r="BN36" s="77"/>
     </row>
     <row r="37" spans="1:67" ht="12" customHeight="1">
-      <c r="A37" s="140"/>
+      <c r="A37" s="163"/>
       <c r="B37" s="36"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="142"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="120"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="165"/>
+      <c r="E37" s="161"/>
+      <c r="F37" s="141"/>
       <c r="G37" s="52"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -6022,20 +6316,20 @@
       <c r="BN37" s="77"/>
     </row>
     <row r="38" spans="1:67" ht="12" customHeight="1">
-      <c r="A38" s="139">
+      <c r="A38" s="162">
         <v>18</v>
       </c>
       <c r="B38" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="153" t="s">
+      <c r="C38" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="154"/>
-      <c r="E38" s="134" t="s">
+      <c r="D38" s="177"/>
+      <c r="E38" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="157"/>
+      <c r="F38" s="180"/>
       <c r="G38" s="38"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -6093,17 +6387,17 @@
       <c r="BI38" s="15"/>
       <c r="BJ38" s="21"/>
       <c r="BK38" s="111"/>
-      <c r="BL38" s="62"/>
+      <c r="BL38" s="60"/>
       <c r="BM38" s="62"/>
       <c r="BN38" s="79"/>
     </row>
     <row r="39" spans="1:67" ht="12" customHeight="1">
-      <c r="A39" s="140"/>
+      <c r="A39" s="163"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="155"/>
-      <c r="D39" s="156"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="158"/>
+      <c r="C39" s="178"/>
+      <c r="D39" s="179"/>
+      <c r="E39" s="161"/>
+      <c r="F39" s="181"/>
       <c r="G39" s="51"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -6166,20 +6460,20 @@
       <c r="BN39" s="78"/>
     </row>
     <row r="40" spans="1:67" ht="12" customHeight="1">
-      <c r="A40" s="139">
+      <c r="A40" s="162">
         <v>19</v>
       </c>
-      <c r="B40" s="144" t="s">
+      <c r="B40" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="146" t="s">
+      <c r="C40" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="147"/>
-      <c r="E40" s="132" t="s">
+      <c r="D40" s="170"/>
+      <c r="E40" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="151"/>
+      <c r="F40" s="174"/>
       <c r="G40" s="38"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -6243,12 +6537,12 @@
       <c r="BO40" s="100"/>
     </row>
     <row r="41" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A41" s="143"/>
-      <c r="B41" s="145"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="152"/>
+      <c r="A41" s="166"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="171"/>
+      <c r="D41" s="172"/>
+      <c r="E41" s="173"/>
+      <c r="F41" s="175"/>
       <c r="G41" s="39"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -6435,7 +6729,3536 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F5DA1E-9A93-41B8-8787-365DAC723AA7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BO47"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12:P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="3" customWidth="1"/>
+    <col min="7" max="30" width="3.109375" style="3" customWidth="1"/>
+    <col min="31" max="66" width="3.109375" style="1" customWidth="1"/>
+    <col min="67" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:66" ht="10.5" customHeight="1">
+      <c r="A1" s="199" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="202" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="206"/>
+      <c r="E1" s="211" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="213" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="196">
+        <v>45536</v>
+      </c>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="197"/>
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="197"/>
+      <c r="AA1" s="197"/>
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="197"/>
+      <c r="AD1" s="197"/>
+      <c r="AE1" s="197"/>
+      <c r="AF1" s="197"/>
+      <c r="AG1" s="197"/>
+      <c r="AH1" s="197"/>
+      <c r="AI1" s="197"/>
+      <c r="AJ1" s="198"/>
+      <c r="AK1" s="196">
+        <v>45566</v>
+      </c>
+      <c r="AL1" s="197"/>
+      <c r="AM1" s="197"/>
+      <c r="AN1" s="197"/>
+      <c r="AO1" s="197"/>
+      <c r="AP1" s="197"/>
+      <c r="AQ1" s="197"/>
+      <c r="AR1" s="197"/>
+      <c r="AS1" s="197"/>
+      <c r="AT1" s="197"/>
+      <c r="AU1" s="197"/>
+      <c r="AV1" s="197"/>
+      <c r="AW1" s="197"/>
+      <c r="AX1" s="197"/>
+      <c r="AY1" s="197"/>
+      <c r="AZ1" s="197"/>
+      <c r="BA1" s="197"/>
+      <c r="BB1" s="197"/>
+      <c r="BC1" s="197"/>
+      <c r="BD1" s="197"/>
+      <c r="BE1" s="197"/>
+      <c r="BF1" s="197"/>
+      <c r="BG1" s="197"/>
+      <c r="BH1" s="197"/>
+      <c r="BI1" s="197"/>
+      <c r="BJ1" s="197"/>
+      <c r="BK1" s="197"/>
+      <c r="BL1" s="197"/>
+      <c r="BM1" s="197"/>
+      <c r="BN1" s="198"/>
+    </row>
+    <row r="2" spans="1:66" ht="10.5" customHeight="1">
+      <c r="A2" s="200"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="46">
+        <v>45537</v>
+      </c>
+      <c r="H2" s="4">
+        <f>G2+1</f>
+        <v>45538</v>
+      </c>
+      <c r="I2" s="4">
+        <f t="shared" ref="I2:BN2" si="0">H2+1</f>
+        <v>45539</v>
+      </c>
+      <c r="J2" s="4">
+        <f t="shared" si="0"/>
+        <v>45540</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" si="0"/>
+        <v>45541</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" si="0"/>
+        <v>45542</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="shared" si="0"/>
+        <v>45543</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" si="0"/>
+        <v>45544</v>
+      </c>
+      <c r="O2" s="4">
+        <f t="shared" si="0"/>
+        <v>45545</v>
+      </c>
+      <c r="P2" s="4">
+        <f t="shared" si="0"/>
+        <v>45546</v>
+      </c>
+      <c r="Q2" s="4">
+        <f t="shared" si="0"/>
+        <v>45547</v>
+      </c>
+      <c r="R2" s="4">
+        <f t="shared" si="0"/>
+        <v>45548</v>
+      </c>
+      <c r="S2" s="4">
+        <f t="shared" si="0"/>
+        <v>45549</v>
+      </c>
+      <c r="T2" s="4">
+        <f t="shared" si="0"/>
+        <v>45550</v>
+      </c>
+      <c r="U2" s="4">
+        <f t="shared" si="0"/>
+        <v>45551</v>
+      </c>
+      <c r="V2" s="4">
+        <f t="shared" si="0"/>
+        <v>45552</v>
+      </c>
+      <c r="W2" s="4">
+        <f t="shared" si="0"/>
+        <v>45553</v>
+      </c>
+      <c r="X2" s="4">
+        <f t="shared" si="0"/>
+        <v>45554</v>
+      </c>
+      <c r="Y2" s="4">
+        <f t="shared" si="0"/>
+        <v>45555</v>
+      </c>
+      <c r="Z2" s="4">
+        <f t="shared" si="0"/>
+        <v>45556</v>
+      </c>
+      <c r="AA2" s="4">
+        <f t="shared" si="0"/>
+        <v>45557</v>
+      </c>
+      <c r="AB2" s="4">
+        <f t="shared" si="0"/>
+        <v>45558</v>
+      </c>
+      <c r="AC2" s="4">
+        <f t="shared" si="0"/>
+        <v>45559</v>
+      </c>
+      <c r="AD2" s="4">
+        <f t="shared" si="0"/>
+        <v>45560</v>
+      </c>
+      <c r="AE2" s="4">
+        <f t="shared" si="0"/>
+        <v>45561</v>
+      </c>
+      <c r="AF2" s="4">
+        <f t="shared" si="0"/>
+        <v>45562</v>
+      </c>
+      <c r="AG2" s="4">
+        <f t="shared" si="0"/>
+        <v>45563</v>
+      </c>
+      <c r="AH2" s="4">
+        <f t="shared" si="0"/>
+        <v>45564</v>
+      </c>
+      <c r="AI2" s="4">
+        <f t="shared" si="0"/>
+        <v>45565</v>
+      </c>
+      <c r="AJ2" s="47">
+        <f t="shared" si="0"/>
+        <v>45566</v>
+      </c>
+      <c r="AK2" s="46">
+        <f t="shared" si="0"/>
+        <v>45567</v>
+      </c>
+      <c r="AL2" s="4">
+        <f t="shared" si="0"/>
+        <v>45568</v>
+      </c>
+      <c r="AM2" s="4">
+        <f t="shared" si="0"/>
+        <v>45569</v>
+      </c>
+      <c r="AN2" s="4">
+        <f t="shared" si="0"/>
+        <v>45570</v>
+      </c>
+      <c r="AO2" s="4">
+        <f t="shared" si="0"/>
+        <v>45571</v>
+      </c>
+      <c r="AP2" s="4">
+        <f t="shared" si="0"/>
+        <v>45572</v>
+      </c>
+      <c r="AQ2" s="4">
+        <f t="shared" si="0"/>
+        <v>45573</v>
+      </c>
+      <c r="AR2" s="4">
+        <f t="shared" si="0"/>
+        <v>45574</v>
+      </c>
+      <c r="AS2" s="4">
+        <f t="shared" si="0"/>
+        <v>45575</v>
+      </c>
+      <c r="AT2" s="4">
+        <f t="shared" si="0"/>
+        <v>45576</v>
+      </c>
+      <c r="AU2" s="4">
+        <f t="shared" si="0"/>
+        <v>45577</v>
+      </c>
+      <c r="AV2" s="4">
+        <f t="shared" si="0"/>
+        <v>45578</v>
+      </c>
+      <c r="AW2" s="4">
+        <f t="shared" si="0"/>
+        <v>45579</v>
+      </c>
+      <c r="AX2" s="4">
+        <f t="shared" si="0"/>
+        <v>45580</v>
+      </c>
+      <c r="AY2" s="4">
+        <f t="shared" si="0"/>
+        <v>45581</v>
+      </c>
+      <c r="AZ2" s="4">
+        <f t="shared" si="0"/>
+        <v>45582</v>
+      </c>
+      <c r="BA2" s="4">
+        <f t="shared" si="0"/>
+        <v>45583</v>
+      </c>
+      <c r="BB2" s="4">
+        <f t="shared" si="0"/>
+        <v>45584</v>
+      </c>
+      <c r="BC2" s="4">
+        <f t="shared" si="0"/>
+        <v>45585</v>
+      </c>
+      <c r="BD2" s="4">
+        <f t="shared" si="0"/>
+        <v>45586</v>
+      </c>
+      <c r="BE2" s="4">
+        <f t="shared" si="0"/>
+        <v>45587</v>
+      </c>
+      <c r="BF2" s="4">
+        <f t="shared" si="0"/>
+        <v>45588</v>
+      </c>
+      <c r="BG2" s="4">
+        <f t="shared" si="0"/>
+        <v>45589</v>
+      </c>
+      <c r="BH2" s="4">
+        <f t="shared" si="0"/>
+        <v>45590</v>
+      </c>
+      <c r="BI2" s="4">
+        <f t="shared" si="0"/>
+        <v>45591</v>
+      </c>
+      <c r="BJ2" s="4">
+        <f t="shared" si="0"/>
+        <v>45592</v>
+      </c>
+      <c r="BK2" s="4">
+        <f t="shared" si="0"/>
+        <v>45593</v>
+      </c>
+      <c r="BL2" s="4">
+        <f t="shared" si="0"/>
+        <v>45594</v>
+      </c>
+      <c r="BM2" s="4">
+        <f t="shared" si="0"/>
+        <v>45595</v>
+      </c>
+      <c r="BN2" s="47">
+        <f t="shared" si="0"/>
+        <v>45596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A3" s="201"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH3" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ3" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK3" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN3" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO3" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP3" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR3" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU3" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV3" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW3" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY3" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB3" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC3" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD3" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF3" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="BI3" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ3" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK3" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="BL3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="BM3" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="BN3" s="70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A4" s="191">
+        <v>1</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="192" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="193"/>
+      <c r="E4" s="161" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="194"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="82"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="18"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="18"/>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="10"/>
+      <c r="BF4" s="10"/>
+      <c r="BG4" s="10"/>
+      <c r="BH4" s="10"/>
+      <c r="BI4" s="12"/>
+      <c r="BJ4" s="18"/>
+      <c r="BK4" s="10"/>
+      <c r="BL4" s="10"/>
+      <c r="BM4" s="10"/>
+      <c r="BN4" s="71"/>
+    </row>
+    <row r="5" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A5" s="163"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="195"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="117"/>
+      <c r="AK5" s="83"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="22"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="22"/>
+      <c r="AW5" s="22"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="16"/>
+      <c r="BC5" s="22"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="16"/>
+      <c r="BJ5" s="22"/>
+      <c r="BK5" s="9"/>
+      <c r="BL5" s="9"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="117"/>
+    </row>
+    <row r="6" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A6" s="162">
+        <v>2</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="159" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="160"/>
+      <c r="E6" s="155" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="188"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="84"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+      <c r="BB6" s="13"/>
+      <c r="BC6" s="19"/>
+      <c r="BD6" s="7"/>
+      <c r="BE6" s="7"/>
+      <c r="BF6" s="7"/>
+      <c r="BG6" s="7"/>
+      <c r="BH6" s="7"/>
+      <c r="BI6" s="13"/>
+      <c r="BJ6" s="19"/>
+      <c r="BK6" s="7"/>
+      <c r="BL6" s="7"/>
+      <c r="BM6" s="7"/>
+      <c r="BN6" s="73"/>
+    </row>
+    <row r="7" spans="1:66" ht="13.2" customHeight="1">
+      <c r="A7" s="163"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="96"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="17"/>
+      <c r="AO7" s="23"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="17"/>
+      <c r="AV7" s="23"/>
+      <c r="AW7" s="23"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="24"/>
+      <c r="BA7" s="24"/>
+      <c r="BB7" s="25"/>
+      <c r="BC7" s="26"/>
+      <c r="BD7" s="24"/>
+      <c r="BE7" s="24"/>
+      <c r="BF7" s="24"/>
+      <c r="BG7" s="24"/>
+      <c r="BH7" s="24"/>
+      <c r="BI7" s="25"/>
+      <c r="BJ7" s="26"/>
+      <c r="BK7" s="24"/>
+      <c r="BL7" s="24"/>
+      <c r="BM7" s="24"/>
+      <c r="BN7" s="116"/>
+    </row>
+    <row r="8" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A8" s="190">
+        <v>3</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="146" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="147"/>
+      <c r="E8" s="152" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="154"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="110"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="117"/>
+      <c r="AK8" s="83"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="22"/>
+      <c r="AW8" s="22"/>
+      <c r="AX8" s="108"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="15"/>
+      <c r="BC8" s="21"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="15"/>
+      <c r="BJ8" s="21"/>
+      <c r="BK8" s="6"/>
+      <c r="BL8" s="6"/>
+      <c r="BM8" s="6"/>
+      <c r="BN8" s="75"/>
+    </row>
+    <row r="9" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A9" s="163"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="73"/>
+      <c r="AK9" s="84"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="13"/>
+      <c r="BC9" s="19"/>
+      <c r="BD9" s="7"/>
+      <c r="BE9" s="7"/>
+      <c r="BF9" s="7"/>
+      <c r="BG9" s="7"/>
+      <c r="BH9" s="7"/>
+      <c r="BI9" s="13"/>
+      <c r="BJ9" s="19"/>
+      <c r="BK9" s="7"/>
+      <c r="BL9" s="7"/>
+      <c r="BM9" s="7"/>
+      <c r="BN9" s="73"/>
+    </row>
+    <row r="10" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A10" s="162">
+        <v>4</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="146" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="147"/>
+      <c r="E10" s="161" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="139"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="110"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="73"/>
+      <c r="AK10" s="84"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="13"/>
+      <c r="BC10" s="19"/>
+      <c r="BD10" s="7"/>
+      <c r="BE10" s="7"/>
+      <c r="BF10" s="7"/>
+      <c r="BG10" s="7"/>
+      <c r="BH10" s="7"/>
+      <c r="BI10" s="13"/>
+      <c r="BJ10" s="19"/>
+      <c r="BK10" s="7"/>
+      <c r="BL10" s="7"/>
+      <c r="BM10" s="7"/>
+      <c r="BN10" s="73"/>
+    </row>
+    <row r="11" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A11" s="163"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="73"/>
+      <c r="AK11" s="84"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="19"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="19"/>
+      <c r="AW11" s="19"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="13"/>
+      <c r="BC11" s="19"/>
+      <c r="BD11" s="7"/>
+      <c r="BE11" s="7"/>
+      <c r="BF11" s="7"/>
+      <c r="BG11" s="7"/>
+      <c r="BH11" s="7"/>
+      <c r="BI11" s="13"/>
+      <c r="BJ11" s="19"/>
+      <c r="BK11" s="7"/>
+      <c r="BL11" s="7"/>
+      <c r="BM11" s="7"/>
+      <c r="BN11" s="73"/>
+    </row>
+    <row r="12" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A12" s="162">
+        <v>5</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="146" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="147"/>
+      <c r="E12" s="157" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="139"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="84"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="19"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="13"/>
+      <c r="BC12" s="19"/>
+      <c r="BD12" s="7"/>
+      <c r="BE12" s="7"/>
+      <c r="BF12" s="7"/>
+      <c r="BG12" s="7"/>
+      <c r="BH12" s="7"/>
+      <c r="BI12" s="13"/>
+      <c r="BJ12" s="19"/>
+      <c r="BK12" s="7"/>
+      <c r="BL12" s="7"/>
+      <c r="BM12" s="7"/>
+      <c r="BN12" s="73"/>
+    </row>
+    <row r="13" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A13" s="163"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="43"/>
+      <c r="AJ13" s="118"/>
+      <c r="AK13" s="86"/>
+      <c r="AL13" s="43"/>
+      <c r="AM13" s="43"/>
+      <c r="AN13" s="44"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="43"/>
+      <c r="AQ13" s="43"/>
+      <c r="AR13" s="43"/>
+      <c r="AS13" s="43"/>
+      <c r="AT13" s="43"/>
+      <c r="AU13" s="44"/>
+      <c r="AV13" s="45"/>
+      <c r="AW13" s="45"/>
+      <c r="AX13" s="43"/>
+      <c r="AY13" s="43"/>
+      <c r="AZ13" s="43"/>
+      <c r="BA13" s="43"/>
+      <c r="BB13" s="44"/>
+      <c r="BC13" s="45"/>
+      <c r="BD13" s="43"/>
+      <c r="BE13" s="43"/>
+      <c r="BF13" s="43"/>
+      <c r="BG13" s="43"/>
+      <c r="BH13" s="43"/>
+      <c r="BI13" s="44"/>
+      <c r="BJ13" s="45"/>
+      <c r="BK13" s="43"/>
+      <c r="BL13" s="43"/>
+      <c r="BM13" s="43"/>
+      <c r="BN13" s="96"/>
+    </row>
+    <row r="14" spans="1:66" ht="12" customHeight="1">
+      <c r="A14" s="162">
+        <v>6</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="147"/>
+      <c r="E14" s="153" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="186"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="111"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="117"/>
+      <c r="AK14" s="83"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="22"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="22"/>
+      <c r="AW14" s="22"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="16"/>
+      <c r="BC14" s="22"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
+      <c r="BG14" s="9"/>
+      <c r="BH14" s="9"/>
+      <c r="BI14" s="16"/>
+      <c r="BJ14" s="22"/>
+      <c r="BK14" s="9"/>
+      <c r="BL14" s="9"/>
+      <c r="BM14" s="9"/>
+      <c r="BN14" s="117"/>
+    </row>
+    <row r="15" spans="1:66" ht="12" customHeight="1">
+      <c r="A15" s="163"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="130"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="117"/>
+      <c r="AK15" s="83"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="16"/>
+      <c r="AO15" s="22"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="16"/>
+      <c r="AV15" s="22"/>
+      <c r="AW15" s="22"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="16"/>
+      <c r="BC15" s="22"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
+      <c r="BF15" s="9"/>
+      <c r="BG15" s="9"/>
+      <c r="BH15" s="9"/>
+      <c r="BI15" s="16"/>
+      <c r="BJ15" s="22"/>
+      <c r="BK15" s="9"/>
+      <c r="BL15" s="9"/>
+      <c r="BM15" s="9"/>
+      <c r="BN15" s="117"/>
+    </row>
+    <row r="16" spans="1:66" ht="12" customHeight="1">
+      <c r="A16" s="162">
+        <v>7</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="159" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="160"/>
+      <c r="E16" s="157" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="184"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="114"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="117"/>
+      <c r="AK16" s="83"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="19"/>
+      <c r="AP16" s="7"/>
+      <c r="AQ16" s="7"/>
+      <c r="AR16" s="7"/>
+      <c r="AS16" s="7"/>
+      <c r="AT16" s="7"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="19"/>
+      <c r="AW16" s="19"/>
+      <c r="AX16" s="7"/>
+      <c r="AY16" s="7"/>
+      <c r="AZ16" s="7"/>
+      <c r="BA16" s="7"/>
+      <c r="BB16" s="13"/>
+      <c r="BC16" s="19"/>
+      <c r="BD16" s="7"/>
+      <c r="BE16" s="7"/>
+      <c r="BF16" s="7"/>
+      <c r="BG16" s="7"/>
+      <c r="BH16" s="7"/>
+      <c r="BI16" s="13"/>
+      <c r="BJ16" s="19"/>
+      <c r="BK16" s="7"/>
+      <c r="BL16" s="7"/>
+      <c r="BM16" s="7"/>
+      <c r="BN16" s="73"/>
+    </row>
+    <row r="17" spans="1:66" ht="12" customHeight="1">
+      <c r="A17" s="163"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="43"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="101"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="23"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="117"/>
+      <c r="AK17" s="83"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="25"/>
+      <c r="AO17" s="26"/>
+      <c r="AP17" s="24"/>
+      <c r="AQ17" s="24"/>
+      <c r="AR17" s="24"/>
+      <c r="AS17" s="24"/>
+      <c r="AT17" s="24"/>
+      <c r="AU17" s="25"/>
+      <c r="AV17" s="26"/>
+      <c r="AW17" s="26"/>
+      <c r="AX17" s="24"/>
+      <c r="AY17" s="24"/>
+      <c r="AZ17" s="24"/>
+      <c r="BA17" s="24"/>
+      <c r="BB17" s="25"/>
+      <c r="BC17" s="26"/>
+      <c r="BD17" s="24"/>
+      <c r="BE17" s="24"/>
+      <c r="BF17" s="24"/>
+      <c r="BG17" s="24"/>
+      <c r="BH17" s="24"/>
+      <c r="BI17" s="25"/>
+      <c r="BJ17" s="26"/>
+      <c r="BK17" s="24"/>
+      <c r="BL17" s="24"/>
+      <c r="BM17" s="24"/>
+      <c r="BN17" s="116"/>
+    </row>
+    <row r="18" spans="1:66" ht="12" customHeight="1">
+      <c r="A18" s="162">
+        <v>8</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="169" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="170"/>
+      <c r="E18" s="161" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="182"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="60"/>
+      <c r="AD18" s="60"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="60"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="114"/>
+      <c r="AJ18" s="98"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="21"/>
+      <c r="AP18" s="111"/>
+      <c r="AQ18" s="60"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="15"/>
+      <c r="AV18" s="21"/>
+      <c r="AW18" s="21"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="15"/>
+      <c r="BC18" s="21"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
+      <c r="BH18" s="6"/>
+      <c r="BI18" s="15"/>
+      <c r="BJ18" s="21"/>
+      <c r="BK18" s="6"/>
+      <c r="BL18" s="6"/>
+      <c r="BM18" s="6"/>
+      <c r="BN18" s="75"/>
+    </row>
+    <row r="19" spans="1:66" ht="12" customHeight="1">
+      <c r="A19" s="163"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="183"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="136"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="73"/>
+      <c r="AK19" s="85"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="24"/>
+      <c r="AN19" s="25"/>
+      <c r="AO19" s="26"/>
+      <c r="AP19" s="24"/>
+      <c r="AQ19" s="24"/>
+      <c r="AR19" s="24"/>
+      <c r="AS19" s="24"/>
+      <c r="AT19" s="24"/>
+      <c r="AU19" s="25"/>
+      <c r="AV19" s="26"/>
+      <c r="AW19" s="26"/>
+      <c r="AX19" s="24"/>
+      <c r="AY19" s="24"/>
+      <c r="AZ19" s="24"/>
+      <c r="BA19" s="24"/>
+      <c r="BB19" s="25"/>
+      <c r="BC19" s="26"/>
+      <c r="BD19" s="24"/>
+      <c r="BE19" s="24"/>
+      <c r="BF19" s="24"/>
+      <c r="BG19" s="24"/>
+      <c r="BH19" s="24"/>
+      <c r="BI19" s="25"/>
+      <c r="BJ19" s="26"/>
+      <c r="BK19" s="24"/>
+      <c r="BL19" s="24"/>
+      <c r="BM19" s="24"/>
+      <c r="BN19" s="116"/>
+    </row>
+    <row r="20" spans="1:66" ht="12" customHeight="1">
+      <c r="A20" s="162">
+        <v>9</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="159" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="160"/>
+      <c r="E20" s="155" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="184"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="24"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="30"/>
+      <c r="AJ20" s="98"/>
+      <c r="AK20" s="24"/>
+      <c r="AL20" s="24"/>
+      <c r="AM20" s="24"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="114"/>
+      <c r="AQ20" s="30"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="19"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="7"/>
+      <c r="AZ20" s="7"/>
+      <c r="BA20" s="7"/>
+      <c r="BB20" s="13"/>
+      <c r="BC20" s="19"/>
+      <c r="BD20" s="7"/>
+      <c r="BE20" s="7"/>
+      <c r="BF20" s="7"/>
+      <c r="BG20" s="7"/>
+      <c r="BH20" s="7"/>
+      <c r="BI20" s="13"/>
+      <c r="BJ20" s="19"/>
+      <c r="BK20" s="7"/>
+      <c r="BL20" s="7"/>
+      <c r="BM20" s="7"/>
+      <c r="BN20" s="73"/>
+    </row>
+    <row r="21" spans="1:66" ht="12" customHeight="1">
+      <c r="A21" s="163"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="183"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="94"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="24"/>
+      <c r="AJ21" s="116"/>
+      <c r="AK21" s="85"/>
+      <c r="AL21" s="24"/>
+      <c r="AM21" s="24"/>
+      <c r="AN21" s="25"/>
+      <c r="AO21" s="26"/>
+      <c r="AP21" s="24"/>
+      <c r="AQ21" s="24"/>
+      <c r="AR21" s="24"/>
+      <c r="AS21" s="24"/>
+      <c r="AT21" s="24"/>
+      <c r="AU21" s="25"/>
+      <c r="AV21" s="26"/>
+      <c r="AW21" s="26"/>
+      <c r="AX21" s="24"/>
+      <c r="AY21" s="24"/>
+      <c r="AZ21" s="24"/>
+      <c r="BA21" s="24"/>
+      <c r="BB21" s="25"/>
+      <c r="BC21" s="26"/>
+      <c r="BD21" s="24"/>
+      <c r="BE21" s="24"/>
+      <c r="BF21" s="24"/>
+      <c r="BG21" s="24"/>
+      <c r="BH21" s="24"/>
+      <c r="BI21" s="25"/>
+      <c r="BJ21" s="26"/>
+      <c r="BK21" s="24"/>
+      <c r="BL21" s="24"/>
+      <c r="BM21" s="24"/>
+      <c r="BN21" s="116"/>
+    </row>
+    <row r="22" spans="1:66" ht="12" customHeight="1">
+      <c r="A22" s="162">
+        <v>10</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="159" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="160"/>
+      <c r="E22" s="152" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="184"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="135"/>
+      <c r="AD22" s="24"/>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="24"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="24"/>
+      <c r="AJ22" s="98"/>
+      <c r="AK22" s="30"/>
+      <c r="AL22" s="30"/>
+      <c r="AM22" s="30"/>
+      <c r="AN22" s="25"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="114"/>
+      <c r="AQ22" s="30"/>
+      <c r="AR22" s="64"/>
+      <c r="AS22" s="64"/>
+      <c r="AT22" s="64"/>
+      <c r="AU22" s="25"/>
+      <c r="AV22" s="26"/>
+      <c r="AW22" s="26"/>
+      <c r="AX22" s="64"/>
+      <c r="AY22" s="64"/>
+      <c r="AZ22" s="64"/>
+      <c r="BA22" s="64"/>
+      <c r="BB22" s="25"/>
+      <c r="BC22" s="26"/>
+      <c r="BD22" s="64"/>
+      <c r="BE22" s="64"/>
+      <c r="BF22" s="64"/>
+      <c r="BG22" s="64"/>
+      <c r="BH22" s="64"/>
+      <c r="BI22" s="25"/>
+      <c r="BJ22" s="26"/>
+      <c r="BK22" s="64"/>
+      <c r="BL22" s="64"/>
+      <c r="BM22" s="64"/>
+      <c r="BN22" s="77"/>
+    </row>
+    <row r="23" spans="1:66" ht="12" customHeight="1">
+      <c r="A23" s="163"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="185"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="68"/>
+      <c r="X23" s="68"/>
+      <c r="Y23" s="68"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="99"/>
+      <c r="AD23" s="68"/>
+      <c r="AE23" s="68"/>
+      <c r="AF23" s="68"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="68"/>
+      <c r="AJ23" s="78"/>
+      <c r="AK23" s="88"/>
+      <c r="AL23" s="68"/>
+      <c r="AM23" s="68"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="23"/>
+      <c r="AP23" s="68"/>
+      <c r="AQ23" s="68"/>
+      <c r="AR23" s="68"/>
+      <c r="AS23" s="68"/>
+      <c r="AT23" s="68"/>
+      <c r="AU23" s="17"/>
+      <c r="AV23" s="23"/>
+      <c r="AW23" s="23"/>
+      <c r="AX23" s="68"/>
+      <c r="AY23" s="68"/>
+      <c r="AZ23" s="68"/>
+      <c r="BA23" s="68"/>
+      <c r="BB23" s="17"/>
+      <c r="BC23" s="23"/>
+      <c r="BD23" s="68"/>
+      <c r="BE23" s="68"/>
+      <c r="BF23" s="68"/>
+      <c r="BG23" s="68"/>
+      <c r="BH23" s="68"/>
+      <c r="BI23" s="17"/>
+      <c r="BJ23" s="23"/>
+      <c r="BK23" s="68"/>
+      <c r="BL23" s="68"/>
+      <c r="BM23" s="68"/>
+      <c r="BN23" s="78"/>
+    </row>
+    <row r="24" spans="1:66" ht="12" customHeight="1">
+      <c r="A24" s="162">
+        <v>11</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="169" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="170"/>
+      <c r="E24" s="161" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="182"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="63"/>
+      <c r="AJ24" s="117"/>
+      <c r="AK24" s="63"/>
+      <c r="AL24" s="63"/>
+      <c r="AM24" s="63"/>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="21"/>
+      <c r="AP24" s="60"/>
+      <c r="AQ24" s="65"/>
+      <c r="AR24" s="65"/>
+      <c r="AS24" s="65"/>
+      <c r="AT24" s="65"/>
+      <c r="AU24" s="15"/>
+      <c r="AV24" s="21"/>
+      <c r="AW24" s="21"/>
+      <c r="AX24" s="111"/>
+      <c r="AY24" s="60"/>
+      <c r="AZ24" s="65"/>
+      <c r="BA24" s="65"/>
+      <c r="BB24" s="15"/>
+      <c r="BC24" s="21"/>
+      <c r="BD24" s="65"/>
+      <c r="BE24" s="65"/>
+      <c r="BF24" s="65"/>
+      <c r="BG24" s="65"/>
+      <c r="BH24" s="65"/>
+      <c r="BI24" s="15"/>
+      <c r="BJ24" s="21"/>
+      <c r="BK24" s="65"/>
+      <c r="BL24" s="65"/>
+      <c r="BM24" s="65"/>
+      <c r="BN24" s="79"/>
+    </row>
+    <row r="25" spans="1:66" ht="12" customHeight="1">
+      <c r="A25" s="163"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="183"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="97"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="63"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="63"/>
+      <c r="AJ25" s="80"/>
+      <c r="AK25" s="90"/>
+      <c r="AL25" s="63"/>
+      <c r="AM25" s="63"/>
+      <c r="AN25" s="13"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="115"/>
+      <c r="AQ25" s="63"/>
+      <c r="AR25" s="63"/>
+      <c r="AS25" s="63"/>
+      <c r="AT25" s="63"/>
+      <c r="AU25" s="13"/>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="63"/>
+      <c r="AY25" s="63"/>
+      <c r="AZ25" s="63"/>
+      <c r="BA25" s="63"/>
+      <c r="BB25" s="13"/>
+      <c r="BC25" s="19"/>
+      <c r="BD25" s="63"/>
+      <c r="BE25" s="63"/>
+      <c r="BF25" s="63"/>
+      <c r="BG25" s="63"/>
+      <c r="BH25" s="63"/>
+      <c r="BI25" s="13"/>
+      <c r="BJ25" s="19"/>
+      <c r="BK25" s="63"/>
+      <c r="BL25" s="63"/>
+      <c r="BM25" s="63"/>
+      <c r="BN25" s="80"/>
+    </row>
+    <row r="26" spans="1:66" ht="12" customHeight="1">
+      <c r="A26" s="162">
+        <v>12</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="142" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="143"/>
+      <c r="E26" s="152" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="154"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="62"/>
+      <c r="AD26" s="62"/>
+      <c r="AE26" s="63"/>
+      <c r="AF26" s="62"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="22"/>
+      <c r="AI26" s="63"/>
+      <c r="AJ26" s="80"/>
+      <c r="AK26" s="90"/>
+      <c r="AL26" s="63"/>
+      <c r="AM26" s="63"/>
+      <c r="AN26" s="16"/>
+      <c r="AO26" s="22"/>
+      <c r="AP26" s="63"/>
+      <c r="AQ26" s="30"/>
+      <c r="AR26" s="30"/>
+      <c r="AS26" s="63"/>
+      <c r="AT26" s="62"/>
+      <c r="AU26" s="16"/>
+      <c r="AV26" s="22"/>
+      <c r="AW26" s="22"/>
+      <c r="AX26" s="114"/>
+      <c r="AY26" s="30"/>
+      <c r="AZ26" s="62"/>
+      <c r="BA26" s="62"/>
+      <c r="BB26" s="16"/>
+      <c r="BC26" s="22"/>
+      <c r="BD26" s="62"/>
+      <c r="BE26" s="62"/>
+      <c r="BF26" s="62"/>
+      <c r="BG26" s="62"/>
+      <c r="BH26" s="62"/>
+      <c r="BI26" s="16"/>
+      <c r="BJ26" s="22"/>
+      <c r="BK26" s="62"/>
+      <c r="BL26" s="62"/>
+      <c r="BM26" s="62"/>
+      <c r="BN26" s="80"/>
+    </row>
+    <row r="27" spans="1:66" ht="12" customHeight="1">
+      <c r="A27" s="163"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="63"/>
+      <c r="AD27" s="63"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="63"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="63"/>
+      <c r="AJ27" s="80"/>
+      <c r="AK27" s="90"/>
+      <c r="AL27" s="63"/>
+      <c r="AM27" s="63"/>
+      <c r="AN27" s="13"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="63"/>
+      <c r="AQ27" s="63"/>
+      <c r="AR27" s="63"/>
+      <c r="AS27" s="63"/>
+      <c r="AT27" s="63"/>
+      <c r="AU27" s="13"/>
+      <c r="AV27" s="19"/>
+      <c r="AW27" s="19"/>
+      <c r="AX27" s="63"/>
+      <c r="AY27" s="63"/>
+      <c r="AZ27" s="63"/>
+      <c r="BA27" s="63"/>
+      <c r="BB27" s="13"/>
+      <c r="BC27" s="19"/>
+      <c r="BD27" s="63"/>
+      <c r="BE27" s="63"/>
+      <c r="BF27" s="63"/>
+      <c r="BG27" s="63"/>
+      <c r="BH27" s="63"/>
+      <c r="BI27" s="13"/>
+      <c r="BJ27" s="19"/>
+      <c r="BK27" s="63"/>
+      <c r="BL27" s="63"/>
+      <c r="BM27" s="63"/>
+      <c r="BN27" s="80"/>
+    </row>
+    <row r="28" spans="1:66" ht="12" customHeight="1">
+      <c r="A28" s="162">
+        <v>13</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="159" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="160"/>
+      <c r="E28" s="155" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="139"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="63"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="63"/>
+      <c r="AJ28" s="80"/>
+      <c r="AK28" s="90"/>
+      <c r="AL28" s="63"/>
+      <c r="AM28" s="63"/>
+      <c r="AN28" s="13"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="63"/>
+      <c r="AQ28" s="63"/>
+      <c r="AR28" s="30"/>
+      <c r="AS28" s="30"/>
+      <c r="AT28" s="63"/>
+      <c r="AU28" s="13"/>
+      <c r="AV28" s="19"/>
+      <c r="AW28" s="19"/>
+      <c r="AX28" s="114"/>
+      <c r="AY28" s="30"/>
+      <c r="AZ28" s="63"/>
+      <c r="BA28" s="63"/>
+      <c r="BB28" s="13"/>
+      <c r="BC28" s="19"/>
+      <c r="BD28" s="63"/>
+      <c r="BE28" s="63"/>
+      <c r="BF28" s="63"/>
+      <c r="BG28" s="63"/>
+      <c r="BH28" s="63"/>
+      <c r="BI28" s="13"/>
+      <c r="BJ28" s="19"/>
+      <c r="BK28" s="63"/>
+      <c r="BL28" s="63"/>
+      <c r="BM28" s="63"/>
+      <c r="BN28" s="80"/>
+    </row>
+    <row r="29" spans="1:66" ht="12" customHeight="1">
+      <c r="A29" s="163"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="63"/>
+      <c r="AD29" s="63"/>
+      <c r="AE29" s="63"/>
+      <c r="AF29" s="63"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="63"/>
+      <c r="AJ29" s="80"/>
+      <c r="AK29" s="90"/>
+      <c r="AL29" s="63"/>
+      <c r="AM29" s="63"/>
+      <c r="AN29" s="13"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="63"/>
+      <c r="AQ29" s="63"/>
+      <c r="AR29" s="63"/>
+      <c r="AS29" s="63"/>
+      <c r="AT29" s="63"/>
+      <c r="AU29" s="13"/>
+      <c r="AV29" s="19"/>
+      <c r="AW29" s="19"/>
+      <c r="AX29" s="63"/>
+      <c r="AY29" s="63"/>
+      <c r="AZ29" s="63"/>
+      <c r="BA29" s="63"/>
+      <c r="BB29" s="13"/>
+      <c r="BC29" s="19"/>
+      <c r="BD29" s="63"/>
+      <c r="BE29" s="63"/>
+      <c r="BF29" s="63"/>
+      <c r="BG29" s="63"/>
+      <c r="BH29" s="63"/>
+      <c r="BI29" s="13"/>
+      <c r="BJ29" s="19"/>
+      <c r="BK29" s="63"/>
+      <c r="BL29" s="63"/>
+      <c r="BM29" s="63"/>
+      <c r="BN29" s="80"/>
+    </row>
+    <row r="30" spans="1:66" ht="12" customHeight="1">
+      <c r="A30" s="162">
+        <v>14</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="159" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="160"/>
+      <c r="E30" s="155" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="139"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="63"/>
+      <c r="Y30" s="63"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="63"/>
+      <c r="AD30" s="63"/>
+      <c r="AE30" s="63"/>
+      <c r="AF30" s="63"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="63"/>
+      <c r="AJ30" s="80"/>
+      <c r="AK30" s="90"/>
+      <c r="AL30" s="63"/>
+      <c r="AM30" s="63"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="19"/>
+      <c r="AP30" s="63"/>
+      <c r="AQ30" s="63"/>
+      <c r="AR30" s="63"/>
+      <c r="AS30" s="30"/>
+      <c r="AT30" s="30"/>
+      <c r="AU30" s="13"/>
+      <c r="AV30" s="19"/>
+      <c r="AW30" s="19"/>
+      <c r="AX30" s="114"/>
+      <c r="AY30" s="30"/>
+      <c r="AZ30" s="63"/>
+      <c r="BA30" s="63"/>
+      <c r="BB30" s="13"/>
+      <c r="BC30" s="19"/>
+      <c r="BD30" s="63"/>
+      <c r="BE30" s="63"/>
+      <c r="BF30" s="63"/>
+      <c r="BG30" s="63"/>
+      <c r="BH30" s="63"/>
+      <c r="BI30" s="13"/>
+      <c r="BJ30" s="19"/>
+      <c r="BK30" s="63"/>
+      <c r="BL30" s="63"/>
+      <c r="BM30" s="63"/>
+      <c r="BN30" s="80"/>
+    </row>
+    <row r="31" spans="1:66" ht="12" customHeight="1">
+      <c r="A31" s="163"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="63"/>
+      <c r="AD31" s="63"/>
+      <c r="AE31" s="63"/>
+      <c r="AF31" s="63"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="63"/>
+      <c r="AJ31" s="80"/>
+      <c r="AK31" s="90"/>
+      <c r="AL31" s="63"/>
+      <c r="AM31" s="63"/>
+      <c r="AN31" s="13"/>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="63"/>
+      <c r="AQ31" s="63"/>
+      <c r="AR31" s="63"/>
+      <c r="AS31" s="63"/>
+      <c r="AT31" s="63"/>
+      <c r="AU31" s="13"/>
+      <c r="AV31" s="19"/>
+      <c r="AW31" s="19"/>
+      <c r="AX31" s="113"/>
+      <c r="AY31" s="63"/>
+      <c r="AZ31" s="63"/>
+      <c r="BA31" s="63"/>
+      <c r="BB31" s="13"/>
+      <c r="BC31" s="19"/>
+      <c r="BD31" s="63"/>
+      <c r="BE31" s="63"/>
+      <c r="BF31" s="63"/>
+      <c r="BG31" s="63"/>
+      <c r="BH31" s="63"/>
+      <c r="BI31" s="13"/>
+      <c r="BJ31" s="19"/>
+      <c r="BK31" s="63"/>
+      <c r="BL31" s="63"/>
+      <c r="BM31" s="63"/>
+      <c r="BN31" s="80"/>
+    </row>
+    <row r="32" spans="1:66" ht="12" customHeight="1">
+      <c r="A32" s="162">
+        <v>15</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="159" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="160"/>
+      <c r="E32" s="152" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="139"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="64"/>
+      <c r="X32" s="64"/>
+      <c r="Y32" s="64"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="64"/>
+      <c r="AD32" s="64"/>
+      <c r="AE32" s="64"/>
+      <c r="AF32" s="64"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="26"/>
+      <c r="AI32" s="64"/>
+      <c r="AJ32" s="77"/>
+      <c r="AK32" s="87"/>
+      <c r="AL32" s="63"/>
+      <c r="AM32" s="64"/>
+      <c r="AN32" s="25"/>
+      <c r="AO32" s="26"/>
+      <c r="AP32" s="64"/>
+      <c r="AQ32" s="64"/>
+      <c r="AR32" s="64"/>
+      <c r="AS32" s="64"/>
+      <c r="AT32" s="30"/>
+      <c r="AU32" s="25"/>
+      <c r="AV32" s="26"/>
+      <c r="AW32" s="26"/>
+      <c r="AX32" s="30"/>
+      <c r="AY32" s="30"/>
+      <c r="AZ32" s="63"/>
+      <c r="BA32" s="63"/>
+      <c r="BB32" s="25"/>
+      <c r="BC32" s="26"/>
+      <c r="BD32" s="114"/>
+      <c r="BE32" s="30"/>
+      <c r="BF32" s="64"/>
+      <c r="BG32" s="64"/>
+      <c r="BH32" s="64"/>
+      <c r="BI32" s="25"/>
+      <c r="BJ32" s="26"/>
+      <c r="BK32" s="64"/>
+      <c r="BL32" s="64"/>
+      <c r="BM32" s="64"/>
+      <c r="BN32" s="77"/>
+    </row>
+    <row r="33" spans="1:67" ht="12" customHeight="1">
+      <c r="A33" s="163"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="64"/>
+      <c r="W33" s="64"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="64"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="64"/>
+      <c r="AD33" s="64"/>
+      <c r="AE33" s="64"/>
+      <c r="AF33" s="64"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="64"/>
+      <c r="AJ33" s="77"/>
+      <c r="AK33" s="87"/>
+      <c r="AL33" s="64"/>
+      <c r="AM33" s="64"/>
+      <c r="AN33" s="25"/>
+      <c r="AO33" s="26"/>
+      <c r="AP33" s="64"/>
+      <c r="AQ33" s="64"/>
+      <c r="AR33" s="64"/>
+      <c r="AS33" s="64"/>
+      <c r="AT33" s="64"/>
+      <c r="AU33" s="25"/>
+      <c r="AV33" s="26"/>
+      <c r="AW33" s="26"/>
+      <c r="AX33" s="63"/>
+      <c r="AY33" s="64"/>
+      <c r="AZ33" s="64"/>
+      <c r="BA33" s="63"/>
+      <c r="BB33" s="25"/>
+      <c r="BC33" s="26"/>
+      <c r="BD33" s="63"/>
+      <c r="BE33" s="64"/>
+      <c r="BF33" s="64"/>
+      <c r="BG33" s="64"/>
+      <c r="BH33" s="64"/>
+      <c r="BI33" s="25"/>
+      <c r="BJ33" s="26"/>
+      <c r="BK33" s="64"/>
+      <c r="BL33" s="64"/>
+      <c r="BM33" s="64"/>
+      <c r="BN33" s="77"/>
+    </row>
+    <row r="34" spans="1:67" ht="12" customHeight="1">
+      <c r="A34" s="162">
+        <v>16</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="159" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="160"/>
+      <c r="E34" s="155" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="139"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="64"/>
+      <c r="X34" s="64"/>
+      <c r="Y34" s="64"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="64"/>
+      <c r="AD34" s="64"/>
+      <c r="AE34" s="64"/>
+      <c r="AF34" s="64"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="64"/>
+      <c r="AJ34" s="77"/>
+      <c r="AK34" s="87"/>
+      <c r="AL34" s="64"/>
+      <c r="AM34" s="64"/>
+      <c r="AN34" s="25"/>
+      <c r="AO34" s="26"/>
+      <c r="AP34" s="64"/>
+      <c r="AQ34" s="64"/>
+      <c r="AR34" s="64"/>
+      <c r="AS34" s="64"/>
+      <c r="AT34" s="64"/>
+      <c r="AU34" s="25"/>
+      <c r="AV34" s="26"/>
+      <c r="AW34" s="26"/>
+      <c r="AX34" s="30"/>
+      <c r="AY34" s="30"/>
+      <c r="AZ34" s="30"/>
+      <c r="BA34" s="63"/>
+      <c r="BB34" s="25"/>
+      <c r="BC34" s="26"/>
+      <c r="BD34" s="114"/>
+      <c r="BE34" s="30"/>
+      <c r="BF34" s="64"/>
+      <c r="BG34" s="64"/>
+      <c r="BH34" s="64"/>
+      <c r="BI34" s="25"/>
+      <c r="BJ34" s="26"/>
+      <c r="BK34" s="64"/>
+      <c r="BL34" s="64"/>
+      <c r="BM34" s="64"/>
+      <c r="BN34" s="77"/>
+    </row>
+    <row r="35" spans="1:67" ht="12" customHeight="1">
+      <c r="A35" s="163"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="140"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="64"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="64"/>
+      <c r="AD35" s="64"/>
+      <c r="AE35" s="64"/>
+      <c r="AF35" s="64"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="64"/>
+      <c r="AJ35" s="77"/>
+      <c r="AK35" s="87"/>
+      <c r="AL35" s="64"/>
+      <c r="AM35" s="64"/>
+      <c r="AN35" s="25"/>
+      <c r="AO35" s="26"/>
+      <c r="AP35" s="64"/>
+      <c r="AQ35" s="64"/>
+      <c r="AR35" s="64"/>
+      <c r="AS35" s="64"/>
+      <c r="AT35" s="64"/>
+      <c r="AU35" s="25"/>
+      <c r="AV35" s="26"/>
+      <c r="AW35" s="26"/>
+      <c r="AX35" s="64"/>
+      <c r="AY35" s="64"/>
+      <c r="AZ35" s="64"/>
+      <c r="BA35" s="64"/>
+      <c r="BB35" s="25"/>
+      <c r="BC35" s="26"/>
+      <c r="BD35" s="63"/>
+      <c r="BE35" s="64"/>
+      <c r="BF35" s="64"/>
+      <c r="BG35" s="64"/>
+      <c r="BH35" s="64"/>
+      <c r="BI35" s="25"/>
+      <c r="BJ35" s="26"/>
+      <c r="BK35" s="64"/>
+      <c r="BL35" s="64"/>
+      <c r="BM35" s="64"/>
+      <c r="BN35" s="77"/>
+    </row>
+    <row r="36" spans="1:67" ht="12" customHeight="1">
+      <c r="A36" s="162">
+        <v>17</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="123" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="124"/>
+      <c r="E36" s="155" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="139"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="64"/>
+      <c r="W36" s="64"/>
+      <c r="X36" s="64"/>
+      <c r="Y36" s="64"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="64"/>
+      <c r="AD36" s="64"/>
+      <c r="AE36" s="64"/>
+      <c r="AF36" s="64"/>
+      <c r="AG36" s="25"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="64"/>
+      <c r="AJ36" s="77"/>
+      <c r="AK36" s="87"/>
+      <c r="AL36" s="64"/>
+      <c r="AM36" s="64"/>
+      <c r="AN36" s="25"/>
+      <c r="AO36" s="26"/>
+      <c r="AP36" s="64"/>
+      <c r="AQ36" s="64"/>
+      <c r="AR36" s="64"/>
+      <c r="AS36" s="64"/>
+      <c r="AT36" s="64"/>
+      <c r="AU36" s="25"/>
+      <c r="AV36" s="26"/>
+      <c r="AW36" s="26"/>
+      <c r="AX36" s="64"/>
+      <c r="AY36" s="30"/>
+      <c r="AZ36" s="30"/>
+      <c r="BA36" s="30"/>
+      <c r="BB36" s="25"/>
+      <c r="BC36" s="26"/>
+      <c r="BD36" s="114"/>
+      <c r="BE36" s="30"/>
+      <c r="BF36" s="64"/>
+      <c r="BG36" s="64"/>
+      <c r="BH36" s="64"/>
+      <c r="BI36" s="25"/>
+      <c r="BJ36" s="26"/>
+      <c r="BK36" s="64"/>
+      <c r="BL36" s="64"/>
+      <c r="BM36" s="64"/>
+      <c r="BN36" s="77"/>
+    </row>
+    <row r="37" spans="1:67" ht="12" customHeight="1">
+      <c r="A37" s="163"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="161"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="68"/>
+      <c r="AD37" s="68"/>
+      <c r="AE37" s="68"/>
+      <c r="AF37" s="68"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="23"/>
+      <c r="AI37" s="68"/>
+      <c r="AJ37" s="78"/>
+      <c r="AK37" s="88"/>
+      <c r="AL37" s="68"/>
+      <c r="AM37" s="68"/>
+      <c r="AN37" s="17"/>
+      <c r="AO37" s="23"/>
+      <c r="AP37" s="68"/>
+      <c r="AQ37" s="68"/>
+      <c r="AR37" s="68"/>
+      <c r="AS37" s="68"/>
+      <c r="AT37" s="68"/>
+      <c r="AU37" s="17"/>
+      <c r="AV37" s="23"/>
+      <c r="AW37" s="23"/>
+      <c r="AX37" s="68"/>
+      <c r="AY37" s="68"/>
+      <c r="AZ37" s="68"/>
+      <c r="BA37" s="68"/>
+      <c r="BB37" s="17"/>
+      <c r="BC37" s="23"/>
+      <c r="BD37" s="68"/>
+      <c r="BE37" s="68"/>
+      <c r="BF37" s="68"/>
+      <c r="BG37" s="68"/>
+      <c r="BH37" s="68"/>
+      <c r="BI37" s="17"/>
+      <c r="BJ37" s="23"/>
+      <c r="BK37" s="68"/>
+      <c r="BL37" s="68"/>
+      <c r="BM37" s="68"/>
+      <c r="BN37" s="78"/>
+    </row>
+    <row r="38" spans="1:67" ht="12" customHeight="1">
+      <c r="A38" s="162">
+        <v>18</v>
+      </c>
+      <c r="B38" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="142" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="143"/>
+      <c r="E38" s="155" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="158"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="130"/>
+      <c r="K38" s="130"/>
+      <c r="L38" s="131"/>
+      <c r="M38" s="132"/>
+      <c r="N38" s="95"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="95"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="95"/>
+      <c r="S38" s="131"/>
+      <c r="T38" s="132"/>
+      <c r="U38" s="132"/>
+      <c r="V38" s="95"/>
+      <c r="W38" s="95"/>
+      <c r="X38" s="95"/>
+      <c r="Y38" s="95"/>
+      <c r="Z38" s="131"/>
+      <c r="AA38" s="132"/>
+      <c r="AB38" s="132"/>
+      <c r="AC38" s="95"/>
+      <c r="AD38" s="95"/>
+      <c r="AE38" s="95"/>
+      <c r="AF38" s="95"/>
+      <c r="AG38" s="131"/>
+      <c r="AH38" s="132"/>
+      <c r="AI38" s="95"/>
+      <c r="AJ38" s="133"/>
+      <c r="AK38" s="134"/>
+      <c r="AL38" s="95"/>
+      <c r="AM38" s="95"/>
+      <c r="AN38" s="131"/>
+      <c r="AO38" s="132"/>
+      <c r="AP38" s="95"/>
+      <c r="AQ38" s="95"/>
+      <c r="AR38" s="95"/>
+      <c r="AS38" s="95"/>
+      <c r="AT38" s="95"/>
+      <c r="AU38" s="131"/>
+      <c r="AV38" s="132"/>
+      <c r="AW38" s="132"/>
+      <c r="AX38" s="95"/>
+      <c r="AY38" s="95"/>
+      <c r="AZ38" s="95"/>
+      <c r="BA38" s="95"/>
+      <c r="BB38" s="131"/>
+      <c r="BC38" s="132"/>
+      <c r="BD38" s="41"/>
+      <c r="BE38" s="41"/>
+      <c r="BF38" s="41"/>
+      <c r="BG38" s="95"/>
+      <c r="BH38" s="95"/>
+      <c r="BI38" s="131"/>
+      <c r="BJ38" s="132"/>
+      <c r="BK38" s="111"/>
+      <c r="BL38" s="60"/>
+      <c r="BM38" s="95"/>
+      <c r="BN38" s="133"/>
+    </row>
+    <row r="39" spans="1:67" ht="12" customHeight="1">
+      <c r="A39" s="163"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="165"/>
+      <c r="E39" s="161"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="64"/>
+      <c r="R39" s="64"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="64"/>
+      <c r="W39" s="64"/>
+      <c r="X39" s="64"/>
+      <c r="Y39" s="64"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="64"/>
+      <c r="AD39" s="64"/>
+      <c r="AE39" s="64"/>
+      <c r="AF39" s="64"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="64"/>
+      <c r="AJ39" s="77"/>
+      <c r="AK39" s="87"/>
+      <c r="AL39" s="64"/>
+      <c r="AM39" s="64"/>
+      <c r="AN39" s="25"/>
+      <c r="AO39" s="26"/>
+      <c r="AP39" s="64"/>
+      <c r="AQ39" s="64"/>
+      <c r="AR39" s="64"/>
+      <c r="AS39" s="64"/>
+      <c r="AT39" s="64"/>
+      <c r="AU39" s="25"/>
+      <c r="AV39" s="26"/>
+      <c r="AW39" s="26"/>
+      <c r="AX39" s="64"/>
+      <c r="AY39" s="64"/>
+      <c r="AZ39" s="64"/>
+      <c r="BA39" s="64"/>
+      <c r="BB39" s="25"/>
+      <c r="BC39" s="26"/>
+      <c r="BD39" s="99"/>
+      <c r="BE39" s="99"/>
+      <c r="BF39" s="99"/>
+      <c r="BG39" s="68"/>
+      <c r="BH39" s="99"/>
+      <c r="BI39" s="25"/>
+      <c r="BJ39" s="26"/>
+      <c r="BK39" s="68"/>
+      <c r="BL39" s="68"/>
+      <c r="BM39" s="99"/>
+      <c r="BN39" s="77"/>
+    </row>
+    <row r="40" spans="1:67" ht="12" customHeight="1">
+      <c r="A40" s="162">
+        <v>19</v>
+      </c>
+      <c r="B40" s="119" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="176" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="177"/>
+      <c r="E40" s="161" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="180"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="65"/>
+      <c r="R40" s="65"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="65"/>
+      <c r="W40" s="65"/>
+      <c r="X40" s="65"/>
+      <c r="Y40" s="65"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="65"/>
+      <c r="AD40" s="67"/>
+      <c r="AE40" s="65"/>
+      <c r="AF40" s="65"/>
+      <c r="AG40" s="15"/>
+      <c r="AH40" s="21"/>
+      <c r="AI40" s="65"/>
+      <c r="AJ40" s="79"/>
+      <c r="AK40" s="89"/>
+      <c r="AL40" s="65"/>
+      <c r="AM40" s="65"/>
+      <c r="AN40" s="15"/>
+      <c r="AO40" s="21"/>
+      <c r="AP40" s="65"/>
+      <c r="AQ40" s="65"/>
+      <c r="AR40" s="65"/>
+      <c r="AS40" s="65"/>
+      <c r="AT40" s="65"/>
+      <c r="AU40" s="15"/>
+      <c r="AV40" s="21"/>
+      <c r="AW40" s="21"/>
+      <c r="AX40" s="65"/>
+      <c r="AY40" s="65"/>
+      <c r="AZ40" s="65"/>
+      <c r="BA40" s="65"/>
+      <c r="BB40" s="15"/>
+      <c r="BC40" s="21"/>
+      <c r="BD40" s="63"/>
+      <c r="BE40" s="63"/>
+      <c r="BF40" s="41"/>
+      <c r="BG40" s="41"/>
+      <c r="BH40" s="41"/>
+      <c r="BI40" s="15"/>
+      <c r="BJ40" s="21"/>
+      <c r="BK40" s="111"/>
+      <c r="BL40" s="60"/>
+      <c r="BM40" s="62"/>
+      <c r="BN40" s="79"/>
+    </row>
+    <row r="41" spans="1:67" ht="12" customHeight="1">
+      <c r="A41" s="163"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="178"/>
+      <c r="D41" s="179"/>
+      <c r="E41" s="161"/>
+      <c r="F41" s="181"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="63"/>
+      <c r="W41" s="63"/>
+      <c r="X41" s="63"/>
+      <c r="Y41" s="63"/>
+      <c r="Z41" s="13"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="63"/>
+      <c r="AD41" s="63"/>
+      <c r="AE41" s="63"/>
+      <c r="AF41" s="63"/>
+      <c r="AG41" s="13"/>
+      <c r="AH41" s="19"/>
+      <c r="AI41" s="63"/>
+      <c r="AJ41" s="80"/>
+      <c r="AK41" s="90"/>
+      <c r="AL41" s="63"/>
+      <c r="AM41" s="63"/>
+      <c r="AN41" s="13"/>
+      <c r="AO41" s="19"/>
+      <c r="AP41" s="63"/>
+      <c r="AQ41" s="63"/>
+      <c r="AR41" s="63"/>
+      <c r="AS41" s="63"/>
+      <c r="AT41" s="63"/>
+      <c r="AU41" s="13"/>
+      <c r="AV41" s="19"/>
+      <c r="AW41" s="19"/>
+      <c r="AX41" s="63"/>
+      <c r="AY41" s="63"/>
+      <c r="AZ41" s="63"/>
+      <c r="BA41" s="63"/>
+      <c r="BB41" s="13"/>
+      <c r="BC41" s="19"/>
+      <c r="BD41" s="63"/>
+      <c r="BE41" s="63"/>
+      <c r="BF41" s="99"/>
+      <c r="BG41" s="63"/>
+      <c r="BH41" s="63"/>
+      <c r="BI41" s="13"/>
+      <c r="BJ41" s="19"/>
+      <c r="BK41" s="64"/>
+      <c r="BL41" s="64"/>
+      <c r="BM41" s="68"/>
+      <c r="BN41" s="78"/>
+    </row>
+    <row r="42" spans="1:67" ht="12" customHeight="1">
+      <c r="A42" s="162">
+        <v>20</v>
+      </c>
+      <c r="B42" s="167" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="170"/>
+      <c r="E42" s="153" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="174"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="65"/>
+      <c r="W42" s="65"/>
+      <c r="X42" s="65"/>
+      <c r="Y42" s="65"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="21"/>
+      <c r="AC42" s="65"/>
+      <c r="AD42" s="65"/>
+      <c r="AE42" s="65"/>
+      <c r="AF42" s="65"/>
+      <c r="AG42" s="15"/>
+      <c r="AH42" s="21"/>
+      <c r="AI42" s="65"/>
+      <c r="AJ42" s="79"/>
+      <c r="AK42" s="89"/>
+      <c r="AL42" s="65"/>
+      <c r="AM42" s="65"/>
+      <c r="AN42" s="15"/>
+      <c r="AO42" s="21"/>
+      <c r="AP42" s="65"/>
+      <c r="AQ42" s="65"/>
+      <c r="AR42" s="65"/>
+      <c r="AS42" s="65"/>
+      <c r="AT42" s="65"/>
+      <c r="AU42" s="15"/>
+      <c r="AV42" s="21"/>
+      <c r="AW42" s="21"/>
+      <c r="AX42" s="65"/>
+      <c r="AY42" s="65"/>
+      <c r="AZ42" s="65"/>
+      <c r="BA42" s="65"/>
+      <c r="BB42" s="15"/>
+      <c r="BC42" s="21"/>
+      <c r="BD42" s="65"/>
+      <c r="BE42" s="65"/>
+      <c r="BF42" s="65"/>
+      <c r="BG42" s="65"/>
+      <c r="BH42" s="65"/>
+      <c r="BI42" s="15"/>
+      <c r="BJ42" s="21"/>
+      <c r="BK42" s="60"/>
+      <c r="BL42" s="60"/>
+      <c r="BM42" s="60"/>
+      <c r="BN42" s="60"/>
+      <c r="BO42" s="100"/>
+    </row>
+    <row r="43" spans="1:67" ht="12" customHeight="1" thickBot="1">
+      <c r="A43" s="163"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="171"/>
+      <c r="D43" s="172"/>
+      <c r="E43" s="173"/>
+      <c r="F43" s="175"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="69"/>
+      <c r="W43" s="69"/>
+      <c r="X43" s="69"/>
+      <c r="Y43" s="69"/>
+      <c r="Z43" s="14"/>
+      <c r="AA43" s="20"/>
+      <c r="AB43" s="20"/>
+      <c r="AC43" s="69"/>
+      <c r="AD43" s="69"/>
+      <c r="AE43" s="69"/>
+      <c r="AF43" s="69"/>
+      <c r="AG43" s="14"/>
+      <c r="AH43" s="20"/>
+      <c r="AI43" s="69"/>
+      <c r="AJ43" s="81"/>
+      <c r="AK43" s="91"/>
+      <c r="AL43" s="69"/>
+      <c r="AM43" s="69"/>
+      <c r="AN43" s="14"/>
+      <c r="AO43" s="20"/>
+      <c r="AP43" s="69"/>
+      <c r="AQ43" s="69"/>
+      <c r="AR43" s="69"/>
+      <c r="AS43" s="69"/>
+      <c r="AT43" s="69"/>
+      <c r="AU43" s="14"/>
+      <c r="AV43" s="20"/>
+      <c r="AW43" s="20"/>
+      <c r="AX43" s="69"/>
+      <c r="AY43" s="69"/>
+      <c r="AZ43" s="69"/>
+      <c r="BA43" s="69"/>
+      <c r="BB43" s="14"/>
+      <c r="BC43" s="20"/>
+      <c r="BD43" s="69"/>
+      <c r="BE43" s="69"/>
+      <c r="BF43" s="69"/>
+      <c r="BG43" s="69"/>
+      <c r="BH43" s="69"/>
+      <c r="BI43" s="14"/>
+      <c r="BJ43" s="20"/>
+      <c r="BK43" s="69"/>
+      <c r="BL43" s="69"/>
+      <c r="BM43" s="69"/>
+      <c r="BN43" s="102"/>
+      <c r="BO43" s="100"/>
+    </row>
+    <row r="44" spans="1:67">
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+    </row>
+    <row r="45" spans="1:67">
+      <c r="A45" s="27"/>
+      <c r="B45" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:67">
+      <c r="A46" s="28"/>
+      <c r="B46" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:67">
+      <c r="A47" s="109"/>
+      <c r="B47" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="87">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E36:E37"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <printOptions gridLinesSet="0"/>
+  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"ＭＳ Ｐゴシック,太字"&amp;12開発スケジュール&amp;R&amp;"ＭＳ Ｐゴシック,標準"&amp;8印刷日：&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;"ＭＳ Ｐゴシック,標準"&amp;8- &amp;P -&amp;R&amp;8Copyright © 2014 *** Corporation. All Rights Reserved.</oddFooter>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="30" max="80" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624DF4ED-FA44-48E9-9005-27B4AB47060E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6462,54 +10285,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="180" t="s">
+      <c r="B1" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="183" t="s">
+      <c r="C1" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="184"/>
-      <c r="E1" s="189" t="s">
+      <c r="D1" s="206"/>
+      <c r="E1" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="191" t="s">
+      <c r="F1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="174"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="175"/>
-      <c r="S1" s="175"/>
-      <c r="T1" s="175"/>
-      <c r="U1" s="175"/>
-      <c r="V1" s="175"/>
-      <c r="W1" s="175"/>
-      <c r="X1" s="175"/>
-      <c r="Y1" s="175"/>
-      <c r="Z1" s="175"/>
-      <c r="AA1" s="175"/>
-      <c r="AB1" s="175"/>
-      <c r="AC1" s="175"/>
-      <c r="AD1" s="176"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="197"/>
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="197"/>
+      <c r="AA1" s="197"/>
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="197"/>
+      <c r="AD1" s="198"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="178"/>
-      <c r="B2" s="181"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="192"/>
+      <c r="A2" s="200"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="214"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -6584,12 +10407,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="179"/>
-      <c r="B3" s="182"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="193"/>
+      <c r="A3" s="201"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="215"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -6664,20 +10487,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="169">
+      <c r="A4" s="191">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="170" t="s">
+      <c r="C4" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="171"/>
-      <c r="E4" s="200" t="s">
+      <c r="D4" s="193"/>
+      <c r="E4" s="222" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="172"/>
+      <c r="F4" s="194"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -6700,20 +10523,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="201" t="s">
+      <c r="AC4" s="223" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="195" t="s">
+      <c r="AD4" s="217" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="140"/>
+      <c r="A5" s="163"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="173"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="195"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -6736,22 +10559,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="202"/>
-      <c r="AD5" s="196"/>
+      <c r="AC5" s="224"/>
+      <c r="AD5" s="218"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="139">
+      <c r="A6" s="162">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="137"/>
-      <c r="E6" s="198" t="s">
+      <c r="D6" s="160"/>
+      <c r="E6" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="166"/>
+      <c r="F6" s="188"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -6774,16 +10597,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="202"/>
-      <c r="AD6" s="196"/>
+      <c r="AC6" s="224"/>
+      <c r="AD6" s="218"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="140"/>
+      <c r="A7" s="163"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="199"/>
-      <c r="F7" s="167"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="189"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -6806,24 +10629,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="202"/>
-      <c r="AD7" s="196"/>
+      <c r="AC7" s="224"/>
+      <c r="AD7" s="218"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="204">
+      <c r="A8" s="226">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="206" t="s">
+      <c r="C8" s="228" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="207"/>
-      <c r="E8" s="208" t="s">
+      <c r="D8" s="229"/>
+      <c r="E8" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="160"/>
+      <c r="F8" s="182"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -6846,16 +10669,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="202"/>
-      <c r="AD8" s="196"/>
+      <c r="AC8" s="224"/>
+      <c r="AD8" s="218"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="205"/>
+      <c r="A9" s="227"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="209"/>
-      <c r="F9" s="163"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="185"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -6878,24 +10701,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="202"/>
-      <c r="AD9" s="196"/>
+      <c r="AC9" s="224"/>
+      <c r="AD9" s="218"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="210">
+      <c r="A10" s="232">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="126"/>
-      <c r="E10" s="211" t="s">
+      <c r="D10" s="147"/>
+      <c r="E10" s="233" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="164"/>
+      <c r="F10" s="186"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -6918,16 +10741,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="202"/>
-      <c r="AD10" s="196"/>
+      <c r="AC10" s="224"/>
+      <c r="AD10" s="218"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="205"/>
+      <c r="A11" s="227"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="212"/>
-      <c r="F11" s="161"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="183"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -6950,22 +10773,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="202"/>
-      <c r="AD11" s="196"/>
+      <c r="AC11" s="224"/>
+      <c r="AD11" s="218"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="204">
+      <c r="A12" s="226">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="137"/>
-      <c r="E12" s="213" t="s">
+      <c r="D12" s="160"/>
+      <c r="E12" s="235" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="162"/>
+      <c r="F12" s="184"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -6988,16 +10811,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="202"/>
-      <c r="AD12" s="196"/>
+      <c r="AC12" s="224"/>
+      <c r="AD12" s="218"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="210"/>
+      <c r="A13" s="232"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="211"/>
-      <c r="F13" s="164"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="233"/>
+      <c r="F13" s="186"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -7020,24 +10843,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="202"/>
-      <c r="AD13" s="196"/>
+      <c r="AC13" s="224"/>
+      <c r="AD13" s="218"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="214">
+      <c r="A14" s="236">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="146" t="s">
+      <c r="C14" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="147"/>
-      <c r="E14" s="215" t="s">
+      <c r="D14" s="170"/>
+      <c r="E14" s="237" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="160"/>
+      <c r="F14" s="182"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -7060,16 +10883,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="202"/>
-      <c r="AD14" s="196"/>
+      <c r="AC14" s="224"/>
+      <c r="AD14" s="218"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="214"/>
+      <c r="A15" s="236"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="212"/>
-      <c r="F15" s="161"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="234"/>
+      <c r="F15" s="183"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7092,22 +10915,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="202"/>
-      <c r="AD15" s="196"/>
+      <c r="AC15" s="224"/>
+      <c r="AD15" s="218"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="214">
+      <c r="A16" s="236">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="136" t="s">
+      <c r="C16" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="137"/>
-      <c r="E16" s="216" t="s">
+      <c r="D16" s="160"/>
+      <c r="E16" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="162"/>
+      <c r="F16" s="184"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7130,16 +10953,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="202"/>
-      <c r="AD16" s="196"/>
+      <c r="AC16" s="224"/>
+      <c r="AD16" s="218"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="214"/>
+      <c r="A17" s="236"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="161"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="234"/>
+      <c r="F17" s="183"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7162,22 +10985,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="202"/>
-      <c r="AD17" s="196"/>
+      <c r="AC17" s="224"/>
+      <c r="AD17" s="218"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="214">
+      <c r="A18" s="236">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="137"/>
-      <c r="E18" s="216" t="s">
+      <c r="D18" s="160"/>
+      <c r="E18" s="238" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="162"/>
+      <c r="F18" s="184"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7200,16 +11023,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="202"/>
-      <c r="AD18" s="196"/>
+      <c r="AC18" s="224"/>
+      <c r="AD18" s="218"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="214"/>
+      <c r="A19" s="236"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="163"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="231"/>
+      <c r="F19" s="185"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7232,24 +11055,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="202"/>
-      <c r="AD19" s="196"/>
+      <c r="AC19" s="224"/>
+      <c r="AD19" s="218"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="204">
+      <c r="A20" s="226">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="146" t="s">
+      <c r="C20" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="147"/>
-      <c r="E20" s="215" t="s">
+      <c r="D20" s="170"/>
+      <c r="E20" s="237" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="160"/>
+      <c r="F20" s="182"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7272,18 +11095,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="202"/>
-      <c r="AD20" s="196"/>
+      <c r="AC20" s="224"/>
+      <c r="AD20" s="218"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="205"/>
+      <c r="A21" s="227"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="123"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="212"/>
-      <c r="F21" s="161"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="234"/>
+      <c r="F21" s="183"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -7306,22 +11129,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="202"/>
-      <c r="AD21" s="196"/>
+      <c r="AC21" s="224"/>
+      <c r="AD21" s="218"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="204">
+      <c r="A22" s="226">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="217" t="s">
+      <c r="C22" s="239" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="137"/>
-      <c r="E22" s="216" t="s">
+      <c r="D22" s="160"/>
+      <c r="E22" s="238" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="162"/>
+      <c r="F22" s="184"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -7344,16 +11167,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="202"/>
-      <c r="AD22" s="196"/>
+      <c r="AC22" s="224"/>
+      <c r="AD22" s="218"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="205"/>
+      <c r="A23" s="227"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="212"/>
-      <c r="F23" s="161"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="234"/>
+      <c r="F23" s="183"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -7376,22 +11199,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="202"/>
-      <c r="AD23" s="196"/>
+      <c r="AC23" s="224"/>
+      <c r="AD23" s="218"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="204">
+      <c r="A24" s="226">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="217" t="s">
+      <c r="C24" s="239" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="137"/>
-      <c r="E24" s="216" t="s">
+      <c r="D24" s="160"/>
+      <c r="E24" s="238" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="162"/>
+      <c r="F24" s="184"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -7414,16 +11237,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="202"/>
-      <c r="AD24" s="196"/>
+      <c r="AC24" s="224"/>
+      <c r="AD24" s="218"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="205"/>
+      <c r="A25" s="227"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="212"/>
-      <c r="F25" s="163"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="234"/>
+      <c r="F25" s="185"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -7446,24 +11269,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="202"/>
-      <c r="AD25" s="196"/>
+      <c r="AC25" s="224"/>
+      <c r="AD25" s="218"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="139">
+      <c r="A26" s="162">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="153" t="s">
+      <c r="C26" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="154"/>
-      <c r="E26" s="218" t="s">
+      <c r="D26" s="177"/>
+      <c r="E26" s="240" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="157"/>
+      <c r="F26" s="180"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -7486,16 +11309,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="202"/>
-      <c r="AD26" s="196"/>
+      <c r="AC26" s="224"/>
+      <c r="AD26" s="218"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="140"/>
+      <c r="A27" s="163"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="219"/>
-      <c r="F27" s="158"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="241"/>
+      <c r="F27" s="181"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -7518,24 +11341,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="202"/>
-      <c r="AD27" s="196"/>
+      <c r="AC27" s="224"/>
+      <c r="AD27" s="218"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="139">
+      <c r="A28" s="162">
         <v>14</v>
       </c>
-      <c r="B28" s="144" t="s">
+      <c r="B28" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="146" t="s">
+      <c r="C28" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="147"/>
-      <c r="E28" s="144" t="s">
+      <c r="D28" s="170"/>
+      <c r="E28" s="167" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="151"/>
+      <c r="F28" s="174"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -7558,16 +11381,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="202"/>
-      <c r="AD28" s="196"/>
+      <c r="AC28" s="224"/>
+      <c r="AD28" s="218"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="143"/>
-      <c r="B29" s="145"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="152"/>
+      <c r="A29" s="166"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="171"/>
+      <c r="D29" s="172"/>
+      <c r="E29" s="168"/>
+      <c r="F29" s="175"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -7590,8 +11413,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="203"/>
-      <c r="AD29" s="197"/>
+      <c r="AC29" s="225"/>
+      <c r="AD29" s="219"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,20 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FE257A-821B-4FBF-B20F-28AB8731A6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7D16D1-68ED-4583-B2CE-869F17C3C90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31275" yWindow="2760" windowWidth="23010" windowHeight="12210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="memo" sheetId="16" r:id="rId1"/>
-    <sheet name="全体スケジュール (パターン1)" sheetId="13" r:id="rId2"/>
-    <sheet name="全体スケジュール (パターン2） " sheetId="15" r:id="rId3"/>
-    <sheet name="全体スケジュール (サンプル)" sheetId="14" r:id="rId4"/>
+    <sheet name="全体スケジュール" sheetId="13" r:id="rId1"/>
+    <sheet name="全体スケジュール (サンプル)" sheetId="14" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'全体スケジュール (サンプル)'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'全体スケジュール (パターン1)'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'全体スケジュール (パターン2） '!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">全体スケジュール!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'全体スケジュール (サンプル)'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="58">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -513,31 +510,33 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>コーディング、テスト→レビュー　ならパターン１</t>
+    <t>予定</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <r>
-      <t>コーディング</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>レビュー→テスト　ならパターン２</t>
-    </r>
+    <t>購入・会員機能単体試験</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="3" eb="11">
+      <t>カイインキノウタンタイシケン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>検索機能単体試験</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>タンタイシケン</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -550,7 +549,7 @@
     <numFmt numFmtId="177" formatCode="yyyy/mm"/>
     <numFmt numFmtId="178" formatCode="aaa"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -579,24 +578,6 @@
     <font>
       <sz val="6"/>
       <name val="明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
@@ -669,7 +650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="86">
+  <borders count="88">
     <border>
       <left/>
       <right/>
@@ -1744,11 +1725,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1957,19 +1962,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2054,9 +2050,6 @@
     <xf numFmtId="49" fontId="2" fillId="10" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2073,9 +2066,6 @@
     <xf numFmtId="49" fontId="2" fillId="11" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2083,6 +2073,48 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="10" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2097,60 +2129,48 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2194,38 +2214,47 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2233,233 +2262,194 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2636,11 +2626,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -2656,10 +2641,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 8">
+        <xdr:cNvPr id="6" name="AutoShape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1461C281-8B75-4A05-A931-9DF98AF59EEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E3E242-83B7-4CBE-BDB1-9CC449D4C7CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2731,10 +2716,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 13">
+        <xdr:cNvPr id="7" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC9B1559-240D-44EB-ADE7-5FCBD43269B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EDD39B0-B2C7-4DCB-B761-8F7FEABB5854}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2794,7 +2779,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3320,43 +3305,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EC0C92-6A82-40EC-AA30-945B7A2E7B3E}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="121" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="13.8">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO45"/>
+  <dimension ref="A1:BO50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="7" topLeftCell="R23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O12" sqref="O12:P12"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3373,94 +3332,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="202" t="s">
+      <c r="B1" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="205" t="s">
+      <c r="C1" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="206"/>
-      <c r="E1" s="211" t="s">
+      <c r="D1" s="200"/>
+      <c r="E1" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="213" t="s">
+      <c r="F1" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="196">
+      <c r="G1" s="190">
         <v>45536</v>
       </c>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="197"/>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="197"/>
-      <c r="T1" s="197"/>
-      <c r="U1" s="197"/>
-      <c r="V1" s="197"/>
-      <c r="W1" s="197"/>
-      <c r="X1" s="197"/>
-      <c r="Y1" s="197"/>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="197"/>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="197"/>
-      <c r="AD1" s="197"/>
-      <c r="AE1" s="197"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="197"/>
-      <c r="AH1" s="197"/>
-      <c r="AI1" s="197"/>
-      <c r="AJ1" s="198"/>
-      <c r="AK1" s="196">
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="191"/>
+      <c r="AG1" s="191"/>
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="191"/>
+      <c r="AJ1" s="192"/>
+      <c r="AK1" s="190">
         <v>45566</v>
       </c>
-      <c r="AL1" s="197"/>
-      <c r="AM1" s="197"/>
-      <c r="AN1" s="197"/>
-      <c r="AO1" s="197"/>
-      <c r="AP1" s="197"/>
-      <c r="AQ1" s="197"/>
-      <c r="AR1" s="197"/>
-      <c r="AS1" s="197"/>
-      <c r="AT1" s="197"/>
-      <c r="AU1" s="197"/>
-      <c r="AV1" s="197"/>
-      <c r="AW1" s="197"/>
-      <c r="AX1" s="197"/>
-      <c r="AY1" s="197"/>
-      <c r="AZ1" s="197"/>
-      <c r="BA1" s="197"/>
-      <c r="BB1" s="197"/>
-      <c r="BC1" s="197"/>
-      <c r="BD1" s="197"/>
-      <c r="BE1" s="197"/>
-      <c r="BF1" s="197"/>
-      <c r="BG1" s="197"/>
-      <c r="BH1" s="197"/>
-      <c r="BI1" s="197"/>
-      <c r="BJ1" s="197"/>
-      <c r="BK1" s="197"/>
-      <c r="BL1" s="197"/>
-      <c r="BM1" s="197"/>
-      <c r="BN1" s="198"/>
+      <c r="AL1" s="191"/>
+      <c r="AM1" s="191"/>
+      <c r="AN1" s="191"/>
+      <c r="AO1" s="191"/>
+      <c r="AP1" s="191"/>
+      <c r="AQ1" s="191"/>
+      <c r="AR1" s="191"/>
+      <c r="AS1" s="191"/>
+      <c r="AT1" s="191"/>
+      <c r="AU1" s="191"/>
+      <c r="AV1" s="191"/>
+      <c r="AW1" s="191"/>
+      <c r="AX1" s="191"/>
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191"/>
+      <c r="BA1" s="191"/>
+      <c r="BB1" s="191"/>
+      <c r="BC1" s="191"/>
+      <c r="BD1" s="191"/>
+      <c r="BE1" s="191"/>
+      <c r="BF1" s="191"/>
+      <c r="BG1" s="191"/>
+      <c r="BH1" s="191"/>
+      <c r="BI1" s="191"/>
+      <c r="BJ1" s="191"/>
+      <c r="BK1" s="191"/>
+      <c r="BL1" s="191"/>
+      <c r="BM1" s="191"/>
+      <c r="BN1" s="192"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="200"/>
-      <c r="B2" s="203"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="214"/>
+      <c r="A2" s="194"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="208"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3702,12 +3661,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="201"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="215"/>
+      <c r="A3" s="195"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="209"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3798,7 +3757,7 @@
       <c r="AJ3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="AK3" s="92" t="s">
+      <c r="AK3" s="89" t="s">
         <v>20</v>
       </c>
       <c r="AL3" s="57" t="s">
@@ -3807,19 +3766,19 @@
       <c r="AM3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="93" t="s">
+      <c r="AN3" s="90" t="s">
         <v>16</v>
       </c>
       <c r="AO3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AP3" s="93" t="s">
+      <c r="AP3" s="90" t="s">
         <v>18</v>
       </c>
       <c r="AQ3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AR3" s="93" t="s">
+      <c r="AR3" s="90" t="s">
         <v>20</v>
       </c>
       <c r="AS3" s="57" t="s">
@@ -3828,19 +3787,19 @@
       <c r="AT3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AU3" s="93" t="s">
+      <c r="AU3" s="90" t="s">
         <v>16</v>
       </c>
       <c r="AV3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AW3" s="93" t="s">
+      <c r="AW3" s="90" t="s">
         <v>18</v>
       </c>
       <c r="AX3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AY3" s="93" t="s">
+      <c r="AY3" s="90" t="s">
         <v>20</v>
       </c>
       <c r="AZ3" s="57" t="s">
@@ -3849,19 +3808,19 @@
       <c r="BA3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BB3" s="93" t="s">
+      <c r="BB3" s="90" t="s">
         <v>16</v>
       </c>
       <c r="BC3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="BD3" s="93" t="s">
+      <c r="BD3" s="90" t="s">
         <v>18</v>
       </c>
       <c r="BE3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="BF3" s="93" t="s">
+      <c r="BF3" s="90" t="s">
         <v>20</v>
       </c>
       <c r="BG3" s="57" t="s">
@@ -3870,19 +3829,19 @@
       <c r="BH3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BI3" s="93" t="s">
+      <c r="BI3" s="90" t="s">
         <v>16</v>
       </c>
       <c r="BJ3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="BK3" s="93" t="s">
+      <c r="BK3" s="90" t="s">
         <v>18</v>
       </c>
       <c r="BL3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="BM3" s="93" t="s">
+      <c r="BM3" s="90" t="s">
         <v>20</v>
       </c>
       <c r="BN3" s="70" t="s">
@@ -3890,20 +3849,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="191">
+      <c r="A4" s="185">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="192" t="s">
+      <c r="C4" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="193"/>
-      <c r="E4" s="161" t="s">
+      <c r="D4" s="187"/>
+      <c r="E4" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="194"/>
+      <c r="F4" s="188"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -3911,7 +3870,7 @@
       <c r="K4" s="61"/>
       <c r="L4" s="12"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="110"/>
+      <c r="N4" s="106"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
@@ -3934,7 +3893,7 @@
       <c r="AH4" s="18"/>
       <c r="AI4" s="10"/>
       <c r="AJ4" s="71"/>
-      <c r="AK4" s="82"/>
+      <c r="AK4" s="79"/>
       <c r="AL4" s="10"/>
       <c r="AM4" s="10"/>
       <c r="AN4" s="12"/>
@@ -3966,16 +3925,16 @@
       <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="163"/>
+      <c r="A5" s="164"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="115"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="110"/>
       <c r="K5" s="62"/>
       <c r="L5" s="16"/>
       <c r="M5" s="22"/>
@@ -4001,8 +3960,8 @@
       <c r="AG5" s="16"/>
       <c r="AH5" s="22"/>
       <c r="AI5" s="9"/>
-      <c r="AJ5" s="72"/>
-      <c r="AK5" s="83"/>
+      <c r="AJ5" s="126"/>
+      <c r="AK5" s="80"/>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
       <c r="AN5" s="16"/>
@@ -4031,29 +3990,29 @@
       <c r="BK5" s="9"/>
       <c r="BL5" s="9"/>
       <c r="BM5" s="9"/>
-      <c r="BN5" s="72"/>
+      <c r="BN5" s="126"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="162">
+      <c r="A6" s="142">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="159" t="s">
+      <c r="C6" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="160"/>
-      <c r="E6" s="155" t="s">
+      <c r="D6" s="162"/>
+      <c r="E6" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="188"/>
+      <c r="F6" s="183"/>
       <c r="G6" s="51"/>
       <c r="H6" s="62"/>
-      <c r="I6" s="138"/>
+      <c r="I6" s="124"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="13"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="110"/>
+      <c r="N6" s="106"/>
       <c r="O6" s="63"/>
       <c r="P6" s="63"/>
       <c r="Q6" s="63"/>
@@ -4075,8 +4034,8 @@
       <c r="AG6" s="13"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="7"/>
-      <c r="AJ6" s="73"/>
-      <c r="AK6" s="84"/>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="81"/>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="13"/>
@@ -4105,20 +4064,20 @@
       <c r="BK6" s="7"/>
       <c r="BL6" s="7"/>
       <c r="BM6" s="7"/>
-      <c r="BN6" s="73"/>
+      <c r="BN6" s="72"/>
     </row>
     <row r="7" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A7" s="163"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="104"/>
+      <c r="A7" s="164"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="101"/>
       <c r="H7" s="68"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
       <c r="L7" s="17"/>
       <c r="M7" s="23"/>
       <c r="N7" s="68"/>
@@ -4143,8 +4102,8 @@
       <c r="AG7" s="17"/>
       <c r="AH7" s="23"/>
       <c r="AI7" s="8"/>
-      <c r="AJ7" s="96"/>
-      <c r="AK7" s="107"/>
+      <c r="AJ7" s="93"/>
+      <c r="AK7" s="103"/>
       <c r="AL7" s="8"/>
       <c r="AM7" s="8"/>
       <c r="AN7" s="17"/>
@@ -4173,20 +4132,20 @@
       <c r="BK7" s="24"/>
       <c r="BL7" s="24"/>
       <c r="BM7" s="24"/>
-      <c r="BN7" s="74"/>
+      <c r="BN7" s="125"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="190">
+      <c r="A8" s="142">
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="146" t="s">
+      <c r="C8" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="147"/>
-      <c r="E8" s="155" t="s">
+      <c r="D8" s="152"/>
+      <c r="E8" s="157" t="s">
         <v>50</v>
       </c>
       <c r="F8" s="158"/>
@@ -4205,7 +4164,7 @@
       <c r="S8" s="16"/>
       <c r="T8" s="22"/>
       <c r="U8" s="22"/>
-      <c r="V8" s="110"/>
+      <c r="V8" s="106"/>
       <c r="W8" s="30"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
@@ -4219,8 +4178,8 @@
       <c r="AG8" s="16"/>
       <c r="AH8" s="22"/>
       <c r="AI8" s="9"/>
-      <c r="AJ8" s="105"/>
-      <c r="AK8" s="83"/>
+      <c r="AJ8" s="126"/>
+      <c r="AK8" s="80"/>
       <c r="AL8" s="9"/>
       <c r="AM8" s="9"/>
       <c r="AN8" s="16"/>
@@ -4233,7 +4192,7 @@
       <c r="AU8" s="16"/>
       <c r="AV8" s="22"/>
       <c r="AW8" s="22"/>
-      <c r="AX8" s="108"/>
+      <c r="AX8" s="104"/>
       <c r="AY8" s="9"/>
       <c r="AZ8" s="6"/>
       <c r="BA8" s="6"/>
@@ -4249,15 +4208,15 @@
       <c r="BK8" s="6"/>
       <c r="BL8" s="6"/>
       <c r="BM8" s="6"/>
-      <c r="BN8" s="75"/>
+      <c r="BN8" s="73"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="163"/>
+      <c r="A9" s="164"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="140"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="145"/>
       <c r="G9" s="51"/>
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
@@ -4287,8 +4246,8 @@
       <c r="AG9" s="13"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="7"/>
-      <c r="AJ9" s="73"/>
-      <c r="AK9" s="84"/>
+      <c r="AJ9" s="72"/>
+      <c r="AK9" s="81"/>
       <c r="AL9" s="7"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="13"/>
@@ -4317,21 +4276,21 @@
       <c r="BK9" s="7"/>
       <c r="BL9" s="7"/>
       <c r="BM9" s="7"/>
-      <c r="BN9" s="73"/>
+      <c r="BN9" s="72"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="162">
+      <c r="A10" s="142">
         <v>4</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="146" t="s">
+      <c r="C10" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="147"/>
-      <c r="E10" s="155" t="s">
+      <c r="D10" s="152"/>
+      <c r="E10" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="139"/>
+      <c r="F10" s="144"/>
       <c r="G10" s="51"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
@@ -4347,7 +4306,7 @@
       <c r="S10" s="13"/>
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
-      <c r="V10" s="110"/>
+      <c r="V10" s="106"/>
       <c r="W10" s="30"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
@@ -4361,8 +4320,8 @@
       <c r="AG10" s="13"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="7"/>
-      <c r="AJ10" s="73"/>
-      <c r="AK10" s="84"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="81"/>
       <c r="AL10" s="7"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="13"/>
@@ -4391,15 +4350,15 @@
       <c r="BK10" s="7"/>
       <c r="BL10" s="7"/>
       <c r="BM10" s="7"/>
-      <c r="BN10" s="73"/>
+      <c r="BN10" s="72"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="163"/>
+      <c r="A11" s="164"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="140"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="145"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4429,8 +4388,8 @@
       <c r="AG11" s="13"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="7"/>
-      <c r="AJ11" s="73"/>
-      <c r="AK11" s="84"/>
+      <c r="AJ11" s="72"/>
+      <c r="AK11" s="81"/>
       <c r="AL11" s="7"/>
       <c r="AM11" s="7"/>
       <c r="AN11" s="13"/>
@@ -4459,21 +4418,21 @@
       <c r="BK11" s="7"/>
       <c r="BL11" s="7"/>
       <c r="BM11" s="7"/>
-      <c r="BN11" s="73"/>
+      <c r="BN11" s="72"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="162">
+      <c r="A12" s="142">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="146" t="s">
+      <c r="C12" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="147"/>
-      <c r="E12" s="157" t="s">
+      <c r="D12" s="152"/>
+      <c r="E12" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="139"/>
+      <c r="F12" s="144"/>
       <c r="G12" s="51"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
@@ -4489,7 +4448,7 @@
       <c r="S12" s="13"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
-      <c r="V12" s="110"/>
+      <c r="V12" s="106"/>
       <c r="W12" s="30"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
@@ -4503,8 +4462,8 @@
       <c r="AG12" s="13"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="7"/>
-      <c r="AJ12" s="73"/>
-      <c r="AK12" s="84"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="81"/>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="13"/>
@@ -4533,15 +4492,15 @@
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
       <c r="BM12" s="7"/>
-      <c r="BN12" s="73"/>
+      <c r="BN12" s="72"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="163"/>
+      <c r="A13" s="164"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="141"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="146"/>
       <c r="G13" s="53"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
@@ -4549,7 +4508,7 @@
       <c r="K13" s="66"/>
       <c r="L13" s="44"/>
       <c r="M13" s="45"/>
-      <c r="N13" s="95"/>
+      <c r="N13" s="92"/>
       <c r="O13" s="66"/>
       <c r="P13" s="66"/>
       <c r="Q13" s="66"/>
@@ -4571,8 +4530,8 @@
       <c r="AG13" s="44"/>
       <c r="AH13" s="45"/>
       <c r="AI13" s="43"/>
-      <c r="AJ13" s="76"/>
-      <c r="AK13" s="86"/>
+      <c r="AJ13" s="127"/>
+      <c r="AK13" s="83"/>
       <c r="AL13" s="43"/>
       <c r="AM13" s="43"/>
       <c r="AN13" s="44"/>
@@ -4601,23 +4560,23 @@
       <c r="BK13" s="43"/>
       <c r="BL13" s="43"/>
       <c r="BM13" s="43"/>
-      <c r="BN13" s="96"/>
+      <c r="BN13" s="93"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="162">
+      <c r="A14" s="142">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="146" t="s">
+      <c r="C14" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="147"/>
-      <c r="E14" s="153" t="s">
+      <c r="D14" s="152"/>
+      <c r="E14" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="186"/>
+      <c r="F14" s="181"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4640,15 +4599,15 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="22"/>
       <c r="AB14" s="22"/>
-      <c r="AC14" s="111"/>
+      <c r="AC14" s="107"/>
       <c r="AD14" s="30"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="16"/>
       <c r="AH14" s="22"/>
       <c r="AI14" s="9"/>
-      <c r="AJ14" s="117"/>
-      <c r="AK14" s="83"/>
+      <c r="AJ14" s="126"/>
+      <c r="AK14" s="80"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
       <c r="AN14" s="16"/>
@@ -4677,15 +4636,15 @@
       <c r="BK14" s="9"/>
       <c r="BL14" s="9"/>
       <c r="BM14" s="9"/>
-      <c r="BN14" s="72"/>
+      <c r="BN14" s="126"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="163"/>
+      <c r="A15" s="164"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="187"/>
-      <c r="F15" s="183"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="178"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4715,8 +4674,8 @@
       <c r="AG15" s="16"/>
       <c r="AH15" s="22"/>
       <c r="AI15" s="9"/>
-      <c r="AJ15" s="117"/>
-      <c r="AK15" s="83"/>
+      <c r="AJ15" s="126"/>
+      <c r="AK15" s="80"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="9"/>
       <c r="AN15" s="16"/>
@@ -4745,21 +4704,21 @@
       <c r="BK15" s="9"/>
       <c r="BL15" s="9"/>
       <c r="BM15" s="9"/>
-      <c r="BN15" s="72"/>
+      <c r="BN15" s="126"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="162">
+      <c r="A16" s="142">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="159" t="s">
+      <c r="C16" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="160"/>
-      <c r="E16" s="157" t="s">
+      <c r="D16" s="162"/>
+      <c r="E16" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="184"/>
+      <c r="F16" s="179"/>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -4782,15 +4741,15 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
-      <c r="AC16" s="110"/>
+      <c r="AC16" s="106"/>
       <c r="AD16" s="30"/>
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
       <c r="AG16" s="13"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="9"/>
-      <c r="AJ16" s="117"/>
-      <c r="AK16" s="83"/>
+      <c r="AJ16" s="126"/>
+      <c r="AK16" s="80"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="13"/>
@@ -4819,15 +4778,15 @@
       <c r="BK16" s="7"/>
       <c r="BL16" s="7"/>
       <c r="BM16" s="7"/>
-      <c r="BN16" s="73"/>
+      <c r="BN16" s="72"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="163"/>
+      <c r="A17" s="164"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="186"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="181"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -4853,12 +4812,12 @@
       <c r="AC17" s="24"/>
       <c r="AD17" s="43"/>
       <c r="AE17" s="8"/>
-      <c r="AF17" s="101"/>
+      <c r="AF17" s="98"/>
       <c r="AG17" s="25"/>
       <c r="AH17" s="23"/>
       <c r="AI17" s="8"/>
-      <c r="AJ17" s="96"/>
-      <c r="AK17" s="83"/>
+      <c r="AJ17" s="93"/>
+      <c r="AK17" s="80"/>
       <c r="AL17" s="7"/>
       <c r="AM17" s="7"/>
       <c r="AN17" s="25"/>
@@ -4887,23 +4846,23 @@
       <c r="BK17" s="24"/>
       <c r="BL17" s="24"/>
       <c r="BM17" s="24"/>
-      <c r="BN17" s="74"/>
+      <c r="BN17" s="125"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="162">
+      <c r="A18" s="142">
         <v>8</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="169" t="s">
+      <c r="C18" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="170"/>
-      <c r="E18" s="161" t="s">
+      <c r="D18" s="137"/>
+      <c r="E18" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="182"/>
+      <c r="F18" s="177"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -4932,9 +4891,9 @@
       <c r="AF18" s="9"/>
       <c r="AG18" s="15"/>
       <c r="AH18" s="22"/>
-      <c r="AI18" s="111"/>
-      <c r="AJ18" s="73"/>
-      <c r="AK18" s="120"/>
+      <c r="AI18" s="107"/>
+      <c r="AJ18" s="95"/>
+      <c r="AK18" s="111"/>
       <c r="AL18" s="6"/>
       <c r="AM18" s="6"/>
       <c r="AN18" s="15"/>
@@ -4963,15 +4922,15 @@
       <c r="BK18" s="6"/>
       <c r="BL18" s="6"/>
       <c r="BM18" s="6"/>
-      <c r="BN18" s="75"/>
+      <c r="BN18" s="73"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="163"/>
+      <c r="A19" s="164"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="183"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="178"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -4994,15 +4953,15 @@
       <c r="Z19" s="25"/>
       <c r="AA19" s="26"/>
       <c r="AB19" s="26"/>
-      <c r="AC19" s="136"/>
+      <c r="AC19" s="123"/>
       <c r="AD19" s="24"/>
       <c r="AE19" s="24"/>
       <c r="AF19" s="24"/>
       <c r="AG19" s="25"/>
       <c r="AH19" s="26"/>
       <c r="AI19" s="24"/>
-      <c r="AJ19" s="73"/>
-      <c r="AK19" s="85"/>
+      <c r="AJ19" s="72"/>
+      <c r="AK19" s="82"/>
       <c r="AL19" s="24"/>
       <c r="AM19" s="24"/>
       <c r="AN19" s="25"/>
@@ -5031,21 +4990,21 @@
       <c r="BK19" s="24"/>
       <c r="BL19" s="24"/>
       <c r="BM19" s="24"/>
-      <c r="BN19" s="74"/>
+      <c r="BN19" s="125"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="162">
+      <c r="A20" s="142">
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="159" t="s">
+      <c r="C20" s="161" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="160"/>
-      <c r="E20" s="155" t="s">
+      <c r="D20" s="162"/>
+      <c r="E20" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="184"/>
+      <c r="F20" s="179"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -5068,21 +5027,21 @@
       <c r="Z20" s="13"/>
       <c r="AA20" s="19"/>
       <c r="AB20" s="19"/>
-      <c r="AC20" s="94"/>
+      <c r="AC20" s="91"/>
       <c r="AD20" s="30"/>
       <c r="AE20" s="30"/>
       <c r="AF20" s="30"/>
       <c r="AG20" s="13"/>
       <c r="AH20" s="19"/>
-      <c r="AI20" s="110"/>
-      <c r="AJ20" s="73"/>
+      <c r="AI20" s="106"/>
+      <c r="AJ20" s="95"/>
       <c r="AK20" s="24"/>
       <c r="AL20" s="24"/>
       <c r="AM20" s="24"/>
       <c r="AN20" s="13"/>
       <c r="AO20" s="19"/>
-      <c r="AP20" s="24"/>
-      <c r="AQ20" s="24"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
       <c r="AR20" s="7"/>
       <c r="AS20" s="7"/>
       <c r="AT20" s="7"/>
@@ -5105,15 +5064,15 @@
       <c r="BK20" s="7"/>
       <c r="BL20" s="7"/>
       <c r="BM20" s="7"/>
-      <c r="BN20" s="73"/>
+      <c r="BN20" s="72"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="163"/>
+      <c r="A21" s="164"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="183"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="178"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -5136,15 +5095,15 @@
       <c r="Z21" s="25"/>
       <c r="AA21" s="26"/>
       <c r="AB21" s="26"/>
-      <c r="AC21" s="135"/>
+      <c r="AC21" s="122"/>
       <c r="AD21" s="24"/>
       <c r="AE21" s="24"/>
       <c r="AF21" s="24"/>
       <c r="AG21" s="25"/>
       <c r="AH21" s="26"/>
       <c r="AI21" s="24"/>
-      <c r="AJ21" s="73"/>
-      <c r="AK21" s="85"/>
+      <c r="AJ21" s="72"/>
+      <c r="AK21" s="82"/>
       <c r="AL21" s="24"/>
       <c r="AM21" s="24"/>
       <c r="AN21" s="25"/>
@@ -5173,21 +5132,21 @@
       <c r="BK21" s="24"/>
       <c r="BL21" s="24"/>
       <c r="BM21" s="24"/>
-      <c r="BN21" s="74"/>
+      <c r="BN21" s="125"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="162">
+      <c r="A22" s="142">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="159" t="s">
+      <c r="C22" s="161" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="160"/>
-      <c r="E22" s="152" t="s">
+      <c r="D22" s="162"/>
+      <c r="E22" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="184"/>
+      <c r="F22" s="179"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -5210,21 +5169,21 @@
       <c r="Z22" s="25"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
-      <c r="AC22" s="94"/>
+      <c r="AC22" s="91"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="30"/>
       <c r="AF22" s="30"/>
       <c r="AG22" s="25"/>
       <c r="AH22" s="26"/>
-      <c r="AI22" s="110"/>
-      <c r="AJ22" s="73"/>
-      <c r="AK22" s="85"/>
+      <c r="AI22" s="106"/>
+      <c r="AJ22" s="95"/>
+      <c r="AK22" s="82"/>
       <c r="AL22" s="24"/>
       <c r="AM22" s="24"/>
       <c r="AN22" s="25"/>
       <c r="AO22" s="26"/>
-      <c r="AP22" s="24"/>
-      <c r="AQ22" s="24"/>
+      <c r="AP22" s="64"/>
+      <c r="AQ22" s="64"/>
       <c r="AR22" s="64"/>
       <c r="AS22" s="64"/>
       <c r="AT22" s="64"/>
@@ -5247,15 +5206,15 @@
       <c r="BK22" s="64"/>
       <c r="BL22" s="64"/>
       <c r="BM22" s="64"/>
-      <c r="BN22" s="77"/>
+      <c r="BN22" s="74"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="163"/>
+      <c r="A23" s="164"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="164"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="185"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="180"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5278,15 +5237,15 @@
       <c r="Z23" s="17"/>
       <c r="AA23" s="23"/>
       <c r="AB23" s="23"/>
-      <c r="AC23" s="99"/>
+      <c r="AC23" s="96"/>
       <c r="AD23" s="68"/>
       <c r="AE23" s="68"/>
       <c r="AF23" s="68"/>
       <c r="AG23" s="17"/>
       <c r="AH23" s="23"/>
       <c r="AI23" s="68"/>
-      <c r="AJ23" s="78"/>
-      <c r="AK23" s="88"/>
+      <c r="AJ23" s="75"/>
+      <c r="AK23" s="85"/>
       <c r="AL23" s="68"/>
       <c r="AM23" s="68"/>
       <c r="AN23" s="17"/>
@@ -5315,23 +5274,23 @@
       <c r="BK23" s="68"/>
       <c r="BL23" s="68"/>
       <c r="BM23" s="68"/>
-      <c r="BN23" s="78"/>
+      <c r="BN23" s="75"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="162">
+      <c r="A24" s="142">
         <v>11</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="169" t="s">
+      <c r="C24" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="170"/>
-      <c r="E24" s="161" t="s">
+      <c r="D24" s="137"/>
+      <c r="E24" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="182"/>
+      <c r="F24" s="177"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5361,14 +5320,14 @@
       <c r="AG24" s="15"/>
       <c r="AH24" s="21"/>
       <c r="AI24" s="60"/>
-      <c r="AJ24" s="112"/>
+      <c r="AJ24" s="126"/>
       <c r="AK24" s="63"/>
       <c r="AL24" s="63"/>
       <c r="AM24" s="63"/>
       <c r="AN24" s="15"/>
       <c r="AO24" s="21"/>
-      <c r="AP24" s="65"/>
-      <c r="AQ24" s="65"/>
+      <c r="AP24" s="107"/>
+      <c r="AQ24" s="60"/>
       <c r="AR24" s="65"/>
       <c r="AS24" s="65"/>
       <c r="AT24" s="65"/>
@@ -5391,24 +5350,22 @@
       <c r="BK24" s="65"/>
       <c r="BL24" s="65"/>
       <c r="BM24" s="65"/>
-      <c r="BN24" s="79"/>
+      <c r="BN24" s="76"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="163"/>
-      <c r="B25" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="144"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="183"/>
+      <c r="A25" s="164"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="178"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="13"/>
-      <c r="M25" s="97"/>
+      <c r="M25" s="94"/>
       <c r="N25" s="63"/>
       <c r="O25" s="63"/>
       <c r="P25" s="63"/>
@@ -5422,7 +5379,7 @@
       <c r="X25" s="63"/>
       <c r="Y25" s="63"/>
       <c r="Z25" s="13"/>
-      <c r="AA25" s="97"/>
+      <c r="AA25" s="94"/>
       <c r="AB25" s="19"/>
       <c r="AC25" s="63"/>
       <c r="AD25" s="63"/>
@@ -5431,13 +5388,13 @@
       <c r="AG25" s="13"/>
       <c r="AH25" s="19"/>
       <c r="AI25" s="63"/>
-      <c r="AJ25" s="80"/>
-      <c r="AK25" s="90"/>
+      <c r="AJ25" s="77"/>
+      <c r="AK25" s="87"/>
       <c r="AL25" s="63"/>
       <c r="AM25" s="63"/>
       <c r="AN25" s="13"/>
       <c r="AO25" s="19"/>
-      <c r="AP25" s="115"/>
+      <c r="AP25" s="110"/>
       <c r="AQ25" s="63"/>
       <c r="AR25" s="63"/>
       <c r="AS25" s="63"/>
@@ -5461,21 +5418,21 @@
       <c r="BK25" s="63"/>
       <c r="BL25" s="63"/>
       <c r="BM25" s="63"/>
-      <c r="BN25" s="80"/>
+      <c r="BN25" s="77"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="162">
+      <c r="A26" s="142">
         <v>12</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="142" t="s">
+      <c r="C26" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="143"/>
-      <c r="E26" s="152" t="s">
+      <c r="D26" s="148"/>
+      <c r="E26" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="154"/>
+      <c r="F26" s="158"/>
       <c r="G26" s="50"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -5505,13 +5462,13 @@
       <c r="AG26" s="16"/>
       <c r="AH26" s="22"/>
       <c r="AI26" s="63"/>
-      <c r="AJ26" s="98"/>
-      <c r="AK26" s="122"/>
+      <c r="AJ26" s="95"/>
+      <c r="AK26" s="112"/>
       <c r="AL26" s="63"/>
       <c r="AM26" s="63"/>
       <c r="AN26" s="16"/>
       <c r="AO26" s="22"/>
-      <c r="AP26" s="110"/>
+      <c r="AP26" s="109"/>
       <c r="AQ26" s="30"/>
       <c r="AR26" s="63"/>
       <c r="AS26" s="63"/>
@@ -5520,7 +5477,7 @@
       <c r="AV26" s="22"/>
       <c r="AW26" s="22"/>
       <c r="AX26" s="63"/>
-      <c r="AY26" s="62"/>
+      <c r="AY26" s="63"/>
       <c r="AZ26" s="62"/>
       <c r="BA26" s="62"/>
       <c r="BB26" s="16"/>
@@ -5535,17 +5492,17 @@
       <c r="BK26" s="62"/>
       <c r="BL26" s="62"/>
       <c r="BM26" s="62"/>
-      <c r="BN26" s="80"/>
+      <c r="BN26" s="77"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="163"/>
+      <c r="A27" s="164"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="140"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="145"/>
       <c r="G27" s="51"/>
-      <c r="H27" s="94"/>
+      <c r="H27" s="91"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -5573,8 +5530,8 @@
       <c r="AG27" s="13"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="63"/>
-      <c r="AJ27" s="80"/>
-      <c r="AK27" s="90"/>
+      <c r="AJ27" s="77"/>
+      <c r="AK27" s="87"/>
       <c r="AL27" s="63"/>
       <c r="AM27" s="63"/>
       <c r="AN27" s="13"/>
@@ -5603,21 +5560,21 @@
       <c r="BK27" s="63"/>
       <c r="BL27" s="63"/>
       <c r="BM27" s="63"/>
-      <c r="BN27" s="80"/>
+      <c r="BN27" s="77"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="162">
+      <c r="A28" s="142">
         <v>13</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="159" t="s">
+      <c r="C28" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="160"/>
-      <c r="E28" s="155" t="s">
+      <c r="D28" s="162"/>
+      <c r="E28" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="139"/>
+      <c r="F28" s="144"/>
       <c r="G28" s="50"/>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
@@ -5647,13 +5604,13 @@
       <c r="AG28" s="13"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="63"/>
-      <c r="AJ28" s="80"/>
-      <c r="AK28" s="90"/>
+      <c r="AJ28" s="77"/>
+      <c r="AK28" s="112"/>
       <c r="AL28" s="30"/>
-      <c r="AM28" s="30"/>
+      <c r="AM28" s="63"/>
       <c r="AN28" s="13"/>
       <c r="AO28" s="19"/>
-      <c r="AP28" s="110"/>
+      <c r="AP28" s="109"/>
       <c r="AQ28" s="30"/>
       <c r="AR28" s="63"/>
       <c r="AS28" s="63"/>
@@ -5677,18 +5634,18 @@
       <c r="BK28" s="63"/>
       <c r="BL28" s="63"/>
       <c r="BM28" s="63"/>
-      <c r="BN28" s="80"/>
+      <c r="BN28" s="77"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="163"/>
+      <c r="A29" s="164"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="140"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="145"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="94"/>
+      <c r="I29" s="91"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="13"/>
@@ -5715,8 +5672,8 @@
       <c r="AG29" s="13"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="63"/>
-      <c r="AJ29" s="80"/>
-      <c r="AK29" s="90"/>
+      <c r="AJ29" s="77"/>
+      <c r="AK29" s="87"/>
       <c r="AL29" s="63"/>
       <c r="AM29" s="63"/>
       <c r="AN29" s="13"/>
@@ -5745,21 +5702,21 @@
       <c r="BK29" s="63"/>
       <c r="BL29" s="63"/>
       <c r="BM29" s="63"/>
-      <c r="BN29" s="80"/>
+      <c r="BN29" s="77"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="162">
+      <c r="A30" s="142">
         <v>14</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="159" t="s">
+      <c r="C30" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="160"/>
-      <c r="E30" s="155" t="s">
+      <c r="D30" s="162"/>
+      <c r="E30" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="139"/>
+      <c r="F30" s="144"/>
       <c r="G30" s="50"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -5789,8 +5746,8 @@
       <c r="AG30" s="13"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="63"/>
-      <c r="AJ30" s="80"/>
-      <c r="AK30" s="90"/>
+      <c r="AJ30" s="77"/>
+      <c r="AK30" s="87"/>
       <c r="AL30" s="63"/>
       <c r="AM30" s="63"/>
       <c r="AN30" s="13"/>
@@ -5803,7 +5760,7 @@
       <c r="AU30" s="13"/>
       <c r="AV30" s="19"/>
       <c r="AW30" s="19"/>
-      <c r="AX30" s="110"/>
+      <c r="AX30" s="109"/>
       <c r="AY30" s="30"/>
       <c r="AZ30" s="63"/>
       <c r="BA30" s="63"/>
@@ -5819,17 +5776,17 @@
       <c r="BK30" s="63"/>
       <c r="BL30" s="63"/>
       <c r="BM30" s="63"/>
-      <c r="BN30" s="80"/>
+      <c r="BN30" s="77"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="163"/>
+      <c r="A31" s="164"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="140"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="145"/>
       <c r="G31" s="51"/>
-      <c r="H31" s="94"/>
+      <c r="H31" s="91"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -5857,8 +5814,8 @@
       <c r="AG31" s="13"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="63"/>
-      <c r="AJ31" s="80"/>
-      <c r="AK31" s="90"/>
+      <c r="AJ31" s="77"/>
+      <c r="AK31" s="87"/>
       <c r="AL31" s="63"/>
       <c r="AM31" s="63"/>
       <c r="AN31" s="13"/>
@@ -5871,7 +5828,7 @@
       <c r="AU31" s="13"/>
       <c r="AV31" s="19"/>
       <c r="AW31" s="19"/>
-      <c r="AX31" s="113"/>
+      <c r="AX31" s="108"/>
       <c r="AY31" s="63"/>
       <c r="AZ31" s="63"/>
       <c r="BA31" s="63"/>
@@ -5887,21 +5844,21 @@
       <c r="BK31" s="63"/>
       <c r="BL31" s="63"/>
       <c r="BM31" s="63"/>
-      <c r="BN31" s="80"/>
+      <c r="BN31" s="77"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="162">
+      <c r="A32" s="142">
         <v>15</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="159" t="s">
+      <c r="C32" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="160"/>
-      <c r="E32" s="152" t="s">
+      <c r="D32" s="162"/>
+      <c r="E32" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="139"/>
+      <c r="F32" s="144"/>
       <c r="G32" s="52"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5931,28 +5888,28 @@
       <c r="AG32" s="25"/>
       <c r="AH32" s="26"/>
       <c r="AI32" s="64"/>
-      <c r="AJ32" s="77"/>
-      <c r="AK32" s="87"/>
+      <c r="AJ32" s="74"/>
+      <c r="AK32" s="84"/>
       <c r="AL32" s="63"/>
       <c r="AM32" s="64"/>
       <c r="AN32" s="25"/>
       <c r="AO32" s="26"/>
       <c r="AP32" s="64"/>
-      <c r="AQ32" s="64"/>
+      <c r="AQ32" s="63"/>
       <c r="AR32" s="30"/>
       <c r="AS32" s="30"/>
-      <c r="AT32" s="30"/>
+      <c r="AT32" s="63"/>
       <c r="AU32" s="25"/>
       <c r="AV32" s="26"/>
       <c r="AW32" s="26"/>
-      <c r="AX32" s="110"/>
+      <c r="AX32" s="109"/>
       <c r="AY32" s="30"/>
       <c r="AZ32" s="63"/>
       <c r="BA32" s="63"/>
       <c r="BB32" s="25"/>
       <c r="BC32" s="26"/>
       <c r="BD32" s="63"/>
-      <c r="BE32" s="64"/>
+      <c r="BE32" s="63"/>
       <c r="BF32" s="64"/>
       <c r="BG32" s="64"/>
       <c r="BH32" s="64"/>
@@ -5961,15 +5918,15 @@
       <c r="BK32" s="64"/>
       <c r="BL32" s="64"/>
       <c r="BM32" s="64"/>
-      <c r="BN32" s="77"/>
+      <c r="BN32" s="74"/>
     </row>
     <row r="33" spans="1:67" ht="12" customHeight="1">
-      <c r="A33" s="163"/>
+      <c r="A33" s="164"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="140"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="145"/>
       <c r="G33" s="52"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5999,28 +5956,28 @@
       <c r="AG33" s="25"/>
       <c r="AH33" s="26"/>
       <c r="AI33" s="64"/>
-      <c r="AJ33" s="77"/>
-      <c r="AK33" s="87"/>
+      <c r="AJ33" s="74"/>
+      <c r="AK33" s="84"/>
       <c r="AL33" s="64"/>
       <c r="AM33" s="64"/>
       <c r="AN33" s="25"/>
       <c r="AO33" s="26"/>
       <c r="AP33" s="64"/>
-      <c r="AQ33" s="64"/>
-      <c r="AR33" s="64"/>
-      <c r="AS33" s="64"/>
-      <c r="AT33" s="64"/>
+      <c r="AQ33" s="63"/>
+      <c r="AR33" s="63"/>
+      <c r="AS33" s="63"/>
+      <c r="AT33" s="63"/>
       <c r="AU33" s="25"/>
       <c r="AV33" s="26"/>
       <c r="AW33" s="26"/>
-      <c r="AX33" s="63"/>
-      <c r="AY33" s="64"/>
+      <c r="AX33" s="108"/>
+      <c r="AY33" s="63"/>
       <c r="AZ33" s="63"/>
       <c r="BA33" s="63"/>
       <c r="BB33" s="25"/>
       <c r="BC33" s="26"/>
       <c r="BD33" s="63"/>
-      <c r="BE33" s="64"/>
+      <c r="BE33" s="63"/>
       <c r="BF33" s="64"/>
       <c r="BG33" s="64"/>
       <c r="BH33" s="64"/>
@@ -6029,21 +5986,21 @@
       <c r="BK33" s="64"/>
       <c r="BL33" s="64"/>
       <c r="BM33" s="64"/>
-      <c r="BN33" s="77"/>
+      <c r="BN33" s="74"/>
     </row>
     <row r="34" spans="1:67" ht="12" customHeight="1">
-      <c r="A34" s="162">
+      <c r="A34" s="142">
         <v>16</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="159" t="s">
+      <c r="C34" s="161" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="160"/>
-      <c r="E34" s="155" t="s">
+      <c r="D34" s="162"/>
+      <c r="E34" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="139"/>
+      <c r="F34" s="144"/>
       <c r="G34" s="52"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -6073,28 +6030,28 @@
       <c r="AG34" s="25"/>
       <c r="AH34" s="26"/>
       <c r="AI34" s="64"/>
-      <c r="AJ34" s="77"/>
-      <c r="AK34" s="87"/>
+      <c r="AJ34" s="74"/>
+      <c r="AK34" s="84"/>
       <c r="AL34" s="64"/>
       <c r="AM34" s="64"/>
       <c r="AN34" s="25"/>
       <c r="AO34" s="26"/>
       <c r="AP34" s="64"/>
-      <c r="AQ34" s="64"/>
-      <c r="AR34" s="64"/>
-      <c r="AS34" s="64"/>
+      <c r="AQ34" s="63"/>
+      <c r="AR34" s="63"/>
+      <c r="AS34" s="30"/>
       <c r="AT34" s="30"/>
       <c r="AU34" s="25"/>
       <c r="AV34" s="26"/>
       <c r="AW34" s="26"/>
-      <c r="AX34" s="30"/>
+      <c r="AX34" s="109"/>
       <c r="AY34" s="30"/>
       <c r="AZ34" s="63"/>
       <c r="BA34" s="63"/>
       <c r="BB34" s="25"/>
       <c r="BC34" s="26"/>
-      <c r="BD34" s="110"/>
-      <c r="BE34" s="30"/>
+      <c r="BD34" s="63"/>
+      <c r="BE34" s="63"/>
       <c r="BF34" s="64"/>
       <c r="BG34" s="64"/>
       <c r="BH34" s="64"/>
@@ -6103,15 +6060,15 @@
       <c r="BK34" s="64"/>
       <c r="BL34" s="64"/>
       <c r="BM34" s="64"/>
-      <c r="BN34" s="77"/>
+      <c r="BN34" s="74"/>
     </row>
     <row r="35" spans="1:67" ht="12" customHeight="1">
-      <c r="A35" s="163"/>
+      <c r="A35" s="164"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="144"/>
-      <c r="D35" s="145"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="140"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="145"/>
       <c r="G35" s="52"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -6141,8 +6098,8 @@
       <c r="AG35" s="25"/>
       <c r="AH35" s="26"/>
       <c r="AI35" s="64"/>
-      <c r="AJ35" s="77"/>
-      <c r="AK35" s="87"/>
+      <c r="AJ35" s="74"/>
+      <c r="AK35" s="84"/>
       <c r="AL35" s="64"/>
       <c r="AM35" s="64"/>
       <c r="AN35" s="25"/>
@@ -6155,14 +6112,14 @@
       <c r="AU35" s="25"/>
       <c r="AV35" s="26"/>
       <c r="AW35" s="26"/>
-      <c r="AX35" s="64"/>
-      <c r="AY35" s="64"/>
-      <c r="AZ35" s="64"/>
-      <c r="BA35" s="64"/>
+      <c r="AX35" s="63"/>
+      <c r="AY35" s="63"/>
+      <c r="AZ35" s="63"/>
+      <c r="BA35" s="63"/>
       <c r="BB35" s="25"/>
       <c r="BC35" s="26"/>
-      <c r="BD35" s="64"/>
-      <c r="BE35" s="64"/>
+      <c r="BD35" s="63"/>
+      <c r="BE35" s="63"/>
       <c r="BF35" s="64"/>
       <c r="BG35" s="64"/>
       <c r="BH35" s="64"/>
@@ -6171,21 +6128,21 @@
       <c r="BK35" s="64"/>
       <c r="BL35" s="64"/>
       <c r="BM35" s="64"/>
-      <c r="BN35" s="77"/>
+      <c r="BN35" s="74"/>
     </row>
     <row r="36" spans="1:67" ht="12" customHeight="1">
-      <c r="A36" s="162">
+      <c r="A36" s="142">
         <v>17</v>
       </c>
       <c r="B36" s="36"/>
-      <c r="C36" s="159" t="s">
+      <c r="C36" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="160"/>
-      <c r="E36" s="155" t="s">
+      <c r="D36" s="114"/>
+      <c r="E36" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="139"/>
+      <c r="F36" s="144"/>
       <c r="G36" s="52"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -6215,8 +6172,8 @@
       <c r="AG36" s="25"/>
       <c r="AH36" s="26"/>
       <c r="AI36" s="64"/>
-      <c r="AJ36" s="77"/>
-      <c r="AK36" s="87"/>
+      <c r="AJ36" s="74"/>
+      <c r="AK36" s="84"/>
       <c r="AL36" s="64"/>
       <c r="AM36" s="64"/>
       <c r="AN36" s="25"/>
@@ -6229,13 +6186,13 @@
       <c r="AU36" s="25"/>
       <c r="AV36" s="26"/>
       <c r="AW36" s="26"/>
-      <c r="AX36" s="64"/>
-      <c r="AY36" s="30"/>
-      <c r="AZ36" s="30"/>
-      <c r="BA36" s="30"/>
+      <c r="AX36" s="41"/>
+      <c r="AY36" s="41"/>
+      <c r="AZ36" s="41"/>
+      <c r="BA36" s="63"/>
       <c r="BB36" s="25"/>
       <c r="BC36" s="26"/>
-      <c r="BD36" s="110"/>
+      <c r="BD36" s="109"/>
       <c r="BE36" s="30"/>
       <c r="BF36" s="64"/>
       <c r="BG36" s="64"/>
@@ -6245,91 +6202,91 @@
       <c r="BK36" s="64"/>
       <c r="BL36" s="64"/>
       <c r="BM36" s="64"/>
-      <c r="BN36" s="77"/>
+      <c r="BN36" s="74"/>
     </row>
     <row r="37" spans="1:67" ht="12" customHeight="1">
-      <c r="A37" s="163"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="164"/>
-      <c r="D37" s="165"/>
-      <c r="E37" s="161"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="64"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="64"/>
-      <c r="Y37" s="64"/>
-      <c r="Z37" s="25"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="64"/>
-      <c r="AD37" s="64"/>
-      <c r="AE37" s="64"/>
-      <c r="AF37" s="64"/>
-      <c r="AG37" s="25"/>
-      <c r="AH37" s="26"/>
-      <c r="AI37" s="64"/>
-      <c r="AJ37" s="77"/>
-      <c r="AK37" s="87"/>
-      <c r="AL37" s="64"/>
-      <c r="AM37" s="64"/>
-      <c r="AN37" s="25"/>
-      <c r="AO37" s="26"/>
-      <c r="AP37" s="64"/>
-      <c r="AQ37" s="64"/>
-      <c r="AR37" s="64"/>
-      <c r="AS37" s="64"/>
-      <c r="AT37" s="64"/>
-      <c r="AU37" s="25"/>
-      <c r="AV37" s="26"/>
-      <c r="AW37" s="26"/>
-      <c r="AX37" s="64"/>
-      <c r="AY37" s="64"/>
-      <c r="AZ37" s="64"/>
-      <c r="BA37" s="64"/>
-      <c r="BB37" s="25"/>
-      <c r="BC37" s="26"/>
-      <c r="BD37" s="99"/>
-      <c r="BE37" s="99"/>
-      <c r="BF37" s="99"/>
+      <c r="A37" s="164"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="146"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="68"/>
+      <c r="AD37" s="68"/>
+      <c r="AE37" s="68"/>
+      <c r="AF37" s="68"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="23"/>
+      <c r="AI37" s="68"/>
+      <c r="AJ37" s="75"/>
+      <c r="AK37" s="85"/>
+      <c r="AL37" s="68"/>
+      <c r="AM37" s="96"/>
+      <c r="AN37" s="17"/>
+      <c r="AO37" s="23"/>
+      <c r="AP37" s="68"/>
+      <c r="AQ37" s="68"/>
+      <c r="AR37" s="68"/>
+      <c r="AS37" s="68"/>
+      <c r="AT37" s="68"/>
+      <c r="AU37" s="17"/>
+      <c r="AV37" s="23"/>
+      <c r="AW37" s="23"/>
+      <c r="AX37" s="68"/>
+      <c r="AY37" s="68"/>
+      <c r="AZ37" s="68"/>
+      <c r="BA37" s="68"/>
+      <c r="BB37" s="17"/>
+      <c r="BC37" s="23"/>
+      <c r="BD37" s="68"/>
+      <c r="BE37" s="68"/>
+      <c r="BF37" s="68"/>
       <c r="BG37" s="68"/>
-      <c r="BH37" s="99"/>
-      <c r="BI37" s="25"/>
-      <c r="BJ37" s="26"/>
+      <c r="BH37" s="68"/>
+      <c r="BI37" s="17"/>
+      <c r="BJ37" s="23"/>
       <c r="BK37" s="68"/>
       <c r="BL37" s="68"/>
-      <c r="BM37" s="99"/>
-      <c r="BN37" s="77"/>
+      <c r="BM37" s="68"/>
+      <c r="BN37" s="75"/>
     </row>
     <row r="38" spans="1:67" ht="12" customHeight="1">
-      <c r="A38" s="162">
+      <c r="A38" s="142">
         <v>18</v>
       </c>
-      <c r="B38" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="176" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="177"/>
-      <c r="E38" s="161" t="s">
+      <c r="B38" s="174" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="136" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="137"/>
+      <c r="E38" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="180"/>
+      <c r="F38" s="177"/>
       <c r="G38" s="38"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -6340,7 +6297,7 @@
       <c r="N38" s="65"/>
       <c r="O38" s="65"/>
       <c r="P38" s="65"/>
-      <c r="Q38" s="65"/>
+      <c r="Q38" s="67"/>
       <c r="R38" s="65"/>
       <c r="S38" s="15"/>
       <c r="T38" s="21"/>
@@ -6353,51 +6310,51 @@
       <c r="AA38" s="21"/>
       <c r="AB38" s="21"/>
       <c r="AC38" s="65"/>
-      <c r="AD38" s="67"/>
+      <c r="AD38" s="65"/>
       <c r="AE38" s="65"/>
       <c r="AF38" s="65"/>
       <c r="AG38" s="15"/>
       <c r="AH38" s="21"/>
       <c r="AI38" s="65"/>
-      <c r="AJ38" s="79"/>
-      <c r="AK38" s="89"/>
+      <c r="AJ38" s="74"/>
+      <c r="AK38" s="84"/>
       <c r="AL38" s="65"/>
       <c r="AM38" s="65"/>
       <c r="AN38" s="15"/>
       <c r="AO38" s="21"/>
-      <c r="AP38" s="65"/>
-      <c r="AQ38" s="65"/>
-      <c r="AR38" s="65"/>
-      <c r="AS38" s="65"/>
-      <c r="AT38" s="65"/>
+      <c r="AP38" s="30"/>
+      <c r="AQ38" s="30"/>
+      <c r="AR38" s="30"/>
+      <c r="AS38" s="30"/>
+      <c r="AT38" s="30"/>
       <c r="AU38" s="15"/>
       <c r="AV38" s="21"/>
       <c r="AW38" s="21"/>
-      <c r="AX38" s="65"/>
-      <c r="AY38" s="65"/>
+      <c r="AX38" s="107"/>
+      <c r="AY38" s="60"/>
       <c r="AZ38" s="65"/>
       <c r="BA38" s="65"/>
       <c r="BB38" s="15"/>
       <c r="BC38" s="21"/>
-      <c r="BD38" s="41"/>
-      <c r="BE38" s="41"/>
-      <c r="BF38" s="41"/>
-      <c r="BG38" s="41"/>
-      <c r="BH38" s="41"/>
+      <c r="BD38" s="65"/>
+      <c r="BE38" s="65"/>
+      <c r="BF38" s="65"/>
+      <c r="BG38" s="65"/>
+      <c r="BH38" s="65"/>
       <c r="BI38" s="15"/>
       <c r="BJ38" s="21"/>
-      <c r="BK38" s="111"/>
-      <c r="BL38" s="60"/>
-      <c r="BM38" s="62"/>
-      <c r="BN38" s="79"/>
+      <c r="BK38" s="65"/>
+      <c r="BL38" s="65"/>
+      <c r="BM38" s="65"/>
+      <c r="BN38" s="76"/>
     </row>
     <row r="39" spans="1:67" ht="12" customHeight="1">
-      <c r="A39" s="163"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="178"/>
-      <c r="D39" s="179"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="181"/>
+      <c r="A39" s="164"/>
+      <c r="B39" s="175"/>
+      <c r="C39" s="149"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="178"/>
       <c r="G39" s="51"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -6408,7 +6365,7 @@
       <c r="N39" s="63"/>
       <c r="O39" s="63"/>
       <c r="P39" s="63"/>
-      <c r="Q39" s="63"/>
+      <c r="Q39" s="110"/>
       <c r="R39" s="63"/>
       <c r="S39" s="13"/>
       <c r="T39" s="19"/>
@@ -6427,8 +6384,8 @@
       <c r="AG39" s="13"/>
       <c r="AH39" s="19"/>
       <c r="AI39" s="63"/>
-      <c r="AJ39" s="80"/>
-      <c r="AK39" s="90"/>
+      <c r="AJ39" s="77"/>
+      <c r="AK39" s="87"/>
       <c r="AL39" s="63"/>
       <c r="AM39" s="63"/>
       <c r="AN39" s="13"/>
@@ -6449,186 +6406,472 @@
       <c r="BC39" s="19"/>
       <c r="BD39" s="63"/>
       <c r="BE39" s="63"/>
-      <c r="BF39" s="99"/>
+      <c r="BF39" s="63"/>
       <c r="BG39" s="63"/>
       <c r="BH39" s="63"/>
       <c r="BI39" s="13"/>
       <c r="BJ39" s="19"/>
-      <c r="BK39" s="64"/>
-      <c r="BL39" s="64"/>
-      <c r="BM39" s="68"/>
-      <c r="BN39" s="78"/>
+      <c r="BK39" s="63"/>
+      <c r="BL39" s="63"/>
+      <c r="BM39" s="63"/>
+      <c r="BN39" s="77"/>
     </row>
     <row r="40" spans="1:67" ht="12" customHeight="1">
-      <c r="A40" s="162">
+      <c r="A40" s="142">
         <v>19</v>
       </c>
-      <c r="B40" s="167" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="169" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="170"/>
-      <c r="E40" s="153" t="s">
+      <c r="B40" s="175"/>
+      <c r="C40" s="147" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="148"/>
+      <c r="E40" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="174"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="65"/>
-      <c r="W40" s="65"/>
-      <c r="X40" s="65"/>
-      <c r="Y40" s="65"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="65"/>
-      <c r="AD40" s="65"/>
-      <c r="AE40" s="65"/>
-      <c r="AF40" s="65"/>
-      <c r="AG40" s="15"/>
-      <c r="AH40" s="21"/>
-      <c r="AI40" s="65"/>
-      <c r="AJ40" s="79"/>
-      <c r="AK40" s="89"/>
-      <c r="AL40" s="65"/>
-      <c r="AM40" s="65"/>
-      <c r="AN40" s="15"/>
-      <c r="AO40" s="21"/>
-      <c r="AP40" s="65"/>
-      <c r="AQ40" s="65"/>
-      <c r="AR40" s="65"/>
-      <c r="AS40" s="65"/>
-      <c r="AT40" s="65"/>
-      <c r="AU40" s="15"/>
-      <c r="AV40" s="21"/>
-      <c r="AW40" s="21"/>
-      <c r="AX40" s="65"/>
-      <c r="AY40" s="65"/>
-      <c r="AZ40" s="65"/>
-      <c r="BA40" s="65"/>
-      <c r="BB40" s="15"/>
-      <c r="BC40" s="21"/>
-      <c r="BD40" s="65"/>
-      <c r="BE40" s="65"/>
-      <c r="BF40" s="65"/>
-      <c r="BG40" s="65"/>
-      <c r="BH40" s="65"/>
-      <c r="BI40" s="15"/>
-      <c r="BJ40" s="21"/>
-      <c r="BK40" s="60"/>
-      <c r="BL40" s="60"/>
-      <c r="BM40" s="60"/>
-      <c r="BN40" s="60"/>
-      <c r="BO40" s="100"/>
+      <c r="F40" s="158"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="118"/>
+      <c r="K40" s="118"/>
+      <c r="L40" s="119"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="92"/>
+      <c r="O40" s="92"/>
+      <c r="P40" s="92"/>
+      <c r="Q40" s="92"/>
+      <c r="R40" s="92"/>
+      <c r="S40" s="119"/>
+      <c r="T40" s="120"/>
+      <c r="U40" s="120"/>
+      <c r="V40" s="92"/>
+      <c r="W40" s="92"/>
+      <c r="X40" s="92"/>
+      <c r="Y40" s="92"/>
+      <c r="Z40" s="119"/>
+      <c r="AA40" s="120"/>
+      <c r="AB40" s="120"/>
+      <c r="AC40" s="92"/>
+      <c r="AD40" s="92"/>
+      <c r="AE40" s="92"/>
+      <c r="AF40" s="92"/>
+      <c r="AG40" s="119"/>
+      <c r="AH40" s="120"/>
+      <c r="AI40" s="92"/>
+      <c r="AJ40" s="121"/>
+      <c r="AK40" s="87"/>
+      <c r="AL40" s="63"/>
+      <c r="AM40" s="63"/>
+      <c r="AN40" s="119"/>
+      <c r="AO40" s="120"/>
+      <c r="AP40" s="63"/>
+      <c r="AQ40" s="63"/>
+      <c r="AR40" s="63"/>
+      <c r="AS40" s="63"/>
+      <c r="AT40" s="63"/>
+      <c r="AU40" s="119"/>
+      <c r="AV40" s="120"/>
+      <c r="AW40" s="120"/>
+      <c r="AX40" s="41"/>
+      <c r="AY40" s="41"/>
+      <c r="AZ40" s="41"/>
+      <c r="BA40" s="41"/>
+      <c r="BB40" s="119"/>
+      <c r="BC40" s="120"/>
+      <c r="BD40" s="109"/>
+      <c r="BE40" s="30"/>
+      <c r="BF40" s="92"/>
+      <c r="BG40" s="92"/>
+      <c r="BH40" s="92"/>
+      <c r="BI40" s="119"/>
+      <c r="BJ40" s="120"/>
+      <c r="BK40" s="63"/>
+      <c r="BL40" s="63"/>
+      <c r="BM40" s="92"/>
+      <c r="BN40" s="121"/>
     </row>
-    <row r="41" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A41" s="166"/>
-      <c r="B41" s="168"/>
-      <c r="C41" s="171"/>
-      <c r="D41" s="172"/>
-      <c r="E41" s="173"/>
-      <c r="F41" s="175"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="69"/>
-      <c r="W41" s="69"/>
-      <c r="X41" s="69"/>
-      <c r="Y41" s="69"/>
-      <c r="Z41" s="14"/>
-      <c r="AA41" s="20"/>
-      <c r="AB41" s="20"/>
-      <c r="AC41" s="69"/>
-      <c r="AD41" s="69"/>
-      <c r="AE41" s="69"/>
-      <c r="AF41" s="69"/>
-      <c r="AG41" s="14"/>
-      <c r="AH41" s="20"/>
-      <c r="AI41" s="69"/>
-      <c r="AJ41" s="81"/>
-      <c r="AK41" s="91"/>
-      <c r="AL41" s="69"/>
-      <c r="AM41" s="69"/>
-      <c r="AN41" s="14"/>
-      <c r="AO41" s="20"/>
-      <c r="AP41" s="69"/>
-      <c r="AQ41" s="69"/>
-      <c r="AR41" s="69"/>
-      <c r="AS41" s="69"/>
-      <c r="AT41" s="69"/>
-      <c r="AU41" s="14"/>
-      <c r="AV41" s="20"/>
-      <c r="AW41" s="20"/>
-      <c r="AX41" s="69"/>
-      <c r="AY41" s="69"/>
-      <c r="AZ41" s="69"/>
-      <c r="BA41" s="69"/>
-      <c r="BB41" s="14"/>
-      <c r="BC41" s="20"/>
-      <c r="BD41" s="69"/>
-      <c r="BE41" s="69"/>
-      <c r="BF41" s="69"/>
-      <c r="BG41" s="69"/>
-      <c r="BH41" s="69"/>
-      <c r="BI41" s="14"/>
-      <c r="BJ41" s="20"/>
-      <c r="BK41" s="69"/>
-      <c r="BL41" s="69"/>
-      <c r="BM41" s="69"/>
-      <c r="BN41" s="102"/>
-      <c r="BO41" s="100"/>
+    <row r="41" spans="1:67" ht="12" customHeight="1">
+      <c r="A41" s="164"/>
+      <c r="B41" s="176"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="173"/>
+      <c r="E41" s="159"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="64"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="64"/>
+      <c r="W41" s="64"/>
+      <c r="X41" s="64"/>
+      <c r="Y41" s="64"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="64"/>
+      <c r="AD41" s="64"/>
+      <c r="AE41" s="64"/>
+      <c r="AF41" s="64"/>
+      <c r="AG41" s="25"/>
+      <c r="AH41" s="26"/>
+      <c r="AI41" s="64"/>
+      <c r="AJ41" s="74"/>
+      <c r="AK41" s="84"/>
+      <c r="AL41" s="64"/>
+      <c r="AM41" s="64"/>
+      <c r="AN41" s="25"/>
+      <c r="AO41" s="26"/>
+      <c r="AP41" s="64"/>
+      <c r="AQ41" s="64"/>
+      <c r="AR41" s="64"/>
+      <c r="AS41" s="64"/>
+      <c r="AT41" s="64"/>
+      <c r="AU41" s="25"/>
+      <c r="AV41" s="26"/>
+      <c r="AW41" s="26"/>
+      <c r="AX41" s="64"/>
+      <c r="AY41" s="64"/>
+      <c r="AZ41" s="64"/>
+      <c r="BA41" s="64"/>
+      <c r="BB41" s="25"/>
+      <c r="BC41" s="26"/>
+      <c r="BD41" s="96"/>
+      <c r="BE41" s="96"/>
+      <c r="BF41" s="96"/>
+      <c r="BG41" s="68"/>
+      <c r="BH41" s="96"/>
+      <c r="BI41" s="25"/>
+      <c r="BJ41" s="26"/>
+      <c r="BK41" s="68"/>
+      <c r="BL41" s="68"/>
+      <c r="BM41" s="96"/>
+      <c r="BN41" s="74"/>
     </row>
-    <row r="42" spans="1:67">
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
+    <row r="42" spans="1:67" ht="12" customHeight="1">
+      <c r="A42" s="142">
+        <v>20</v>
+      </c>
+      <c r="B42" s="128" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="166" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="167"/>
+      <c r="E42" s="159" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="170"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="65"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="65"/>
+      <c r="W42" s="65"/>
+      <c r="X42" s="65"/>
+      <c r="Y42" s="65"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="21"/>
+      <c r="AC42" s="65"/>
+      <c r="AD42" s="67"/>
+      <c r="AE42" s="65"/>
+      <c r="AF42" s="65"/>
+      <c r="AG42" s="15"/>
+      <c r="AH42" s="21"/>
+      <c r="AI42" s="65"/>
+      <c r="AJ42" s="76"/>
+      <c r="AK42" s="86"/>
+      <c r="AL42" s="65"/>
+      <c r="AM42" s="65"/>
+      <c r="AN42" s="15"/>
+      <c r="AO42" s="21"/>
+      <c r="AP42" s="65"/>
+      <c r="AQ42" s="65"/>
+      <c r="AR42" s="65"/>
+      <c r="AS42" s="65"/>
+      <c r="AT42" s="65"/>
+      <c r="AU42" s="15"/>
+      <c r="AV42" s="21"/>
+      <c r="AW42" s="21"/>
+      <c r="AX42" s="65"/>
+      <c r="AY42" s="65"/>
+      <c r="AZ42" s="65"/>
+      <c r="BA42" s="65"/>
+      <c r="BB42" s="15"/>
+      <c r="BC42" s="21"/>
+      <c r="BD42" s="30"/>
+      <c r="BE42" s="30"/>
+      <c r="BF42" s="30"/>
+      <c r="BG42" s="30"/>
+      <c r="BH42" s="63"/>
+      <c r="BI42" s="15"/>
+      <c r="BJ42" s="21"/>
+      <c r="BK42" s="107"/>
+      <c r="BL42" s="60"/>
+      <c r="BM42" s="62"/>
+      <c r="BN42" s="76"/>
+      <c r="BO42" s="97"/>
     </row>
-    <row r="43" spans="1:67">
-      <c r="A43" s="27"/>
-      <c r="B43" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="43" spans="1:67" ht="12" customHeight="1">
+      <c r="A43" s="164"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="169"/>
+      <c r="E43" s="159"/>
+      <c r="F43" s="171"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="63"/>
+      <c r="W43" s="63"/>
+      <c r="X43" s="63"/>
+      <c r="Y43" s="63"/>
+      <c r="Z43" s="13"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="63"/>
+      <c r="AD43" s="63"/>
+      <c r="AE43" s="63"/>
+      <c r="AF43" s="63"/>
+      <c r="AG43" s="13"/>
+      <c r="AH43" s="19"/>
+      <c r="AI43" s="63"/>
+      <c r="AJ43" s="77"/>
+      <c r="AK43" s="87"/>
+      <c r="AL43" s="63"/>
+      <c r="AM43" s="63"/>
+      <c r="AN43" s="13"/>
+      <c r="AO43" s="19"/>
+      <c r="AP43" s="63"/>
+      <c r="AQ43" s="63"/>
+      <c r="AR43" s="63"/>
+      <c r="AS43" s="63"/>
+      <c r="AT43" s="63"/>
+      <c r="AU43" s="13"/>
+      <c r="AV43" s="19"/>
+      <c r="AW43" s="19"/>
+      <c r="AX43" s="63"/>
+      <c r="AY43" s="63"/>
+      <c r="AZ43" s="63"/>
+      <c r="BA43" s="63"/>
+      <c r="BB43" s="13"/>
+      <c r="BC43" s="19"/>
+      <c r="BD43" s="63"/>
+      <c r="BE43" s="63"/>
+      <c r="BF43" s="96"/>
+      <c r="BG43" s="96"/>
+      <c r="BH43" s="96"/>
+      <c r="BI43" s="13"/>
+      <c r="BJ43" s="19"/>
+      <c r="BK43" s="64"/>
+      <c r="BL43" s="64"/>
+      <c r="BM43" s="68"/>
+      <c r="BN43" s="75"/>
+      <c r="BO43" s="97"/>
     </row>
     <row r="44" spans="1:67">
-      <c r="A44" s="28"/>
-      <c r="B44" s="1" t="s">
+      <c r="A44" s="142">
+        <v>21</v>
+      </c>
+      <c r="B44" s="134" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="136" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="137"/>
+      <c r="E44" s="132" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="140"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="65"/>
+      <c r="W44" s="65"/>
+      <c r="X44" s="65"/>
+      <c r="Y44" s="65"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="65"/>
+      <c r="AD44" s="65"/>
+      <c r="AE44" s="65"/>
+      <c r="AF44" s="65"/>
+      <c r="AG44" s="15"/>
+      <c r="AH44" s="21"/>
+      <c r="AI44" s="65"/>
+      <c r="AJ44" s="76"/>
+      <c r="AK44" s="86"/>
+      <c r="AL44" s="65"/>
+      <c r="AM44" s="65"/>
+      <c r="AN44" s="15"/>
+      <c r="AO44" s="21"/>
+      <c r="AP44" s="65"/>
+      <c r="AQ44" s="65"/>
+      <c r="AR44" s="65"/>
+      <c r="AS44" s="65"/>
+      <c r="AT44" s="65"/>
+      <c r="AU44" s="15"/>
+      <c r="AV44" s="21"/>
+      <c r="AW44" s="21"/>
+      <c r="AX44" s="65"/>
+      <c r="AY44" s="65"/>
+      <c r="AZ44" s="65"/>
+      <c r="BA44" s="65"/>
+      <c r="BB44" s="15"/>
+      <c r="BC44" s="21"/>
+      <c r="BD44" s="65"/>
+      <c r="BE44" s="65"/>
+      <c r="BF44" s="30"/>
+      <c r="BG44" s="30"/>
+      <c r="BH44" s="30"/>
+      <c r="BI44" s="15"/>
+      <c r="BJ44" s="21"/>
+      <c r="BK44" s="107"/>
+      <c r="BL44" s="60"/>
+      <c r="BM44" s="65"/>
+      <c r="BN44" s="65"/>
+      <c r="BO44" s="97"/>
+    </row>
+    <row r="45" spans="1:67" ht="10.199999999999999" thickBot="1">
+      <c r="A45" s="143"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="138"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="69"/>
+      <c r="W45" s="69"/>
+      <c r="X45" s="69"/>
+      <c r="Y45" s="69"/>
+      <c r="Z45" s="14"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="69"/>
+      <c r="AD45" s="69"/>
+      <c r="AE45" s="69"/>
+      <c r="AF45" s="69"/>
+      <c r="AG45" s="14"/>
+      <c r="AH45" s="20"/>
+      <c r="AI45" s="69"/>
+      <c r="AJ45" s="78"/>
+      <c r="AK45" s="88"/>
+      <c r="AL45" s="69"/>
+      <c r="AM45" s="69"/>
+      <c r="AN45" s="14"/>
+      <c r="AO45" s="20"/>
+      <c r="AP45" s="69"/>
+      <c r="AQ45" s="69"/>
+      <c r="AR45" s="69"/>
+      <c r="AS45" s="69"/>
+      <c r="AT45" s="69"/>
+      <c r="AU45" s="14"/>
+      <c r="AV45" s="20"/>
+      <c r="AW45" s="20"/>
+      <c r="AX45" s="69"/>
+      <c r="AY45" s="69"/>
+      <c r="AZ45" s="69"/>
+      <c r="BA45" s="69"/>
+      <c r="BB45" s="14"/>
+      <c r="BC45" s="20"/>
+      <c r="BD45" s="69"/>
+      <c r="BE45" s="69"/>
+      <c r="BF45" s="69"/>
+      <c r="BG45" s="69"/>
+      <c r="BH45" s="69"/>
+      <c r="BI45" s="14"/>
+      <c r="BJ45" s="20"/>
+      <c r="BK45" s="69"/>
+      <c r="BL45" s="69"/>
+      <c r="BM45" s="69"/>
+      <c r="BN45" s="99"/>
+    </row>
+    <row r="46" spans="1:67">
+      <c r="A46" s="131"/>
+    </row>
+    <row r="48" spans="1:67">
+      <c r="A48" s="27"/>
+      <c r="B48" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="28"/>
+      <c r="B49" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:67">
-      <c r="A45" s="109"/>
-      <c r="B45" s="1" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="105"/>
+      <c r="B50" s="1" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="84">
+  <mergeCells count="92">
     <mergeCell ref="AK1:BN1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
@@ -6659,6 +6902,9 @@
     <mergeCell ref="C18:D19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="C20:D21"/>
     <mergeCell ref="E20:E21"/>
@@ -6667,36 +6913,36 @@
     <mergeCell ref="C22:D23"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
     <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
     <mergeCell ref="C40:D41"/>
     <mergeCell ref="E40:E41"/>
     <mergeCell ref="F40:F41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="C38:D39"/>
     <mergeCell ref="C28:D29"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
     <mergeCell ref="C34:D35"/>
     <mergeCell ref="C32:D33"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="F32:F33"/>
@@ -6713,6 +6959,11 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A44:A45"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -6729,3536 +6980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F5DA1E-9A93-41B8-8787-365DAC723AA7}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:BO47"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O12" sqref="O12:P12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="3" customWidth="1"/>
-    <col min="7" max="30" width="3.109375" style="3" customWidth="1"/>
-    <col min="31" max="66" width="3.109375" style="1" customWidth="1"/>
-    <col min="67" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="199" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="202" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="206"/>
-      <c r="E1" s="211" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="213" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="196">
-        <v>45536</v>
-      </c>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="197"/>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="197"/>
-      <c r="T1" s="197"/>
-      <c r="U1" s="197"/>
-      <c r="V1" s="197"/>
-      <c r="W1" s="197"/>
-      <c r="X1" s="197"/>
-      <c r="Y1" s="197"/>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="197"/>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="197"/>
-      <c r="AD1" s="197"/>
-      <c r="AE1" s="197"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="197"/>
-      <c r="AH1" s="197"/>
-      <c r="AI1" s="197"/>
-      <c r="AJ1" s="198"/>
-      <c r="AK1" s="196">
-        <v>45566</v>
-      </c>
-      <c r="AL1" s="197"/>
-      <c r="AM1" s="197"/>
-      <c r="AN1" s="197"/>
-      <c r="AO1" s="197"/>
-      <c r="AP1" s="197"/>
-      <c r="AQ1" s="197"/>
-      <c r="AR1" s="197"/>
-      <c r="AS1" s="197"/>
-      <c r="AT1" s="197"/>
-      <c r="AU1" s="197"/>
-      <c r="AV1" s="197"/>
-      <c r="AW1" s="197"/>
-      <c r="AX1" s="197"/>
-      <c r="AY1" s="197"/>
-      <c r="AZ1" s="197"/>
-      <c r="BA1" s="197"/>
-      <c r="BB1" s="197"/>
-      <c r="BC1" s="197"/>
-      <c r="BD1" s="197"/>
-      <c r="BE1" s="197"/>
-      <c r="BF1" s="197"/>
-      <c r="BG1" s="197"/>
-      <c r="BH1" s="197"/>
-      <c r="BI1" s="197"/>
-      <c r="BJ1" s="197"/>
-      <c r="BK1" s="197"/>
-      <c r="BL1" s="197"/>
-      <c r="BM1" s="197"/>
-      <c r="BN1" s="198"/>
-    </row>
-    <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="200"/>
-      <c r="B2" s="203"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="46">
-        <v>45537</v>
-      </c>
-      <c r="H2" s="4">
-        <f>G2+1</f>
-        <v>45538</v>
-      </c>
-      <c r="I2" s="4">
-        <f t="shared" ref="I2:BN2" si="0">H2+1</f>
-        <v>45539</v>
-      </c>
-      <c r="J2" s="4">
-        <f t="shared" si="0"/>
-        <v>45540</v>
-      </c>
-      <c r="K2" s="4">
-        <f t="shared" si="0"/>
-        <v>45541</v>
-      </c>
-      <c r="L2" s="4">
-        <f t="shared" si="0"/>
-        <v>45542</v>
-      </c>
-      <c r="M2" s="4">
-        <f t="shared" si="0"/>
-        <v>45543</v>
-      </c>
-      <c r="N2" s="4">
-        <f t="shared" si="0"/>
-        <v>45544</v>
-      </c>
-      <c r="O2" s="4">
-        <f t="shared" si="0"/>
-        <v>45545</v>
-      </c>
-      <c r="P2" s="4">
-        <f t="shared" si="0"/>
-        <v>45546</v>
-      </c>
-      <c r="Q2" s="4">
-        <f t="shared" si="0"/>
-        <v>45547</v>
-      </c>
-      <c r="R2" s="4">
-        <f t="shared" si="0"/>
-        <v>45548</v>
-      </c>
-      <c r="S2" s="4">
-        <f t="shared" si="0"/>
-        <v>45549</v>
-      </c>
-      <c r="T2" s="4">
-        <f t="shared" si="0"/>
-        <v>45550</v>
-      </c>
-      <c r="U2" s="4">
-        <f t="shared" si="0"/>
-        <v>45551</v>
-      </c>
-      <c r="V2" s="4">
-        <f t="shared" si="0"/>
-        <v>45552</v>
-      </c>
-      <c r="W2" s="4">
-        <f t="shared" si="0"/>
-        <v>45553</v>
-      </c>
-      <c r="X2" s="4">
-        <f t="shared" si="0"/>
-        <v>45554</v>
-      </c>
-      <c r="Y2" s="4">
-        <f t="shared" si="0"/>
-        <v>45555</v>
-      </c>
-      <c r="Z2" s="4">
-        <f t="shared" si="0"/>
-        <v>45556</v>
-      </c>
-      <c r="AA2" s="4">
-        <f t="shared" si="0"/>
-        <v>45557</v>
-      </c>
-      <c r="AB2" s="4">
-        <f t="shared" si="0"/>
-        <v>45558</v>
-      </c>
-      <c r="AC2" s="4">
-        <f t="shared" si="0"/>
-        <v>45559</v>
-      </c>
-      <c r="AD2" s="4">
-        <f t="shared" si="0"/>
-        <v>45560</v>
-      </c>
-      <c r="AE2" s="4">
-        <f t="shared" si="0"/>
-        <v>45561</v>
-      </c>
-      <c r="AF2" s="4">
-        <f t="shared" si="0"/>
-        <v>45562</v>
-      </c>
-      <c r="AG2" s="4">
-        <f t="shared" si="0"/>
-        <v>45563</v>
-      </c>
-      <c r="AH2" s="4">
-        <f t="shared" si="0"/>
-        <v>45564</v>
-      </c>
-      <c r="AI2" s="4">
-        <f t="shared" si="0"/>
-        <v>45565</v>
-      </c>
-      <c r="AJ2" s="47">
-        <f t="shared" si="0"/>
-        <v>45566</v>
-      </c>
-      <c r="AK2" s="46">
-        <f t="shared" si="0"/>
-        <v>45567</v>
-      </c>
-      <c r="AL2" s="4">
-        <f t="shared" si="0"/>
-        <v>45568</v>
-      </c>
-      <c r="AM2" s="4">
-        <f t="shared" si="0"/>
-        <v>45569</v>
-      </c>
-      <c r="AN2" s="4">
-        <f t="shared" si="0"/>
-        <v>45570</v>
-      </c>
-      <c r="AO2" s="4">
-        <f t="shared" si="0"/>
-        <v>45571</v>
-      </c>
-      <c r="AP2" s="4">
-        <f t="shared" si="0"/>
-        <v>45572</v>
-      </c>
-      <c r="AQ2" s="4">
-        <f t="shared" si="0"/>
-        <v>45573</v>
-      </c>
-      <c r="AR2" s="4">
-        <f t="shared" si="0"/>
-        <v>45574</v>
-      </c>
-      <c r="AS2" s="4">
-        <f t="shared" si="0"/>
-        <v>45575</v>
-      </c>
-      <c r="AT2" s="4">
-        <f t="shared" si="0"/>
-        <v>45576</v>
-      </c>
-      <c r="AU2" s="4">
-        <f t="shared" si="0"/>
-        <v>45577</v>
-      </c>
-      <c r="AV2" s="4">
-        <f t="shared" si="0"/>
-        <v>45578</v>
-      </c>
-      <c r="AW2" s="4">
-        <f t="shared" si="0"/>
-        <v>45579</v>
-      </c>
-      <c r="AX2" s="4">
-        <f t="shared" si="0"/>
-        <v>45580</v>
-      </c>
-      <c r="AY2" s="4">
-        <f t="shared" si="0"/>
-        <v>45581</v>
-      </c>
-      <c r="AZ2" s="4">
-        <f t="shared" si="0"/>
-        <v>45582</v>
-      </c>
-      <c r="BA2" s="4">
-        <f t="shared" si="0"/>
-        <v>45583</v>
-      </c>
-      <c r="BB2" s="4">
-        <f t="shared" si="0"/>
-        <v>45584</v>
-      </c>
-      <c r="BC2" s="4">
-        <f t="shared" si="0"/>
-        <v>45585</v>
-      </c>
-      <c r="BD2" s="4">
-        <f t="shared" si="0"/>
-        <v>45586</v>
-      </c>
-      <c r="BE2" s="4">
-        <f t="shared" si="0"/>
-        <v>45587</v>
-      </c>
-      <c r="BF2" s="4">
-        <f t="shared" si="0"/>
-        <v>45588</v>
-      </c>
-      <c r="BG2" s="4">
-        <f t="shared" si="0"/>
-        <v>45589</v>
-      </c>
-      <c r="BH2" s="4">
-        <f t="shared" si="0"/>
-        <v>45590</v>
-      </c>
-      <c r="BI2" s="4">
-        <f t="shared" si="0"/>
-        <v>45591</v>
-      </c>
-      <c r="BJ2" s="4">
-        <f t="shared" si="0"/>
-        <v>45592</v>
-      </c>
-      <c r="BK2" s="4">
-        <f t="shared" si="0"/>
-        <v>45593</v>
-      </c>
-      <c r="BL2" s="4">
-        <f t="shared" si="0"/>
-        <v>45594</v>
-      </c>
-      <c r="BM2" s="4">
-        <f t="shared" si="0"/>
-        <v>45595</v>
-      </c>
-      <c r="BN2" s="47">
-        <f t="shared" si="0"/>
-        <v>45596</v>
-      </c>
-    </row>
-    <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="201"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="W3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z3" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG3" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ3" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK3" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN3" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP3" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR3" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU3" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="AW3" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY3" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="AZ3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="BA3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="BB3" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="BC3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD3" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="BE3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="BF3" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="BG3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="BH3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="BI3" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="BJ3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="BK3" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="BL3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="BM3" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="BN3" s="70" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="191">
-        <v>1</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="192" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="193"/>
-      <c r="E4" s="161" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="194"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="82"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="18"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10"/>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="18"/>
-      <c r="AW4" s="18"/>
-      <c r="AX4" s="10"/>
-      <c r="AY4" s="10"/>
-      <c r="AZ4" s="10"/>
-      <c r="BA4" s="10"/>
-      <c r="BB4" s="12"/>
-      <c r="BC4" s="18"/>
-      <c r="BD4" s="10"/>
-      <c r="BE4" s="10"/>
-      <c r="BF4" s="10"/>
-      <c r="BG4" s="10"/>
-      <c r="BH4" s="10"/>
-      <c r="BI4" s="12"/>
-      <c r="BJ4" s="18"/>
-      <c r="BK4" s="10"/>
-      <c r="BL4" s="10"/>
-      <c r="BM4" s="10"/>
-      <c r="BN4" s="71"/>
-    </row>
-    <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="163"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="117"/>
-      <c r="AK5" s="83"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="16"/>
-      <c r="AO5" s="22"/>
-      <c r="AP5" s="9"/>
-      <c r="AQ5" s="9"/>
-      <c r="AR5" s="9"/>
-      <c r="AS5" s="9"/>
-      <c r="AT5" s="9"/>
-      <c r="AU5" s="16"/>
-      <c r="AV5" s="22"/>
-      <c r="AW5" s="22"/>
-      <c r="AX5" s="9"/>
-      <c r="AY5" s="9"/>
-      <c r="AZ5" s="9"/>
-      <c r="BA5" s="9"/>
-      <c r="BB5" s="16"/>
-      <c r="BC5" s="22"/>
-      <c r="BD5" s="9"/>
-      <c r="BE5" s="9"/>
-      <c r="BF5" s="9"/>
-      <c r="BG5" s="9"/>
-      <c r="BH5" s="9"/>
-      <c r="BI5" s="16"/>
-      <c r="BJ5" s="22"/>
-      <c r="BK5" s="9"/>
-      <c r="BL5" s="9"/>
-      <c r="BM5" s="9"/>
-      <c r="BN5" s="117"/>
-    </row>
-    <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="162">
-        <v>2</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="159" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="160"/>
-      <c r="E6" s="155" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="188"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="73"/>
-      <c r="AK6" s="84"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="19"/>
-      <c r="AW6" s="19"/>
-      <c r="AX6" s="7"/>
-      <c r="AY6" s="7"/>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="7"/>
-      <c r="BB6" s="13"/>
-      <c r="BC6" s="19"/>
-      <c r="BD6" s="7"/>
-      <c r="BE6" s="7"/>
-      <c r="BF6" s="7"/>
-      <c r="BG6" s="7"/>
-      <c r="BH6" s="7"/>
-      <c r="BI6" s="13"/>
-      <c r="BJ6" s="19"/>
-      <c r="BK6" s="7"/>
-      <c r="BL6" s="7"/>
-      <c r="BM6" s="7"/>
-      <c r="BN6" s="73"/>
-    </row>
-    <row r="7" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A7" s="163"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="23"/>
-      <c r="AI7" s="8"/>
-      <c r="AJ7" s="96"/>
-      <c r="AK7" s="107"/>
-      <c r="AL7" s="8"/>
-      <c r="AM7" s="8"/>
-      <c r="AN7" s="17"/>
-      <c r="AO7" s="23"/>
-      <c r="AP7" s="8"/>
-      <c r="AQ7" s="8"/>
-      <c r="AR7" s="8"/>
-      <c r="AS7" s="8"/>
-      <c r="AT7" s="8"/>
-      <c r="AU7" s="17"/>
-      <c r="AV7" s="23"/>
-      <c r="AW7" s="23"/>
-      <c r="AX7" s="8"/>
-      <c r="AY7" s="8"/>
-      <c r="AZ7" s="24"/>
-      <c r="BA7" s="24"/>
-      <c r="BB7" s="25"/>
-      <c r="BC7" s="26"/>
-      <c r="BD7" s="24"/>
-      <c r="BE7" s="24"/>
-      <c r="BF7" s="24"/>
-      <c r="BG7" s="24"/>
-      <c r="BH7" s="24"/>
-      <c r="BI7" s="25"/>
-      <c r="BJ7" s="26"/>
-      <c r="BK7" s="24"/>
-      <c r="BL7" s="24"/>
-      <c r="BM7" s="24"/>
-      <c r="BN7" s="116"/>
-    </row>
-    <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="190">
-        <v>3</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="146" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="147"/>
-      <c r="E8" s="152" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="154"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="117"/>
-      <c r="AK8" s="83"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="16"/>
-      <c r="AO8" s="22"/>
-      <c r="AP8" s="9"/>
-      <c r="AQ8" s="9"/>
-      <c r="AR8" s="9"/>
-      <c r="AS8" s="9"/>
-      <c r="AT8" s="9"/>
-      <c r="AU8" s="16"/>
-      <c r="AV8" s="22"/>
-      <c r="AW8" s="22"/>
-      <c r="AX8" s="108"/>
-      <c r="AY8" s="9"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="15"/>
-      <c r="BC8" s="21"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="6"/>
-      <c r="BH8" s="6"/>
-      <c r="BI8" s="15"/>
-      <c r="BJ8" s="21"/>
-      <c r="BK8" s="6"/>
-      <c r="BL8" s="6"/>
-      <c r="BM8" s="6"/>
-      <c r="BN8" s="75"/>
-    </row>
-    <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="163"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="73"/>
-      <c r="AK9" s="84"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
-      <c r="AT9" s="7"/>
-      <c r="AU9" s="13"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="7"/>
-      <c r="AY9" s="7"/>
-      <c r="AZ9" s="7"/>
-      <c r="BA9" s="7"/>
-      <c r="BB9" s="13"/>
-      <c r="BC9" s="19"/>
-      <c r="BD9" s="7"/>
-      <c r="BE9" s="7"/>
-      <c r="BF9" s="7"/>
-      <c r="BG9" s="7"/>
-      <c r="BH9" s="7"/>
-      <c r="BI9" s="13"/>
-      <c r="BJ9" s="19"/>
-      <c r="BK9" s="7"/>
-      <c r="BL9" s="7"/>
-      <c r="BM9" s="7"/>
-      <c r="BN9" s="73"/>
-    </row>
-    <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="162">
-        <v>4</v>
-      </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="146" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="147"/>
-      <c r="E10" s="161" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="139"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="110"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="73"/>
-      <c r="AK10" s="84"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="19"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="7"/>
-      <c r="AU10" s="13"/>
-      <c r="AV10" s="19"/>
-      <c r="AW10" s="19"/>
-      <c r="AX10" s="7"/>
-      <c r="AY10" s="7"/>
-      <c r="AZ10" s="7"/>
-      <c r="BA10" s="7"/>
-      <c r="BB10" s="13"/>
-      <c r="BC10" s="19"/>
-      <c r="BD10" s="7"/>
-      <c r="BE10" s="7"/>
-      <c r="BF10" s="7"/>
-      <c r="BG10" s="7"/>
-      <c r="BH10" s="7"/>
-      <c r="BI10" s="13"/>
-      <c r="BJ10" s="19"/>
-      <c r="BK10" s="7"/>
-      <c r="BL10" s="7"/>
-      <c r="BM10" s="7"/>
-      <c r="BN10" s="73"/>
-    </row>
-    <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="163"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="73"/>
-      <c r="AK11" s="84"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="19"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
-      <c r="AT11" s="7"/>
-      <c r="AU11" s="13"/>
-      <c r="AV11" s="19"/>
-      <c r="AW11" s="19"/>
-      <c r="AX11" s="7"/>
-      <c r="AY11" s="7"/>
-      <c r="AZ11" s="7"/>
-      <c r="BA11" s="7"/>
-      <c r="BB11" s="13"/>
-      <c r="BC11" s="19"/>
-      <c r="BD11" s="7"/>
-      <c r="BE11" s="7"/>
-      <c r="BF11" s="7"/>
-      <c r="BG11" s="7"/>
-      <c r="BH11" s="7"/>
-      <c r="BI11" s="13"/>
-      <c r="BJ11" s="19"/>
-      <c r="BK11" s="7"/>
-      <c r="BL11" s="7"/>
-      <c r="BM11" s="7"/>
-      <c r="BN11" s="73"/>
-    </row>
-    <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="162">
-        <v>5</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="146" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="147"/>
-      <c r="E12" s="157" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="139"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="73"/>
-      <c r="AK12" s="84"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="19"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="13"/>
-      <c r="AV12" s="19"/>
-      <c r="AW12" s="19"/>
-      <c r="AX12" s="7"/>
-      <c r="AY12" s="7"/>
-      <c r="AZ12" s="7"/>
-      <c r="BA12" s="7"/>
-      <c r="BB12" s="13"/>
-      <c r="BC12" s="19"/>
-      <c r="BD12" s="7"/>
-      <c r="BE12" s="7"/>
-      <c r="BF12" s="7"/>
-      <c r="BG12" s="7"/>
-      <c r="BH12" s="7"/>
-      <c r="BI12" s="13"/>
-      <c r="BJ12" s="19"/>
-      <c r="BK12" s="7"/>
-      <c r="BL12" s="7"/>
-      <c r="BM12" s="7"/>
-      <c r="BN12" s="73"/>
-    </row>
-    <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="163"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="43"/>
-      <c r="AE13" s="43"/>
-      <c r="AF13" s="43"/>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="43"/>
-      <c r="AJ13" s="118"/>
-      <c r="AK13" s="86"/>
-      <c r="AL13" s="43"/>
-      <c r="AM13" s="43"/>
-      <c r="AN13" s="44"/>
-      <c r="AO13" s="45"/>
-      <c r="AP13" s="43"/>
-      <c r="AQ13" s="43"/>
-      <c r="AR13" s="43"/>
-      <c r="AS13" s="43"/>
-      <c r="AT13" s="43"/>
-      <c r="AU13" s="44"/>
-      <c r="AV13" s="45"/>
-      <c r="AW13" s="45"/>
-      <c r="AX13" s="43"/>
-      <c r="AY13" s="43"/>
-      <c r="AZ13" s="43"/>
-      <c r="BA13" s="43"/>
-      <c r="BB13" s="44"/>
-      <c r="BC13" s="45"/>
-      <c r="BD13" s="43"/>
-      <c r="BE13" s="43"/>
-      <c r="BF13" s="43"/>
-      <c r="BG13" s="43"/>
-      <c r="BH13" s="43"/>
-      <c r="BI13" s="44"/>
-      <c r="BJ13" s="45"/>
-      <c r="BK13" s="43"/>
-      <c r="BL13" s="43"/>
-      <c r="BM13" s="43"/>
-      <c r="BN13" s="96"/>
-    </row>
-    <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="162">
-        <v>6</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="146" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="147"/>
-      <c r="E14" s="153" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="186"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="111"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="117"/>
-      <c r="AK14" s="83"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="16"/>
-      <c r="AO14" s="22"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="9"/>
-      <c r="AT14" s="9"/>
-      <c r="AU14" s="16"/>
-      <c r="AV14" s="22"/>
-      <c r="AW14" s="22"/>
-      <c r="AX14" s="9"/>
-      <c r="AY14" s="9"/>
-      <c r="AZ14" s="9"/>
-      <c r="BA14" s="9"/>
-      <c r="BB14" s="16"/>
-      <c r="BC14" s="22"/>
-      <c r="BD14" s="9"/>
-      <c r="BE14" s="9"/>
-      <c r="BF14" s="9"/>
-      <c r="BG14" s="9"/>
-      <c r="BH14" s="9"/>
-      <c r="BI14" s="16"/>
-      <c r="BJ14" s="22"/>
-      <c r="BK14" s="9"/>
-      <c r="BL14" s="9"/>
-      <c r="BM14" s="9"/>
-      <c r="BN14" s="117"/>
-    </row>
-    <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="163"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="187"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="130"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="117"/>
-      <c r="AK15" s="83"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="16"/>
-      <c r="AO15" s="22"/>
-      <c r="AP15" s="9"/>
-      <c r="AQ15" s="9"/>
-      <c r="AR15" s="9"/>
-      <c r="AS15" s="9"/>
-      <c r="AT15" s="9"/>
-      <c r="AU15" s="16"/>
-      <c r="AV15" s="22"/>
-      <c r="AW15" s="22"/>
-      <c r="AX15" s="9"/>
-      <c r="AY15" s="9"/>
-      <c r="AZ15" s="9"/>
-      <c r="BA15" s="9"/>
-      <c r="BB15" s="16"/>
-      <c r="BC15" s="22"/>
-      <c r="BD15" s="9"/>
-      <c r="BE15" s="9"/>
-      <c r="BF15" s="9"/>
-      <c r="BG15" s="9"/>
-      <c r="BH15" s="9"/>
-      <c r="BI15" s="16"/>
-      <c r="BJ15" s="22"/>
-      <c r="BK15" s="9"/>
-      <c r="BL15" s="9"/>
-      <c r="BM15" s="9"/>
-      <c r="BN15" s="117"/>
-    </row>
-    <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="162">
-        <v>7</v>
-      </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="159" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="160"/>
-      <c r="E16" s="157" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="184"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="114"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="117"/>
-      <c r="AK16" s="83"/>
-      <c r="AL16" s="7"/>
-      <c r="AM16" s="7"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="19"/>
-      <c r="AP16" s="7"/>
-      <c r="AQ16" s="7"/>
-      <c r="AR16" s="7"/>
-      <c r="AS16" s="7"/>
-      <c r="AT16" s="7"/>
-      <c r="AU16" s="13"/>
-      <c r="AV16" s="19"/>
-      <c r="AW16" s="19"/>
-      <c r="AX16" s="7"/>
-      <c r="AY16" s="7"/>
-      <c r="AZ16" s="7"/>
-      <c r="BA16" s="7"/>
-      <c r="BB16" s="13"/>
-      <c r="BC16" s="19"/>
-      <c r="BD16" s="7"/>
-      <c r="BE16" s="7"/>
-      <c r="BF16" s="7"/>
-      <c r="BG16" s="7"/>
-      <c r="BH16" s="7"/>
-      <c r="BI16" s="13"/>
-      <c r="BJ16" s="19"/>
-      <c r="BK16" s="7"/>
-      <c r="BL16" s="7"/>
-      <c r="BM16" s="7"/>
-      <c r="BN16" s="73"/>
-    </row>
-    <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="163"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="43"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="101"/>
-      <c r="AG17" s="25"/>
-      <c r="AH17" s="23"/>
-      <c r="AI17" s="8"/>
-      <c r="AJ17" s="117"/>
-      <c r="AK17" s="83"/>
-      <c r="AL17" s="7"/>
-      <c r="AM17" s="7"/>
-      <c r="AN17" s="25"/>
-      <c r="AO17" s="26"/>
-      <c r="AP17" s="24"/>
-      <c r="AQ17" s="24"/>
-      <c r="AR17" s="24"/>
-      <c r="AS17" s="24"/>
-      <c r="AT17" s="24"/>
-      <c r="AU17" s="25"/>
-      <c r="AV17" s="26"/>
-      <c r="AW17" s="26"/>
-      <c r="AX17" s="24"/>
-      <c r="AY17" s="24"/>
-      <c r="AZ17" s="24"/>
-      <c r="BA17" s="24"/>
-      <c r="BB17" s="25"/>
-      <c r="BC17" s="26"/>
-      <c r="BD17" s="24"/>
-      <c r="BE17" s="24"/>
-      <c r="BF17" s="24"/>
-      <c r="BG17" s="24"/>
-      <c r="BH17" s="24"/>
-      <c r="BI17" s="25"/>
-      <c r="BJ17" s="26"/>
-      <c r="BK17" s="24"/>
-      <c r="BL17" s="24"/>
-      <c r="BM17" s="24"/>
-      <c r="BN17" s="116"/>
-    </row>
-    <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="162">
-        <v>8</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="169" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="170"/>
-      <c r="E18" s="161" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="182"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="60"/>
-      <c r="AD18" s="60"/>
-      <c r="AE18" s="60"/>
-      <c r="AF18" s="60"/>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="114"/>
-      <c r="AJ18" s="98"/>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="15"/>
-      <c r="AO18" s="21"/>
-      <c r="AP18" s="111"/>
-      <c r="AQ18" s="60"/>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="6"/>
-      <c r="AT18" s="6"/>
-      <c r="AU18" s="15"/>
-      <c r="AV18" s="21"/>
-      <c r="AW18" s="21"/>
-      <c r="AX18" s="6"/>
-      <c r="AY18" s="6"/>
-      <c r="AZ18" s="6"/>
-      <c r="BA18" s="6"/>
-      <c r="BB18" s="15"/>
-      <c r="BC18" s="21"/>
-      <c r="BD18" s="6"/>
-      <c r="BE18" s="6"/>
-      <c r="BF18" s="6"/>
-      <c r="BG18" s="6"/>
-      <c r="BH18" s="6"/>
-      <c r="BI18" s="15"/>
-      <c r="BJ18" s="21"/>
-      <c r="BK18" s="6"/>
-      <c r="BL18" s="6"/>
-      <c r="BM18" s="6"/>
-      <c r="BN18" s="75"/>
-    </row>
-    <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="163"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="136"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="25"/>
-      <c r="AH19" s="26"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="73"/>
-      <c r="AK19" s="85"/>
-      <c r="AL19" s="24"/>
-      <c r="AM19" s="24"/>
-      <c r="AN19" s="25"/>
-      <c r="AO19" s="26"/>
-      <c r="AP19" s="24"/>
-      <c r="AQ19" s="24"/>
-      <c r="AR19" s="24"/>
-      <c r="AS19" s="24"/>
-      <c r="AT19" s="24"/>
-      <c r="AU19" s="25"/>
-      <c r="AV19" s="26"/>
-      <c r="AW19" s="26"/>
-      <c r="AX19" s="24"/>
-      <c r="AY19" s="24"/>
-      <c r="AZ19" s="24"/>
-      <c r="BA19" s="24"/>
-      <c r="BB19" s="25"/>
-      <c r="BC19" s="26"/>
-      <c r="BD19" s="24"/>
-      <c r="BE19" s="24"/>
-      <c r="BF19" s="24"/>
-      <c r="BG19" s="24"/>
-      <c r="BH19" s="24"/>
-      <c r="BI19" s="25"/>
-      <c r="BJ19" s="26"/>
-      <c r="BK19" s="24"/>
-      <c r="BL19" s="24"/>
-      <c r="BM19" s="24"/>
-      <c r="BN19" s="116"/>
-    </row>
-    <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="162">
-        <v>9</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="159" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="160"/>
-      <c r="E20" s="155" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="184"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="94"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="30"/>
-      <c r="AJ20" s="98"/>
-      <c r="AK20" s="24"/>
-      <c r="AL20" s="24"/>
-      <c r="AM20" s="24"/>
-      <c r="AN20" s="13"/>
-      <c r="AO20" s="19"/>
-      <c r="AP20" s="114"/>
-      <c r="AQ20" s="30"/>
-      <c r="AR20" s="7"/>
-      <c r="AS20" s="7"/>
-      <c r="AT20" s="7"/>
-      <c r="AU20" s="13"/>
-      <c r="AV20" s="19"/>
-      <c r="AW20" s="19"/>
-      <c r="AX20" s="7"/>
-      <c r="AY20" s="7"/>
-      <c r="AZ20" s="7"/>
-      <c r="BA20" s="7"/>
-      <c r="BB20" s="13"/>
-      <c r="BC20" s="19"/>
-      <c r="BD20" s="7"/>
-      <c r="BE20" s="7"/>
-      <c r="BF20" s="7"/>
-      <c r="BG20" s="7"/>
-      <c r="BH20" s="7"/>
-      <c r="BI20" s="13"/>
-      <c r="BJ20" s="19"/>
-      <c r="BK20" s="7"/>
-      <c r="BL20" s="7"/>
-      <c r="BM20" s="7"/>
-      <c r="BN20" s="73"/>
-    </row>
-    <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="163"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="94"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="25"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="24"/>
-      <c r="AJ21" s="116"/>
-      <c r="AK21" s="85"/>
-      <c r="AL21" s="24"/>
-      <c r="AM21" s="24"/>
-      <c r="AN21" s="25"/>
-      <c r="AO21" s="26"/>
-      <c r="AP21" s="24"/>
-      <c r="AQ21" s="24"/>
-      <c r="AR21" s="24"/>
-      <c r="AS21" s="24"/>
-      <c r="AT21" s="24"/>
-      <c r="AU21" s="25"/>
-      <c r="AV21" s="26"/>
-      <c r="AW21" s="26"/>
-      <c r="AX21" s="24"/>
-      <c r="AY21" s="24"/>
-      <c r="AZ21" s="24"/>
-      <c r="BA21" s="24"/>
-      <c r="BB21" s="25"/>
-      <c r="BC21" s="26"/>
-      <c r="BD21" s="24"/>
-      <c r="BE21" s="24"/>
-      <c r="BF21" s="24"/>
-      <c r="BG21" s="24"/>
-      <c r="BH21" s="24"/>
-      <c r="BI21" s="25"/>
-      <c r="BJ21" s="26"/>
-      <c r="BK21" s="24"/>
-      <c r="BL21" s="24"/>
-      <c r="BM21" s="24"/>
-      <c r="BN21" s="116"/>
-    </row>
-    <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="162">
-        <v>10</v>
-      </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="159" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="160"/>
-      <c r="E22" s="152" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="184"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="64"/>
-      <c r="W22" s="64"/>
-      <c r="X22" s="64"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="135"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="24"/>
-      <c r="AJ22" s="98"/>
-      <c r="AK22" s="30"/>
-      <c r="AL22" s="30"/>
-      <c r="AM22" s="30"/>
-      <c r="AN22" s="25"/>
-      <c r="AO22" s="26"/>
-      <c r="AP22" s="114"/>
-      <c r="AQ22" s="30"/>
-      <c r="AR22" s="64"/>
-      <c r="AS22" s="64"/>
-      <c r="AT22" s="64"/>
-      <c r="AU22" s="25"/>
-      <c r="AV22" s="26"/>
-      <c r="AW22" s="26"/>
-      <c r="AX22" s="64"/>
-      <c r="AY22" s="64"/>
-      <c r="AZ22" s="64"/>
-      <c r="BA22" s="64"/>
-      <c r="BB22" s="25"/>
-      <c r="BC22" s="26"/>
-      <c r="BD22" s="64"/>
-      <c r="BE22" s="64"/>
-      <c r="BF22" s="64"/>
-      <c r="BG22" s="64"/>
-      <c r="BH22" s="64"/>
-      <c r="BI22" s="25"/>
-      <c r="BJ22" s="26"/>
-      <c r="BK22" s="64"/>
-      <c r="BL22" s="64"/>
-      <c r="BM22" s="64"/>
-      <c r="BN22" s="77"/>
-    </row>
-    <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="163"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="164"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="185"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="68"/>
-      <c r="W23" s="68"/>
-      <c r="X23" s="68"/>
-      <c r="Y23" s="68"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="99"/>
-      <c r="AD23" s="68"/>
-      <c r="AE23" s="68"/>
-      <c r="AF23" s="68"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="23"/>
-      <c r="AI23" s="68"/>
-      <c r="AJ23" s="78"/>
-      <c r="AK23" s="88"/>
-      <c r="AL23" s="68"/>
-      <c r="AM23" s="68"/>
-      <c r="AN23" s="17"/>
-      <c r="AO23" s="23"/>
-      <c r="AP23" s="68"/>
-      <c r="AQ23" s="68"/>
-      <c r="AR23" s="68"/>
-      <c r="AS23" s="68"/>
-      <c r="AT23" s="68"/>
-      <c r="AU23" s="17"/>
-      <c r="AV23" s="23"/>
-      <c r="AW23" s="23"/>
-      <c r="AX23" s="68"/>
-      <c r="AY23" s="68"/>
-      <c r="AZ23" s="68"/>
-      <c r="BA23" s="68"/>
-      <c r="BB23" s="17"/>
-      <c r="BC23" s="23"/>
-      <c r="BD23" s="68"/>
-      <c r="BE23" s="68"/>
-      <c r="BF23" s="68"/>
-      <c r="BG23" s="68"/>
-      <c r="BH23" s="68"/>
-      <c r="BI23" s="17"/>
-      <c r="BJ23" s="23"/>
-      <c r="BK23" s="68"/>
-      <c r="BL23" s="68"/>
-      <c r="BM23" s="68"/>
-      <c r="BN23" s="78"/>
-    </row>
-    <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="162">
-        <v>11</v>
-      </c>
-      <c r="B24" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="169" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="170"/>
-      <c r="E24" s="161" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="182"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="65"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="65"/>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="65"/>
-      <c r="AE24" s="65"/>
-      <c r="AF24" s="65"/>
-      <c r="AG24" s="15"/>
-      <c r="AH24" s="21"/>
-      <c r="AI24" s="63"/>
-      <c r="AJ24" s="117"/>
-      <c r="AK24" s="63"/>
-      <c r="AL24" s="63"/>
-      <c r="AM24" s="63"/>
-      <c r="AN24" s="15"/>
-      <c r="AO24" s="21"/>
-      <c r="AP24" s="60"/>
-      <c r="AQ24" s="65"/>
-      <c r="AR24" s="65"/>
-      <c r="AS24" s="65"/>
-      <c r="AT24" s="65"/>
-      <c r="AU24" s="15"/>
-      <c r="AV24" s="21"/>
-      <c r="AW24" s="21"/>
-      <c r="AX24" s="111"/>
-      <c r="AY24" s="60"/>
-      <c r="AZ24" s="65"/>
-      <c r="BA24" s="65"/>
-      <c r="BB24" s="15"/>
-      <c r="BC24" s="21"/>
-      <c r="BD24" s="65"/>
-      <c r="BE24" s="65"/>
-      <c r="BF24" s="65"/>
-      <c r="BG24" s="65"/>
-      <c r="BH24" s="65"/>
-      <c r="BI24" s="15"/>
-      <c r="BJ24" s="21"/>
-      <c r="BK24" s="65"/>
-      <c r="BL24" s="65"/>
-      <c r="BM24" s="65"/>
-      <c r="BN24" s="79"/>
-    </row>
-    <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="163"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="63"/>
-      <c r="W25" s="63"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="97"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="63"/>
-      <c r="AD25" s="63"/>
-      <c r="AE25" s="63"/>
-      <c r="AF25" s="63"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="63"/>
-      <c r="AJ25" s="80"/>
-      <c r="AK25" s="90"/>
-      <c r="AL25" s="63"/>
-      <c r="AM25" s="63"/>
-      <c r="AN25" s="13"/>
-      <c r="AO25" s="19"/>
-      <c r="AP25" s="115"/>
-      <c r="AQ25" s="63"/>
-      <c r="AR25" s="63"/>
-      <c r="AS25" s="63"/>
-      <c r="AT25" s="63"/>
-      <c r="AU25" s="13"/>
-      <c r="AV25" s="19"/>
-      <c r="AW25" s="19"/>
-      <c r="AX25" s="63"/>
-      <c r="AY25" s="63"/>
-      <c r="AZ25" s="63"/>
-      <c r="BA25" s="63"/>
-      <c r="BB25" s="13"/>
-      <c r="BC25" s="19"/>
-      <c r="BD25" s="63"/>
-      <c r="BE25" s="63"/>
-      <c r="BF25" s="63"/>
-      <c r="BG25" s="63"/>
-      <c r="BH25" s="63"/>
-      <c r="BI25" s="13"/>
-      <c r="BJ25" s="19"/>
-      <c r="BK25" s="63"/>
-      <c r="BL25" s="63"/>
-      <c r="BM25" s="63"/>
-      <c r="BN25" s="80"/>
-    </row>
-    <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="162">
-        <v>12</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="142" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="143"/>
-      <c r="E26" s="152" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="154"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="62"/>
-      <c r="W26" s="62"/>
-      <c r="X26" s="62"/>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="62"/>
-      <c r="AD26" s="62"/>
-      <c r="AE26" s="63"/>
-      <c r="AF26" s="62"/>
-      <c r="AG26" s="16"/>
-      <c r="AH26" s="22"/>
-      <c r="AI26" s="63"/>
-      <c r="AJ26" s="80"/>
-      <c r="AK26" s="90"/>
-      <c r="AL26" s="63"/>
-      <c r="AM26" s="63"/>
-      <c r="AN26" s="16"/>
-      <c r="AO26" s="22"/>
-      <c r="AP26" s="63"/>
-      <c r="AQ26" s="30"/>
-      <c r="AR26" s="30"/>
-      <c r="AS26" s="63"/>
-      <c r="AT26" s="62"/>
-      <c r="AU26" s="16"/>
-      <c r="AV26" s="22"/>
-      <c r="AW26" s="22"/>
-      <c r="AX26" s="114"/>
-      <c r="AY26" s="30"/>
-      <c r="AZ26" s="62"/>
-      <c r="BA26" s="62"/>
-      <c r="BB26" s="16"/>
-      <c r="BC26" s="22"/>
-      <c r="BD26" s="62"/>
-      <c r="BE26" s="62"/>
-      <c r="BF26" s="62"/>
-      <c r="BG26" s="62"/>
-      <c r="BH26" s="62"/>
-      <c r="BI26" s="16"/>
-      <c r="BJ26" s="22"/>
-      <c r="BK26" s="62"/>
-      <c r="BL26" s="62"/>
-      <c r="BM26" s="62"/>
-      <c r="BN26" s="80"/>
-    </row>
-    <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="163"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="63"/>
-      <c r="X27" s="63"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="63"/>
-      <c r="AD27" s="63"/>
-      <c r="AE27" s="63"/>
-      <c r="AF27" s="63"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="63"/>
-      <c r="AJ27" s="80"/>
-      <c r="AK27" s="90"/>
-      <c r="AL27" s="63"/>
-      <c r="AM27" s="63"/>
-      <c r="AN27" s="13"/>
-      <c r="AO27" s="19"/>
-      <c r="AP27" s="63"/>
-      <c r="AQ27" s="63"/>
-      <c r="AR27" s="63"/>
-      <c r="AS27" s="63"/>
-      <c r="AT27" s="63"/>
-      <c r="AU27" s="13"/>
-      <c r="AV27" s="19"/>
-      <c r="AW27" s="19"/>
-      <c r="AX27" s="63"/>
-      <c r="AY27" s="63"/>
-      <c r="AZ27" s="63"/>
-      <c r="BA27" s="63"/>
-      <c r="BB27" s="13"/>
-      <c r="BC27" s="19"/>
-      <c r="BD27" s="63"/>
-      <c r="BE27" s="63"/>
-      <c r="BF27" s="63"/>
-      <c r="BG27" s="63"/>
-      <c r="BH27" s="63"/>
-      <c r="BI27" s="13"/>
-      <c r="BJ27" s="19"/>
-      <c r="BK27" s="63"/>
-      <c r="BL27" s="63"/>
-      <c r="BM27" s="63"/>
-      <c r="BN27" s="80"/>
-    </row>
-    <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="162">
-        <v>13</v>
-      </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="159" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="160"/>
-      <c r="E28" s="155" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="139"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="63"/>
-      <c r="X28" s="63"/>
-      <c r="Y28" s="63"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="63"/>
-      <c r="AD28" s="63"/>
-      <c r="AE28" s="63"/>
-      <c r="AF28" s="63"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="63"/>
-      <c r="AJ28" s="80"/>
-      <c r="AK28" s="90"/>
-      <c r="AL28" s="63"/>
-      <c r="AM28" s="63"/>
-      <c r="AN28" s="13"/>
-      <c r="AO28" s="19"/>
-      <c r="AP28" s="63"/>
-      <c r="AQ28" s="63"/>
-      <c r="AR28" s="30"/>
-      <c r="AS28" s="30"/>
-      <c r="AT28" s="63"/>
-      <c r="AU28" s="13"/>
-      <c r="AV28" s="19"/>
-      <c r="AW28" s="19"/>
-      <c r="AX28" s="114"/>
-      <c r="AY28" s="30"/>
-      <c r="AZ28" s="63"/>
-      <c r="BA28" s="63"/>
-      <c r="BB28" s="13"/>
-      <c r="BC28" s="19"/>
-      <c r="BD28" s="63"/>
-      <c r="BE28" s="63"/>
-      <c r="BF28" s="63"/>
-      <c r="BG28" s="63"/>
-      <c r="BH28" s="63"/>
-      <c r="BI28" s="13"/>
-      <c r="BJ28" s="19"/>
-      <c r="BK28" s="63"/>
-      <c r="BL28" s="63"/>
-      <c r="BM28" s="63"/>
-      <c r="BN28" s="80"/>
-    </row>
-    <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="163"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="63"/>
-      <c r="W29" s="63"/>
-      <c r="X29" s="63"/>
-      <c r="Y29" s="63"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="63"/>
-      <c r="AD29" s="63"/>
-      <c r="AE29" s="63"/>
-      <c r="AF29" s="63"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="19"/>
-      <c r="AI29" s="63"/>
-      <c r="AJ29" s="80"/>
-      <c r="AK29" s="90"/>
-      <c r="AL29" s="63"/>
-      <c r="AM29" s="63"/>
-      <c r="AN29" s="13"/>
-      <c r="AO29" s="19"/>
-      <c r="AP29" s="63"/>
-      <c r="AQ29" s="63"/>
-      <c r="AR29" s="63"/>
-      <c r="AS29" s="63"/>
-      <c r="AT29" s="63"/>
-      <c r="AU29" s="13"/>
-      <c r="AV29" s="19"/>
-      <c r="AW29" s="19"/>
-      <c r="AX29" s="63"/>
-      <c r="AY29" s="63"/>
-      <c r="AZ29" s="63"/>
-      <c r="BA29" s="63"/>
-      <c r="BB29" s="13"/>
-      <c r="BC29" s="19"/>
-      <c r="BD29" s="63"/>
-      <c r="BE29" s="63"/>
-      <c r="BF29" s="63"/>
-      <c r="BG29" s="63"/>
-      <c r="BH29" s="63"/>
-      <c r="BI29" s="13"/>
-      <c r="BJ29" s="19"/>
-      <c r="BK29" s="63"/>
-      <c r="BL29" s="63"/>
-      <c r="BM29" s="63"/>
-      <c r="BN29" s="80"/>
-    </row>
-    <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="162">
-        <v>14</v>
-      </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="159" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="160"/>
-      <c r="E30" s="155" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="139"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="63"/>
-      <c r="W30" s="63"/>
-      <c r="X30" s="63"/>
-      <c r="Y30" s="63"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="63"/>
-      <c r="AD30" s="63"/>
-      <c r="AE30" s="63"/>
-      <c r="AF30" s="63"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="19"/>
-      <c r="AI30" s="63"/>
-      <c r="AJ30" s="80"/>
-      <c r="AK30" s="90"/>
-      <c r="AL30" s="63"/>
-      <c r="AM30" s="63"/>
-      <c r="AN30" s="13"/>
-      <c r="AO30" s="19"/>
-      <c r="AP30" s="63"/>
-      <c r="AQ30" s="63"/>
-      <c r="AR30" s="63"/>
-      <c r="AS30" s="30"/>
-      <c r="AT30" s="30"/>
-      <c r="AU30" s="13"/>
-      <c r="AV30" s="19"/>
-      <c r="AW30" s="19"/>
-      <c r="AX30" s="114"/>
-      <c r="AY30" s="30"/>
-      <c r="AZ30" s="63"/>
-      <c r="BA30" s="63"/>
-      <c r="BB30" s="13"/>
-      <c r="BC30" s="19"/>
-      <c r="BD30" s="63"/>
-      <c r="BE30" s="63"/>
-      <c r="BF30" s="63"/>
-      <c r="BG30" s="63"/>
-      <c r="BH30" s="63"/>
-      <c r="BI30" s="13"/>
-      <c r="BJ30" s="19"/>
-      <c r="BK30" s="63"/>
-      <c r="BL30" s="63"/>
-      <c r="BM30" s="63"/>
-      <c r="BN30" s="80"/>
-    </row>
-    <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="163"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="63"/>
-      <c r="W31" s="63"/>
-      <c r="X31" s="63"/>
-      <c r="Y31" s="63"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="63"/>
-      <c r="AD31" s="63"/>
-      <c r="AE31" s="63"/>
-      <c r="AF31" s="63"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="19"/>
-      <c r="AI31" s="63"/>
-      <c r="AJ31" s="80"/>
-      <c r="AK31" s="90"/>
-      <c r="AL31" s="63"/>
-      <c r="AM31" s="63"/>
-      <c r="AN31" s="13"/>
-      <c r="AO31" s="19"/>
-      <c r="AP31" s="63"/>
-      <c r="AQ31" s="63"/>
-      <c r="AR31" s="63"/>
-      <c r="AS31" s="63"/>
-      <c r="AT31" s="63"/>
-      <c r="AU31" s="13"/>
-      <c r="AV31" s="19"/>
-      <c r="AW31" s="19"/>
-      <c r="AX31" s="113"/>
-      <c r="AY31" s="63"/>
-      <c r="AZ31" s="63"/>
-      <c r="BA31" s="63"/>
-      <c r="BB31" s="13"/>
-      <c r="BC31" s="19"/>
-      <c r="BD31" s="63"/>
-      <c r="BE31" s="63"/>
-      <c r="BF31" s="63"/>
-      <c r="BG31" s="63"/>
-      <c r="BH31" s="63"/>
-      <c r="BI31" s="13"/>
-      <c r="BJ31" s="19"/>
-      <c r="BK31" s="63"/>
-      <c r="BL31" s="63"/>
-      <c r="BM31" s="63"/>
-      <c r="BN31" s="80"/>
-    </row>
-    <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="162">
-        <v>15</v>
-      </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="159" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="160"/>
-      <c r="E32" s="152" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="139"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="64"/>
-      <c r="W32" s="64"/>
-      <c r="X32" s="64"/>
-      <c r="Y32" s="64"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="26"/>
-      <c r="AB32" s="26"/>
-      <c r="AC32" s="64"/>
-      <c r="AD32" s="64"/>
-      <c r="AE32" s="64"/>
-      <c r="AF32" s="64"/>
-      <c r="AG32" s="25"/>
-      <c r="AH32" s="26"/>
-      <c r="AI32" s="64"/>
-      <c r="AJ32" s="77"/>
-      <c r="AK32" s="87"/>
-      <c r="AL32" s="63"/>
-      <c r="AM32" s="64"/>
-      <c r="AN32" s="25"/>
-      <c r="AO32" s="26"/>
-      <c r="AP32" s="64"/>
-      <c r="AQ32" s="64"/>
-      <c r="AR32" s="64"/>
-      <c r="AS32" s="64"/>
-      <c r="AT32" s="30"/>
-      <c r="AU32" s="25"/>
-      <c r="AV32" s="26"/>
-      <c r="AW32" s="26"/>
-      <c r="AX32" s="30"/>
-      <c r="AY32" s="30"/>
-      <c r="AZ32" s="63"/>
-      <c r="BA32" s="63"/>
-      <c r="BB32" s="25"/>
-      <c r="BC32" s="26"/>
-      <c r="BD32" s="114"/>
-      <c r="BE32" s="30"/>
-      <c r="BF32" s="64"/>
-      <c r="BG32" s="64"/>
-      <c r="BH32" s="64"/>
-      <c r="BI32" s="25"/>
-      <c r="BJ32" s="26"/>
-      <c r="BK32" s="64"/>
-      <c r="BL32" s="64"/>
-      <c r="BM32" s="64"/>
-      <c r="BN32" s="77"/>
-    </row>
-    <row r="33" spans="1:67" ht="12" customHeight="1">
-      <c r="A33" s="163"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="64"/>
-      <c r="W33" s="64"/>
-      <c r="X33" s="64"/>
-      <c r="Y33" s="64"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="64"/>
-      <c r="AD33" s="64"/>
-      <c r="AE33" s="64"/>
-      <c r="AF33" s="64"/>
-      <c r="AG33" s="25"/>
-      <c r="AH33" s="26"/>
-      <c r="AI33" s="64"/>
-      <c r="AJ33" s="77"/>
-      <c r="AK33" s="87"/>
-      <c r="AL33" s="64"/>
-      <c r="AM33" s="64"/>
-      <c r="AN33" s="25"/>
-      <c r="AO33" s="26"/>
-      <c r="AP33" s="64"/>
-      <c r="AQ33" s="64"/>
-      <c r="AR33" s="64"/>
-      <c r="AS33" s="64"/>
-      <c r="AT33" s="64"/>
-      <c r="AU33" s="25"/>
-      <c r="AV33" s="26"/>
-      <c r="AW33" s="26"/>
-      <c r="AX33" s="63"/>
-      <c r="AY33" s="64"/>
-      <c r="AZ33" s="64"/>
-      <c r="BA33" s="63"/>
-      <c r="BB33" s="25"/>
-      <c r="BC33" s="26"/>
-      <c r="BD33" s="63"/>
-      <c r="BE33" s="64"/>
-      <c r="BF33" s="64"/>
-      <c r="BG33" s="64"/>
-      <c r="BH33" s="64"/>
-      <c r="BI33" s="25"/>
-      <c r="BJ33" s="26"/>
-      <c r="BK33" s="64"/>
-      <c r="BL33" s="64"/>
-      <c r="BM33" s="64"/>
-      <c r="BN33" s="77"/>
-    </row>
-    <row r="34" spans="1:67" ht="12" customHeight="1">
-      <c r="A34" s="162">
-        <v>16</v>
-      </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="159" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="160"/>
-      <c r="E34" s="155" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="139"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="64"/>
-      <c r="W34" s="64"/>
-      <c r="X34" s="64"/>
-      <c r="Y34" s="64"/>
-      <c r="Z34" s="25"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="64"/>
-      <c r="AD34" s="64"/>
-      <c r="AE34" s="64"/>
-      <c r="AF34" s="64"/>
-      <c r="AG34" s="25"/>
-      <c r="AH34" s="26"/>
-      <c r="AI34" s="64"/>
-      <c r="AJ34" s="77"/>
-      <c r="AK34" s="87"/>
-      <c r="AL34" s="64"/>
-      <c r="AM34" s="64"/>
-      <c r="AN34" s="25"/>
-      <c r="AO34" s="26"/>
-      <c r="AP34" s="64"/>
-      <c r="AQ34" s="64"/>
-      <c r="AR34" s="64"/>
-      <c r="AS34" s="64"/>
-      <c r="AT34" s="64"/>
-      <c r="AU34" s="25"/>
-      <c r="AV34" s="26"/>
-      <c r="AW34" s="26"/>
-      <c r="AX34" s="30"/>
-      <c r="AY34" s="30"/>
-      <c r="AZ34" s="30"/>
-      <c r="BA34" s="63"/>
-      <c r="BB34" s="25"/>
-      <c r="BC34" s="26"/>
-      <c r="BD34" s="114"/>
-      <c r="BE34" s="30"/>
-      <c r="BF34" s="64"/>
-      <c r="BG34" s="64"/>
-      <c r="BH34" s="64"/>
-      <c r="BI34" s="25"/>
-      <c r="BJ34" s="26"/>
-      <c r="BK34" s="64"/>
-      <c r="BL34" s="64"/>
-      <c r="BM34" s="64"/>
-      <c r="BN34" s="77"/>
-    </row>
-    <row r="35" spans="1:67" ht="12" customHeight="1">
-      <c r="A35" s="163"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="144"/>
-      <c r="D35" s="145"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="140"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="64"/>
-      <c r="R35" s="64"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="64"/>
-      <c r="W35" s="64"/>
-      <c r="X35" s="64"/>
-      <c r="Y35" s="64"/>
-      <c r="Z35" s="25"/>
-      <c r="AA35" s="26"/>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="64"/>
-      <c r="AD35" s="64"/>
-      <c r="AE35" s="64"/>
-      <c r="AF35" s="64"/>
-      <c r="AG35" s="25"/>
-      <c r="AH35" s="26"/>
-      <c r="AI35" s="64"/>
-      <c r="AJ35" s="77"/>
-      <c r="AK35" s="87"/>
-      <c r="AL35" s="64"/>
-      <c r="AM35" s="64"/>
-      <c r="AN35" s="25"/>
-      <c r="AO35" s="26"/>
-      <c r="AP35" s="64"/>
-      <c r="AQ35" s="64"/>
-      <c r="AR35" s="64"/>
-      <c r="AS35" s="64"/>
-      <c r="AT35" s="64"/>
-      <c r="AU35" s="25"/>
-      <c r="AV35" s="26"/>
-      <c r="AW35" s="26"/>
-      <c r="AX35" s="64"/>
-      <c r="AY35" s="64"/>
-      <c r="AZ35" s="64"/>
-      <c r="BA35" s="64"/>
-      <c r="BB35" s="25"/>
-      <c r="BC35" s="26"/>
-      <c r="BD35" s="63"/>
-      <c r="BE35" s="64"/>
-      <c r="BF35" s="64"/>
-      <c r="BG35" s="64"/>
-      <c r="BH35" s="64"/>
-      <c r="BI35" s="25"/>
-      <c r="BJ35" s="26"/>
-      <c r="BK35" s="64"/>
-      <c r="BL35" s="64"/>
-      <c r="BM35" s="64"/>
-      <c r="BN35" s="77"/>
-    </row>
-    <row r="36" spans="1:67" ht="12" customHeight="1">
-      <c r="A36" s="162">
-        <v>17</v>
-      </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="123" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="124"/>
-      <c r="E36" s="155" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="139"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="64"/>
-      <c r="W36" s="64"/>
-      <c r="X36" s="64"/>
-      <c r="Y36" s="64"/>
-      <c r="Z36" s="25"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="64"/>
-      <c r="AD36" s="64"/>
-      <c r="AE36" s="64"/>
-      <c r="AF36" s="64"/>
-      <c r="AG36" s="25"/>
-      <c r="AH36" s="26"/>
-      <c r="AI36" s="64"/>
-      <c r="AJ36" s="77"/>
-      <c r="AK36" s="87"/>
-      <c r="AL36" s="64"/>
-      <c r="AM36" s="64"/>
-      <c r="AN36" s="25"/>
-      <c r="AO36" s="26"/>
-      <c r="AP36" s="64"/>
-      <c r="AQ36" s="64"/>
-      <c r="AR36" s="64"/>
-      <c r="AS36" s="64"/>
-      <c r="AT36" s="64"/>
-      <c r="AU36" s="25"/>
-      <c r="AV36" s="26"/>
-      <c r="AW36" s="26"/>
-      <c r="AX36" s="64"/>
-      <c r="AY36" s="30"/>
-      <c r="AZ36" s="30"/>
-      <c r="BA36" s="30"/>
-      <c r="BB36" s="25"/>
-      <c r="BC36" s="26"/>
-      <c r="BD36" s="114"/>
-      <c r="BE36" s="30"/>
-      <c r="BF36" s="64"/>
-      <c r="BG36" s="64"/>
-      <c r="BH36" s="64"/>
-      <c r="BI36" s="25"/>
-      <c r="BJ36" s="26"/>
-      <c r="BK36" s="64"/>
-      <c r="BL36" s="64"/>
-      <c r="BM36" s="64"/>
-      <c r="BN36" s="77"/>
-    </row>
-    <row r="37" spans="1:67" ht="12" customHeight="1">
-      <c r="A37" s="163"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="161"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="68"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="68"/>
-      <c r="Q37" s="68"/>
-      <c r="R37" s="68"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="68"/>
-      <c r="W37" s="68"/>
-      <c r="X37" s="68"/>
-      <c r="Y37" s="68"/>
-      <c r="Z37" s="17"/>
-      <c r="AA37" s="23"/>
-      <c r="AB37" s="23"/>
-      <c r="AC37" s="68"/>
-      <c r="AD37" s="68"/>
-      <c r="AE37" s="68"/>
-      <c r="AF37" s="68"/>
-      <c r="AG37" s="17"/>
-      <c r="AH37" s="23"/>
-      <c r="AI37" s="68"/>
-      <c r="AJ37" s="78"/>
-      <c r="AK37" s="88"/>
-      <c r="AL37" s="68"/>
-      <c r="AM37" s="68"/>
-      <c r="AN37" s="17"/>
-      <c r="AO37" s="23"/>
-      <c r="AP37" s="68"/>
-      <c r="AQ37" s="68"/>
-      <c r="AR37" s="68"/>
-      <c r="AS37" s="68"/>
-      <c r="AT37" s="68"/>
-      <c r="AU37" s="17"/>
-      <c r="AV37" s="23"/>
-      <c r="AW37" s="23"/>
-      <c r="AX37" s="68"/>
-      <c r="AY37" s="68"/>
-      <c r="AZ37" s="68"/>
-      <c r="BA37" s="68"/>
-      <c r="BB37" s="17"/>
-      <c r="BC37" s="23"/>
-      <c r="BD37" s="68"/>
-      <c r="BE37" s="68"/>
-      <c r="BF37" s="68"/>
-      <c r="BG37" s="68"/>
-      <c r="BH37" s="68"/>
-      <c r="BI37" s="17"/>
-      <c r="BJ37" s="23"/>
-      <c r="BK37" s="68"/>
-      <c r="BL37" s="68"/>
-      <c r="BM37" s="68"/>
-      <c r="BN37" s="78"/>
-    </row>
-    <row r="38" spans="1:67" ht="12" customHeight="1">
-      <c r="A38" s="162">
-        <v>18</v>
-      </c>
-      <c r="B38" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="142" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="143"/>
-      <c r="E38" s="155" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="158"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="130"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="132"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="95"/>
-      <c r="S38" s="131"/>
-      <c r="T38" s="132"/>
-      <c r="U38" s="132"/>
-      <c r="V38" s="95"/>
-      <c r="W38" s="95"/>
-      <c r="X38" s="95"/>
-      <c r="Y38" s="95"/>
-      <c r="Z38" s="131"/>
-      <c r="AA38" s="132"/>
-      <c r="AB38" s="132"/>
-      <c r="AC38" s="95"/>
-      <c r="AD38" s="95"/>
-      <c r="AE38" s="95"/>
-      <c r="AF38" s="95"/>
-      <c r="AG38" s="131"/>
-      <c r="AH38" s="132"/>
-      <c r="AI38" s="95"/>
-      <c r="AJ38" s="133"/>
-      <c r="AK38" s="134"/>
-      <c r="AL38" s="95"/>
-      <c r="AM38" s="95"/>
-      <c r="AN38" s="131"/>
-      <c r="AO38" s="132"/>
-      <c r="AP38" s="95"/>
-      <c r="AQ38" s="95"/>
-      <c r="AR38" s="95"/>
-      <c r="AS38" s="95"/>
-      <c r="AT38" s="95"/>
-      <c r="AU38" s="131"/>
-      <c r="AV38" s="132"/>
-      <c r="AW38" s="132"/>
-      <c r="AX38" s="95"/>
-      <c r="AY38" s="95"/>
-      <c r="AZ38" s="95"/>
-      <c r="BA38" s="95"/>
-      <c r="BB38" s="131"/>
-      <c r="BC38" s="132"/>
-      <c r="BD38" s="41"/>
-      <c r="BE38" s="41"/>
-      <c r="BF38" s="41"/>
-      <c r="BG38" s="95"/>
-      <c r="BH38" s="95"/>
-      <c r="BI38" s="131"/>
-      <c r="BJ38" s="132"/>
-      <c r="BK38" s="111"/>
-      <c r="BL38" s="60"/>
-      <c r="BM38" s="95"/>
-      <c r="BN38" s="133"/>
-    </row>
-    <row r="39" spans="1:67" ht="12" customHeight="1">
-      <c r="A39" s="163"/>
-      <c r="B39" s="128"/>
-      <c r="C39" s="164"/>
-      <c r="D39" s="165"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="141"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="64"/>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="64"/>
-      <c r="R39" s="64"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="64"/>
-      <c r="W39" s="64"/>
-      <c r="X39" s="64"/>
-      <c r="Y39" s="64"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="26"/>
-      <c r="AB39" s="26"/>
-      <c r="AC39" s="64"/>
-      <c r="AD39" s="64"/>
-      <c r="AE39" s="64"/>
-      <c r="AF39" s="64"/>
-      <c r="AG39" s="25"/>
-      <c r="AH39" s="26"/>
-      <c r="AI39" s="64"/>
-      <c r="AJ39" s="77"/>
-      <c r="AK39" s="87"/>
-      <c r="AL39" s="64"/>
-      <c r="AM39" s="64"/>
-      <c r="AN39" s="25"/>
-      <c r="AO39" s="26"/>
-      <c r="AP39" s="64"/>
-      <c r="AQ39" s="64"/>
-      <c r="AR39" s="64"/>
-      <c r="AS39" s="64"/>
-      <c r="AT39" s="64"/>
-      <c r="AU39" s="25"/>
-      <c r="AV39" s="26"/>
-      <c r="AW39" s="26"/>
-      <c r="AX39" s="64"/>
-      <c r="AY39" s="64"/>
-      <c r="AZ39" s="64"/>
-      <c r="BA39" s="64"/>
-      <c r="BB39" s="25"/>
-      <c r="BC39" s="26"/>
-      <c r="BD39" s="99"/>
-      <c r="BE39" s="99"/>
-      <c r="BF39" s="99"/>
-      <c r="BG39" s="68"/>
-      <c r="BH39" s="99"/>
-      <c r="BI39" s="25"/>
-      <c r="BJ39" s="26"/>
-      <c r="BK39" s="68"/>
-      <c r="BL39" s="68"/>
-      <c r="BM39" s="99"/>
-      <c r="BN39" s="77"/>
-    </row>
-    <row r="40" spans="1:67" ht="12" customHeight="1">
-      <c r="A40" s="162">
-        <v>19</v>
-      </c>
-      <c r="B40" s="119" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="176" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="177"/>
-      <c r="E40" s="161" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="180"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="65"/>
-      <c r="O40" s="65"/>
-      <c r="P40" s="65"/>
-      <c r="Q40" s="65"/>
-      <c r="R40" s="65"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="65"/>
-      <c r="W40" s="65"/>
-      <c r="X40" s="65"/>
-      <c r="Y40" s="65"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="65"/>
-      <c r="AD40" s="67"/>
-      <c r="AE40" s="65"/>
-      <c r="AF40" s="65"/>
-      <c r="AG40" s="15"/>
-      <c r="AH40" s="21"/>
-      <c r="AI40" s="65"/>
-      <c r="AJ40" s="79"/>
-      <c r="AK40" s="89"/>
-      <c r="AL40" s="65"/>
-      <c r="AM40" s="65"/>
-      <c r="AN40" s="15"/>
-      <c r="AO40" s="21"/>
-      <c r="AP40" s="65"/>
-      <c r="AQ40" s="65"/>
-      <c r="AR40" s="65"/>
-      <c r="AS40" s="65"/>
-      <c r="AT40" s="65"/>
-      <c r="AU40" s="15"/>
-      <c r="AV40" s="21"/>
-      <c r="AW40" s="21"/>
-      <c r="AX40" s="65"/>
-      <c r="AY40" s="65"/>
-      <c r="AZ40" s="65"/>
-      <c r="BA40" s="65"/>
-      <c r="BB40" s="15"/>
-      <c r="BC40" s="21"/>
-      <c r="BD40" s="63"/>
-      <c r="BE40" s="63"/>
-      <c r="BF40" s="41"/>
-      <c r="BG40" s="41"/>
-      <c r="BH40" s="41"/>
-      <c r="BI40" s="15"/>
-      <c r="BJ40" s="21"/>
-      <c r="BK40" s="111"/>
-      <c r="BL40" s="60"/>
-      <c r="BM40" s="62"/>
-      <c r="BN40" s="79"/>
-    </row>
-    <row r="41" spans="1:67" ht="12" customHeight="1">
-      <c r="A41" s="163"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="178"/>
-      <c r="D41" s="179"/>
-      <c r="E41" s="161"/>
-      <c r="F41" s="181"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="63"/>
-      <c r="W41" s="63"/>
-      <c r="X41" s="63"/>
-      <c r="Y41" s="63"/>
-      <c r="Z41" s="13"/>
-      <c r="AA41" s="19"/>
-      <c r="AB41" s="19"/>
-      <c r="AC41" s="63"/>
-      <c r="AD41" s="63"/>
-      <c r="AE41" s="63"/>
-      <c r="AF41" s="63"/>
-      <c r="AG41" s="13"/>
-      <c r="AH41" s="19"/>
-      <c r="AI41" s="63"/>
-      <c r="AJ41" s="80"/>
-      <c r="AK41" s="90"/>
-      <c r="AL41" s="63"/>
-      <c r="AM41" s="63"/>
-      <c r="AN41" s="13"/>
-      <c r="AO41" s="19"/>
-      <c r="AP41" s="63"/>
-      <c r="AQ41" s="63"/>
-      <c r="AR41" s="63"/>
-      <c r="AS41" s="63"/>
-      <c r="AT41" s="63"/>
-      <c r="AU41" s="13"/>
-      <c r="AV41" s="19"/>
-      <c r="AW41" s="19"/>
-      <c r="AX41" s="63"/>
-      <c r="AY41" s="63"/>
-      <c r="AZ41" s="63"/>
-      <c r="BA41" s="63"/>
-      <c r="BB41" s="13"/>
-      <c r="BC41" s="19"/>
-      <c r="BD41" s="63"/>
-      <c r="BE41" s="63"/>
-      <c r="BF41" s="99"/>
-      <c r="BG41" s="63"/>
-      <c r="BH41" s="63"/>
-      <c r="BI41" s="13"/>
-      <c r="BJ41" s="19"/>
-      <c r="BK41" s="64"/>
-      <c r="BL41" s="64"/>
-      <c r="BM41" s="68"/>
-      <c r="BN41" s="78"/>
-    </row>
-    <row r="42" spans="1:67" ht="12" customHeight="1">
-      <c r="A42" s="162">
-        <v>20</v>
-      </c>
-      <c r="B42" s="167" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="169" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="170"/>
-      <c r="E42" s="153" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" s="174"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="65"/>
-      <c r="W42" s="65"/>
-      <c r="X42" s="65"/>
-      <c r="Y42" s="65"/>
-      <c r="Z42" s="15"/>
-      <c r="AA42" s="21"/>
-      <c r="AB42" s="21"/>
-      <c r="AC42" s="65"/>
-      <c r="AD42" s="65"/>
-      <c r="AE42" s="65"/>
-      <c r="AF42" s="65"/>
-      <c r="AG42" s="15"/>
-      <c r="AH42" s="21"/>
-      <c r="AI42" s="65"/>
-      <c r="AJ42" s="79"/>
-      <c r="AK42" s="89"/>
-      <c r="AL42" s="65"/>
-      <c r="AM42" s="65"/>
-      <c r="AN42" s="15"/>
-      <c r="AO42" s="21"/>
-      <c r="AP42" s="65"/>
-      <c r="AQ42" s="65"/>
-      <c r="AR42" s="65"/>
-      <c r="AS42" s="65"/>
-      <c r="AT42" s="65"/>
-      <c r="AU42" s="15"/>
-      <c r="AV42" s="21"/>
-      <c r="AW42" s="21"/>
-      <c r="AX42" s="65"/>
-      <c r="AY42" s="65"/>
-      <c r="AZ42" s="65"/>
-      <c r="BA42" s="65"/>
-      <c r="BB42" s="15"/>
-      <c r="BC42" s="21"/>
-      <c r="BD42" s="65"/>
-      <c r="BE42" s="65"/>
-      <c r="BF42" s="65"/>
-      <c r="BG42" s="65"/>
-      <c r="BH42" s="65"/>
-      <c r="BI42" s="15"/>
-      <c r="BJ42" s="21"/>
-      <c r="BK42" s="60"/>
-      <c r="BL42" s="60"/>
-      <c r="BM42" s="60"/>
-      <c r="BN42" s="60"/>
-      <c r="BO42" s="100"/>
-    </row>
-    <row r="43" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A43" s="163"/>
-      <c r="B43" s="168"/>
-      <c r="C43" s="171"/>
-      <c r="D43" s="172"/>
-      <c r="E43" s="173"/>
-      <c r="F43" s="175"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="69"/>
-      <c r="W43" s="69"/>
-      <c r="X43" s="69"/>
-      <c r="Y43" s="69"/>
-      <c r="Z43" s="14"/>
-      <c r="AA43" s="20"/>
-      <c r="AB43" s="20"/>
-      <c r="AC43" s="69"/>
-      <c r="AD43" s="69"/>
-      <c r="AE43" s="69"/>
-      <c r="AF43" s="69"/>
-      <c r="AG43" s="14"/>
-      <c r="AH43" s="20"/>
-      <c r="AI43" s="69"/>
-      <c r="AJ43" s="81"/>
-      <c r="AK43" s="91"/>
-      <c r="AL43" s="69"/>
-      <c r="AM43" s="69"/>
-      <c r="AN43" s="14"/>
-      <c r="AO43" s="20"/>
-      <c r="AP43" s="69"/>
-      <c r="AQ43" s="69"/>
-      <c r="AR43" s="69"/>
-      <c r="AS43" s="69"/>
-      <c r="AT43" s="69"/>
-      <c r="AU43" s="14"/>
-      <c r="AV43" s="20"/>
-      <c r="AW43" s="20"/>
-      <c r="AX43" s="69"/>
-      <c r="AY43" s="69"/>
-      <c r="AZ43" s="69"/>
-      <c r="BA43" s="69"/>
-      <c r="BB43" s="14"/>
-      <c r="BC43" s="20"/>
-      <c r="BD43" s="69"/>
-      <c r="BE43" s="69"/>
-      <c r="BF43" s="69"/>
-      <c r="BG43" s="69"/>
-      <c r="BH43" s="69"/>
-      <c r="BI43" s="14"/>
-      <c r="BJ43" s="20"/>
-      <c r="BK43" s="69"/>
-      <c r="BL43" s="69"/>
-      <c r="BM43" s="69"/>
-      <c r="BN43" s="102"/>
-      <c r="BO43" s="100"/>
-    </row>
-    <row r="44" spans="1:67">
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-    </row>
-    <row r="45" spans="1:67">
-      <c r="A45" s="27"/>
-      <c r="B45" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:67">
-      <c r="A46" s="28"/>
-      <c r="B46" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:67">
-      <c r="A47" s="109"/>
-      <c r="B47" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="87">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E36:E37"/>
-  </mergeCells>
-  <phoneticPr fontId="4"/>
-  <printOptions gridLinesSet="0"/>
-  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"ＭＳ Ｐゴシック,太字"&amp;12開発スケジュール&amp;R&amp;"ＭＳ Ｐゴシック,標準"&amp;8印刷日：&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;"ＭＳ Ｐゴシック,標準"&amp;8- &amp;P -&amp;R&amp;8Copyright © 2014 *** Corporation. All Rights Reserved.</oddFooter>
-  </headerFooter>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="30" max="80" man="1"/>
-  </colBreaks>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624DF4ED-FA44-48E9-9005-27B4AB47060E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -10285,54 +7007,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="202" t="s">
+      <c r="B1" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="205" t="s">
+      <c r="C1" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="206"/>
-      <c r="E1" s="211" t="s">
+      <c r="D1" s="200"/>
+      <c r="E1" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="213" t="s">
+      <c r="F1" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="196"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="197"/>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="197"/>
-      <c r="T1" s="197"/>
-      <c r="U1" s="197"/>
-      <c r="V1" s="197"/>
-      <c r="W1" s="197"/>
-      <c r="X1" s="197"/>
-      <c r="Y1" s="197"/>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="197"/>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="197"/>
-      <c r="AD1" s="198"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="192"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="200"/>
-      <c r="B2" s="203"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="214"/>
+      <c r="A2" s="194"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="208"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -10407,12 +7129,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="201"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="215"/>
+      <c r="A3" s="195"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="209"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -10487,20 +7209,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="191">
+      <c r="A4" s="185">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="192" t="s">
+      <c r="C4" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="193"/>
-      <c r="E4" s="222" t="s">
+      <c r="D4" s="187"/>
+      <c r="E4" s="216" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="194"/>
+      <c r="F4" s="188"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -10523,20 +7245,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="223" t="s">
+      <c r="AC4" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="217" t="s">
+      <c r="AD4" s="211" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="163"/>
+      <c r="A5" s="164"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="195"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="189"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -10559,22 +7281,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="224"/>
-      <c r="AD5" s="218"/>
+      <c r="AC5" s="218"/>
+      <c r="AD5" s="212"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="162">
+      <c r="A6" s="142">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="159" t="s">
+      <c r="C6" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="160"/>
-      <c r="E6" s="220" t="s">
+      <c r="D6" s="162"/>
+      <c r="E6" s="214" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="188"/>
+      <c r="F6" s="183"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -10597,16 +7319,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="224"/>
-      <c r="AD6" s="218"/>
+      <c r="AC6" s="218"/>
+      <c r="AD6" s="212"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="163"/>
+      <c r="A7" s="164"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="221"/>
-      <c r="F7" s="189"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="215"/>
+      <c r="F7" s="184"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -10629,24 +7351,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="224"/>
-      <c r="AD7" s="218"/>
+      <c r="AC7" s="218"/>
+      <c r="AD7" s="212"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="226">
+      <c r="A8" s="220">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="228" t="s">
+      <c r="C8" s="222" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="229"/>
-      <c r="E8" s="230" t="s">
+      <c r="D8" s="223"/>
+      <c r="E8" s="224" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="182"/>
+      <c r="F8" s="177"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -10669,16 +7391,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="224"/>
-      <c r="AD8" s="218"/>
+      <c r="AC8" s="218"/>
+      <c r="AD8" s="212"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="227"/>
+      <c r="A9" s="221"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="185"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="225"/>
+      <c r="F9" s="180"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -10701,24 +7423,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="224"/>
-      <c r="AD9" s="218"/>
+      <c r="AC9" s="218"/>
+      <c r="AD9" s="212"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="232">
+      <c r="A10" s="226">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="146" t="s">
+      <c r="C10" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="147"/>
-      <c r="E10" s="233" t="s">
+      <c r="D10" s="152"/>
+      <c r="E10" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="186"/>
+      <c r="F10" s="181"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -10741,16 +7463,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="224"/>
-      <c r="AD10" s="218"/>
+      <c r="AC10" s="218"/>
+      <c r="AD10" s="212"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="227"/>
+      <c r="A11" s="221"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="183"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="228"/>
+      <c r="F11" s="178"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -10773,22 +7495,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="224"/>
-      <c r="AD11" s="218"/>
+      <c r="AC11" s="218"/>
+      <c r="AD11" s="212"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="226">
+      <c r="A12" s="220">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="159" t="s">
+      <c r="C12" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="160"/>
-      <c r="E12" s="235" t="s">
+      <c r="D12" s="162"/>
+      <c r="E12" s="229" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="184"/>
+      <c r="F12" s="179"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -10811,16 +7533,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="224"/>
-      <c r="AD12" s="218"/>
+      <c r="AC12" s="218"/>
+      <c r="AD12" s="212"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="232"/>
+      <c r="A13" s="226"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="233"/>
-      <c r="F13" s="186"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="227"/>
+      <c r="F13" s="181"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -10843,24 +7565,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="224"/>
-      <c r="AD13" s="218"/>
+      <c r="AC13" s="218"/>
+      <c r="AD13" s="212"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="236">
+      <c r="A14" s="230">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="169" t="s">
+      <c r="C14" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="170"/>
-      <c r="E14" s="237" t="s">
+      <c r="D14" s="137"/>
+      <c r="E14" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="182"/>
+      <c r="F14" s="177"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -10883,16 +7605,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="224"/>
-      <c r="AD14" s="218"/>
+      <c r="AC14" s="218"/>
+      <c r="AD14" s="212"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="236"/>
+      <c r="A15" s="230"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="234"/>
-      <c r="F15" s="183"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="228"/>
+      <c r="F15" s="178"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -10915,22 +7637,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="224"/>
-      <c r="AD15" s="218"/>
+      <c r="AC15" s="218"/>
+      <c r="AD15" s="212"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="236">
+      <c r="A16" s="230">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="159" t="s">
+      <c r="C16" s="161" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="160"/>
-      <c r="E16" s="238" t="s">
+      <c r="D16" s="162"/>
+      <c r="E16" s="232" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="184"/>
+      <c r="F16" s="179"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -10953,16 +7675,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="224"/>
-      <c r="AD16" s="218"/>
+      <c r="AC16" s="218"/>
+      <c r="AD16" s="212"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="236"/>
+      <c r="A17" s="230"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="234"/>
-      <c r="F17" s="183"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="228"/>
+      <c r="F17" s="178"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -10985,22 +7707,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="224"/>
-      <c r="AD17" s="218"/>
+      <c r="AC17" s="218"/>
+      <c r="AD17" s="212"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="236">
+      <c r="A18" s="230">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="159" t="s">
+      <c r="C18" s="161" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="160"/>
-      <c r="E18" s="238" t="s">
+      <c r="D18" s="162"/>
+      <c r="E18" s="232" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="184"/>
+      <c r="F18" s="179"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -11023,16 +7745,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="224"/>
-      <c r="AD18" s="218"/>
+      <c r="AC18" s="218"/>
+      <c r="AD18" s="212"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="236"/>
+      <c r="A19" s="230"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="164"/>
-      <c r="D19" s="165"/>
-      <c r="E19" s="231"/>
-      <c r="F19" s="185"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="225"/>
+      <c r="F19" s="180"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -11055,24 +7777,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="224"/>
-      <c r="AD19" s="218"/>
+      <c r="AC19" s="218"/>
+      <c r="AD19" s="212"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="226">
+      <c r="A20" s="220">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="169" t="s">
+      <c r="C20" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="170"/>
-      <c r="E20" s="237" t="s">
+      <c r="D20" s="137"/>
+      <c r="E20" s="231" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="182"/>
+      <c r="F20" s="177"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -11095,18 +7817,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="224"/>
-      <c r="AD20" s="218"/>
+      <c r="AC20" s="218"/>
+      <c r="AD20" s="212"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="227"/>
+      <c r="A21" s="221"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="234"/>
-      <c r="F21" s="183"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="228"/>
+      <c r="F21" s="178"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -11129,22 +7851,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="224"/>
-      <c r="AD21" s="218"/>
+      <c r="AC21" s="218"/>
+      <c r="AD21" s="212"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="226">
+      <c r="A22" s="220">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="239" t="s">
+      <c r="C22" s="233" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="160"/>
-      <c r="E22" s="238" t="s">
+      <c r="D22" s="162"/>
+      <c r="E22" s="232" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="184"/>
+      <c r="F22" s="179"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -11167,16 +7889,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="224"/>
-      <c r="AD22" s="218"/>
+      <c r="AC22" s="218"/>
+      <c r="AD22" s="212"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="227"/>
+      <c r="A23" s="221"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="234"/>
-      <c r="F23" s="183"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="178"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -11199,22 +7921,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="224"/>
-      <c r="AD23" s="218"/>
+      <c r="AC23" s="218"/>
+      <c r="AD23" s="212"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="226">
+      <c r="A24" s="220">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="239" t="s">
+      <c r="C24" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="160"/>
-      <c r="E24" s="238" t="s">
+      <c r="D24" s="162"/>
+      <c r="E24" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="184"/>
+      <c r="F24" s="179"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -11237,16 +7959,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="224"/>
-      <c r="AD24" s="218"/>
+      <c r="AC24" s="218"/>
+      <c r="AD24" s="212"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="227"/>
+      <c r="A25" s="221"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="234"/>
-      <c r="F25" s="185"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="228"/>
+      <c r="F25" s="180"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -11269,24 +7991,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="224"/>
-      <c r="AD25" s="218"/>
+      <c r="AC25" s="218"/>
+      <c r="AD25" s="212"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="162">
+      <c r="A26" s="142">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="176" t="s">
+      <c r="C26" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="177"/>
-      <c r="E26" s="240" t="s">
+      <c r="D26" s="167"/>
+      <c r="E26" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="180"/>
+      <c r="F26" s="170"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -11309,16 +8031,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="224"/>
-      <c r="AD26" s="218"/>
+      <c r="AC26" s="218"/>
+      <c r="AD26" s="212"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="163"/>
+      <c r="A27" s="164"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="178"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="241"/>
-      <c r="F27" s="181"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="169"/>
+      <c r="E27" s="235"/>
+      <c r="F27" s="171"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -11341,24 +8063,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="224"/>
-      <c r="AD27" s="218"/>
+      <c r="AC27" s="218"/>
+      <c r="AD27" s="212"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="162">
+      <c r="A28" s="142">
         <v>14</v>
       </c>
-      <c r="B28" s="167" t="s">
+      <c r="B28" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="169" t="s">
+      <c r="C28" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="170"/>
-      <c r="E28" s="167" t="s">
+      <c r="D28" s="137"/>
+      <c r="E28" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="174"/>
+      <c r="F28" s="140"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -11381,16 +8103,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="224"/>
-      <c r="AD28" s="218"/>
+      <c r="AC28" s="218"/>
+      <c r="AD28" s="212"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="166"/>
-      <c r="B29" s="168"/>
-      <c r="C29" s="171"/>
-      <c r="D29" s="172"/>
-      <c r="E29" s="168"/>
-      <c r="F29" s="175"/>
+      <c r="A29" s="236"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="141"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -11413,8 +8135,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="225"/>
-      <c r="AD29" s="219"/>
+      <c r="AC29" s="219"/>
+      <c r="AD29" s="213"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7D16D1-68ED-4583-B2CE-869F17C3C90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA02E3F1-EE70-4718-B04A-44586A69BAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール" sheetId="13" r:id="rId1"/>
@@ -1717,21 +1717,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="dotted">
         <color indexed="64"/>
       </top>
@@ -1747,6 +1732,17 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2075,9 +2071,6 @@
     <xf numFmtId="49" fontId="2" fillId="10" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2093,21 +2086,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2115,30 +2093,237 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2148,12 +2333,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2166,290 +2345,107 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3312,10 +3308,10 @@
   <dimension ref="A1:BO50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="R23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24:E27"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4:BN41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3332,94 +3328,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="199" t="s">
+      <c r="C1" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="200"/>
-      <c r="E1" s="205" t="s">
+      <c r="D1" s="136"/>
+      <c r="E1" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="207" t="s">
+      <c r="F1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="190">
+      <c r="G1" s="126">
         <v>45536</v>
       </c>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="191"/>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="191"/>
-      <c r="S1" s="191"/>
-      <c r="T1" s="191"/>
-      <c r="U1" s="191"/>
-      <c r="V1" s="191"/>
-      <c r="W1" s="191"/>
-      <c r="X1" s="191"/>
-      <c r="Y1" s="191"/>
-      <c r="Z1" s="191"/>
-      <c r="AA1" s="191"/>
-      <c r="AB1" s="191"/>
-      <c r="AC1" s="191"/>
-      <c r="AD1" s="191"/>
-      <c r="AE1" s="191"/>
-      <c r="AF1" s="191"/>
-      <c r="AG1" s="191"/>
-      <c r="AH1" s="191"/>
-      <c r="AI1" s="191"/>
-      <c r="AJ1" s="192"/>
-      <c r="AK1" s="190">
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
+      <c r="AH1" s="127"/>
+      <c r="AI1" s="127"/>
+      <c r="AJ1" s="128"/>
+      <c r="AK1" s="126">
         <v>45566</v>
       </c>
-      <c r="AL1" s="191"/>
-      <c r="AM1" s="191"/>
-      <c r="AN1" s="191"/>
-      <c r="AO1" s="191"/>
-      <c r="AP1" s="191"/>
-      <c r="AQ1" s="191"/>
-      <c r="AR1" s="191"/>
-      <c r="AS1" s="191"/>
-      <c r="AT1" s="191"/>
-      <c r="AU1" s="191"/>
-      <c r="AV1" s="191"/>
-      <c r="AW1" s="191"/>
-      <c r="AX1" s="191"/>
-      <c r="AY1" s="191"/>
-      <c r="AZ1" s="191"/>
-      <c r="BA1" s="191"/>
-      <c r="BB1" s="191"/>
-      <c r="BC1" s="191"/>
-      <c r="BD1" s="191"/>
-      <c r="BE1" s="191"/>
-      <c r="BF1" s="191"/>
-      <c r="BG1" s="191"/>
-      <c r="BH1" s="191"/>
-      <c r="BI1" s="191"/>
-      <c r="BJ1" s="191"/>
-      <c r="BK1" s="191"/>
-      <c r="BL1" s="191"/>
-      <c r="BM1" s="191"/>
-      <c r="BN1" s="192"/>
+      <c r="AL1" s="127"/>
+      <c r="AM1" s="127"/>
+      <c r="AN1" s="127"/>
+      <c r="AO1" s="127"/>
+      <c r="AP1" s="127"/>
+      <c r="AQ1" s="127"/>
+      <c r="AR1" s="127"/>
+      <c r="AS1" s="127"/>
+      <c r="AT1" s="127"/>
+      <c r="AU1" s="127"/>
+      <c r="AV1" s="127"/>
+      <c r="AW1" s="127"/>
+      <c r="AX1" s="127"/>
+      <c r="AY1" s="127"/>
+      <c r="AZ1" s="127"/>
+      <c r="BA1" s="127"/>
+      <c r="BB1" s="127"/>
+      <c r="BC1" s="127"/>
+      <c r="BD1" s="127"/>
+      <c r="BE1" s="127"/>
+      <c r="BF1" s="127"/>
+      <c r="BG1" s="127"/>
+      <c r="BH1" s="127"/>
+      <c r="BI1" s="127"/>
+      <c r="BJ1" s="127"/>
+      <c r="BK1" s="127"/>
+      <c r="BL1" s="127"/>
+      <c r="BM1" s="127"/>
+      <c r="BN1" s="128"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="194"/>
-      <c r="B2" s="197"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="208"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="144"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3661,12 +3657,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="195"/>
-      <c r="B3" s="198"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="209"/>
+      <c r="A3" s="131"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="145"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3849,20 +3845,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="185">
+      <c r="A4" s="146">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="159" t="s">
+      <c r="D4" s="149"/>
+      <c r="E4" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="188"/>
+      <c r="F4" s="154"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -3925,20 +3921,20 @@
       <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="164"/>
+      <c r="A5" s="147"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="189"/>
-      <c r="G5" s="129"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="120"/>
       <c r="H5" s="100"/>
-      <c r="I5" s="130"/>
+      <c r="I5" s="121"/>
       <c r="J5" s="110"/>
       <c r="K5" s="62"/>
       <c r="L5" s="16"/>
       <c r="M5" s="22"/>
-      <c r="N5" s="9"/>
+      <c r="N5" s="31"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
@@ -3960,7 +3956,7 @@
       <c r="AG5" s="16"/>
       <c r="AH5" s="22"/>
       <c r="AI5" s="9"/>
-      <c r="AJ5" s="126"/>
+      <c r="AJ5" s="124"/>
       <c r="AK5" s="80"/>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
@@ -3990,24 +3986,24 @@
       <c r="BK5" s="9"/>
       <c r="BL5" s="9"/>
       <c r="BM5" s="9"/>
-      <c r="BN5" s="126"/>
+      <c r="BN5" s="124"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="142">
+      <c r="A6" s="156">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="161" t="s">
+      <c r="C6" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="162"/>
-      <c r="E6" s="163" t="s">
+      <c r="D6" s="165"/>
+      <c r="E6" s="168" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="183"/>
+      <c r="F6" s="169"/>
       <c r="G6" s="51"/>
       <c r="H6" s="62"/>
-      <c r="I6" s="124"/>
+      <c r="I6" s="118"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="13"/>
@@ -4067,20 +4063,20 @@
       <c r="BN6" s="72"/>
     </row>
     <row r="7" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A7" s="164"/>
+      <c r="A7" s="147"/>
       <c r="B7" s="102"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="184"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="170"/>
       <c r="G7" s="101"/>
       <c r="H7" s="68"/>
       <c r="I7" s="96"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
       <c r="L7" s="17"/>
       <c r="M7" s="23"/>
-      <c r="N7" s="68"/>
+      <c r="N7" s="231"/>
       <c r="O7" s="68"/>
       <c r="P7" s="68"/>
       <c r="Q7" s="68"/>
@@ -4132,23 +4128,23 @@
       <c r="BK7" s="24"/>
       <c r="BL7" s="24"/>
       <c r="BM7" s="24"/>
-      <c r="BN7" s="125"/>
+      <c r="BN7" s="72"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="142">
+      <c r="A8" s="156">
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="151" t="s">
+      <c r="C8" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="152"/>
-      <c r="E8" s="157" t="s">
+      <c r="D8" s="158"/>
+      <c r="E8" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="158"/>
+      <c r="F8" s="189"/>
       <c r="G8" s="50"/>
       <c r="H8" s="62"/>
       <c r="I8" s="62"/>
@@ -4165,7 +4161,7 @@
       <c r="T8" s="22"/>
       <c r="U8" s="22"/>
       <c r="V8" s="106"/>
-      <c r="W8" s="30"/>
+      <c r="W8" s="9"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="16"/>
@@ -4178,7 +4174,7 @@
       <c r="AG8" s="16"/>
       <c r="AH8" s="22"/>
       <c r="AI8" s="9"/>
-      <c r="AJ8" s="126"/>
+      <c r="AJ8" s="124"/>
       <c r="AK8" s="80"/>
       <c r="AL8" s="9"/>
       <c r="AM8" s="9"/>
@@ -4207,16 +4203,16 @@
       <c r="BJ8" s="21"/>
       <c r="BK8" s="6"/>
       <c r="BL8" s="6"/>
-      <c r="BM8" s="6"/>
-      <c r="BN8" s="73"/>
+      <c r="BM8" s="30"/>
+      <c r="BN8" s="95"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="164"/>
+      <c r="A9" s="147"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="145"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="180"/>
       <c r="G9" s="51"/>
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
@@ -4224,7 +4220,7 @@
       <c r="K9" s="63"/>
       <c r="L9" s="13"/>
       <c r="M9" s="19"/>
-      <c r="N9" s="63"/>
+      <c r="N9" s="232"/>
       <c r="O9" s="63"/>
       <c r="P9" s="63"/>
       <c r="Q9" s="63"/>
@@ -4279,18 +4275,18 @@
       <c r="BN9" s="72"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="142">
+      <c r="A10" s="156">
         <v>4</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="151" t="s">
+      <c r="C10" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="152"/>
-      <c r="E10" s="163" t="s">
+      <c r="D10" s="158"/>
+      <c r="E10" s="168" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="144"/>
+      <c r="F10" s="179"/>
       <c r="G10" s="51"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
@@ -4307,7 +4303,7 @@
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
       <c r="V10" s="106"/>
-      <c r="W10" s="30"/>
+      <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="13"/>
@@ -4349,16 +4345,16 @@
       <c r="BJ10" s="19"/>
       <c r="BK10" s="7"/>
       <c r="BL10" s="7"/>
-      <c r="BM10" s="7"/>
-      <c r="BN10" s="72"/>
+      <c r="BM10" s="30"/>
+      <c r="BN10" s="95"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="164"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="145"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="181"/>
+      <c r="F11" s="180"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4421,18 +4417,18 @@
       <c r="BN11" s="72"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="142">
+      <c r="A12" s="156">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="151" t="s">
+      <c r="C12" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="152"/>
-      <c r="E12" s="160" t="s">
+      <c r="D12" s="158"/>
+      <c r="E12" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="144"/>
+      <c r="F12" s="179"/>
       <c r="G12" s="51"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
@@ -4449,7 +4445,7 @@
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
       <c r="V12" s="106"/>
-      <c r="W12" s="30"/>
+      <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="13"/>
@@ -4491,16 +4487,16 @@
       <c r="BJ12" s="19"/>
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
-      <c r="BM12" s="7"/>
-      <c r="BN12" s="72"/>
+      <c r="BM12" s="30"/>
+      <c r="BN12" s="95"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="164"/>
+      <c r="A13" s="147"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="146"/>
+      <c r="C13" s="194"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="190"/>
       <c r="G13" s="53"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
@@ -4530,7 +4526,7 @@
       <c r="AG13" s="44"/>
       <c r="AH13" s="45"/>
       <c r="AI13" s="43"/>
-      <c r="AJ13" s="127"/>
+      <c r="AJ13" s="125"/>
       <c r="AK13" s="83"/>
       <c r="AL13" s="43"/>
       <c r="AM13" s="43"/>
@@ -4560,23 +4556,23 @@
       <c r="BK13" s="43"/>
       <c r="BL13" s="43"/>
       <c r="BM13" s="43"/>
-      <c r="BN13" s="93"/>
+      <c r="BN13" s="125"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="142">
+      <c r="A14" s="156">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="151" t="s">
+      <c r="C14" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="152"/>
-      <c r="E14" s="132" t="s">
+      <c r="D14" s="158"/>
+      <c r="E14" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="181"/>
+      <c r="F14" s="162"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4600,13 +4596,13 @@
       <c r="AA14" s="22"/>
       <c r="AB14" s="22"/>
       <c r="AC14" s="107"/>
-      <c r="AD14" s="30"/>
+      <c r="AD14" s="9"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="16"/>
       <c r="AH14" s="22"/>
       <c r="AI14" s="9"/>
-      <c r="AJ14" s="126"/>
+      <c r="AJ14" s="124"/>
       <c r="AK14" s="80"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
@@ -4635,16 +4631,16 @@
       <c r="BJ14" s="22"/>
       <c r="BK14" s="9"/>
       <c r="BL14" s="9"/>
-      <c r="BM14" s="9"/>
-      <c r="BN14" s="126"/>
+      <c r="BM14" s="30"/>
+      <c r="BN14" s="95"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="164"/>
+      <c r="A15" s="147"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="153"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="178"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="163"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4674,7 +4670,7 @@
       <c r="AG15" s="16"/>
       <c r="AH15" s="22"/>
       <c r="AI15" s="9"/>
-      <c r="AJ15" s="126"/>
+      <c r="AJ15" s="124"/>
       <c r="AK15" s="80"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="9"/>
@@ -4704,21 +4700,21 @@
       <c r="BK15" s="9"/>
       <c r="BL15" s="9"/>
       <c r="BM15" s="9"/>
-      <c r="BN15" s="126"/>
+      <c r="BN15" s="124"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="142">
+      <c r="A16" s="156">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="161" t="s">
+      <c r="C16" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="162"/>
-      <c r="E16" s="160" t="s">
+      <c r="D16" s="165"/>
+      <c r="E16" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="179"/>
+      <c r="F16" s="175"/>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -4742,13 +4738,13 @@
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
       <c r="AC16" s="106"/>
-      <c r="AD16" s="30"/>
+      <c r="AD16" s="9"/>
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
       <c r="AG16" s="13"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="9"/>
-      <c r="AJ16" s="126"/>
+      <c r="AJ16" s="124"/>
       <c r="AK16" s="80"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
@@ -4777,16 +4773,16 @@
       <c r="BJ16" s="19"/>
       <c r="BK16" s="7"/>
       <c r="BL16" s="7"/>
-      <c r="BM16" s="7"/>
-      <c r="BN16" s="72"/>
+      <c r="BM16" s="30"/>
+      <c r="BN16" s="95"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="164"/>
+      <c r="A17" s="147"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="181"/>
+      <c r="C17" s="171"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="162"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -4845,24 +4841,24 @@
       <c r="BJ17" s="26"/>
       <c r="BK17" s="24"/>
       <c r="BL17" s="24"/>
-      <c r="BM17" s="24"/>
-      <c r="BN17" s="125"/>
+      <c r="BM17" s="8"/>
+      <c r="BN17" s="93"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="142">
+      <c r="A18" s="156">
         <v>8</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="137"/>
-      <c r="E18" s="159" t="s">
+      <c r="D18" s="177"/>
+      <c r="E18" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="177"/>
+      <c r="F18" s="178"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -4892,8 +4888,8 @@
       <c r="AG18" s="15"/>
       <c r="AH18" s="22"/>
       <c r="AI18" s="107"/>
-      <c r="AJ18" s="95"/>
-      <c r="AK18" s="111"/>
+      <c r="AJ18" s="73"/>
+      <c r="AK18" s="233"/>
       <c r="AL18" s="6"/>
       <c r="AM18" s="6"/>
       <c r="AN18" s="15"/>
@@ -4921,16 +4917,16 @@
       <c r="BJ18" s="21"/>
       <c r="BK18" s="6"/>
       <c r="BL18" s="6"/>
-      <c r="BM18" s="6"/>
-      <c r="BN18" s="73"/>
+      <c r="BM18" s="60"/>
+      <c r="BN18" s="234"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="164"/>
+      <c r="A19" s="147"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="178"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="163"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -4953,14 +4949,14 @@
       <c r="Z19" s="25"/>
       <c r="AA19" s="26"/>
       <c r="AB19" s="26"/>
-      <c r="AC19" s="123"/>
+      <c r="AC19" s="117"/>
       <c r="AD19" s="24"/>
       <c r="AE19" s="24"/>
       <c r="AF19" s="24"/>
       <c r="AG19" s="25"/>
       <c r="AH19" s="26"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="72"/>
+      <c r="AI19" s="117"/>
+      <c r="AJ19" s="123"/>
       <c r="AK19" s="82"/>
       <c r="AL19" s="24"/>
       <c r="AM19" s="24"/>
@@ -4989,22 +4985,22 @@
       <c r="BJ19" s="26"/>
       <c r="BK19" s="24"/>
       <c r="BL19" s="24"/>
-      <c r="BM19" s="24"/>
-      <c r="BN19" s="125"/>
+      <c r="BM19" s="91"/>
+      <c r="BN19" s="72"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="142">
+      <c r="A20" s="156">
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="161" t="s">
+      <c r="C20" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="162"/>
-      <c r="E20" s="163" t="s">
+      <c r="D20" s="165"/>
+      <c r="E20" s="168" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="179"/>
+      <c r="F20" s="175"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -5033,9 +5029,9 @@
       <c r="AF20" s="30"/>
       <c r="AG20" s="13"/>
       <c r="AH20" s="19"/>
-      <c r="AI20" s="106"/>
-      <c r="AJ20" s="95"/>
-      <c r="AK20" s="24"/>
+      <c r="AI20" s="109"/>
+      <c r="AJ20" s="123"/>
+      <c r="AK20" s="82"/>
       <c r="AL20" s="24"/>
       <c r="AM20" s="24"/>
       <c r="AN20" s="13"/>
@@ -5063,16 +5059,16 @@
       <c r="BJ20" s="19"/>
       <c r="BK20" s="7"/>
       <c r="BL20" s="7"/>
-      <c r="BM20" s="7"/>
-      <c r="BN20" s="72"/>
+      <c r="BM20" s="235"/>
+      <c r="BN20" s="95"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="164"/>
+      <c r="A21" s="147"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="178"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="163"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -5095,14 +5091,14 @@
       <c r="Z21" s="25"/>
       <c r="AA21" s="26"/>
       <c r="AB21" s="26"/>
-      <c r="AC21" s="122"/>
+      <c r="AC21" s="116"/>
       <c r="AD21" s="24"/>
       <c r="AE21" s="24"/>
       <c r="AF21" s="24"/>
       <c r="AG21" s="25"/>
       <c r="AH21" s="26"/>
-      <c r="AI21" s="24"/>
-      <c r="AJ21" s="72"/>
+      <c r="AI21" s="117"/>
+      <c r="AJ21" s="123"/>
       <c r="AK21" s="82"/>
       <c r="AL21" s="24"/>
       <c r="AM21" s="24"/>
@@ -5131,22 +5127,22 @@
       <c r="BJ21" s="26"/>
       <c r="BK21" s="24"/>
       <c r="BL21" s="24"/>
-      <c r="BM21" s="24"/>
-      <c r="BN21" s="125"/>
+      <c r="BM21" s="91"/>
+      <c r="BN21" s="72"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="142">
+      <c r="A22" s="156">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="161" t="s">
+      <c r="C22" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="162"/>
-      <c r="E22" s="157" t="s">
+      <c r="D22" s="165"/>
+      <c r="E22" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="179"/>
+      <c r="F22" s="175"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -5175,8 +5171,8 @@
       <c r="AF22" s="30"/>
       <c r="AG22" s="25"/>
       <c r="AH22" s="26"/>
-      <c r="AI22" s="106"/>
-      <c r="AJ22" s="95"/>
+      <c r="AI22" s="109"/>
+      <c r="AJ22" s="123"/>
       <c r="AK22" s="82"/>
       <c r="AL22" s="24"/>
       <c r="AM22" s="24"/>
@@ -5205,16 +5201,16 @@
       <c r="BJ22" s="26"/>
       <c r="BK22" s="64"/>
       <c r="BL22" s="64"/>
-      <c r="BM22" s="64"/>
-      <c r="BN22" s="74"/>
+      <c r="BM22" s="30"/>
+      <c r="BN22" s="95"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="164"/>
+      <c r="A23" s="147"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="172"/>
-      <c r="D23" s="173"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="180"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="182"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5243,7 +5239,7 @@
       <c r="AF23" s="68"/>
       <c r="AG23" s="17"/>
       <c r="AH23" s="23"/>
-      <c r="AI23" s="68"/>
+      <c r="AI23" s="96"/>
       <c r="AJ23" s="75"/>
       <c r="AK23" s="85"/>
       <c r="AL23" s="68"/>
@@ -5277,20 +5273,20 @@
       <c r="BN23" s="75"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="142">
+      <c r="A24" s="156">
         <v>11</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="136" t="s">
+      <c r="C24" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="137"/>
-      <c r="E24" s="159" t="s">
+      <c r="D24" s="177"/>
+      <c r="E24" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="177"/>
+      <c r="F24" s="178"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5320,14 +5316,14 @@
       <c r="AG24" s="15"/>
       <c r="AH24" s="21"/>
       <c r="AI24" s="60"/>
-      <c r="AJ24" s="126"/>
+      <c r="AJ24" s="236"/>
       <c r="AK24" s="63"/>
       <c r="AL24" s="63"/>
       <c r="AM24" s="63"/>
       <c r="AN24" s="15"/>
       <c r="AO24" s="21"/>
       <c r="AP24" s="107"/>
-      <c r="AQ24" s="60"/>
+      <c r="AQ24" s="65"/>
       <c r="AR24" s="65"/>
       <c r="AS24" s="65"/>
       <c r="AT24" s="65"/>
@@ -5349,16 +5345,16 @@
       <c r="BJ24" s="21"/>
       <c r="BK24" s="65"/>
       <c r="BL24" s="65"/>
-      <c r="BM24" s="65"/>
-      <c r="BN24" s="76"/>
+      <c r="BM24" s="60"/>
+      <c r="BN24" s="234"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="164"/>
+      <c r="A25" s="147"/>
       <c r="B25" s="36"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="178"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="163"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5421,18 +5417,18 @@
       <c r="BN25" s="77"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="142">
+      <c r="A26" s="156">
         <v>12</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="147" t="s">
+      <c r="C26" s="171" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="148"/>
-      <c r="E26" s="157" t="s">
+      <c r="D26" s="172"/>
+      <c r="E26" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="158"/>
+      <c r="F26" s="189"/>
       <c r="G26" s="50"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -5463,13 +5459,13 @@
       <c r="AH26" s="22"/>
       <c r="AI26" s="63"/>
       <c r="AJ26" s="95"/>
-      <c r="AK26" s="112"/>
-      <c r="AL26" s="63"/>
+      <c r="AK26" s="111"/>
+      <c r="AL26" s="30"/>
       <c r="AM26" s="63"/>
       <c r="AN26" s="16"/>
       <c r="AO26" s="22"/>
       <c r="AP26" s="109"/>
-      <c r="AQ26" s="30"/>
+      <c r="AQ26" s="63"/>
       <c r="AR26" s="63"/>
       <c r="AS26" s="63"/>
       <c r="AT26" s="62"/>
@@ -5491,16 +5487,16 @@
       <c r="BJ26" s="22"/>
       <c r="BK26" s="62"/>
       <c r="BL26" s="62"/>
-      <c r="BM26" s="62"/>
-      <c r="BN26" s="77"/>
+      <c r="BM26" s="30"/>
+      <c r="BN26" s="95"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="164"/>
+      <c r="A27" s="147"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="149"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="145"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="180"/>
       <c r="G27" s="51"/>
       <c r="H27" s="91"/>
       <c r="I27" s="7"/>
@@ -5563,18 +5559,18 @@
       <c r="BN27" s="77"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="142">
+      <c r="A28" s="156">
         <v>13</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="161" t="s">
+      <c r="C28" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="162"/>
-      <c r="E28" s="163" t="s">
+      <c r="D28" s="165"/>
+      <c r="E28" s="168" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="144"/>
+      <c r="F28" s="179"/>
       <c r="G28" s="50"/>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
@@ -5605,13 +5601,13 @@
       <c r="AH28" s="19"/>
       <c r="AI28" s="63"/>
       <c r="AJ28" s="77"/>
-      <c r="AK28" s="112"/>
+      <c r="AK28" s="111"/>
       <c r="AL28" s="30"/>
-      <c r="AM28" s="63"/>
+      <c r="AM28" s="30"/>
       <c r="AN28" s="13"/>
       <c r="AO28" s="19"/>
       <c r="AP28" s="109"/>
-      <c r="AQ28" s="30"/>
+      <c r="AQ28" s="63"/>
       <c r="AR28" s="63"/>
       <c r="AS28" s="63"/>
       <c r="AT28" s="63"/>
@@ -5633,16 +5629,16 @@
       <c r="BJ28" s="19"/>
       <c r="BK28" s="63"/>
       <c r="BL28" s="63"/>
-      <c r="BM28" s="63"/>
-      <c r="BN28" s="77"/>
+      <c r="BM28" s="30"/>
+      <c r="BN28" s="95"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="164"/>
+      <c r="A29" s="147"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="145"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="180"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="91"/>
@@ -5705,18 +5701,18 @@
       <c r="BN29" s="77"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="142">
+      <c r="A30" s="156">
         <v>14</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="161" t="s">
+      <c r="C30" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="162"/>
-      <c r="E30" s="163" t="s">
+      <c r="D30" s="165"/>
+      <c r="E30" s="168" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="144"/>
+      <c r="F30" s="179"/>
       <c r="G30" s="50"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -5752,7 +5748,7 @@
       <c r="AM30" s="63"/>
       <c r="AN30" s="13"/>
       <c r="AO30" s="19"/>
-      <c r="AP30" s="63"/>
+      <c r="AP30" s="30"/>
       <c r="AQ30" s="30"/>
       <c r="AR30" s="30"/>
       <c r="AS30" s="63"/>
@@ -5761,7 +5757,7 @@
       <c r="AV30" s="19"/>
       <c r="AW30" s="19"/>
       <c r="AX30" s="109"/>
-      <c r="AY30" s="30"/>
+      <c r="AY30" s="63"/>
       <c r="AZ30" s="63"/>
       <c r="BA30" s="63"/>
       <c r="BB30" s="13"/>
@@ -5775,16 +5771,16 @@
       <c r="BJ30" s="19"/>
       <c r="BK30" s="63"/>
       <c r="BL30" s="63"/>
-      <c r="BM30" s="63"/>
-      <c r="BN30" s="77"/>
+      <c r="BM30" s="30"/>
+      <c r="BN30" s="95"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="164"/>
+      <c r="A31" s="147"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="145"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="180"/>
       <c r="G31" s="51"/>
       <c r="H31" s="91"/>
       <c r="I31" s="7"/>
@@ -5847,18 +5843,18 @@
       <c r="BN31" s="77"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="142">
+      <c r="A32" s="156">
         <v>15</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="161" t="s">
+      <c r="C32" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="162"/>
-      <c r="E32" s="157" t="s">
+      <c r="D32" s="165"/>
+      <c r="E32" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="144"/>
+      <c r="F32" s="179"/>
       <c r="G32" s="52"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5895,7 +5891,7 @@
       <c r="AN32" s="25"/>
       <c r="AO32" s="26"/>
       <c r="AP32" s="64"/>
-      <c r="AQ32" s="63"/>
+      <c r="AQ32" s="30"/>
       <c r="AR32" s="30"/>
       <c r="AS32" s="30"/>
       <c r="AT32" s="63"/>
@@ -5903,7 +5899,7 @@
       <c r="AV32" s="26"/>
       <c r="AW32" s="26"/>
       <c r="AX32" s="109"/>
-      <c r="AY32" s="30"/>
+      <c r="AY32" s="63"/>
       <c r="AZ32" s="63"/>
       <c r="BA32" s="63"/>
       <c r="BB32" s="25"/>
@@ -5917,16 +5913,16 @@
       <c r="BJ32" s="26"/>
       <c r="BK32" s="64"/>
       <c r="BL32" s="64"/>
-      <c r="BM32" s="64"/>
-      <c r="BN32" s="74"/>
+      <c r="BM32" s="30"/>
+      <c r="BN32" s="95"/>
     </row>
     <row r="33" spans="1:67" ht="12" customHeight="1">
-      <c r="A33" s="164"/>
+      <c r="A33" s="147"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="149"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="145"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="180"/>
       <c r="G33" s="52"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5985,22 +5981,22 @@
       <c r="BJ33" s="26"/>
       <c r="BK33" s="64"/>
       <c r="BL33" s="64"/>
-      <c r="BM33" s="64"/>
-      <c r="BN33" s="74"/>
+      <c r="BM33" s="63"/>
+      <c r="BN33" s="77"/>
     </row>
     <row r="34" spans="1:67" ht="12" customHeight="1">
-      <c r="A34" s="142">
+      <c r="A34" s="156">
         <v>16</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="161" t="s">
+      <c r="C34" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="162"/>
-      <c r="E34" s="163" t="s">
+      <c r="D34" s="165"/>
+      <c r="E34" s="168" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="144"/>
+      <c r="F34" s="179"/>
       <c r="G34" s="52"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -6038,14 +6034,14 @@
       <c r="AO34" s="26"/>
       <c r="AP34" s="64"/>
       <c r="AQ34" s="63"/>
-      <c r="AR34" s="63"/>
+      <c r="AR34" s="30"/>
       <c r="AS34" s="30"/>
       <c r="AT34" s="30"/>
       <c r="AU34" s="25"/>
       <c r="AV34" s="26"/>
       <c r="AW34" s="26"/>
       <c r="AX34" s="109"/>
-      <c r="AY34" s="30"/>
+      <c r="AY34" s="63"/>
       <c r="AZ34" s="63"/>
       <c r="BA34" s="63"/>
       <c r="BB34" s="25"/>
@@ -6059,16 +6055,16 @@
       <c r="BJ34" s="26"/>
       <c r="BK34" s="64"/>
       <c r="BL34" s="64"/>
-      <c r="BM34" s="64"/>
-      <c r="BN34" s="74"/>
+      <c r="BM34" s="30"/>
+      <c r="BN34" s="95"/>
     </row>
     <row r="35" spans="1:67" ht="12" customHeight="1">
-      <c r="A35" s="164"/>
+      <c r="A35" s="147"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="149"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="145"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="180"/>
       <c r="G35" s="52"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -6127,22 +6123,22 @@
       <c r="BJ35" s="26"/>
       <c r="BK35" s="64"/>
       <c r="BL35" s="64"/>
-      <c r="BM35" s="64"/>
-      <c r="BN35" s="74"/>
+      <c r="BM35" s="63"/>
+      <c r="BN35" s="77"/>
     </row>
     <row r="36" spans="1:67" ht="12" customHeight="1">
-      <c r="A36" s="142">
+      <c r="A36" s="156">
         <v>17</v>
       </c>
       <c r="B36" s="36"/>
-      <c r="C36" s="113" t="s">
+      <c r="C36" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="114"/>
-      <c r="E36" s="163" t="s">
+      <c r="D36" s="113"/>
+      <c r="E36" s="168" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="144"/>
+      <c r="F36" s="179"/>
       <c r="G36" s="52"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -6182,7 +6178,7 @@
       <c r="AQ36" s="64"/>
       <c r="AR36" s="64"/>
       <c r="AS36" s="64"/>
-      <c r="AT36" s="64"/>
+      <c r="AT36" s="30"/>
       <c r="AU36" s="25"/>
       <c r="AV36" s="26"/>
       <c r="AW36" s="26"/>
@@ -6193,7 +6189,7 @@
       <c r="BB36" s="25"/>
       <c r="BC36" s="26"/>
       <c r="BD36" s="109"/>
-      <c r="BE36" s="30"/>
+      <c r="BE36" s="63"/>
       <c r="BF36" s="64"/>
       <c r="BG36" s="64"/>
       <c r="BH36" s="64"/>
@@ -6201,16 +6197,16 @@
       <c r="BJ36" s="26"/>
       <c r="BK36" s="64"/>
       <c r="BL36" s="64"/>
-      <c r="BM36" s="64"/>
-      <c r="BN36" s="74"/>
+      <c r="BM36" s="30"/>
+      <c r="BN36" s="95"/>
     </row>
     <row r="37" spans="1:67" ht="12" customHeight="1">
-      <c r="A37" s="164"/>
+      <c r="A37" s="147"/>
       <c r="B37" s="37"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="159"/>
-      <c r="F37" s="146"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="190"/>
       <c r="G37" s="54"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -6273,20 +6269,20 @@
       <c r="BN37" s="75"/>
     </row>
     <row r="38" spans="1:67" ht="12" customHeight="1">
-      <c r="A38" s="142">
+      <c r="A38" s="156">
         <v>18</v>
       </c>
-      <c r="B38" s="174" t="s">
+      <c r="B38" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="136" t="s">
+      <c r="C38" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="137"/>
-      <c r="E38" s="159" t="s">
+      <c r="D38" s="177"/>
+      <c r="E38" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="177"/>
+      <c r="F38" s="178"/>
       <c r="G38" s="38"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -6297,7 +6293,7 @@
       <c r="N38" s="65"/>
       <c r="O38" s="65"/>
       <c r="P38" s="65"/>
-      <c r="Q38" s="67"/>
+      <c r="Q38" s="65"/>
       <c r="R38" s="65"/>
       <c r="S38" s="15"/>
       <c r="T38" s="21"/>
@@ -6310,51 +6306,51 @@
       <c r="AA38" s="21"/>
       <c r="AB38" s="21"/>
       <c r="AC38" s="65"/>
-      <c r="AD38" s="65"/>
+      <c r="AD38" s="67"/>
       <c r="AE38" s="65"/>
       <c r="AF38" s="65"/>
       <c r="AG38" s="15"/>
       <c r="AH38" s="21"/>
       <c r="AI38" s="65"/>
-      <c r="AJ38" s="74"/>
-      <c r="AK38" s="84"/>
+      <c r="AJ38" s="76"/>
+      <c r="AK38" s="86"/>
       <c r="AL38" s="65"/>
       <c r="AM38" s="65"/>
       <c r="AN38" s="15"/>
       <c r="AO38" s="21"/>
-      <c r="AP38" s="30"/>
-      <c r="AQ38" s="30"/>
-      <c r="AR38" s="30"/>
-      <c r="AS38" s="30"/>
-      <c r="AT38" s="30"/>
+      <c r="AP38" s="65"/>
+      <c r="AQ38" s="65"/>
+      <c r="AR38" s="65"/>
+      <c r="AS38" s="65"/>
+      <c r="AT38" s="65"/>
       <c r="AU38" s="15"/>
       <c r="AV38" s="21"/>
       <c r="AW38" s="21"/>
-      <c r="AX38" s="107"/>
-      <c r="AY38" s="60"/>
+      <c r="AX38" s="65"/>
+      <c r="AY38" s="65"/>
       <c r="AZ38" s="65"/>
       <c r="BA38" s="65"/>
       <c r="BB38" s="15"/>
       <c r="BC38" s="21"/>
-      <c r="BD38" s="65"/>
-      <c r="BE38" s="65"/>
-      <c r="BF38" s="65"/>
-      <c r="BG38" s="65"/>
-      <c r="BH38" s="65"/>
+      <c r="BD38" s="30"/>
+      <c r="BE38" s="30"/>
+      <c r="BF38" s="30"/>
+      <c r="BG38" s="30"/>
+      <c r="BH38" s="63"/>
       <c r="BI38" s="15"/>
       <c r="BJ38" s="21"/>
-      <c r="BK38" s="65"/>
-      <c r="BL38" s="65"/>
-      <c r="BM38" s="65"/>
-      <c r="BN38" s="76"/>
+      <c r="BK38" s="107"/>
+      <c r="BL38" s="60"/>
+      <c r="BM38" s="60"/>
+      <c r="BN38" s="60"/>
     </row>
     <row r="39" spans="1:67" ht="12" customHeight="1">
-      <c r="A39" s="164"/>
-      <c r="B39" s="175"/>
-      <c r="C39" s="149"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="165"/>
-      <c r="F39" s="178"/>
+      <c r="A39" s="147"/>
+      <c r="B39" s="192"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="181"/>
+      <c r="F39" s="163"/>
       <c r="G39" s="51"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -6365,7 +6361,7 @@
       <c r="N39" s="63"/>
       <c r="O39" s="63"/>
       <c r="P39" s="63"/>
-      <c r="Q39" s="110"/>
+      <c r="Q39" s="63"/>
       <c r="R39" s="63"/>
       <c r="S39" s="13"/>
       <c r="T39" s="19"/>
@@ -6406,173 +6402,173 @@
       <c r="BC39" s="19"/>
       <c r="BD39" s="63"/>
       <c r="BE39" s="63"/>
-      <c r="BF39" s="63"/>
-      <c r="BG39" s="63"/>
-      <c r="BH39" s="63"/>
+      <c r="BF39" s="96"/>
+      <c r="BG39" s="96"/>
+      <c r="BH39" s="96"/>
       <c r="BI39" s="13"/>
       <c r="BJ39" s="19"/>
-      <c r="BK39" s="63"/>
-      <c r="BL39" s="63"/>
-      <c r="BM39" s="63"/>
-      <c r="BN39" s="77"/>
+      <c r="BK39" s="64"/>
+      <c r="BL39" s="64"/>
+      <c r="BM39" s="68"/>
+      <c r="BN39" s="68"/>
     </row>
     <row r="40" spans="1:67" ht="12" customHeight="1">
-      <c r="A40" s="142">
+      <c r="A40" s="156">
         <v>19</v>
       </c>
-      <c r="B40" s="175"/>
-      <c r="C40" s="147" t="s">
+      <c r="B40" s="192"/>
+      <c r="C40" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="148"/>
-      <c r="E40" s="157" t="s">
+      <c r="D40" s="172"/>
+      <c r="E40" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="158"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="118"/>
-      <c r="K40" s="118"/>
-      <c r="L40" s="119"/>
-      <c r="M40" s="120"/>
-      <c r="N40" s="92"/>
-      <c r="O40" s="92"/>
-      <c r="P40" s="92"/>
-      <c r="Q40" s="92"/>
-      <c r="R40" s="92"/>
-      <c r="S40" s="119"/>
-      <c r="T40" s="120"/>
-      <c r="U40" s="120"/>
-      <c r="V40" s="92"/>
-      <c r="W40" s="92"/>
-      <c r="X40" s="92"/>
-      <c r="Y40" s="92"/>
-      <c r="Z40" s="119"/>
-      <c r="AA40" s="120"/>
-      <c r="AB40" s="120"/>
-      <c r="AC40" s="92"/>
-      <c r="AD40" s="92"/>
-      <c r="AE40" s="92"/>
-      <c r="AF40" s="92"/>
-      <c r="AG40" s="119"/>
-      <c r="AH40" s="120"/>
-      <c r="AI40" s="92"/>
-      <c r="AJ40" s="121"/>
-      <c r="AK40" s="87"/>
-      <c r="AL40" s="63"/>
-      <c r="AM40" s="63"/>
-      <c r="AN40" s="119"/>
-      <c r="AO40" s="120"/>
-      <c r="AP40" s="63"/>
-      <c r="AQ40" s="63"/>
-      <c r="AR40" s="63"/>
-      <c r="AS40" s="63"/>
-      <c r="AT40" s="63"/>
-      <c r="AU40" s="119"/>
-      <c r="AV40" s="120"/>
-      <c r="AW40" s="120"/>
-      <c r="AX40" s="41"/>
-      <c r="AY40" s="41"/>
-      <c r="AZ40" s="41"/>
-      <c r="BA40" s="41"/>
-      <c r="BB40" s="119"/>
-      <c r="BC40" s="120"/>
-      <c r="BD40" s="109"/>
-      <c r="BE40" s="30"/>
-      <c r="BF40" s="92"/>
-      <c r="BG40" s="92"/>
-      <c r="BH40" s="92"/>
-      <c r="BI40" s="119"/>
-      <c r="BJ40" s="120"/>
-      <c r="BK40" s="63"/>
-      <c r="BL40" s="63"/>
-      <c r="BM40" s="92"/>
-      <c r="BN40" s="121"/>
+      <c r="F40" s="189"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="65"/>
+      <c r="W40" s="65"/>
+      <c r="X40" s="65"/>
+      <c r="Y40" s="65"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="65"/>
+      <c r="AD40" s="65"/>
+      <c r="AE40" s="65"/>
+      <c r="AF40" s="65"/>
+      <c r="AG40" s="15"/>
+      <c r="AH40" s="21"/>
+      <c r="AI40" s="65"/>
+      <c r="AJ40" s="76"/>
+      <c r="AK40" s="86"/>
+      <c r="AL40" s="65"/>
+      <c r="AM40" s="65"/>
+      <c r="AN40" s="15"/>
+      <c r="AO40" s="21"/>
+      <c r="AP40" s="65"/>
+      <c r="AQ40" s="65"/>
+      <c r="AR40" s="65"/>
+      <c r="AS40" s="65"/>
+      <c r="AT40" s="65"/>
+      <c r="AU40" s="15"/>
+      <c r="AV40" s="21"/>
+      <c r="AW40" s="21"/>
+      <c r="AX40" s="65"/>
+      <c r="AY40" s="65"/>
+      <c r="AZ40" s="65"/>
+      <c r="BA40" s="65"/>
+      <c r="BB40" s="15"/>
+      <c r="BC40" s="21"/>
+      <c r="BD40" s="65"/>
+      <c r="BE40" s="65"/>
+      <c r="BF40" s="30"/>
+      <c r="BG40" s="30"/>
+      <c r="BH40" s="30"/>
+      <c r="BI40" s="15"/>
+      <c r="BJ40" s="21"/>
+      <c r="BK40" s="107"/>
+      <c r="BL40" s="60"/>
+      <c r="BM40" s="60"/>
+      <c r="BN40" s="60"/>
     </row>
-    <row r="41" spans="1:67" ht="12" customHeight="1">
-      <c r="A41" s="164"/>
-      <c r="B41" s="176"/>
-      <c r="C41" s="172"/>
-      <c r="D41" s="173"/>
-      <c r="E41" s="159"/>
-      <c r="F41" s="146"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="64"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="64"/>
-      <c r="R41" s="64"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="26"/>
-      <c r="V41" s="64"/>
-      <c r="W41" s="64"/>
-      <c r="X41" s="64"/>
-      <c r="Y41" s="64"/>
-      <c r="Z41" s="25"/>
-      <c r="AA41" s="26"/>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="64"/>
-      <c r="AD41" s="64"/>
-      <c r="AE41" s="64"/>
-      <c r="AF41" s="64"/>
-      <c r="AG41" s="25"/>
-      <c r="AH41" s="26"/>
-      <c r="AI41" s="64"/>
-      <c r="AJ41" s="74"/>
-      <c r="AK41" s="84"/>
-      <c r="AL41" s="64"/>
-      <c r="AM41" s="64"/>
-      <c r="AN41" s="25"/>
-      <c r="AO41" s="26"/>
-      <c r="AP41" s="64"/>
-      <c r="AQ41" s="64"/>
-      <c r="AR41" s="64"/>
-      <c r="AS41" s="64"/>
-      <c r="AT41" s="64"/>
-      <c r="AU41" s="25"/>
-      <c r="AV41" s="26"/>
-      <c r="AW41" s="26"/>
-      <c r="AX41" s="64"/>
-      <c r="AY41" s="64"/>
-      <c r="AZ41" s="64"/>
-      <c r="BA41" s="64"/>
-      <c r="BB41" s="25"/>
-      <c r="BC41" s="26"/>
-      <c r="BD41" s="96"/>
-      <c r="BE41" s="96"/>
-      <c r="BF41" s="96"/>
-      <c r="BG41" s="68"/>
-      <c r="BH41" s="96"/>
-      <c r="BI41" s="25"/>
-      <c r="BJ41" s="26"/>
-      <c r="BK41" s="68"/>
-      <c r="BL41" s="68"/>
-      <c r="BM41" s="96"/>
-      <c r="BN41" s="74"/>
+    <row r="41" spans="1:67" ht="12" customHeight="1" thickBot="1">
+      <c r="A41" s="147"/>
+      <c r="B41" s="193"/>
+      <c r="C41" s="166"/>
+      <c r="D41" s="167"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="190"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="69"/>
+      <c r="W41" s="69"/>
+      <c r="X41" s="69"/>
+      <c r="Y41" s="69"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="69"/>
+      <c r="AD41" s="69"/>
+      <c r="AE41" s="69"/>
+      <c r="AF41" s="69"/>
+      <c r="AG41" s="14"/>
+      <c r="AH41" s="20"/>
+      <c r="AI41" s="69"/>
+      <c r="AJ41" s="78"/>
+      <c r="AK41" s="88"/>
+      <c r="AL41" s="69"/>
+      <c r="AM41" s="69"/>
+      <c r="AN41" s="14"/>
+      <c r="AO41" s="20"/>
+      <c r="AP41" s="69"/>
+      <c r="AQ41" s="69"/>
+      <c r="AR41" s="69"/>
+      <c r="AS41" s="69"/>
+      <c r="AT41" s="69"/>
+      <c r="AU41" s="14"/>
+      <c r="AV41" s="20"/>
+      <c r="AW41" s="20"/>
+      <c r="AX41" s="69"/>
+      <c r="AY41" s="69"/>
+      <c r="AZ41" s="69"/>
+      <c r="BA41" s="69"/>
+      <c r="BB41" s="14"/>
+      <c r="BC41" s="20"/>
+      <c r="BD41" s="69"/>
+      <c r="BE41" s="69"/>
+      <c r="BF41" s="69"/>
+      <c r="BG41" s="69"/>
+      <c r="BH41" s="69"/>
+      <c r="BI41" s="14"/>
+      <c r="BJ41" s="20"/>
+      <c r="BK41" s="69"/>
+      <c r="BL41" s="69"/>
+      <c r="BM41" s="69"/>
+      <c r="BN41" s="99"/>
     </row>
     <row r="42" spans="1:67" ht="12" customHeight="1">
-      <c r="A42" s="142">
+      <c r="A42" s="156">
         <v>20</v>
       </c>
-      <c r="B42" s="128" t="s">
+      <c r="B42" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="166" t="s">
+      <c r="C42" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="167"/>
-      <c r="E42" s="159" t="s">
+      <c r="D42" s="184"/>
+      <c r="E42" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="170"/>
+      <c r="F42" s="187"/>
       <c r="G42" s="38"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -6636,12 +6632,12 @@
       <c r="BO42" s="97"/>
     </row>
     <row r="43" spans="1:67" ht="12" customHeight="1">
-      <c r="A43" s="164"/>
+      <c r="A43" s="147"/>
       <c r="B43" s="34"/>
-      <c r="C43" s="168"/>
-      <c r="D43" s="169"/>
-      <c r="E43" s="159"/>
-      <c r="F43" s="171"/>
+      <c r="C43" s="185"/>
+      <c r="D43" s="186"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="188"/>
       <c r="G43" s="51"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6705,20 +6701,20 @@
       <c r="BO43" s="97"/>
     </row>
     <row r="44" spans="1:67">
-      <c r="A44" s="142">
+      <c r="A44" s="156">
         <v>21</v>
       </c>
-      <c r="B44" s="134" t="s">
+      <c r="B44" s="197" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="136" t="s">
+      <c r="C44" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="137"/>
-      <c r="E44" s="132" t="s">
+      <c r="D44" s="177"/>
+      <c r="E44" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="F44" s="140"/>
+      <c r="F44" s="201"/>
       <c r="G44" s="38"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -6782,12 +6778,12 @@
       <c r="BO44" s="97"/>
     </row>
     <row r="45" spans="1:67" ht="10.199999999999999" thickBot="1">
-      <c r="A45" s="143"/>
-      <c r="B45" s="135"/>
-      <c r="C45" s="138"/>
-      <c r="D45" s="139"/>
-      <c r="E45" s="133"/>
-      <c r="F45" s="141"/>
+      <c r="A45" s="203"/>
+      <c r="B45" s="198"/>
+      <c r="C45" s="199"/>
+      <c r="D45" s="200"/>
+      <c r="E45" s="196"/>
+      <c r="F45" s="202"/>
       <c r="G45" s="39"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
@@ -6850,7 +6846,7 @@
       <c r="BN45" s="99"/>
     </row>
     <row r="46" spans="1:67">
-      <c r="A46" s="131"/>
+      <c r="A46" s="122"/>
     </row>
     <row r="48" spans="1:67">
       <c r="A48" s="27"/>
@@ -6872,36 +6868,52 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="C38:D39"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="A32:A33"/>
@@ -6918,52 +6930,36 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -7007,54 +7003,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="199" t="s">
+      <c r="C1" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="200"/>
-      <c r="E1" s="205" t="s">
+      <c r="D1" s="136"/>
+      <c r="E1" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="207" t="s">
+      <c r="F1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="190"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="191"/>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="191"/>
-      <c r="S1" s="191"/>
-      <c r="T1" s="191"/>
-      <c r="U1" s="191"/>
-      <c r="V1" s="191"/>
-      <c r="W1" s="191"/>
-      <c r="X1" s="191"/>
-      <c r="Y1" s="191"/>
-      <c r="Z1" s="191"/>
-      <c r="AA1" s="191"/>
-      <c r="AB1" s="191"/>
-      <c r="AC1" s="191"/>
-      <c r="AD1" s="192"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="128"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="194"/>
-      <c r="B2" s="197"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="208"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="144"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -7129,12 +7125,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="195"/>
-      <c r="B3" s="198"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="209"/>
+      <c r="A3" s="131"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="145"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -7209,20 +7205,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="185">
+      <c r="A4" s="146">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="216" t="s">
+      <c r="D4" s="149"/>
+      <c r="E4" s="223" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="188"/>
+      <c r="F4" s="154"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -7245,20 +7241,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="217" t="s">
+      <c r="AC4" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="211" t="s">
+      <c r="AD4" s="218" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="164"/>
+      <c r="A5" s="147"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="189"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="155"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -7281,22 +7277,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="218"/>
-      <c r="AD5" s="212"/>
+      <c r="AC5" s="225"/>
+      <c r="AD5" s="219"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="142">
+      <c r="A6" s="156">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="161" t="s">
+      <c r="C6" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="162"/>
-      <c r="E6" s="214" t="s">
+      <c r="D6" s="165"/>
+      <c r="E6" s="221" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="183"/>
+      <c r="F6" s="169"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -7319,16 +7315,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="218"/>
-      <c r="AD6" s="212"/>
+      <c r="AC6" s="225"/>
+      <c r="AD6" s="219"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="164"/>
+      <c r="A7" s="147"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="215"/>
-      <c r="F7" s="184"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="170"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -7351,24 +7347,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="218"/>
-      <c r="AD7" s="212"/>
+      <c r="AC7" s="225"/>
+      <c r="AD7" s="219"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="220">
+      <c r="A8" s="207">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="222" t="s">
+      <c r="C8" s="227" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="224" t="s">
+      <c r="D8" s="228"/>
+      <c r="E8" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="177"/>
+      <c r="F8" s="178"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -7391,16 +7387,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="218"/>
-      <c r="AD8" s="212"/>
+      <c r="AC8" s="225"/>
+      <c r="AD8" s="219"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="221"/>
+      <c r="A9" s="208"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="225"/>
-      <c r="F9" s="180"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="182"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -7423,24 +7419,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="218"/>
-      <c r="AD9" s="212"/>
+      <c r="AC9" s="225"/>
+      <c r="AD9" s="219"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="226">
+      <c r="A10" s="216">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="151" t="s">
+      <c r="C10" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="152"/>
-      <c r="E10" s="227" t="s">
+      <c r="D10" s="158"/>
+      <c r="E10" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="181"/>
+      <c r="F10" s="162"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -7463,16 +7459,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="218"/>
-      <c r="AD10" s="212"/>
+      <c r="AC10" s="225"/>
+      <c r="AD10" s="219"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="221"/>
+      <c r="A11" s="208"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="228"/>
-      <c r="F11" s="178"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="211"/>
+      <c r="F11" s="163"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -7495,22 +7491,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="218"/>
-      <c r="AD11" s="212"/>
+      <c r="AC11" s="225"/>
+      <c r="AD11" s="219"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="220">
+      <c r="A12" s="207">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="161" t="s">
+      <c r="C12" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="162"/>
-      <c r="E12" s="229" t="s">
+      <c r="D12" s="165"/>
+      <c r="E12" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="179"/>
+      <c r="F12" s="175"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -7533,16 +7529,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="218"/>
-      <c r="AD12" s="212"/>
+      <c r="AC12" s="225"/>
+      <c r="AD12" s="219"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="226"/>
+      <c r="A13" s="216"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="227"/>
-      <c r="F13" s="181"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="215"/>
+      <c r="F13" s="162"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -7565,24 +7561,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="218"/>
-      <c r="AD13" s="212"/>
+      <c r="AC13" s="225"/>
+      <c r="AD13" s="219"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="230">
+      <c r="A14" s="212">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="136" t="s">
+      <c r="C14" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="137"/>
-      <c r="E14" s="231" t="s">
+      <c r="D14" s="177"/>
+      <c r="E14" s="214" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="177"/>
+      <c r="F14" s="178"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -7605,16 +7601,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="218"/>
-      <c r="AD14" s="212"/>
+      <c r="AC14" s="225"/>
+      <c r="AD14" s="219"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="230"/>
+      <c r="A15" s="212"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="228"/>
-      <c r="F15" s="178"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="211"/>
+      <c r="F15" s="163"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7637,22 +7633,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="218"/>
-      <c r="AD15" s="212"/>
+      <c r="AC15" s="225"/>
+      <c r="AD15" s="219"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="230">
+      <c r="A16" s="212">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="161" t="s">
+      <c r="C16" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="162"/>
-      <c r="E16" s="232" t="s">
+      <c r="D16" s="165"/>
+      <c r="E16" s="210" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="179"/>
+      <c r="F16" s="175"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7675,16 +7671,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="218"/>
-      <c r="AD16" s="212"/>
+      <c r="AC16" s="225"/>
+      <c r="AD16" s="219"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="230"/>
+      <c r="A17" s="212"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="228"/>
-      <c r="F17" s="178"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="211"/>
+      <c r="F17" s="163"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7707,22 +7703,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="218"/>
-      <c r="AD17" s="212"/>
+      <c r="AC17" s="225"/>
+      <c r="AD17" s="219"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="230">
+      <c r="A18" s="212">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="161" t="s">
+      <c r="C18" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="162"/>
-      <c r="E18" s="232" t="s">
+      <c r="D18" s="165"/>
+      <c r="E18" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="179"/>
+      <c r="F18" s="175"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7745,16 +7741,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="218"/>
-      <c r="AD18" s="212"/>
+      <c r="AC18" s="225"/>
+      <c r="AD18" s="219"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="230"/>
+      <c r="A19" s="212"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="225"/>
-      <c r="F19" s="180"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="213"/>
+      <c r="F19" s="182"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7777,24 +7773,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="218"/>
-      <c r="AD19" s="212"/>
+      <c r="AC19" s="225"/>
+      <c r="AD19" s="219"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="220">
+      <c r="A20" s="207">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="137"/>
-      <c r="E20" s="231" t="s">
+      <c r="D20" s="177"/>
+      <c r="E20" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="177"/>
+      <c r="F20" s="178"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7817,18 +7813,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="218"/>
-      <c r="AD20" s="212"/>
+      <c r="AC20" s="225"/>
+      <c r="AD20" s="219"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="221"/>
+      <c r="A21" s="208"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="149"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="228"/>
-      <c r="F21" s="178"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="211"/>
+      <c r="F21" s="163"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -7851,22 +7847,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="218"/>
-      <c r="AD21" s="212"/>
+      <c r="AC21" s="225"/>
+      <c r="AD21" s="219"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="220">
+      <c r="A22" s="207">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="233" t="s">
+      <c r="C22" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="162"/>
-      <c r="E22" s="232" t="s">
+      <c r="D22" s="165"/>
+      <c r="E22" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="179"/>
+      <c r="F22" s="175"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -7889,16 +7885,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="218"/>
-      <c r="AD22" s="212"/>
+      <c r="AC22" s="225"/>
+      <c r="AD22" s="219"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="221"/>
+      <c r="A23" s="208"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="149"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="228"/>
-      <c r="F23" s="178"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="211"/>
+      <c r="F23" s="163"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -7921,22 +7917,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="218"/>
-      <c r="AD23" s="212"/>
+      <c r="AC23" s="225"/>
+      <c r="AD23" s="219"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="220">
+      <c r="A24" s="207">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="233" t="s">
+      <c r="C24" s="209" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="162"/>
-      <c r="E24" s="232" t="s">
+      <c r="D24" s="165"/>
+      <c r="E24" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="179"/>
+      <c r="F24" s="175"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -7959,16 +7955,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="218"/>
-      <c r="AD24" s="212"/>
+      <c r="AC24" s="225"/>
+      <c r="AD24" s="219"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="221"/>
+      <c r="A25" s="208"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="228"/>
-      <c r="F25" s="180"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="182"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -7991,24 +7987,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="218"/>
-      <c r="AD25" s="212"/>
+      <c r="AC25" s="225"/>
+      <c r="AD25" s="219"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="142">
+      <c r="A26" s="156">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="166" t="s">
+      <c r="C26" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="167"/>
-      <c r="E26" s="234" t="s">
+      <c r="D26" s="184"/>
+      <c r="E26" s="204" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="170"/>
+      <c r="F26" s="187"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -8031,16 +8027,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="218"/>
-      <c r="AD26" s="212"/>
+      <c r="AC26" s="225"/>
+      <c r="AD26" s="219"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="164"/>
+      <c r="A27" s="147"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="168"/>
-      <c r="D27" s="169"/>
-      <c r="E27" s="235"/>
-      <c r="F27" s="171"/>
+      <c r="C27" s="185"/>
+      <c r="D27" s="186"/>
+      <c r="E27" s="205"/>
+      <c r="F27" s="188"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -8063,24 +8059,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="218"/>
-      <c r="AD27" s="212"/>
+      <c r="AC27" s="225"/>
+      <c r="AD27" s="219"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="142">
+      <c r="A28" s="156">
         <v>14</v>
       </c>
-      <c r="B28" s="134" t="s">
+      <c r="B28" s="197" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="136" t="s">
+      <c r="C28" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="137"/>
-      <c r="E28" s="134" t="s">
+      <c r="D28" s="177"/>
+      <c r="E28" s="197" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="140"/>
+      <c r="F28" s="201"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -8103,16 +8099,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="218"/>
-      <c r="AD28" s="212"/>
+      <c r="AC28" s="225"/>
+      <c r="AD28" s="219"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="236"/>
-      <c r="B29" s="135"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="141"/>
+      <c r="A29" s="206"/>
+      <c r="B29" s="198"/>
+      <c r="C29" s="199"/>
+      <c r="D29" s="200"/>
+      <c r="E29" s="198"/>
+      <c r="F29" s="202"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -8135,8 +8131,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="219"/>
-      <c r="AD29" s="213"/>
+      <c r="AC29" s="226"/>
+      <c r="AD29" s="220"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -8156,45 +8152,12 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -8211,12 +8174,45 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA02E3F1-EE70-4718-B04A-44586A69BAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3994FC-D2B2-43A8-AC5A-F76910ABFB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1749,7 +1749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2114,6 +2114,198 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2174,179 +2366,77 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2357,94 +2447,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3308,10 +3311,10 @@
   <dimension ref="A1:BO50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="7" topLeftCell="R14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4:BN41"/>
+      <selection pane="bottomRight" activeCell="BL42" sqref="BL42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3328,94 +3331,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="136"/>
-      <c r="E1" s="141" t="s">
+      <c r="D1" s="200"/>
+      <c r="E1" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="143" t="s">
+      <c r="F1" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="126">
+      <c r="G1" s="190">
         <v>45536</v>
       </c>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="127"/>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="127"/>
-      <c r="AH1" s="127"/>
-      <c r="AI1" s="127"/>
-      <c r="AJ1" s="128"/>
-      <c r="AK1" s="126">
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="191"/>
+      <c r="AG1" s="191"/>
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="191"/>
+      <c r="AJ1" s="192"/>
+      <c r="AK1" s="190">
         <v>45566</v>
       </c>
-      <c r="AL1" s="127"/>
-      <c r="AM1" s="127"/>
-      <c r="AN1" s="127"/>
-      <c r="AO1" s="127"/>
-      <c r="AP1" s="127"/>
-      <c r="AQ1" s="127"/>
-      <c r="AR1" s="127"/>
-      <c r="AS1" s="127"/>
-      <c r="AT1" s="127"/>
-      <c r="AU1" s="127"/>
-      <c r="AV1" s="127"/>
-      <c r="AW1" s="127"/>
-      <c r="AX1" s="127"/>
-      <c r="AY1" s="127"/>
-      <c r="AZ1" s="127"/>
-      <c r="BA1" s="127"/>
-      <c r="BB1" s="127"/>
-      <c r="BC1" s="127"/>
-      <c r="BD1" s="127"/>
-      <c r="BE1" s="127"/>
-      <c r="BF1" s="127"/>
-      <c r="BG1" s="127"/>
-      <c r="BH1" s="127"/>
-      <c r="BI1" s="127"/>
-      <c r="BJ1" s="127"/>
-      <c r="BK1" s="127"/>
-      <c r="BL1" s="127"/>
-      <c r="BM1" s="127"/>
-      <c r="BN1" s="128"/>
+      <c r="AL1" s="191"/>
+      <c r="AM1" s="191"/>
+      <c r="AN1" s="191"/>
+      <c r="AO1" s="191"/>
+      <c r="AP1" s="191"/>
+      <c r="AQ1" s="191"/>
+      <c r="AR1" s="191"/>
+      <c r="AS1" s="191"/>
+      <c r="AT1" s="191"/>
+      <c r="AU1" s="191"/>
+      <c r="AV1" s="191"/>
+      <c r="AW1" s="191"/>
+      <c r="AX1" s="191"/>
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191"/>
+      <c r="BA1" s="191"/>
+      <c r="BB1" s="191"/>
+      <c r="BC1" s="191"/>
+      <c r="BD1" s="191"/>
+      <c r="BE1" s="191"/>
+      <c r="BF1" s="191"/>
+      <c r="BG1" s="191"/>
+      <c r="BH1" s="191"/>
+      <c r="BI1" s="191"/>
+      <c r="BJ1" s="191"/>
+      <c r="BK1" s="191"/>
+      <c r="BL1" s="191"/>
+      <c r="BM1" s="191"/>
+      <c r="BN1" s="192"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="130"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="144"/>
+      <c r="A2" s="194"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="208"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3657,12 +3660,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="131"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="145"/>
+      <c r="A3" s="195"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="209"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3845,20 +3848,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="146">
+      <c r="A4" s="185">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="149"/>
-      <c r="E4" s="152" t="s">
+      <c r="D4" s="187"/>
+      <c r="E4" s="164" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="154"/>
+      <c r="F4" s="188"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -3921,12 +3924,12 @@
       <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="147"/>
+      <c r="A5" s="165"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="155"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="189"/>
       <c r="G5" s="120"/>
       <c r="H5" s="100"/>
       <c r="I5" s="121"/>
@@ -3989,18 +3992,18 @@
       <c r="BN5" s="124"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="156">
+      <c r="A6" s="142">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="164" t="s">
+      <c r="C6" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="165"/>
-      <c r="E6" s="168" t="s">
+      <c r="D6" s="163"/>
+      <c r="E6" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="169"/>
+      <c r="F6" s="183"/>
       <c r="G6" s="51"/>
       <c r="H6" s="62"/>
       <c r="I6" s="118"/>
@@ -4063,12 +4066,12 @@
       <c r="BN6" s="72"/>
     </row>
     <row r="7" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A7" s="147"/>
+      <c r="A7" s="165"/>
       <c r="B7" s="102"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="170"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="184"/>
       <c r="G7" s="101"/>
       <c r="H7" s="68"/>
       <c r="I7" s="96"/>
@@ -4076,7 +4079,7 @@
       <c r="K7" s="121"/>
       <c r="L7" s="17"/>
       <c r="M7" s="23"/>
-      <c r="N7" s="231"/>
+      <c r="N7" s="126"/>
       <c r="O7" s="68"/>
       <c r="P7" s="68"/>
       <c r="Q7" s="68"/>
@@ -4131,20 +4134,20 @@
       <c r="BN7" s="72"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="156">
+      <c r="A8" s="142">
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="157" t="s">
+      <c r="C8" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="158"/>
-      <c r="E8" s="174" t="s">
+      <c r="D8" s="152"/>
+      <c r="E8" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="189"/>
+      <c r="F8" s="158"/>
       <c r="G8" s="50"/>
       <c r="H8" s="62"/>
       <c r="I8" s="62"/>
@@ -4207,12 +4210,12 @@
       <c r="BN8" s="95"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="147"/>
+      <c r="A9" s="165"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="180"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="145"/>
       <c r="G9" s="51"/>
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
@@ -4220,7 +4223,7 @@
       <c r="K9" s="63"/>
       <c r="L9" s="13"/>
       <c r="M9" s="19"/>
-      <c r="N9" s="232"/>
+      <c r="N9" s="127"/>
       <c r="O9" s="63"/>
       <c r="P9" s="63"/>
       <c r="Q9" s="63"/>
@@ -4275,18 +4278,18 @@
       <c r="BN9" s="72"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="156">
+      <c r="A10" s="142">
         <v>4</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="157" t="s">
+      <c r="C10" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="158"/>
-      <c r="E10" s="168" t="s">
+      <c r="D10" s="152"/>
+      <c r="E10" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="179"/>
+      <c r="F10" s="144"/>
       <c r="G10" s="51"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
@@ -4349,12 +4352,12 @@
       <c r="BN10" s="95"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="147"/>
+      <c r="A11" s="165"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="181"/>
-      <c r="F11" s="180"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="145"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4417,18 +4420,18 @@
       <c r="BN11" s="72"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="156">
+      <c r="A12" s="142">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="157" t="s">
+      <c r="C12" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="158"/>
-      <c r="E12" s="173" t="s">
+      <c r="D12" s="152"/>
+      <c r="E12" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="179"/>
+      <c r="F12" s="144"/>
       <c r="G12" s="51"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
@@ -4491,12 +4494,12 @@
       <c r="BN12" s="95"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="147"/>
+      <c r="A13" s="165"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="194"/>
-      <c r="D13" s="195"/>
-      <c r="E13" s="174"/>
-      <c r="F13" s="190"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="146"/>
       <c r="G13" s="53"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
@@ -4559,20 +4562,20 @@
       <c r="BN13" s="125"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="156">
+      <c r="A14" s="142">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="157" t="s">
+      <c r="C14" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="158"/>
-      <c r="E14" s="153" t="s">
+      <c r="D14" s="152"/>
+      <c r="E14" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="162"/>
+      <c r="F14" s="181"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4635,12 +4638,12 @@
       <c r="BN14" s="95"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="147"/>
+      <c r="A15" s="165"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="159"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="163"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="178"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4703,18 +4706,18 @@
       <c r="BN15" s="124"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="156">
+      <c r="A16" s="142">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="165"/>
-      <c r="E16" s="173" t="s">
+      <c r="D16" s="163"/>
+      <c r="E16" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="175"/>
+      <c r="F16" s="179"/>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -4777,12 +4780,12 @@
       <c r="BN16" s="95"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="147"/>
+      <c r="A17" s="165"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="162"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="181"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -4845,20 +4848,20 @@
       <c r="BN17" s="93"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="156">
+      <c r="A18" s="142">
         <v>8</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="176" t="s">
+      <c r="C18" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="177"/>
-      <c r="E18" s="152" t="s">
+      <c r="D18" s="137"/>
+      <c r="E18" s="164" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="178"/>
+      <c r="F18" s="177"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -4889,7 +4892,7 @@
       <c r="AH18" s="22"/>
       <c r="AI18" s="107"/>
       <c r="AJ18" s="73"/>
-      <c r="AK18" s="233"/>
+      <c r="AK18" s="128"/>
       <c r="AL18" s="6"/>
       <c r="AM18" s="6"/>
       <c r="AN18" s="15"/>
@@ -4918,15 +4921,15 @@
       <c r="BK18" s="6"/>
       <c r="BL18" s="6"/>
       <c r="BM18" s="60"/>
-      <c r="BN18" s="234"/>
+      <c r="BN18" s="129"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="147"/>
+      <c r="A19" s="165"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="163"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="178"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -4989,18 +4992,18 @@
       <c r="BN19" s="72"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="156">
+      <c r="A20" s="142">
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="164" t="s">
+      <c r="C20" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="165"/>
-      <c r="E20" s="168" t="s">
+      <c r="D20" s="163"/>
+      <c r="E20" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="175"/>
+      <c r="F20" s="179"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -5059,16 +5062,16 @@
       <c r="BJ20" s="19"/>
       <c r="BK20" s="7"/>
       <c r="BL20" s="7"/>
-      <c r="BM20" s="235"/>
+      <c r="BM20" s="130"/>
       <c r="BN20" s="95"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="147"/>
+      <c r="A21" s="165"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="163"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="178"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -5131,18 +5134,18 @@
       <c r="BN21" s="72"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="156">
+      <c r="A22" s="142">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="164" t="s">
+      <c r="C22" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="165"/>
-      <c r="E22" s="174" t="s">
+      <c r="D22" s="163"/>
+      <c r="E22" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="175"/>
+      <c r="F22" s="179"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -5205,12 +5208,12 @@
       <c r="BN22" s="95"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="147"/>
+      <c r="A23" s="165"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="182"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="180"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5273,20 +5276,20 @@
       <c r="BN23" s="75"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="156">
+      <c r="A24" s="142">
         <v>11</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="176" t="s">
+      <c r="C24" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="177"/>
-      <c r="E24" s="152" t="s">
+      <c r="D24" s="137"/>
+      <c r="E24" s="164" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="178"/>
+      <c r="F24" s="177"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5316,7 +5319,7 @@
       <c r="AG24" s="15"/>
       <c r="AH24" s="21"/>
       <c r="AI24" s="60"/>
-      <c r="AJ24" s="236"/>
+      <c r="AJ24" s="131"/>
       <c r="AK24" s="63"/>
       <c r="AL24" s="63"/>
       <c r="AM24" s="63"/>
@@ -5346,15 +5349,15 @@
       <c r="BK24" s="65"/>
       <c r="BL24" s="65"/>
       <c r="BM24" s="60"/>
-      <c r="BN24" s="234"/>
+      <c r="BN24" s="129"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="147"/>
+      <c r="A25" s="165"/>
       <c r="B25" s="36"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="181"/>
-      <c r="F25" s="163"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="178"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5417,18 +5420,18 @@
       <c r="BN25" s="77"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="156">
+      <c r="A26" s="142">
         <v>12</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="171" t="s">
+      <c r="C26" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="172"/>
-      <c r="E26" s="174" t="s">
+      <c r="D26" s="148"/>
+      <c r="E26" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="189"/>
+      <c r="F26" s="158"/>
       <c r="G26" s="50"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -5491,12 +5494,12 @@
       <c r="BN26" s="95"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="147"/>
+      <c r="A27" s="165"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="180"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="145"/>
       <c r="G27" s="51"/>
       <c r="H27" s="91"/>
       <c r="I27" s="7"/>
@@ -5559,18 +5562,18 @@
       <c r="BN27" s="77"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="156">
+      <c r="A28" s="142">
         <v>13</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="164" t="s">
+      <c r="C28" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="165"/>
-      <c r="E28" s="168" t="s">
+      <c r="D28" s="163"/>
+      <c r="E28" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="179"/>
+      <c r="F28" s="144"/>
       <c r="G28" s="50"/>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
@@ -5633,12 +5636,12 @@
       <c r="BN28" s="95"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="147"/>
+      <c r="A29" s="165"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="150"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="180"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="145"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="91"/>
@@ -5701,18 +5704,18 @@
       <c r="BN29" s="77"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="156">
+      <c r="A30" s="142">
         <v>14</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="164" t="s">
+      <c r="C30" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="165"/>
-      <c r="E30" s="168" t="s">
+      <c r="D30" s="163"/>
+      <c r="E30" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="179"/>
+      <c r="F30" s="144"/>
       <c r="G30" s="50"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -5775,12 +5778,12 @@
       <c r="BN30" s="95"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="147"/>
+      <c r="A31" s="165"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="181"/>
-      <c r="F31" s="180"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="145"/>
       <c r="G31" s="51"/>
       <c r="H31" s="91"/>
       <c r="I31" s="7"/>
@@ -5843,18 +5846,18 @@
       <c r="BN31" s="77"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="156">
+      <c r="A32" s="142">
         <v>15</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="164" t="s">
+      <c r="C32" s="162" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="165"/>
-      <c r="E32" s="174" t="s">
+      <c r="D32" s="163"/>
+      <c r="E32" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="179"/>
+      <c r="F32" s="144"/>
       <c r="G32" s="52"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5917,12 +5920,12 @@
       <c r="BN32" s="95"/>
     </row>
     <row r="33" spans="1:67" ht="12" customHeight="1">
-      <c r="A33" s="147"/>
+      <c r="A33" s="165"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="150"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="180"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="145"/>
       <c r="G33" s="52"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5985,18 +5988,18 @@
       <c r="BN33" s="77"/>
     </row>
     <row r="34" spans="1:67" ht="12" customHeight="1">
-      <c r="A34" s="156">
+      <c r="A34" s="142">
         <v>16</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="164" t="s">
+      <c r="C34" s="162" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="165"/>
-      <c r="E34" s="168" t="s">
+      <c r="D34" s="163"/>
+      <c r="E34" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="179"/>
+      <c r="F34" s="144"/>
       <c r="G34" s="52"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -6059,12 +6062,12 @@
       <c r="BN34" s="95"/>
     </row>
     <row r="35" spans="1:67" ht="12" customHeight="1">
-      <c r="A35" s="147"/>
+      <c r="A35" s="165"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="150"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="180"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="145"/>
       <c r="G35" s="52"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -6127,7 +6130,7 @@
       <c r="BN35" s="77"/>
     </row>
     <row r="36" spans="1:67" ht="12" customHeight="1">
-      <c r="A36" s="156">
+      <c r="A36" s="142">
         <v>17</v>
       </c>
       <c r="B36" s="36"/>
@@ -6135,10 +6138,10 @@
         <v>49</v>
       </c>
       <c r="D36" s="113"/>
-      <c r="E36" s="168" t="s">
+      <c r="E36" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="179"/>
+      <c r="F36" s="144"/>
       <c r="G36" s="52"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -6201,12 +6204,12 @@
       <c r="BN36" s="95"/>
     </row>
     <row r="37" spans="1:67" ht="12" customHeight="1">
-      <c r="A37" s="147"/>
+      <c r="A37" s="165"/>
       <c r="B37" s="37"/>
       <c r="C37" s="114"/>
       <c r="D37" s="115"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="190"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="146"/>
       <c r="G37" s="54"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -6269,20 +6272,20 @@
       <c r="BN37" s="75"/>
     </row>
     <row r="38" spans="1:67" ht="12" customHeight="1">
-      <c r="A38" s="156">
+      <c r="A38" s="142">
         <v>18</v>
       </c>
-      <c r="B38" s="191" t="s">
+      <c r="B38" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="176" t="s">
+      <c r="C38" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="177"/>
-      <c r="E38" s="152" t="s">
+      <c r="D38" s="137"/>
+      <c r="E38" s="164" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="178"/>
+      <c r="F38" s="177"/>
       <c r="G38" s="38"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -6311,16 +6314,16 @@
       <c r="AF38" s="65"/>
       <c r="AG38" s="15"/>
       <c r="AH38" s="21"/>
-      <c r="AI38" s="65"/>
-      <c r="AJ38" s="76"/>
-      <c r="AK38" s="86"/>
-      <c r="AL38" s="65"/>
-      <c r="AM38" s="65"/>
+      <c r="AI38" s="40"/>
+      <c r="AJ38" s="129"/>
+      <c r="AK38" s="237"/>
+      <c r="AL38" s="40"/>
+      <c r="AM38" s="40"/>
       <c r="AN38" s="15"/>
       <c r="AO38" s="21"/>
-      <c r="AP38" s="65"/>
-      <c r="AQ38" s="65"/>
-      <c r="AR38" s="65"/>
+      <c r="AP38" s="40"/>
+      <c r="AQ38" s="40"/>
+      <c r="AR38" s="40"/>
       <c r="AS38" s="65"/>
       <c r="AT38" s="65"/>
       <c r="AU38" s="15"/>
@@ -6332,25 +6335,25 @@
       <c r="BA38" s="65"/>
       <c r="BB38" s="15"/>
       <c r="BC38" s="21"/>
-      <c r="BD38" s="30"/>
-      <c r="BE38" s="30"/>
-      <c r="BF38" s="30"/>
-      <c r="BG38" s="30"/>
+      <c r="BD38" s="63"/>
+      <c r="BE38" s="63"/>
+      <c r="BF38" s="63"/>
+      <c r="BG38" s="63"/>
       <c r="BH38" s="63"/>
       <c r="BI38" s="15"/>
       <c r="BJ38" s="21"/>
-      <c r="BK38" s="107"/>
-      <c r="BL38" s="60"/>
-      <c r="BM38" s="60"/>
-      <c r="BN38" s="60"/>
+      <c r="BK38" s="63"/>
+      <c r="BL38" s="63"/>
+      <c r="BM38" s="63"/>
+      <c r="BN38" s="75"/>
     </row>
     <row r="39" spans="1:67" ht="12" customHeight="1">
-      <c r="A39" s="147"/>
-      <c r="B39" s="192"/>
-      <c r="C39" s="150"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="181"/>
-      <c r="F39" s="163"/>
+      <c r="A39" s="165"/>
+      <c r="B39" s="175"/>
+      <c r="C39" s="149"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="178"/>
       <c r="G39" s="51"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -6410,21 +6413,21 @@
       <c r="BK39" s="64"/>
       <c r="BL39" s="64"/>
       <c r="BM39" s="68"/>
-      <c r="BN39" s="68"/>
+      <c r="BN39" s="75"/>
     </row>
     <row r="40" spans="1:67" ht="12" customHeight="1">
-      <c r="A40" s="156">
+      <c r="A40" s="142">
         <v>19</v>
       </c>
-      <c r="B40" s="192"/>
-      <c r="C40" s="171" t="s">
+      <c r="B40" s="175"/>
+      <c r="C40" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="172"/>
-      <c r="E40" s="174" t="s">
+      <c r="D40" s="148"/>
+      <c r="E40" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="189"/>
+      <c r="F40" s="158"/>
       <c r="G40" s="38"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -6461,38 +6464,38 @@
       <c r="AN40" s="15"/>
       <c r="AO40" s="21"/>
       <c r="AP40" s="65"/>
-      <c r="AQ40" s="65"/>
-      <c r="AR40" s="65"/>
-      <c r="AS40" s="65"/>
-      <c r="AT40" s="65"/>
+      <c r="AQ40" s="40"/>
+      <c r="AR40" s="40"/>
+      <c r="AS40" s="40"/>
+      <c r="AT40" s="40"/>
       <c r="AU40" s="15"/>
       <c r="AV40" s="21"/>
       <c r="AW40" s="21"/>
-      <c r="AX40" s="65"/>
-      <c r="AY40" s="65"/>
-      <c r="AZ40" s="65"/>
+      <c r="AX40" s="40"/>
+      <c r="AY40" s="40"/>
+      <c r="AZ40" s="40"/>
       <c r="BA40" s="65"/>
       <c r="BB40" s="15"/>
       <c r="BC40" s="21"/>
       <c r="BD40" s="65"/>
       <c r="BE40" s="65"/>
-      <c r="BF40" s="30"/>
-      <c r="BG40" s="30"/>
-      <c r="BH40" s="30"/>
+      <c r="BF40" s="65"/>
+      <c r="BG40" s="65"/>
+      <c r="BH40" s="65"/>
       <c r="BI40" s="15"/>
       <c r="BJ40" s="21"/>
-      <c r="BK40" s="107"/>
-      <c r="BL40" s="60"/>
-      <c r="BM40" s="60"/>
-      <c r="BN40" s="60"/>
+      <c r="BK40" s="63"/>
+      <c r="BL40" s="63"/>
+      <c r="BM40" s="63"/>
+      <c r="BN40" s="75"/>
     </row>
     <row r="41" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A41" s="147"/>
-      <c r="B41" s="193"/>
-      <c r="C41" s="166"/>
-      <c r="D41" s="167"/>
-      <c r="E41" s="152"/>
-      <c r="F41" s="190"/>
+      <c r="A41" s="165"/>
+      <c r="B41" s="176"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="173"/>
+      <c r="E41" s="164"/>
+      <c r="F41" s="146"/>
       <c r="G41" s="39"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -6555,20 +6558,20 @@
       <c r="BN41" s="99"/>
     </row>
     <row r="42" spans="1:67" ht="12" customHeight="1">
-      <c r="A42" s="156">
+      <c r="A42" s="142">
         <v>20</v>
       </c>
       <c r="B42" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="183" t="s">
+      <c r="C42" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="184"/>
-      <c r="E42" s="152" t="s">
+      <c r="D42" s="167"/>
+      <c r="E42" s="164" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="187"/>
+      <c r="F42" s="170"/>
       <c r="G42" s="38"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -6632,12 +6635,12 @@
       <c r="BO42" s="97"/>
     </row>
     <row r="43" spans="1:67" ht="12" customHeight="1">
-      <c r="A43" s="147"/>
+      <c r="A43" s="165"/>
       <c r="B43" s="34"/>
-      <c r="C43" s="185"/>
-      <c r="D43" s="186"/>
-      <c r="E43" s="152"/>
-      <c r="F43" s="188"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="169"/>
+      <c r="E43" s="164"/>
+      <c r="F43" s="171"/>
       <c r="G43" s="51"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -6701,20 +6704,20 @@
       <c r="BO43" s="97"/>
     </row>
     <row r="44" spans="1:67">
-      <c r="A44" s="156">
+      <c r="A44" s="142">
         <v>21</v>
       </c>
-      <c r="B44" s="197" t="s">
+      <c r="B44" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="176" t="s">
+      <c r="C44" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="177"/>
-      <c r="E44" s="153" t="s">
+      <c r="D44" s="137"/>
+      <c r="E44" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F44" s="201"/>
+      <c r="F44" s="140"/>
       <c r="G44" s="38"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -6778,12 +6781,12 @@
       <c r="BO44" s="97"/>
     </row>
     <row r="45" spans="1:67" ht="10.199999999999999" thickBot="1">
-      <c r="A45" s="203"/>
-      <c r="B45" s="198"/>
-      <c r="C45" s="199"/>
-      <c r="D45" s="200"/>
-      <c r="E45" s="196"/>
-      <c r="F45" s="202"/>
+      <c r="A45" s="143"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="138"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="141"/>
       <c r="G45" s="39"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
@@ -6868,11 +6871,77 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="F32:F33"/>
@@ -6889,77 +6958,11 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="C30:D31"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A44:A45"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -7003,54 +7006,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="136"/>
-      <c r="E1" s="141" t="s">
+      <c r="D1" s="200"/>
+      <c r="E1" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="143" t="s">
+      <c r="F1" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="126"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="127"/>
-      <c r="AD1" s="128"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="192"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="130"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="144"/>
+      <c r="A2" s="194"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="208"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -7125,12 +7128,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="131"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="145"/>
+      <c r="A3" s="195"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="209"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -7205,20 +7208,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="146">
+      <c r="A4" s="185">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="149"/>
-      <c r="E4" s="223" t="s">
+      <c r="D4" s="187"/>
+      <c r="E4" s="216" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="154"/>
+      <c r="F4" s="188"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -7241,20 +7244,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="224" t="s">
+      <c r="AC4" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="218" t="s">
+      <c r="AD4" s="211" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="147"/>
+      <c r="A5" s="165"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="155"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="189"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -7277,22 +7280,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="225"/>
-      <c r="AD5" s="219"/>
+      <c r="AC5" s="218"/>
+      <c r="AD5" s="212"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="156">
+      <c r="A6" s="142">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="164" t="s">
+      <c r="C6" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="165"/>
-      <c r="E6" s="221" t="s">
+      <c r="D6" s="163"/>
+      <c r="E6" s="214" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="169"/>
+      <c r="F6" s="183"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -7315,16 +7318,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="225"/>
-      <c r="AD6" s="219"/>
+      <c r="AC6" s="218"/>
+      <c r="AD6" s="212"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="147"/>
+      <c r="A7" s="165"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="170"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="215"/>
+      <c r="F7" s="184"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -7347,24 +7350,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="225"/>
-      <c r="AD7" s="219"/>
+      <c r="AC7" s="218"/>
+      <c r="AD7" s="212"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="207">
+      <c r="A8" s="220">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="227" t="s">
+      <c r="C8" s="222" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="228"/>
-      <c r="E8" s="229" t="s">
+      <c r="D8" s="223"/>
+      <c r="E8" s="224" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="178"/>
+      <c r="F8" s="177"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -7387,16 +7390,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="225"/>
-      <c r="AD8" s="219"/>
+      <c r="AC8" s="218"/>
+      <c r="AD8" s="212"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="208"/>
+      <c r="A9" s="221"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="182"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="225"/>
+      <c r="F9" s="180"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -7419,24 +7422,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="225"/>
-      <c r="AD9" s="219"/>
+      <c r="AC9" s="218"/>
+      <c r="AD9" s="212"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="216">
+      <c r="A10" s="226">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="157" t="s">
+      <c r="C10" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="158"/>
-      <c r="E10" s="215" t="s">
+      <c r="D10" s="152"/>
+      <c r="E10" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="162"/>
+      <c r="F10" s="181"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -7459,16 +7462,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="225"/>
-      <c r="AD10" s="219"/>
+      <c r="AC10" s="218"/>
+      <c r="AD10" s="212"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="208"/>
+      <c r="A11" s="221"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="163"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="228"/>
+      <c r="F11" s="178"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -7491,22 +7494,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="225"/>
-      <c r="AD11" s="219"/>
+      <c r="AC11" s="218"/>
+      <c r="AD11" s="212"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="207">
+      <c r="A12" s="220">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="164" t="s">
+      <c r="C12" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="165"/>
-      <c r="E12" s="217" t="s">
+      <c r="D12" s="163"/>
+      <c r="E12" s="229" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="175"/>
+      <c r="F12" s="179"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -7529,16 +7532,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="225"/>
-      <c r="AD12" s="219"/>
+      <c r="AC12" s="218"/>
+      <c r="AD12" s="212"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="216"/>
+      <c r="A13" s="226"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="215"/>
-      <c r="F13" s="162"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="227"/>
+      <c r="F13" s="181"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -7561,24 +7564,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="225"/>
-      <c r="AD13" s="219"/>
+      <c r="AC13" s="218"/>
+      <c r="AD13" s="212"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="212">
+      <c r="A14" s="230">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="176" t="s">
+      <c r="C14" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="177"/>
-      <c r="E14" s="214" t="s">
+      <c r="D14" s="137"/>
+      <c r="E14" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="178"/>
+      <c r="F14" s="177"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -7601,16 +7604,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="225"/>
-      <c r="AD14" s="219"/>
+      <c r="AC14" s="218"/>
+      <c r="AD14" s="212"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="212"/>
+      <c r="A15" s="230"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="150"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="211"/>
-      <c r="F15" s="163"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="228"/>
+      <c r="F15" s="178"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7633,22 +7636,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="225"/>
-      <c r="AD15" s="219"/>
+      <c r="AC15" s="218"/>
+      <c r="AD15" s="212"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="212">
+      <c r="A16" s="230">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="165"/>
-      <c r="E16" s="210" t="s">
+      <c r="D16" s="163"/>
+      <c r="E16" s="232" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="175"/>
+      <c r="F16" s="179"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7671,16 +7674,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="225"/>
-      <c r="AD16" s="219"/>
+      <c r="AC16" s="218"/>
+      <c r="AD16" s="212"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="212"/>
+      <c r="A17" s="230"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="211"/>
-      <c r="F17" s="163"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="228"/>
+      <c r="F17" s="178"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7703,22 +7706,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="225"/>
-      <c r="AD17" s="219"/>
+      <c r="AC17" s="218"/>
+      <c r="AD17" s="212"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="212">
+      <c r="A18" s="230">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="164" t="s">
+      <c r="C18" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="165"/>
-      <c r="E18" s="210" t="s">
+      <c r="D18" s="163"/>
+      <c r="E18" s="232" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="175"/>
+      <c r="F18" s="179"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7741,16 +7744,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="225"/>
-      <c r="AD18" s="219"/>
+      <c r="AC18" s="218"/>
+      <c r="AD18" s="212"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="212"/>
+      <c r="A19" s="230"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="213"/>
-      <c r="F19" s="182"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="225"/>
+      <c r="F19" s="180"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7773,24 +7776,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="225"/>
-      <c r="AD19" s="219"/>
+      <c r="AC19" s="218"/>
+      <c r="AD19" s="212"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="207">
+      <c r="A20" s="220">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="176" t="s">
+      <c r="C20" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="177"/>
-      <c r="E20" s="214" t="s">
+      <c r="D20" s="137"/>
+      <c r="E20" s="231" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="178"/>
+      <c r="F20" s="177"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7813,18 +7816,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="225"/>
-      <c r="AD20" s="219"/>
+      <c r="AC20" s="218"/>
+      <c r="AD20" s="212"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="208"/>
+      <c r="A21" s="221"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="150"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="211"/>
-      <c r="F21" s="163"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="228"/>
+      <c r="F21" s="178"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -7847,22 +7850,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="225"/>
-      <c r="AD21" s="219"/>
+      <c r="AC21" s="218"/>
+      <c r="AD21" s="212"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="207">
+      <c r="A22" s="220">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="209" t="s">
+      <c r="C22" s="233" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="165"/>
-      <c r="E22" s="210" t="s">
+      <c r="D22" s="163"/>
+      <c r="E22" s="232" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="175"/>
+      <c r="F22" s="179"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -7885,16 +7888,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="225"/>
-      <c r="AD22" s="219"/>
+      <c r="AC22" s="218"/>
+      <c r="AD22" s="212"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="208"/>
+      <c r="A23" s="221"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="150"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="211"/>
-      <c r="F23" s="163"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="178"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -7917,22 +7920,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="225"/>
-      <c r="AD23" s="219"/>
+      <c r="AC23" s="218"/>
+      <c r="AD23" s="212"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="207">
+      <c r="A24" s="220">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="209" t="s">
+      <c r="C24" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="165"/>
-      <c r="E24" s="210" t="s">
+      <c r="D24" s="163"/>
+      <c r="E24" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="175"/>
+      <c r="F24" s="179"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -7955,16 +7958,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="225"/>
-      <c r="AD24" s="219"/>
+      <c r="AC24" s="218"/>
+      <c r="AD24" s="212"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="208"/>
+      <c r="A25" s="221"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="211"/>
-      <c r="F25" s="182"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="228"/>
+      <c r="F25" s="180"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -7987,24 +7990,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="225"/>
-      <c r="AD25" s="219"/>
+      <c r="AC25" s="218"/>
+      <c r="AD25" s="212"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="156">
+      <c r="A26" s="142">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="183" t="s">
+      <c r="C26" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="184"/>
-      <c r="E26" s="204" t="s">
+      <c r="D26" s="167"/>
+      <c r="E26" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="187"/>
+      <c r="F26" s="170"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -8027,16 +8030,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="225"/>
-      <c r="AD26" s="219"/>
+      <c r="AC26" s="218"/>
+      <c r="AD26" s="212"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="147"/>
+      <c r="A27" s="165"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="185"/>
-      <c r="D27" s="186"/>
-      <c r="E27" s="205"/>
-      <c r="F27" s="188"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="169"/>
+      <c r="E27" s="235"/>
+      <c r="F27" s="171"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -8059,24 +8062,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="225"/>
-      <c r="AD27" s="219"/>
+      <c r="AC27" s="218"/>
+      <c r="AD27" s="212"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="156">
+      <c r="A28" s="142">
         <v>14</v>
       </c>
-      <c r="B28" s="197" t="s">
+      <c r="B28" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="176" t="s">
+      <c r="C28" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="177"/>
-      <c r="E28" s="197" t="s">
+      <c r="D28" s="137"/>
+      <c r="E28" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="201"/>
+      <c r="F28" s="140"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -8099,16 +8102,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="225"/>
-      <c r="AD28" s="219"/>
+      <c r="AC28" s="218"/>
+      <c r="AD28" s="212"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="206"/>
-      <c r="B29" s="198"/>
-      <c r="C29" s="199"/>
-      <c r="D29" s="200"/>
-      <c r="E29" s="198"/>
-      <c r="F29" s="202"/>
+      <c r="A29" s="236"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="141"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -8131,8 +8134,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="226"/>
-      <c r="AD29" s="220"/>
+      <c r="AC29" s="219"/>
+      <c r="AD29" s="213"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -8152,12 +8155,45 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -8174,45 +8210,12 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
